--- a/HTML-MAKER/00-UI-DMC-MENU.xlsx
+++ b/HTML-MAKER/00-UI-DMC-MENU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\25_IDRAS\IDRAS_DMC_2ND_HTML\HTML-MAKER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAECC32-AE7B-4E24-BD0E-FF1600C1CF8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832F46AC-B58B-4A27-9D1A-5BD9D675AABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="17130" yWindow="33090" windowWidth="24705" windowHeight="14340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21705" yWindow="15855" windowWidth="21570" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴생성" sheetId="7" r:id="rId1"/>
@@ -23,10 +23,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="이경성" guid="{D765C56F-FBE0-4FD4-9F6F-82D6922C3E91}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="필터 2" guid="{B7CAD892-0907-4F3E-8039-75D8675A8601}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="최도규" guid="{7DFB07D2-88C5-4F27-ADB3-B6A05486C2AE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="필터 1" guid="{9754BDF2-22AF-4849-82EF-54AF53DE969B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="최도규" guid="{7DFB07D2-88C5-4F27-ADB3-B6A05486C2AE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 2" guid="{B7CAD892-0907-4F3E-8039-75D8675A8601}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="이경성" guid="{D765C56F-FBE0-4FD4-9F6F-82D6922C3E91}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">

--- a/HTML-MAKER/00-UI-DMC-MENU.xlsx
+++ b/HTML-MAKER/00-UI-DMC-MENU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\25_IDRAS\IDRAS_DMC_2ND_HTML\HTML-MAKER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832F46AC-B58B-4A27-9D1A-5BD9D675AABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3D4A6A-2C88-4088-9BE8-1E97543B0EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21705" yWindow="15855" windowWidth="21570" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="6060" windowWidth="45195" windowHeight="23310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴생성" sheetId="7" r:id="rId1"/>
@@ -23,10 +23,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="필터 1" guid="{9754BDF2-22AF-4849-82EF-54AF53DE969B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="최도규" guid="{7DFB07D2-88C5-4F27-ADB3-B6A05486C2AE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="필터 2" guid="{B7CAD892-0907-4F3E-8039-75D8675A8601}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="이경성" guid="{D765C56F-FBE0-4FD4-9F6F-82D6922C3E91}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 2" guid="{B7CAD892-0907-4F3E-8039-75D8675A8601}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="최도규" guid="{7DFB07D2-88C5-4F27-ADB3-B6A05486C2AE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 1" guid="{9754BDF2-22AF-4849-82EF-54AF53DE969B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="398">
   <si>
     <t>1 Level</t>
   </si>
@@ -365,711 +365,998 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>FN-DMCI-A-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-M-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCE-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-O-01-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-01-03</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-01-04</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-01-05</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-02-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-02-02</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-02-03</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-02-04</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-02-05</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-01-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-01-02</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-01-03</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-01-05</t>
+  </si>
+  <si>
+    <t>FN-DMCI-A-01-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-A-01-02</t>
+  </si>
+  <si>
+    <t>FN-DMCI-A-01-03</t>
+  </si>
+  <si>
+    <t>FN-DMCI-A-01-04</t>
+  </si>
+  <si>
+    <t>FN-DMCI-A-01-05</t>
+  </si>
+  <si>
+    <t>FN-DMCI-M-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-O-01-04-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-01-04-02</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-01-04-03</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-01-05-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-01-05-02</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-01-05-03</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-01-05-04</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-01-05-05</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-01-05-06</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-01-05-07</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-02-02-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-02-02-02</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-02-02-03</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-02-03-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-02-03-02</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-02-03-03</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-02-03-04</t>
+  </si>
+  <si>
+    <t>FN-DMCI-O-02-03-05</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-01-03-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-01-03-02</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-01-03-03</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-01-05-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-01-05-02</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-01-05-03</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-01-05-04</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-01-05-05</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-01-05-06</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-01-05-07</t>
+  </si>
+  <si>
+    <t>FN-DMCI-A-01-04-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-A-01-04-02</t>
+  </si>
+  <si>
+    <t>FN-DMCI-A-01-04-03</t>
+  </si>
+  <si>
+    <t>FN-DMCI-A-01-05-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-A-01-05-02</t>
+  </si>
+  <si>
+    <t>FN-DMCI-A-01-05-03</t>
+  </si>
+  <si>
+    <t>FN-DMCI-A-01-05-04</t>
+  </si>
+  <si>
+    <t>FN-DMCI-A-01-05-05</t>
+  </si>
+  <si>
+    <t>FN-DMCI-A-01-05-06</t>
+  </si>
+  <si>
+    <t>FN-DMCI-A-01-05-07</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-R-0001</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-R-0003</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-R-0013</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-R-0014</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-R-0015</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-R-1001</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-R-1002</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-R-1003</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-R-1004</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-R-1006</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-R-1008</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-R-1009</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-A-0001</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-A-0003</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-A-0012</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-A-0013</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-A-0014</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-A-0015</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-A-1001</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-A-1002</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-A-1003</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-A-1004</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-A-1006</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-A-1008</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-A-1009</t>
+  </si>
+  <si>
+    <t>UI-DMCI-01-M-0001</t>
+  </si>
+  <si>
+    <t>Debt Enforcement</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tax Position</t>
+  </si>
+  <si>
+    <t>Demand Notice</t>
+  </si>
+  <si>
+    <t>Extention of Time for Paying Tax</t>
+  </si>
+  <si>
+    <t>Agency Notice</t>
+  </si>
+  <si>
+    <t>Departure Prohibition Order</t>
+  </si>
+  <si>
+    <t>Charge over Asset</t>
+  </si>
+  <si>
+    <t>Distress warrant</t>
+  </si>
+  <si>
+    <t>Recovery Notice Cancellation</t>
+  </si>
+  <si>
+    <t>Refund Offsetting</t>
+  </si>
+  <si>
+    <t>Interest Rate Management</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-01-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-01-02</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-01-03</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-01-04</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-01-05</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-01-06</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-01-07</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-01-08</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-01-10</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-01-11</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-01-12</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-01-13</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-01-14</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-O-0001</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-O-0002</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-O-0003</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-O-0004</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-O-0005</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-O-0006</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-O-0007</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-O-0008</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-O-0010</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-O-0011</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-O-0012</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-O-0013</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-O-0014</t>
+  </si>
+  <si>
+    <t>Write-off uncollectable tax (2nd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write back of tax (2nd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제3자 책임 (2nd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compliance Monitoring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-02-O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-01-O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-04-O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tax Clearance Certificates</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-DMCI-04-O-0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-05-O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-05-O-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-DMCI-05-O-0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sale of Charged Asset</t>
+  </si>
+  <si>
+    <t>Asset Management</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-05-O-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Valuation</t>
+  </si>
+  <si>
+    <t>List of Submitted valuation</t>
+  </si>
+  <si>
+    <t>List of valuation</t>
+  </si>
+  <si>
+    <t>View Status of valuation</t>
+  </si>
+  <si>
+    <t>New valuation request</t>
+  </si>
+  <si>
+    <t>List of submitted valuation requests</t>
+  </si>
+  <si>
+    <t>List of valuation requests</t>
+  </si>
+  <si>
+    <t>List of valuation response</t>
+  </si>
+  <si>
+    <t>FN-DMCI-05-O-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-05-O-03-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-05-O-03-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-05-O-03-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-05-O-03-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-05-O-02-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-05-O-02-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-05-O-02-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-05-O-02-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-05-O-03-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-DMCI-05-O-0201</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-DMCI-05-O-0202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-DMCI-05-O-0203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-DMCI-05-O-0204</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-DMCI-05-O-0301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-DMCI-05-O-0302</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-DMCI-05-O-0303</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-DMCI-05-O-0304</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-DMCI-05-O-0305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valuation-Internal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Valuation-External</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-05-O-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notification of Itention to sale the Changed Asset</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>부과자산 매각의사 통지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-05-O-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자산 게시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Publishing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공매 전 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공매 후 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-05-O-04-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-05-O-04-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-05-O-04-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distribution od proceeds account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수익금 배분계좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-05-O-05-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-DMCI-05-O-0401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-DMCI-05-O-0402</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-DMCI-05-O-0403</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-DMCI-05-O-0501</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자산관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가치평가-내부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가치평가-외부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Third Part Liability ★2nd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write-off uncollectable tax ★2nd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write back of tax ★2nd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tax Residency Certificate</t>
+  </si>
+  <si>
+    <t>Motor vehicle Activation and Compliance check</t>
+  </si>
+  <si>
+    <t>Offense Management</t>
+  </si>
+  <si>
+    <t>Normal Flow Monitoring</t>
+  </si>
+  <si>
+    <t>UI-DMCI-04-O-0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-DMCI-04-O-0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-DMCI-04-O-0004</t>
+  </si>
+  <si>
+    <t>UI-DMCI-04-O-0005</t>
+  </si>
+  <si>
+    <t>FN-DMCI-04-O-01-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-04-O-01-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-04-O-01-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-04-O-01-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-04-O-01-05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-auction processing ★2nd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post-auction processing ★2nd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공개 경매를 위한 자산 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List Assets for Public Auction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-03-R</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-R-01-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-R-01-02</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-R-01-03</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-R-01-04</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-R-01-05</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-R-01-06</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-R-01-07</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-R-01-08</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-R-01-10</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-R-01-11</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-R-01-12</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-R-01-13</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-R-01-14</t>
+  </si>
+  <si>
+    <t>FN-DMCI-04-R-01-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-04-R-01-02</t>
+  </si>
+  <si>
+    <t>FN-DMCI-04-R-01-03</t>
+  </si>
+  <si>
+    <t>FN-DMCI-04-R-01-04</t>
+  </si>
+  <si>
+    <t>FN-DMCI-04-R-01-05</t>
+  </si>
+  <si>
+    <t>FN-DMCI-05-R-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-05-R-02</t>
+  </si>
+  <si>
+    <t>FN-DMCI-05-R-03</t>
+  </si>
+  <si>
+    <t>FN-DMCI-05-R-04</t>
+  </si>
+  <si>
+    <t>FN-DMCI-05-R-05</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-02-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-02-02</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-02-03</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-02-04</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-02-05</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-R-0001</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-R-0002</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-R-0003</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-R-0004</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-R-0005</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-R-0006</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-R-0007</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-R-0008</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-R-0010</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-R-0011</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-R-0012</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-R-0013</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-R-0014</t>
+  </si>
+  <si>
+    <t>UI-DMCI-04-R-0001</t>
+  </si>
+  <si>
+    <t>UI-DMCI-04-R-0002</t>
+  </si>
+  <si>
+    <t>UI-DMCI-04-R-0003</t>
+  </si>
+  <si>
+    <t>UI-DMCI-04-R-0004</t>
+  </si>
+  <si>
+    <t>UI-DMCI-04-R-0005</t>
+  </si>
+  <si>
+    <t>UI-DMCI-05-R-0001</t>
+  </si>
+  <si>
+    <t>UI-DMCI-05-R-0201</t>
+  </si>
+  <si>
+    <t>UI-DMCI-05-R-0202</t>
+  </si>
+  <si>
+    <t>UI-DMCI-05-R-0203</t>
+  </si>
+  <si>
+    <t>UI-DMCI-05-R-0204</t>
+  </si>
+  <si>
+    <t>UI-DMCI-05-R-0301</t>
+  </si>
+  <si>
+    <t>UI-DMCI-05-R-0302</t>
+  </si>
+  <si>
+    <t>UI-DMCI-05-R-0303</t>
+  </si>
+  <si>
+    <t>UI-DMCI-05-R-0304</t>
+  </si>
+  <si>
+    <t>UI-DMCI-05-R-0305</t>
+  </si>
+  <si>
+    <t>UI-DMCI-05-R-0401</t>
+  </si>
+  <si>
+    <t>UI-DMCI-05-R-0402</t>
+  </si>
+  <si>
+    <t>UI-DMCI-05-R-0403</t>
+  </si>
+  <si>
+    <t>UI-DMCI-05-R-0501</t>
+  </si>
+  <si>
+    <t>UI-DMCI-02-R-0001</t>
+  </si>
+  <si>
+    <t>UI-DMCI-02-R-0002</t>
+  </si>
+  <si>
+    <t>UI-DMCI-02-R-0003</t>
+  </si>
+  <si>
+    <t>UI-DMCI-02-R-0004</t>
+  </si>
+  <si>
+    <t>UI-DMCI-02-R-0005</t>
+  </si>
+  <si>
+    <t>UI-DMCI-02-R-0006</t>
+  </si>
+  <si>
+    <t>UI-DMCI-02-R-0007</t>
+  </si>
+  <si>
+    <t>UI-DMCI-02-R-0008</t>
+  </si>
+  <si>
+    <t>UI-DMCI-02-R-0009</t>
+  </si>
+  <si>
+    <t>UI-DMCI-02-R-0010</t>
+  </si>
+  <si>
+    <t>UI-DMCI-02-R-0011</t>
+  </si>
+  <si>
+    <t>FN-DMCI-04-R</t>
+  </si>
+  <si>
+    <t>FN-DMCI-05-R</t>
+  </si>
+  <si>
+    <t>FN-DMCI-02-R</t>
+  </si>
+  <si>
     <t>FN-DMCI-R-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-A-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-M-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCE-01-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-O-01-01</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-01-03</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-01-04</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-01-05</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-02-01</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-02-02</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-02-03</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-02-04</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-02-05</t>
-  </si>
-  <si>
-    <t>FN-DMCI-R-01-01</t>
-  </si>
-  <si>
-    <t>FN-DMCI-R-01-02</t>
-  </si>
-  <si>
-    <t>FN-DMCI-R-01-03</t>
-  </si>
-  <si>
-    <t>FN-DMCI-R-01-05</t>
-  </si>
-  <si>
-    <t>FN-DMCI-A-01-01</t>
-  </si>
-  <si>
-    <t>FN-DMCI-A-01-02</t>
-  </si>
-  <si>
-    <t>FN-DMCI-A-01-03</t>
-  </si>
-  <si>
-    <t>FN-DMCI-A-01-04</t>
-  </si>
-  <si>
-    <t>FN-DMCI-A-01-05</t>
-  </si>
-  <si>
-    <t>FN-DMCI-M-01-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-O-01-04-01</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-01-04-02</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-01-04-03</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-01-05-01</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-01-05-02</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-01-05-03</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-01-05-04</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-01-05-05</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-01-05-06</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-01-05-07</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-02-02-01</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-02-02-02</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-02-02-03</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-02-03-01</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-02-03-02</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-02-03-03</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-02-03-04</t>
-  </si>
-  <si>
-    <t>FN-DMCI-O-02-03-05</t>
-  </si>
-  <si>
-    <t>FN-DMCI-R-01-03-01</t>
-  </si>
-  <si>
-    <t>FN-DMCI-R-01-03-02</t>
-  </si>
-  <si>
-    <t>FN-DMCI-R-01-03-03</t>
-  </si>
-  <si>
-    <t>FN-DMCI-R-01-05-01</t>
-  </si>
-  <si>
-    <t>FN-DMCI-R-01-05-02</t>
-  </si>
-  <si>
-    <t>FN-DMCI-R-01-05-03</t>
-  </si>
-  <si>
-    <t>FN-DMCI-R-01-05-04</t>
-  </si>
-  <si>
-    <t>FN-DMCI-R-01-05-05</t>
-  </si>
-  <si>
-    <t>FN-DMCI-R-01-05-06</t>
-  </si>
-  <si>
-    <t>FN-DMCI-R-01-05-07</t>
-  </si>
-  <si>
-    <t>FN-DMCI-A-01-04-01</t>
-  </si>
-  <si>
-    <t>FN-DMCI-A-01-04-02</t>
-  </si>
-  <si>
-    <t>FN-DMCI-A-01-04-03</t>
-  </si>
-  <si>
-    <t>FN-DMCI-A-01-05-01</t>
-  </si>
-  <si>
-    <t>FN-DMCI-A-01-05-02</t>
-  </si>
-  <si>
-    <t>FN-DMCI-A-01-05-03</t>
-  </si>
-  <si>
-    <t>FN-DMCI-A-01-05-04</t>
-  </si>
-  <si>
-    <t>FN-DMCI-A-01-05-05</t>
-  </si>
-  <si>
-    <t>FN-DMCI-A-01-05-06</t>
-  </si>
-  <si>
-    <t>FN-DMCI-A-01-05-07</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-R-0001</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-R-0003</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-R-0013</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-R-0014</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-R-0015</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-R-1001</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-R-1002</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-R-1003</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-R-1004</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-R-1006</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-R-1008</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-R-1009</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-A-0001</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-A-0003</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-A-0012</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-A-0013</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-A-0014</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-A-0015</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-A-1001</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-A-1002</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-A-1003</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-A-1004</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-A-1006</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-A-1008</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-A-1009</t>
-  </si>
-  <si>
-    <t>UI-DMCI-01-M-0001</t>
-  </si>
-  <si>
-    <t>Debt Enforcement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tax Position</t>
-  </si>
-  <si>
-    <t>Demand Notice</t>
-  </si>
-  <si>
-    <t>Extention of Time for Paying Tax</t>
-  </si>
-  <si>
-    <t>Agency Notice</t>
-  </si>
-  <si>
-    <t>Departure Prohibition Order</t>
-  </si>
-  <si>
-    <t>Charge over Asset</t>
-  </si>
-  <si>
-    <t>Distress warrant</t>
-  </si>
-  <si>
-    <t>Recovery Notice Cancellation</t>
-  </si>
-  <si>
-    <t>Refund Offsetting</t>
-  </si>
-  <si>
-    <t>Interest Rate Management</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-01</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-02</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-03</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-04</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-05</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-06</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-07</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-08</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-10</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-11</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-12</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-13</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-14</t>
-  </si>
-  <si>
-    <t>UI-DMCI-03-O-0001</t>
-  </si>
-  <si>
-    <t>UI-DMCI-03-O-0002</t>
-  </si>
-  <si>
-    <t>UI-DMCI-03-O-0003</t>
-  </si>
-  <si>
-    <t>UI-DMCI-03-O-0004</t>
-  </si>
-  <si>
-    <t>UI-DMCI-03-O-0005</t>
-  </si>
-  <si>
-    <t>UI-DMCI-03-O-0006</t>
-  </si>
-  <si>
-    <t>UI-DMCI-03-O-0007</t>
-  </si>
-  <si>
-    <t>UI-DMCI-03-O-0008</t>
-  </si>
-  <si>
-    <t>UI-DMCI-03-O-0010</t>
-  </si>
-  <si>
-    <t>UI-DMCI-03-O-0011</t>
-  </si>
-  <si>
-    <t>UI-DMCI-03-O-0012</t>
-  </si>
-  <si>
-    <t>UI-DMCI-03-O-0013</t>
-  </si>
-  <si>
-    <t>UI-DMCI-03-O-0014</t>
-  </si>
-  <si>
-    <t>Write-off uncollectable tax (2nd)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Write back of tax (2nd)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제3자 책임 (2nd)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compliance Monitoring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-02-O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-01-O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-04-O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tax Clearance Certificates</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-DMCI-04-O-0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-05-O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-05-O-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-DMCI-05-O-0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sale of Charged Asset</t>
-  </si>
-  <si>
-    <t>Asset Management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-05-O-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>New Valuation</t>
-  </si>
-  <si>
-    <t>List of Submitted valuation</t>
-  </si>
-  <si>
-    <t>List of valuation</t>
-  </si>
-  <si>
-    <t>View Status of valuation</t>
-  </si>
-  <si>
-    <t>New valuation request</t>
-  </si>
-  <si>
-    <t>List of submitted valuation requests</t>
-  </si>
-  <si>
-    <t>List of valuation requests</t>
-  </si>
-  <si>
-    <t>List of valuation response</t>
-  </si>
-  <si>
-    <t>FN-DMCI-05-O-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-05-O-03-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-05-O-03-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-05-O-03-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-05-O-03-04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-05-O-02-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-05-O-02-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-05-O-02-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-05-O-02-04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-05-O-03-05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-DMCI-05-O-0201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-DMCI-05-O-0202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-DMCI-05-O-0203</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-DMCI-05-O-0204</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-DMCI-05-O-0301</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-DMCI-05-O-0302</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-DMCI-05-O-0303</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-DMCI-05-O-0304</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-DMCI-05-O-0305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Valuation-Internal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Valuation-External</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-05-O-04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Notification of Itention to sale the Changed Asset</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>부과자산 매각의사 통지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-05-O-05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자산 게시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Asset Publishing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공매 전 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공매 후 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-05-O-04-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-05-O-04-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-05-O-04-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distribution od proceeds account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수익금 배분계좌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-05-O-05-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-DMCI-05-O-0401</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-DMCI-05-O-0402</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-DMCI-05-O-0403</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-DMCI-05-O-0501</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자산관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가치평가-내부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가치평가-외부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Third Part Liability ★2nd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Write-off uncollectable tax ★2nd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Write back of tax ★2nd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tax Residency Certificate</t>
-  </si>
-  <si>
-    <t>Motor vehicle Activation and Compliance check</t>
-  </si>
-  <si>
-    <t>Offense Management</t>
-  </si>
-  <si>
-    <t>Normal Flow Monitoring</t>
-  </si>
-  <si>
-    <t>UI-DMCI-04-O-0002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-DMCI-04-O-0003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-DMCI-04-O-0004</t>
-  </si>
-  <si>
-    <t>UI-DMCI-04-O-0005</t>
-  </si>
-  <si>
-    <t>FN-DMCI-04-O-01-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-04-O-01-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-04-O-01-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-04-O-01-04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-04-O-01-05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pre-auction processing ★2nd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Post-auction processing ★2nd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공개 경매를 위한 자산 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List Assets for Public Auction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-05-R-02-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-05-R-02-02</t>
+  </si>
+  <si>
+    <t>FN-DMCI-05-R-02-03</t>
+  </si>
+  <si>
+    <t>FN-DMCI-05-R-02-04</t>
+  </si>
+  <si>
+    <t>FN-DMCI-05-R-03-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-05-R-03-02</t>
+  </si>
+  <si>
+    <t>FN-DMCI-05-R-03-03</t>
+  </si>
+  <si>
+    <t>FN-DMCI-05-R-03-04</t>
+  </si>
+  <si>
+    <t>FN-DMCI-05-R-03-05</t>
+  </si>
+  <si>
+    <t>FN-DMCI-05-R-04-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-05-R-04-02</t>
+  </si>
+  <si>
+    <t>FN-DMCI-05-R-04-03</t>
+  </si>
+  <si>
+    <t>FN-DMCI-05-R-05-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-02-02-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-02-02-02</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-02-02-03</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-02-03-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-02-03-02</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-02-03-03</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-02-03-04</t>
+  </si>
+  <si>
+    <t>FN-DMCI-R-02-03-05</t>
   </si>
 </sst>
 </file>
@@ -1715,11 +2002,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5116929-A913-40D4-80C3-074C14131D30}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T84"/>
+  <dimension ref="A1:T127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H31" sqref="H31"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -1888,7 +2175,7 @@
         <v>8</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>10</v>
@@ -1903,7 +2190,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="str">
-        <f t="shared" ref="P3:P22" si="0">IF(Q3&lt;&gt;"",Q3&amp;"&lt;br&gt;("&amp;O3&amp;")","")</f>
+        <f t="shared" ref="P3:P77" si="0">IF(Q3&lt;&gt;"",Q3&amp;"&lt;br&gt;("&amp;O3&amp;")","")</f>
         <v/>
       </c>
       <c r="Q3" s="1"/>
@@ -1912,11 +2199,11 @@
         <v/>
       </c>
       <c r="S3" s="1" t="str">
-        <f t="shared" ref="S3:S84" si="1">R3</f>
+        <f t="shared" ref="S3:S127" si="1">R3</f>
         <v/>
       </c>
       <c r="T3" s="1" t="str">
-        <f t="shared" ref="T3:T84" si="2">R3</f>
+        <f t="shared" ref="T3:T127" si="2">R3</f>
         <v/>
       </c>
     </row>
@@ -1931,54 +2218,54 @@
         <v>21</v>
       </c>
       <c r="D4" s="23" t="str">
-        <f t="shared" ref="D4:D67" si="3">IF(E4&lt;&gt;"",E4&amp;"&lt;br&gt;("&amp;C4&amp;")","")</f>
+        <f t="shared" ref="D4:D59" si="3">IF(E4&lt;&gt;"",E4&amp;"&lt;br&gt;("&amp;C4&amp;")","")</f>
         <v>Officer&lt;br&gt;(Officer)</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G4" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="H4" s="23" t="str">
+        <f t="shared" ref="H4:H58" si="4">IF(I4&lt;&gt;"",I4&amp;"&lt;br&gt;("&amp;G4&amp;")","")</f>
+        <v>Debt Enforcement&lt;br&gt;(Debt Enforcement)</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="K4" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="H4" s="23" t="str">
-        <f t="shared" ref="H4:H67" si="4">IF(I4&lt;&gt;"",I4&amp;"&lt;br&gt;("&amp;G4&amp;")","")</f>
-        <v>Debt Enforcement&lt;br&gt;(Debt Enforcement)</v>
-      </c>
-      <c r="I4" s="34" t="s">
+      <c r="L4" s="23" t="str">
+        <f t="shared" ref="L4:L58" si="5">IF(M4&lt;&gt;"",M4&amp;"&lt;br&gt;("&amp;K4&amp;")","")</f>
+        <v>Tax Position&lt;br&gt;(Tax Position)</v>
+      </c>
+      <c r="M4" s="34" t="s">
         <v>179</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="K4" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="L4" s="23" t="str">
-        <f t="shared" ref="L4:L67" si="5">IF(M4&lt;&gt;"",M4&amp;"&lt;br&gt;("&amp;K4&amp;")","")</f>
-        <v>Tax Position&lt;br&gt;(Tax Position)</v>
-      </c>
-      <c r="M4" s="34" t="s">
-        <v>180</v>
       </c>
       <c r="N4" s="34"/>
       <c r="O4" s="34"/>
       <c r="P4" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="P4:P58" si="6">IF(Q4&lt;&gt;"",Q4&amp;"&lt;br&gt;("&amp;O4&amp;")","")</f>
         <v/>
       </c>
       <c r="Q4" s="34"/>
       <c r="R4" s="35" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="S4" s="34" t="str">
-        <f t="shared" ref="S4" si="6">R4</f>
+        <f t="shared" si="1"/>
         <v>UI-DMCI-03-O-0001</v>
       </c>
       <c r="T4" s="34" t="str">
-        <f t="shared" ref="T4" si="7">R4</f>
+        <f t="shared" si="2"/>
         <v>UI-DMCI-03-O-0001</v>
       </c>
     </row>
@@ -2001,33 +2288,33 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Demand Notice&lt;br&gt;(Demand Notice)</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="13"/>
       <c r="P5" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -2049,33 +2336,33 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Extention of Time for Paying Tax&lt;br&gt;(Extention of Time for Paying Tax)</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="13"/>
       <c r="P6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q6" s="14"/>
       <c r="R6" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -2097,33 +2384,33 @@
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Agency Notice&lt;br&gt;(Agency Notice)</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="13"/>
       <c r="P7" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q7" s="14"/>
       <c r="R7" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -2145,33 +2432,33 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Departure Prohibition Order&lt;br&gt;(Departure Prohibition Order)</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N8" s="8"/>
       <c r="O8" s="13"/>
       <c r="P8" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q8" s="14"/>
       <c r="R8" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -2193,33 +2480,33 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Charge over Asset&lt;br&gt;(Charge over Asset)</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="N9" s="8"/>
       <c r="O9" s="13"/>
       <c r="P9" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q9" s="14"/>
       <c r="R9" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -2241,33 +2528,33 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Distress warrant&lt;br&gt;(Distress warrant)</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="13"/>
       <c r="P10" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q10" s="14"/>
       <c r="R10" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -2289,33 +2576,33 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Third Part Liability ★2nd&lt;br&gt;(제3자 책임 (2nd))</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="13"/>
       <c r="P11" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="S11" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T11" s="32" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -2337,33 +2624,33 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Recovery Notice Cancellation&lt;br&gt;(Recovery Notice Cancellation)</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N12" s="8"/>
       <c r="O12" s="13"/>
       <c r="P12" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q12" s="14"/>
       <c r="R12" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -2385,33 +2672,33 @@
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Write-off uncollectable tax ★2nd&lt;br&gt;(Write-off uncollectable tax (2nd))</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N13" s="8"/>
       <c r="O13" s="13"/>
       <c r="P13" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q13" s="14"/>
       <c r="R13" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="S13" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="T13" s="32" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -2433,33 +2720,33 @@
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Write back of tax ★2nd&lt;br&gt;(Write back of tax (2nd))</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N14" s="8"/>
       <c r="O14" s="13"/>
       <c r="P14" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q14" s="14"/>
       <c r="R14" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S14" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="T14" s="32" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -2481,33 +2768,33 @@
       </c>
       <c r="I15" s="1"/>
       <c r="J15" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Refund Offsetting&lt;br&gt;(Refund Offsetting)</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N15" s="8"/>
       <c r="O15" s="13"/>
       <c r="P15" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q15" s="14"/>
       <c r="R15" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="T15" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
@@ -2529,33 +2816,33 @@
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Interest Rate Management&lt;br&gt;(Interest Rate Management)</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="N16" s="8"/>
       <c r="O16" s="13"/>
       <c r="P16" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q16" s="14"/>
       <c r="R16" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="S16" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="T16" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -2570,47 +2857,47 @@
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Compliance Monitoring&lt;br&gt;(Compliance Monitoring)</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Tax Clearance Certificates&lt;br&gt;(Tax Clearance Certificates)</v>
       </c>
       <c r="M17" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="N17" s="34"/>
       <c r="O17" s="34"/>
       <c r="P17" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q17" s="34"/>
       <c r="R17" s="35" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S17" s="34" t="str">
-        <f t="shared" ref="S17" si="8">R17</f>
+        <f t="shared" ref="S17" si="7">R17</f>
         <v>UI-DMCI-04-O-0001</v>
       </c>
       <c r="T17" s="34" t="str">
-        <f t="shared" ref="T17" si="9">R17</f>
+        <f t="shared" ref="T17" si="8">R17</f>
         <v>UI-DMCI-04-O-0001</v>
       </c>
     </row>
@@ -2633,33 +2920,33 @@
       </c>
       <c r="I18" s="38"/>
       <c r="J18" s="38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Tax Residency Certificate&lt;br&gt;(Tax Residency Certificate)</v>
       </c>
       <c r="M18" s="38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N18" s="38"/>
       <c r="O18" s="38"/>
       <c r="P18" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q18" s="38"/>
       <c r="R18" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="S18" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -2681,33 +2968,33 @@
       </c>
       <c r="I19" s="38"/>
       <c r="J19" s="38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Motor vehicle Activation and Compliance check&lt;br&gt;(Motor vehicle Activation and Compliance check)</v>
       </c>
       <c r="M19" s="38" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N19" s="38"/>
       <c r="O19" s="38"/>
       <c r="P19" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q19" s="38"/>
       <c r="R19" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -2729,33 +3016,33 @@
       </c>
       <c r="I20" s="38"/>
       <c r="J20" s="38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K20" s="38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Offense Management&lt;br&gt;(Offense Management)</v>
       </c>
       <c r="M20" s="38" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N20" s="38"/>
       <c r="O20" s="38"/>
       <c r="P20" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q20" s="38"/>
       <c r="R20" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="S20" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="T20" s="12" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -2777,33 +3064,33 @@
       </c>
       <c r="I21" s="38"/>
       <c r="J21" s="38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K21" s="38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Normal Flow Monitoring&lt;br&gt;(Normal Flow Monitoring)</v>
       </c>
       <c r="M21" s="38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N21" s="38"/>
       <c r="O21" s="38"/>
       <c r="P21" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q21" s="38"/>
       <c r="R21" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -2818,47 +3105,47 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="4"/>
         <v>Sale of Charged Asset&lt;br&gt;(Sale of Charged Asset)</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J22" s="34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K22" s="34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Asset Management&lt;br&gt;(자산관리)</v>
       </c>
       <c r="M22" s="34" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N22" s="34"/>
       <c r="O22" s="34"/>
       <c r="P22" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q22" s="34"/>
       <c r="R22" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="S22" s="34" t="str">
-        <f t="shared" ref="S22" si="10">R22</f>
+        <f t="shared" ref="S22" si="9">R22</f>
         <v>UI-DMCI-05-O-0001</v>
       </c>
       <c r="T22" s="34" t="str">
-        <f t="shared" ref="T22" si="11">R22</f>
+        <f t="shared" ref="T22" si="10">R22</f>
         <v>UI-DMCI-05-O-0001</v>
       </c>
     </row>
@@ -2881,39 +3168,39 @@
       </c>
       <c r="I23" s="38"/>
       <c r="J23" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K23" s="40" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Valuation-Internal&lt;br&gt;(가치평가-내부)</v>
       </c>
       <c r="M23" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N23" s="39" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O23" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P23" s="1" t="str">
-        <f t="shared" ref="P23:P84" si="12">IF(Q23&lt;&gt;"",Q23&amp;"&lt;br&gt;("&amp;O23&amp;")","")</f>
+        <f t="shared" si="6"/>
         <v>New Valuation&lt;br&gt;(New Valuation)</v>
       </c>
       <c r="Q23" s="40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="R23" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="S23" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="T23" s="41" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2942,26 +3229,26 @@
       </c>
       <c r="M24" s="38"/>
       <c r="N24" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O24" s="38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P24" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>List of Submitted valuation&lt;br&gt;(List of Submitted valuation)</v>
       </c>
       <c r="Q24" s="38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="R24" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -2990,26 +3277,26 @@
       </c>
       <c r="M25" s="38"/>
       <c r="N25" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P25" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>List of valuation&lt;br&gt;(List of valuation)</v>
       </c>
       <c r="Q25" s="38" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="R25" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S25" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="T25" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -3038,26 +3325,26 @@
       </c>
       <c r="M26" s="38"/>
       <c r="N26" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="O26" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P26" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
       </c>
       <c r="Q26" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R26" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S26" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T26" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -3079,39 +3366,39 @@
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="40" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K27" s="40" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L27" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Valuation-External&lt;br&gt;(가치평가-외부)</v>
       </c>
       <c r="M27" s="40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N27" s="39" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O27" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P27" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>New valuation request&lt;br&gt;(New valuation request)</v>
       </c>
       <c r="Q27" s="40" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="R27" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S27" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T27" s="41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -3140,26 +3427,26 @@
       </c>
       <c r="M28" s="38"/>
       <c r="N28" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O28" s="38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P28" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>List of submitted valuation requests&lt;br&gt;(List of submitted valuation requests)</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="R28" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S28" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -3188,26 +3475,26 @@
       </c>
       <c r="M29" s="38"/>
       <c r="N29" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O29" s="38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P29" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>List of valuation requests&lt;br&gt;(List of valuation requests)</v>
       </c>
       <c r="Q29" s="38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="R29" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -3236,26 +3523,26 @@
       </c>
       <c r="M30" s="38"/>
       <c r="N30" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O30" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P30" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>List of valuation response&lt;br&gt;(List of valuation response)</v>
       </c>
       <c r="Q30" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="R30" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S30" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T30" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -3284,26 +3571,26 @@
       </c>
       <c r="M31" s="38"/>
       <c r="N31" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="O31" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P31" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
       </c>
       <c r="Q31" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="R31" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -3325,39 +3612,39 @@
       </c>
       <c r="I32" s="38"/>
       <c r="J32" s="40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K32" s="44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L32" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Pre-auction processing ★2nd&lt;br&gt;(공매 전 처리)</v>
       </c>
       <c r="M32" s="44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N32" s="45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O32" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P32" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>Notification of Itention to sale the Changed Asset&lt;br&gt;(부과자산 매각의사 통지)</v>
       </c>
       <c r="Q32" s="45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R32" s="41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S32" s="41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="T32" s="41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -3384,26 +3671,26 @@
         <v/>
       </c>
       <c r="N33" s="43" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O33" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="P33" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>List Assets for Public Auction&lt;br&gt;(공개 경매를 위한 자산 목록)</v>
+      </c>
+      <c r="Q33" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="P33" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>List Assets for Public Auction&lt;br&gt;(공개 경매를 위한 자산 목록)</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>301</v>
-      </c>
       <c r="R33" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S33" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -3430,26 +3717,26 @@
         <v/>
       </c>
       <c r="N34" s="43" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O34" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="P34" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>Asset Publishing&lt;br&gt;(자산 게시)</v>
+      </c>
+      <c r="Q34" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="P34" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Asset Publishing&lt;br&gt;(자산 게시)</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="R34" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S34" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -3471,39 +3758,39 @@
       </c>
       <c r="I35" s="38"/>
       <c r="J35" s="40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K35" s="44" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L35" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Post-auction processing ★2nd&lt;br&gt;(공매 후 처리)</v>
       </c>
       <c r="M35" s="40" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N35" s="40" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O35" s="40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="P35" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>Distribution od proceeds account&lt;br&gt;(수익금 배분계좌)</v>
       </c>
       <c r="Q35" s="40" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="R35" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S35" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="T35" s="41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.25">
@@ -3518,7 +3805,7 @@
       </c>
       <c r="E36" s="37"/>
       <c r="F36" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G36" s="34" t="s">
         <v>39</v>
@@ -3531,7 +3818,7 @@
         <v>39</v>
       </c>
       <c r="J36" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K36" s="34" t="s">
         <v>9</v>
@@ -3546,7 +3833,7 @@
       <c r="N36" s="34"/>
       <c r="O36" s="34"/>
       <c r="P36" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q36" s="34"/>
@@ -3554,11 +3841,11 @@
         <v>75</v>
       </c>
       <c r="S36" s="34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="S36:S58" si="11">R36</f>
         <v>UI-DMCI-02-O-0001</v>
       </c>
       <c r="T36" s="34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="T36:T58" si="12">R36</f>
         <v>UI-DMCI-02-O-0001</v>
       </c>
     </row>
@@ -3581,7 +3868,7 @@
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>40</v>
@@ -3594,13 +3881,13 @@
         <v>39</v>
       </c>
       <c r="N37" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O37" s="13" t="s">
         <v>41</v>
       </c>
       <c r="P37" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>Registered Blocks&lt;br&gt;(등록된 블록)</v>
       </c>
       <c r="Q37" s="14" t="s">
@@ -3610,11 +3897,11 @@
         <v>76</v>
       </c>
       <c r="S37" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>UI-DMCI-02-O-0002</v>
       </c>
       <c r="T37" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>UI-DMCI-02-O-0002</v>
       </c>
     </row>
@@ -3644,13 +3931,13 @@
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="O38" s="13" t="s">
         <v>43</v>
       </c>
       <c r="P38" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>Registered Sub Blocks&lt;br&gt;(등록된 하위 블록)</v>
       </c>
       <c r="Q38" s="14" t="s">
@@ -3660,11 +3947,11 @@
         <v>77</v>
       </c>
       <c r="S38" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>UI-DMCI-02-O-0003</v>
       </c>
       <c r="T38" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>UI-DMCI-02-O-0003</v>
       </c>
     </row>
@@ -3694,13 +3981,13 @@
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O39" s="13" t="s">
         <v>45</v>
       </c>
       <c r="P39" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>Block Team Leader&lt;br&gt;(블록 팀 리더)</v>
       </c>
       <c r="Q39" s="14" t="s">
@@ -3710,11 +3997,11 @@
         <v>78</v>
       </c>
       <c r="S39" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>UI-DMCI-02-O-0004</v>
       </c>
       <c r="T39" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>UI-DMCI-02-O-0004</v>
       </c>
     </row>
@@ -3737,7 +4024,7 @@
       </c>
       <c r="I40" s="1"/>
       <c r="J40" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>47</v>
@@ -3750,13 +4037,13 @@
         <v>48</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O40" s="29" t="s">
         <v>49</v>
       </c>
       <c r="P40" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>Physical Survey Plan&lt;br&gt;(실사 계획 수립)</v>
       </c>
       <c r="Q40" s="30" t="s">
@@ -3766,11 +4053,11 @@
         <v>79</v>
       </c>
       <c r="S40" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>UI-DMCI-02-O-0005</v>
       </c>
       <c r="T40" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>UI-DMCI-02-O-0005</v>
       </c>
     </row>
@@ -3800,13 +4087,13 @@
       </c>
       <c r="M41" s="14"/>
       <c r="N41" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O41" s="13" t="s">
         <v>51</v>
       </c>
       <c r="P41" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>Request to Conduct Physical Survey&lt;br&gt;(실사 수행 요청)</v>
       </c>
       <c r="Q41" s="14" t="s">
@@ -3816,11 +4103,11 @@
         <v>80</v>
       </c>
       <c r="S41" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>UI-DMCI-02-O-0006</v>
       </c>
       <c r="T41" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>UI-DMCI-02-O-0006</v>
       </c>
     </row>
@@ -3850,13 +4137,13 @@
       </c>
       <c r="M42" s="14"/>
       <c r="N42" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O42" s="13" t="s">
         <v>53</v>
       </c>
       <c r="P42" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>Approval of Request to conduct Physical Survey&lt;br&gt;(실사 수행 요청 승인)</v>
       </c>
       <c r="Q42" s="14" t="s">
@@ -3866,11 +4153,11 @@
         <v>81</v>
       </c>
       <c r="S42" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>UI-DMCI-02-O-0007</v>
       </c>
       <c r="T42" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>UI-DMCI-02-O-0007</v>
       </c>
     </row>
@@ -3900,13 +4187,13 @@
       </c>
       <c r="M43" s="14"/>
       <c r="N43" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O43" s="13" t="s">
         <v>55</v>
       </c>
       <c r="P43" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>Conducting Block Physical Survey (Mobile WEB)&lt;br&gt;(블록 실사 수행(모바일 웹))</v>
       </c>
       <c r="Q43" s="14" t="s">
@@ -3916,11 +4203,11 @@
         <v>82</v>
       </c>
       <c r="S43" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>UI-DMCI-02-O-0008</v>
       </c>
       <c r="T43" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>UI-DMCI-02-O-0008</v>
       </c>
     </row>
@@ -3950,13 +4237,13 @@
       </c>
       <c r="M44" s="14"/>
       <c r="N44" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O44" s="13" t="s">
         <v>57</v>
       </c>
       <c r="P44" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>View Collected Physical Survey Data&lt;br&gt;(수집된 물리적 조사 데이터 보기)</v>
       </c>
       <c r="Q44" s="14" t="s">
@@ -3966,11 +4253,11 @@
         <v>83</v>
       </c>
       <c r="S44" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>UI-DMCI-02-O-0009</v>
       </c>
       <c r="T44" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>UI-DMCI-02-O-0009</v>
       </c>
     </row>
@@ -3993,7 +4280,7 @@
       </c>
       <c r="I45" s="1"/>
       <c r="J45" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K45" s="10" t="s">
         <v>59</v>
@@ -4008,7 +4295,7 @@
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q45" s="10"/>
@@ -4016,11 +4303,11 @@
         <v>84</v>
       </c>
       <c r="S45" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>UI-DMCI-02-O-0010</v>
       </c>
       <c r="T45" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>UI-DMCI-02-O-0010</v>
       </c>
     </row>
@@ -4043,7 +4330,7 @@
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>61</v>
@@ -4058,7 +4345,7 @@
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q46" s="10"/>
@@ -4066,11 +4353,11 @@
         <v>85</v>
       </c>
       <c r="S46" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="11"/>
         <v>UI-DMCI-02-O-0011</v>
       </c>
       <c r="T46" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>UI-DMCI-02-O-0011</v>
       </c>
     </row>
@@ -4086,7 +4373,7 @@
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G47" s="34" t="s">
         <v>8</v>
@@ -4099,7 +4386,7 @@
         <v>8</v>
       </c>
       <c r="J47" s="34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K47" s="34" t="s">
         <v>9</v>
@@ -4114,7 +4401,7 @@
       <c r="N47" s="34"/>
       <c r="O47" s="34"/>
       <c r="P47" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q47" s="34"/>
@@ -4122,11 +4409,11 @@
         <v>63</v>
       </c>
       <c r="S47" s="34" t="str">
-        <f t="shared" ref="S47:S58" si="13">R47</f>
+        <f t="shared" si="11"/>
         <v>UI-DMCI-01-O-0001</v>
       </c>
       <c r="T47" s="34" t="str">
-        <f t="shared" ref="T47:T58" si="14">R47</f>
+        <f t="shared" si="12"/>
         <v>UI-DMCI-01-O-0001</v>
       </c>
     </row>
@@ -4149,7 +4436,7 @@
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>24</v>
@@ -4164,7 +4451,7 @@
       <c r="N48" s="8"/>
       <c r="O48" s="21"/>
       <c r="P48" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="Q48" s="21"/>
@@ -4172,11 +4459,11 @@
         <v>64</v>
       </c>
       <c r="S48" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>UI-DMCI-01-O-0003</v>
       </c>
       <c r="T48" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>UI-DMCI-01-O-0003</v>
       </c>
     </row>
@@ -4199,7 +4486,7 @@
       </c>
       <c r="I49" s="13"/>
       <c r="J49" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>30</v>
@@ -4212,13 +4499,13 @@
         <v>30</v>
       </c>
       <c r="N49" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="O49" s="13" t="s">
         <v>16</v>
       </c>
       <c r="P49" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>Executive Reports&lt;br&gt;(관리자용 요약 보고서)</v>
       </c>
       <c r="Q49" s="14" t="s">
@@ -4228,11 +4515,11 @@
         <v>65</v>
       </c>
       <c r="S49" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>UI-DMCI-01-O-0013</v>
       </c>
       <c r="T49" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>UI-DMCI-01-O-0013</v>
       </c>
     </row>
@@ -4262,13 +4549,13 @@
       </c>
       <c r="M50" s="14"/>
       <c r="N50" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O50" s="13" t="s">
         <v>17</v>
       </c>
       <c r="P50" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>Detailed Reports&lt;br&gt;(상세 보고서)</v>
       </c>
       <c r="Q50" s="14" t="s">
@@ -4278,11 +4565,11 @@
         <v>66</v>
       </c>
       <c r="S50" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>UI-DMCI-01-O-0014</v>
       </c>
       <c r="T50" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>UI-DMCI-01-O-0014</v>
       </c>
     </row>
@@ -4312,13 +4599,13 @@
       </c>
       <c r="M51" s="14"/>
       <c r="N51" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="O51" s="13" t="s">
         <v>18</v>
       </c>
       <c r="P51" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>Potential Errors Reports&lt;br&gt;(잠재적 오류에 대한 보고서)</v>
       </c>
       <c r="Q51" s="14" t="s">
@@ -4328,11 +4615,11 @@
         <v>67</v>
       </c>
       <c r="S51" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>UI-DMCI-01-O-0015</v>
       </c>
       <c r="T51" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>UI-DMCI-01-O-0015</v>
       </c>
     </row>
@@ -4355,7 +4642,7 @@
       </c>
       <c r="I52" s="1"/>
       <c r="J52" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K52" s="10" t="s">
         <v>31</v>
@@ -4368,13 +4655,13 @@
         <v>31</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O52" s="10" t="s">
         <v>32</v>
       </c>
       <c r="P52" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>1 Payments without Debit Number&lt;br&gt;(1 Payments without Debit Number)</v>
       </c>
       <c r="Q52" s="10" t="s">
@@ -4384,11 +4671,11 @@
         <v>68</v>
       </c>
       <c r="S52" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>UI-DMCI-01-O-1001</v>
       </c>
       <c r="T52" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>UI-DMCI-01-O-1001</v>
       </c>
     </row>
@@ -4418,13 +4705,13 @@
       </c>
       <c r="M53" s="14"/>
       <c r="N53" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O53" s="13" t="s">
         <v>33</v>
       </c>
       <c r="P53" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>2 Incorrect Posting&lt;br&gt;(2 Incorrect Posting)</v>
       </c>
       <c r="Q53" s="13" t="s">
@@ -4434,11 +4721,11 @@
         <v>69</v>
       </c>
       <c r="S53" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>UI-DMCI-01-O-1002</v>
       </c>
       <c r="T53" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>UI-DMCI-01-O-1002</v>
       </c>
     </row>
@@ -4468,13 +4755,13 @@
       </c>
       <c r="M54" s="14"/>
       <c r="N54" s="10" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O54" s="13" t="s">
         <v>34</v>
       </c>
       <c r="P54" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>3 Duplicate Assessments&lt;br&gt;(3 Duplicate Assessments)</v>
       </c>
       <c r="Q54" s="13" t="s">
@@ -4484,11 +4771,11 @@
         <v>70</v>
       </c>
       <c r="S54" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>UI-DMCI-01-O-1003</v>
       </c>
       <c r="T54" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>UI-DMCI-01-O-1003</v>
       </c>
     </row>
@@ -4518,13 +4805,13 @@
       </c>
       <c r="M55" s="14"/>
       <c r="N55" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O55" s="13" t="s">
         <v>35</v>
       </c>
       <c r="P55" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>4 Vacated Assessments&lt;br&gt;(4 Vacated Assessments)</v>
       </c>
       <c r="Q55" s="13" t="s">
@@ -4534,11 +4821,11 @@
         <v>71</v>
       </c>
       <c r="S55" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>UI-DMCI-01-O-1004</v>
       </c>
       <c r="T55" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>UI-DMCI-01-O-1004</v>
       </c>
     </row>
@@ -4568,13 +4855,13 @@
       </c>
       <c r="M56" s="14"/>
       <c r="N56" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O56" s="13" t="s">
         <v>36</v>
       </c>
       <c r="P56" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>6 Wrong Assessment&lt;br&gt;(6 Wrong Assessment)</v>
       </c>
       <c r="Q56" s="13" t="s">
@@ -4584,11 +4871,11 @@
         <v>72</v>
       </c>
       <c r="S56" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>UI-DMCI-01-O-1006</v>
       </c>
       <c r="T56" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>UI-DMCI-01-O-1006</v>
       </c>
     </row>
@@ -4618,13 +4905,13 @@
       </c>
       <c r="M57" s="14"/>
       <c r="N57" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O57" s="13" t="s">
         <v>37</v>
       </c>
       <c r="P57" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>8 Lumpsum Payment&lt;br&gt;(8 Lumpsum Payment)</v>
       </c>
       <c r="Q57" s="13" t="s">
@@ -4634,11 +4921,11 @@
         <v>73</v>
       </c>
       <c r="S57" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>UI-DMCI-01-O-1008</v>
       </c>
       <c r="T57" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>UI-DMCI-01-O-1008</v>
       </c>
     </row>
@@ -4668,13 +4955,13 @@
       </c>
       <c r="M58" s="14"/>
       <c r="N58" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O58" s="13" t="s">
         <v>38</v>
       </c>
       <c r="P58" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>9 Reverse Cancelled Assessment&lt;br&gt;(9 Reverse Cancelled Assessment)</v>
       </c>
       <c r="Q58" s="13" t="s">
@@ -4684,15 +4971,15 @@
         <v>74</v>
       </c>
       <c r="S58" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>UI-DMCI-01-O-1009</v>
       </c>
       <c r="T58" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>UI-DMCI-01-O-1009</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="22" t="s">
         <v>27</v>
       </c>
@@ -4709,690 +4996,667 @@
       <c r="E59" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F59" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G59" s="23" t="s">
-        <v>8</v>
+      <c r="F59" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="G59" s="34" t="s">
+        <v>178</v>
       </c>
       <c r="H59" s="23" t="str">
-        <f t="shared" si="4"/>
-        <v>Data Cleanup Tool&lt;br&gt;(Data Cleanup Tool)</v>
-      </c>
-      <c r="I59" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J59" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="K59" s="23" t="s">
-        <v>9</v>
+        <f t="shared" ref="H59:H110" si="13">IF(I59&lt;&gt;"",I59&amp;"&lt;br&gt;("&amp;G59&amp;")","")</f>
+        <v>Debt Enforcement&lt;br&gt;(Debt Enforcement)</v>
+      </c>
+      <c r="I59" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="J59" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="K59" s="34" t="s">
+        <v>179</v>
       </c>
       <c r="L59" s="23" t="str">
-        <f t="shared" si="5"/>
-        <v>Dashboard&lt;br&gt;(Dashboard)</v>
-      </c>
-      <c r="M59" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="N59" s="23"/>
-      <c r="O59" s="23"/>
+        <f t="shared" ref="L59:L110" si="14">IF(M59&lt;&gt;"",M59&amp;"&lt;br&gt;("&amp;K59&amp;")","")</f>
+        <v>Tax Position&lt;br&gt;(Tax Position)</v>
+      </c>
+      <c r="M59" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
       <c r="P59" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="S59" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>UI-DMCI-01-R-0001</v>
-      </c>
-      <c r="T59" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>UI-DMCI-01-R-0001</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="S59" s="34" t="str">
+        <f t="shared" ref="S59:S110" si="15">R59</f>
+        <v>UI-DMCI-03-R-0001</v>
+      </c>
+      <c r="T59" s="34" t="str">
+        <f t="shared" ref="T59:T110" si="16">R59</f>
+        <v>UI-DMCI-03-R-0001</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="str">
-        <f t="shared" ref="A60:A76" si="15">IF(B60="", A59, IF(B60="FN-E-DMC","E","I"))</f>
+        <f t="shared" ref="A60:A113" si="17">IF(B60="", A59, IF(B60="FN-E-DMC","E","I"))</f>
         <v>R</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D60:D110" si="18">IF(E60&lt;&gt;"",E60&amp;"&lt;br&gt;("&amp;C60&amp;")","")</f>
         <v/>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="7"/>
       <c r="G60" s="1"/>
       <c r="H60" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" s="8" t="s">
-        <v>106</v>
+        <v>303</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="L60" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Case Management&lt;br&gt;(Case Management)</v>
+        <f t="shared" si="14"/>
+        <v>Demand Notice&lt;br&gt;(Demand Notice)</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="N60" s="8"/>
-      <c r="O60" s="1"/>
+      <c r="O60" s="13"/>
       <c r="P60" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="Q60" s="1"/>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q60" s="14"/>
       <c r="R60" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="S60" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>UI-DMCI-01-R-0003</v>
-      </c>
-      <c r="T60" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>UI-DMCI-01-R-0003</v>
+        <v>331</v>
+      </c>
+      <c r="S60" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-03-R-0002</v>
+      </c>
+      <c r="T60" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-03-R-0002</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L61" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Extention of Time for Paying Tax&lt;br&gt;(Extention of Time for Paying Tax)</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N61" s="8"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="S61" s="23" t="str">
         <f t="shared" si="15"/>
-        <v>R</v>
-      </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I61" s="13"/>
-      <c r="J61" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L61" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Data Cleanup Reports&lt;br&gt;(Data Cleanup Reports)</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N61" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="O61" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="P61" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Executive Reports&lt;br&gt;(관리자용 요약 보고서)</v>
-      </c>
-      <c r="Q61" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="R61" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="S61" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>UI-DMCI-01-R-0013</v>
-      </c>
-      <c r="T61" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>UI-DMCI-01-R-0013</v>
+        <v>UI-DMCI-03-R-0003</v>
+      </c>
+      <c r="T61" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-03-R-0003</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L62" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Agency Notice&lt;br&gt;(Agency Notice)</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N62" s="8"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="S62" s="23" t="str">
         <f t="shared" si="15"/>
+        <v>UI-DMCI-03-R-0004</v>
+      </c>
+      <c r="T62" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-03-R-0004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="str">
+        <f t="shared" si="17"/>
         <v>R</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I62" s="13"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M62" s="14"/>
-      <c r="N62" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="O62" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="P62" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Detailed Reports&lt;br&gt;(상세 보고서)</v>
-      </c>
-      <c r="Q62" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="R62" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="S62" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>UI-DMCI-01-R-0014</v>
-      </c>
-      <c r="T62" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>UI-DMCI-01-R-0014</v>
-      </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="28" t="str">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E63" s="1"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L63" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Departure Prohibition Order&lt;br&gt;(Departure Prohibition Order)</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="N63" s="8"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="S63" s="23" t="str">
         <f t="shared" si="15"/>
+        <v>UI-DMCI-03-R-0005</v>
+      </c>
+      <c r="T63" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-03-R-0005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="str">
+        <f t="shared" si="17"/>
         <v>R</v>
       </c>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E63" s="26"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="13"/>
-      <c r="H63" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I63" s="13"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="13"/>
-      <c r="L63" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M63" s="14"/>
-      <c r="N63" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="O63" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="P63" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>Potential Errors Reports&lt;br&gt;(잠재적 오류에 대한 보고서)</v>
-      </c>
-      <c r="Q63" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="R63" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="S63" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>UI-DMCI-01-R-0015</v>
-      </c>
-      <c r="T63" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>UI-DMCI-01-R-0015</v>
-      </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="28" t="str">
-        <f t="shared" si="15"/>
-        <v>R</v>
-      </c>
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
       <c r="D64" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E64" s="27"/>
-      <c r="F64" s="15"/>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E64" s="1"/>
+      <c r="F64" s="7"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="K64" s="10" t="s">
-        <v>31</v>
+        <v>307</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>184</v>
       </c>
       <c r="L64" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Detail&lt;br&gt;(Detail)</v>
-      </c>
-      <c r="M64" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N64" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="O64" s="10" t="s">
-        <v>32</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v>Charge over Asset&lt;br&gt;(Charge over Asset)</v>
+      </c>
+      <c r="M64" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="N64" s="8"/>
+      <c r="O64" s="13"/>
       <c r="P64" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>1 Payments without Debit Number&lt;br&gt;(1 Payments without Debit Number)</v>
-      </c>
-      <c r="Q64" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R64" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="S64" s="1" t="str">
-        <f t="shared" ref="S64:S70" si="16">R64</f>
-        <v>UI-DMCI-01-R-1001</v>
-      </c>
-      <c r="T64" s="1" t="str">
-        <f t="shared" ref="T64:T70" si="17">R64</f>
-        <v>UI-DMCI-01-R-1001</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q64" s="14"/>
+      <c r="R64" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="S64" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-03-R-0006</v>
+      </c>
+      <c r="T64" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-03-R-0006</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A65" s="28" t="str">
+      <c r="A65" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E65" s="1"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="L65" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Distress warrant&lt;br&gt;(Distress warrant)</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N65" s="8"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q65" s="14"/>
+      <c r="R65" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="S65" s="23" t="str">
         <f t="shared" si="15"/>
-        <v>R</v>
-      </c>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E65" s="26"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="13"/>
-      <c r="H65" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I65" s="13"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="13"/>
-      <c r="L65" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M65" s="14"/>
-      <c r="N65" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="O65" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="P65" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>2 Incorrect Posting&lt;br&gt;(2 Incorrect Posting)</v>
-      </c>
-      <c r="Q65" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R65" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="S65" s="1" t="str">
+        <v>UI-DMCI-03-R-0007</v>
+      </c>
+      <c r="T65" s="23" t="str">
         <f t="shared" si="16"/>
-        <v>UI-DMCI-01-R-1002</v>
-      </c>
-      <c r="T65" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-01-R-1002</v>
+        <v>UI-DMCI-03-R-0007</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L66" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Third Part Liability ★2nd&lt;br&gt;(제3자 책임 (2nd))</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="N66" s="8"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q66" s="14"/>
+      <c r="R66" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="S66" s="23" t="str">
         <f t="shared" si="15"/>
-        <v>R</v>
-      </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E66" s="13"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="13"/>
-      <c r="H66" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I66" s="13"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="13"/>
-      <c r="L66" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M66" s="14"/>
-      <c r="N66" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="O66" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="P66" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>3 Duplicate Assessments&lt;br&gt;(3 Duplicate Assessments)</v>
-      </c>
-      <c r="Q66" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="R66" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="S66" s="1" t="str">
+        <v>UI-DMCI-03-R-0008</v>
+      </c>
+      <c r="T66" s="23" t="str">
         <f t="shared" si="16"/>
-        <v>UI-DMCI-01-R-1003</v>
-      </c>
-      <c r="T66" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-01-R-1003</v>
+        <v>UI-DMCI-03-R-0008</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="L67" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Recovery Notice Cancellation&lt;br&gt;(Recovery Notice Cancellation)</v>
+      </c>
+      <c r="M67" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N67" s="8"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q67" s="14"/>
+      <c r="R67" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="S67" s="23" t="str">
         <f t="shared" si="15"/>
-        <v>R</v>
-      </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E67" s="13"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="13"/>
-      <c r="H67" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I67" s="13"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="13"/>
-      <c r="L67" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M67" s="14"/>
-      <c r="N67" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="O67" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P67" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>4 Vacated Assessments&lt;br&gt;(4 Vacated Assessments)</v>
-      </c>
-      <c r="Q67" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="R67" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="S67" s="1" t="str">
+        <v>UI-DMCI-03-R-0010</v>
+      </c>
+      <c r="T67" s="23" t="str">
         <f t="shared" si="16"/>
-        <v>UI-DMCI-01-R-1004</v>
-      </c>
-      <c r="T67" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-01-R-1004</v>
+        <v>UI-DMCI-03-R-0010</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L68" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Write-off uncollectable tax ★2nd&lt;br&gt;(Write-off uncollectable tax (2nd))</v>
+      </c>
+      <c r="M68" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="N68" s="8"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q68" s="14"/>
+      <c r="R68" s="32" t="s">
+        <v>339</v>
+      </c>
+      <c r="S68" s="23" t="str">
         <f t="shared" si="15"/>
-        <v>R</v>
-      </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="1" t="str">
-        <f t="shared" ref="D68:D84" si="18">IF(E68&lt;&gt;"",E68&amp;"&lt;br&gt;("&amp;C68&amp;")","")</f>
-        <v/>
-      </c>
-      <c r="E68" s="13"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="13"/>
-      <c r="H68" s="1" t="str">
-        <f t="shared" ref="H68:H84" si="19">IF(I68&lt;&gt;"",I68&amp;"&lt;br&gt;("&amp;G68&amp;")","")</f>
-        <v/>
-      </c>
-      <c r="I68" s="13"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="1" t="str">
-        <f t="shared" ref="L68:L84" si="20">IF(M68&lt;&gt;"",M68&amp;"&lt;br&gt;("&amp;K68&amp;")","")</f>
-        <v/>
-      </c>
-      <c r="M68" s="14"/>
-      <c r="N68" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="O68" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="P68" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>6 Wrong Assessment&lt;br&gt;(6 Wrong Assessment)</v>
-      </c>
-      <c r="Q68" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="R68" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="S68" s="1" t="str">
+        <v>UI-DMCI-03-R-0011</v>
+      </c>
+      <c r="T68" s="23" t="str">
         <f t="shared" si="16"/>
-        <v>UI-DMCI-01-R-1006</v>
-      </c>
-      <c r="T68" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-01-R-1006</v>
+        <v>UI-DMCI-03-R-0011</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>R</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
       <c r="D69" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="E69" s="13"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="13"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="1"/>
       <c r="H69" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I69" s="13"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="13"/>
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="K69" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="L69" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M69" s="14"/>
-      <c r="N69" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="O69" s="13" t="s">
-        <v>37</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v>Write back of tax ★2nd&lt;br&gt;(Write back of tax (2nd))</v>
+      </c>
+      <c r="M69" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="N69" s="8"/>
+      <c r="O69" s="13"/>
       <c r="P69" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>8 Lumpsum Payment&lt;br&gt;(8 Lumpsum Payment)</v>
-      </c>
-      <c r="Q69" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="R69" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="S69" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q69" s="14"/>
+      <c r="R69" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="S69" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-03-R-0012</v>
+      </c>
+      <c r="T69" s="23" t="str">
         <f t="shared" si="16"/>
-        <v>UI-DMCI-01-R-1008</v>
-      </c>
-      <c r="T69" s="1" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-01-R-1008</v>
+        <v>UI-DMCI-03-R-0012</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>R</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
       <c r="D70" s="1" t="str">
         <f t="shared" si="18"/>
         <v/>
       </c>
-      <c r="E70" s="13"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="13"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="1"/>
       <c r="H70" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I70" s="13"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="13"/>
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="L70" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M70" s="14"/>
-      <c r="N70" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="O70" s="13" t="s">
-        <v>38</v>
-      </c>
+        <f t="shared" si="14"/>
+        <v>Refund Offsetting&lt;br&gt;(Refund Offsetting)</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="N70" s="8"/>
+      <c r="O70" s="13"/>
       <c r="P70" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>9 Reverse Cancelled Assessment&lt;br&gt;(9 Reverse Cancelled Assessment)</v>
-      </c>
-      <c r="Q70" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="R70" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="S70" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="S70" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-03-R-0013</v>
+      </c>
+      <c r="T70" s="23" t="str">
         <f t="shared" si="16"/>
-        <v>UI-DMCI-01-R-1009</v>
-      </c>
-      <c r="T70" s="1" t="str">
+        <v>UI-DMCI-03-R-0013</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="str">
         <f t="shared" si="17"/>
-        <v>UI-DMCI-01-R-1009</v>
-      </c>
-    </row>
-    <row r="71" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B71" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C71" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D71" s="23" t="str">
+        <v>R</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>Approver&lt;br&gt;(Approver)</v>
-      </c>
-      <c r="E71" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F71" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="G71" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="H71" s="23" t="str">
-        <f t="shared" si="19"/>
-        <v>Data Cleanup Tool&lt;br&gt;(Data Cleanup Tool)</v>
-      </c>
-      <c r="I71" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J71" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="K71" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L71" s="23" t="str">
-        <f t="shared" si="20"/>
-        <v>Dashboard&lt;br&gt;(Dashboard)</v>
-      </c>
-      <c r="M71" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="N71" s="23"/>
-      <c r="O71" s="23"/>
+        <v/>
+      </c>
+      <c r="E71" s="1"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="L71" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Interest Rate Management&lt;br&gt;(Interest Rate Management)</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N71" s="8"/>
+      <c r="O71" s="13"/>
       <c r="P71" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="Q71" s="23"/>
-      <c r="R71" s="24" t="s">
-        <v>165</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q71" s="14"/>
+      <c r="R71" s="12" t="s">
+        <v>342</v>
       </c>
       <c r="S71" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-0001</v>
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-03-R-0014</v>
       </c>
       <c r="T71" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-0001</v>
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-03-R-0014</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="str">
-        <f t="shared" si="15"/>
-        <v>A</v>
+        <f t="shared" si="17"/>
+        <v>R</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -5401,676 +5665,2948 @@
         <v/>
       </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="1"/>
+      <c r="F72" s="34" t="s">
+        <v>373</v>
+      </c>
+      <c r="G72" s="34" t="s">
+        <v>218</v>
+      </c>
       <c r="H72" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Compliance Monitoring&lt;br&gt;(Compliance Monitoring)</v>
+      </c>
+      <c r="I72" s="34" t="s">
+        <v>218</v>
+      </c>
+      <c r="J72" s="34" t="s">
+        <v>315</v>
+      </c>
+      <c r="K72" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="L72" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Tax Clearance Certificates&lt;br&gt;(Tax Clearance Certificates)</v>
+      </c>
+      <c r="M72" s="34" t="s">
+        <v>223</v>
+      </c>
+      <c r="N72" s="34"/>
+      <c r="O72" s="34"/>
+      <c r="P72" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q72" s="34"/>
+      <c r="R72" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="S72" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-04-R-0001</v>
+      </c>
+      <c r="T72" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-04-R-0001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E73" s="1"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
+      <c r="H73" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="K73" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="L73" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Tax Residency Certificate&lt;br&gt;(Tax Residency Certificate)</v>
+      </c>
+      <c r="M73" s="38" t="s">
+        <v>284</v>
+      </c>
+      <c r="N73" s="38"/>
+      <c r="O73" s="38"/>
+      <c r="P73" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q73" s="38"/>
+      <c r="R73" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="S73" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-04-R-0002</v>
+      </c>
+      <c r="T73" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-04-R-0002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E74" s="1"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
+      <c r="H74" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I74" s="38"/>
+      <c r="J74" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="K74" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="L74" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Motor vehicle Activation and Compliance check&lt;br&gt;(Motor vehicle Activation and Compliance check)</v>
+      </c>
+      <c r="M74" s="38" t="s">
+        <v>285</v>
+      </c>
+      <c r="N74" s="38"/>
+      <c r="O74" s="38"/>
+      <c r="P74" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q74" s="38"/>
+      <c r="R74" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="S74" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-04-R-0003</v>
+      </c>
+      <c r="T74" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-04-R-0003</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38" t="s">
+        <v>318</v>
+      </c>
+      <c r="K75" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="L75" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Offense Management&lt;br&gt;(Offense Management)</v>
+      </c>
+      <c r="M75" s="38" t="s">
+        <v>286</v>
+      </c>
+      <c r="N75" s="38"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q75" s="38"/>
+      <c r="R75" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="S75" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-04-R-0004</v>
+      </c>
+      <c r="T75" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-04-R-0004</v>
+      </c>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I76" s="38"/>
+      <c r="J76" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="K76" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="L76" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Normal Flow Monitoring&lt;br&gt;(Normal Flow Monitoring)</v>
+      </c>
+      <c r="M76" s="38" t="s">
+        <v>287</v>
+      </c>
+      <c r="N76" s="38"/>
+      <c r="O76" s="38"/>
+      <c r="P76" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q76" s="38"/>
+      <c r="R76" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="S76" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-04-R-0005</v>
+      </c>
+      <c r="T76" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-04-R-0005</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="34" t="s">
+        <v>374</v>
+      </c>
+      <c r="G77" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="H77" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Sale of Charged Asset&lt;br&gt;(Sale of Charged Asset)</v>
+      </c>
+      <c r="I77" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="J77" s="34" t="s">
+        <v>320</v>
+      </c>
+      <c r="K77" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="L77" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Asset Management&lt;br&gt;(자산관리)</v>
+      </c>
+      <c r="M77" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="N77" s="34"/>
+      <c r="O77" s="34"/>
+      <c r="P77" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q77" s="34"/>
+      <c r="R77" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="S77" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-05-R-0001</v>
+      </c>
+      <c r="T77" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-05-R-0001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E78" s="1"/>
+      <c r="F78" s="42"/>
+      <c r="G78" s="38"/>
+      <c r="H78" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I78" s="38"/>
+      <c r="J78" s="40" t="s">
+        <v>321</v>
+      </c>
+      <c r="K78" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="L78" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Valuation-Internal&lt;br&gt;(가치평가-내부)</v>
+      </c>
+      <c r="M78" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="N78" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="O78" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="P78" s="1" t="str">
+        <f t="shared" ref="P78:P127" si="19">IF(Q78&lt;&gt;"",Q78&amp;"&lt;br&gt;("&amp;O78&amp;")","")</f>
+        <v>New Valuation&lt;br&gt;(New Valuation)</v>
+      </c>
+      <c r="Q78" s="40" t="s">
+        <v>231</v>
+      </c>
+      <c r="R78" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="S78" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-05-R-0201</v>
+      </c>
+      <c r="T78" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-05-R-0201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="42"/>
+      <c r="G79" s="38"/>
+      <c r="H79" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I79" s="38"/>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
+      <c r="L79" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M79" s="38"/>
+      <c r="N79" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="O79" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="P79" s="1" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I72" s="1"/>
-      <c r="J72" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="K72" s="1" t="s">
+        <v>List of Submitted valuation&lt;br&gt;(List of Submitted valuation)</v>
+      </c>
+      <c r="Q79" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="R79" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="S79" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-05-R-0202</v>
+      </c>
+      <c r="T79" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-05-R-0202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I80" s="38"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M80" s="38"/>
+      <c r="N80" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="O80" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="P80" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>List of valuation&lt;br&gt;(List of valuation)</v>
+      </c>
+      <c r="Q80" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="R80" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="S80" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-05-R-0203</v>
+      </c>
+      <c r="T80" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-05-R-0203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="42"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I81" s="38"/>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
+      <c r="L81" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M81" s="38"/>
+      <c r="N81" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="O81" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="P81" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
+      </c>
+      <c r="Q81" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="R81" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="S81" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-05-R-0204</v>
+      </c>
+      <c r="T81" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-05-R-0204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="42"/>
+      <c r="G82" s="38"/>
+      <c r="H82" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I82" s="38"/>
+      <c r="J82" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="K82" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="L82" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Valuation-External&lt;br&gt;(가치평가-외부)</v>
+      </c>
+      <c r="M82" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="N82" s="39" t="s">
+        <v>381</v>
+      </c>
+      <c r="O82" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="P82" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>New valuation request&lt;br&gt;(New valuation request)</v>
+      </c>
+      <c r="Q82" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="R82" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="S82" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-05-R-0301</v>
+      </c>
+      <c r="T82" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-05-R-0301</v>
+      </c>
+    </row>
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E83" s="1"/>
+      <c r="F83" s="42"/>
+      <c r="G83" s="38"/>
+      <c r="H83" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I83" s="38"/>
+      <c r="J83" s="38"/>
+      <c r="K83" s="38"/>
+      <c r="L83" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M83" s="38"/>
+      <c r="N83" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="O83" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="P83" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>List of submitted valuation requests&lt;br&gt;(List of submitted valuation requests)</v>
+      </c>
+      <c r="Q83" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="R83" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="S83" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-05-R-0302</v>
+      </c>
+      <c r="T83" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-05-R-0302</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="42"/>
+      <c r="G84" s="38"/>
+      <c r="H84" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I84" s="38"/>
+      <c r="J84" s="38"/>
+      <c r="K84" s="38"/>
+      <c r="L84" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M84" s="38"/>
+      <c r="N84" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="O84" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="P84" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>List of valuation requests&lt;br&gt;(List of valuation requests)</v>
+      </c>
+      <c r="Q84" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="R84" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="S84" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-05-R-0303</v>
+      </c>
+      <c r="T84" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-05-R-0303</v>
+      </c>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="42"/>
+      <c r="G85" s="38"/>
+      <c r="H85" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I85" s="38"/>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
+      <c r="L85" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M85" s="38"/>
+      <c r="N85" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="O85" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="P85" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>List of valuation response&lt;br&gt;(List of valuation response)</v>
+      </c>
+      <c r="Q85" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="R85" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="S85" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-05-R-0304</v>
+      </c>
+      <c r="T85" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-05-R-0304</v>
+      </c>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="38"/>
+      <c r="H86" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I86" s="38"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="38"/>
+      <c r="L86" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M86" s="38"/>
+      <c r="N86" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="O86" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="P86" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
+      </c>
+      <c r="Q86" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="R86" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="S86" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-05-R-0305</v>
+      </c>
+      <c r="T86" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-05-R-0305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="38"/>
+      <c r="H87" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I87" s="38"/>
+      <c r="J87" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="K87" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="L87" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Pre-auction processing ★2nd&lt;br&gt;(공매 전 처리)</v>
+      </c>
+      <c r="M87" s="44" t="s">
+        <v>297</v>
+      </c>
+      <c r="N87" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="O87" s="45" t="s">
+        <v>262</v>
+      </c>
+      <c r="P87" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Notification of Itention to sale the Changed Asset&lt;br&gt;(부과자산 매각의사 통지)</v>
+      </c>
+      <c r="Q87" s="45" t="s">
+        <v>261</v>
+      </c>
+      <c r="R87" s="41" t="s">
+        <v>358</v>
+      </c>
+      <c r="S87" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-05-R-0401</v>
+      </c>
+      <c r="T87" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-05-R-0401</v>
+      </c>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="38"/>
+      <c r="H88" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I88" s="38"/>
+      <c r="J88" s="9"/>
+      <c r="L88" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="N88" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="P88" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>List Assets for Public Auction&lt;br&gt;(공개 경매를 위한 자산 목록)</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="R88" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="S88" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-05-R-0402</v>
+      </c>
+      <c r="T88" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-05-R-0402</v>
+      </c>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E89" s="1"/>
+      <c r="F89" s="42"/>
+      <c r="G89" s="38"/>
+      <c r="H89" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I89" s="38"/>
+      <c r="J89" s="9"/>
+      <c r="L89" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="N89" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="P89" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Asset Publishing&lt;br&gt;(자산 게시)</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="R89" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="S89" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-05-R-0403</v>
+      </c>
+      <c r="T89" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-05-R-0403</v>
+      </c>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="38"/>
+      <c r="H90" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I90" s="38"/>
+      <c r="J90" s="40" t="s">
+        <v>324</v>
+      </c>
+      <c r="K90" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="L90" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Post-auction processing ★2nd&lt;br&gt;(공매 후 처리)</v>
+      </c>
+      <c r="M90" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="N90" s="40" t="s">
+        <v>389</v>
+      </c>
+      <c r="O90" s="40" t="s">
+        <v>272</v>
+      </c>
+      <c r="P90" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Distribution od proceeds account&lt;br&gt;(수익금 배분계좌)</v>
+      </c>
+      <c r="Q90" s="40" t="s">
+        <v>271</v>
+      </c>
+      <c r="R90" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="S90" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-05-R-0501</v>
+      </c>
+      <c r="T90" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-05-R-0501</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E91" s="37"/>
+      <c r="F91" s="34" t="s">
+        <v>375</v>
+      </c>
+      <c r="G91" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="H91" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Block Management&lt;br&gt;(Block Management)</v>
+      </c>
+      <c r="I91" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J91" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="K91" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L91" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Dashboard&lt;br&gt;(Dashboard)</v>
+      </c>
+      <c r="M91" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N91" s="34"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Q91" s="34"/>
+      <c r="R91" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="S91" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-02-R-0001</v>
+      </c>
+      <c r="T91" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-02-R-0001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I92" s="1"/>
+      <c r="J92" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L92" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Block Management&lt;br&gt;(블록 관리)</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N92" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="O92" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P92" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Registered Blocks&lt;br&gt;(등록된 블록)</v>
+      </c>
+      <c r="Q92" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R92" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="S92" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-02-R-0002</v>
+      </c>
+      <c r="T92" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-02-R-0002</v>
+      </c>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I93" s="1"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M93" s="1"/>
+      <c r="N93" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="O93" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P93" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Registered Sub Blocks&lt;br&gt;(등록된 하위 블록)</v>
+      </c>
+      <c r="Q93" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="R93" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="S93" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-02-R-0003</v>
+      </c>
+      <c r="T93" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-02-R-0003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I94" s="1"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M94" s="1"/>
+      <c r="N94" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="O94" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P94" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Block Team Leader&lt;br&gt;(블록 팀 리더)</v>
+      </c>
+      <c r="Q94" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="R94" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="S94" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-02-R-0004</v>
+      </c>
+      <c r="T94" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-02-R-0004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I95" s="1"/>
+      <c r="J95" s="10" t="s">
+        <v>327</v>
+      </c>
+      <c r="K95" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L95" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Physical Survey&lt;br&gt;(물리적 조사)</v>
+      </c>
+      <c r="M95" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N95" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="O95" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="P95" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Physical Survey Plan&lt;br&gt;(실사 계획 수립)</v>
+      </c>
+      <c r="Q95" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="R95" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="S95" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-02-R-0005</v>
+      </c>
+      <c r="T95" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-02-R-0005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E96" s="26"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I96" s="13"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M96" s="14"/>
+      <c r="N96" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="O96" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P96" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Request to Conduct Physical Survey&lt;br&gt;(실사 수행 요청)</v>
+      </c>
+      <c r="Q96" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="R96" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="S96" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-02-R-0006</v>
+      </c>
+      <c r="T96" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-02-R-0006</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E97" s="26"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I97" s="13"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M97" s="14"/>
+      <c r="N97" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="O97" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Approval of Request to conduct Physical Survey&lt;br&gt;(실사 수행 요청 승인)</v>
+      </c>
+      <c r="Q97" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R97" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="S97" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-02-R-0007</v>
+      </c>
+      <c r="T97" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-02-R-0007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E98" s="26"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I98" s="13"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M98" s="14"/>
+      <c r="N98" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="O98" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="P98" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Conducting Block Physical Survey (Mobile WEB)&lt;br&gt;(블록 실사 수행(모바일 웹))</v>
+      </c>
+      <c r="Q98" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R98" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="S98" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-02-R-0008</v>
+      </c>
+      <c r="T98" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-02-R-0008</v>
+      </c>
+    </row>
+    <row r="99" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B99" s="26"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E99" s="26"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I99" s="13"/>
+      <c r="J99" s="8"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M99" s="14"/>
+      <c r="N99" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="O99" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="P99" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>View Collected Physical Survey Data&lt;br&gt;(수집된 물리적 조사 데이터 보기)</v>
+      </c>
+      <c r="Q99" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="R99" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="S99" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-02-R-0009</v>
+      </c>
+      <c r="T99" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-02-R-0009</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E100" s="27"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I100" s="1"/>
+      <c r="J100" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="K100" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L100" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>NaPA Address Management&lt;br&gt;(NaPA 주소 관리)</v>
+      </c>
+      <c r="M100" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N100" s="10"/>
+      <c r="O100" s="10"/>
+      <c r="P100" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Q100" s="10"/>
+      <c r="R100" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="S100" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-02-R-0010</v>
+      </c>
+      <c r="T100" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-02-R-0010</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E101" s="27"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I101" s="1"/>
+      <c r="J101" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L101" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Reports&lt;br&gt;(보고서)</v>
+      </c>
+      <c r="M101" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N101" s="10"/>
+      <c r="O101" s="10"/>
+      <c r="P101" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Q101" s="10"/>
+      <c r="R101" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="S101" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-02-R-0011</v>
+      </c>
+      <c r="T101" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-02-R-0011</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="1" t="str">
+        <f t="shared" ref="D102" si="20">IF(E102&lt;&gt;"",E102&amp;"&lt;br&gt;("&amp;C102&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="E102" s="13"/>
+      <c r="F102" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="G102" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="23" t="str">
+        <f t="shared" si="13"/>
+        <v>Data Cleanup Tool&lt;br&gt;(Data Cleanup Tool)</v>
+      </c>
+      <c r="I102" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="K102" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L102" s="23" t="str">
+        <f t="shared" si="14"/>
+        <v>Dashboard&lt;br&gt;(Dashboard)</v>
+      </c>
+      <c r="M102" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N102" s="23"/>
+      <c r="O102" s="23"/>
+      <c r="P102" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Q102" s="23"/>
+      <c r="R102" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="S102" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-01-R-0001</v>
+      </c>
+      <c r="T102" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-01-R-0001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="1"/>
+      <c r="H103" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I103" s="1"/>
+      <c r="J103" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K103" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L72" s="1" t="str">
-        <f t="shared" si="20"/>
+      <c r="L103" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>Case Management&lt;br&gt;(Case Management)</v>
       </c>
-      <c r="M72" s="1" t="s">
+      <c r="M103" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N72" s="8"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="S72" s="1" t="str">
+      <c r="N103" s="8"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="S103" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-01-R-0003</v>
+      </c>
+      <c r="T103" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-01-R-0003</v>
+      </c>
+    </row>
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A104" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E104" s="13"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I104" s="13"/>
+      <c r="J104" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L104" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Data Cleanup Reports&lt;br&gt;(Data Cleanup Reports)</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N104" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O104" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P104" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Executive Reports&lt;br&gt;(관리자용 요약 보고서)</v>
+      </c>
+      <c r="Q104" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R104" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="S104" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-01-R-0013</v>
+      </c>
+      <c r="T104" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-01-R-0013</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E105" s="13"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I105" s="13"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M105" s="14"/>
+      <c r="N105" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="O105" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P105" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Detailed Reports&lt;br&gt;(상세 보고서)</v>
+      </c>
+      <c r="Q105" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R105" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="S105" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-01-R-0014</v>
+      </c>
+      <c r="T105" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-01-R-0014</v>
+      </c>
+    </row>
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A106" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B106" s="26"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E106" s="26"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I106" s="13"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M106" s="14"/>
+      <c r="N106" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="O106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="P106" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Potential Errors Reports&lt;br&gt;(잠재적 오류에 대한 보고서)</v>
+      </c>
+      <c r="Q106" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R106" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="S106" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-01-R-0015</v>
+      </c>
+      <c r="T106" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-01-R-0015</v>
+      </c>
+    </row>
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A107" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E107" s="27"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I107" s="1"/>
+      <c r="J107" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K107" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L107" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>Detail&lt;br&gt;(Detail)</v>
+      </c>
+      <c r="M107" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N107" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="O107" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P107" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>1 Payments without Debit Number&lt;br&gt;(1 Payments without Debit Number)</v>
+      </c>
+      <c r="Q107" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R107" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S107" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-01-R-1001</v>
+      </c>
+      <c r="T107" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-01-R-1001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A108" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B108" s="26"/>
+      <c r="C108" s="26"/>
+      <c r="D108" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E108" s="26"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I108" s="13"/>
+      <c r="J108" s="8"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M108" s="14"/>
+      <c r="N108" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="O108" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P108" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>2 Incorrect Posting&lt;br&gt;(2 Incorrect Posting)</v>
+      </c>
+      <c r="Q108" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="R108" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="S108" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-01-R-1002</v>
+      </c>
+      <c r="T108" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-01-R-1002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E109" s="13"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I109" s="13"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="13"/>
+      <c r="L109" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M109" s="14"/>
+      <c r="N109" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="O109" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P109" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>3 Duplicate Assessments&lt;br&gt;(3 Duplicate Assessments)</v>
+      </c>
+      <c r="Q109" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R109" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="S109" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-01-R-1003</v>
+      </c>
+      <c r="T109" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-01-R-1003</v>
+      </c>
+    </row>
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A110" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="E110" s="13"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I110" s="13"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v/>
+      </c>
+      <c r="M110" s="14"/>
+      <c r="N110" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="O110" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P110" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>4 Vacated Assessments&lt;br&gt;(4 Vacated Assessments)</v>
+      </c>
+      <c r="Q110" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R110" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="S110" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>UI-DMCI-01-R-1004</v>
+      </c>
+      <c r="T110" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-01-R-1004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="1" t="str">
+        <f t="shared" ref="D111:D127" si="21">IF(E111&lt;&gt;"",E111&amp;"&lt;br&gt;("&amp;C111&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="E111" s="13"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="1" t="str">
+        <f t="shared" ref="H111:H127" si="22">IF(I111&lt;&gt;"",I111&amp;"&lt;br&gt;("&amp;G111&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="I111" s="13"/>
+      <c r="J111" s="8"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="1" t="str">
+        <f t="shared" ref="L111:L127" si="23">IF(M111&lt;&gt;"",M111&amp;"&lt;br&gt;("&amp;K111&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="M111" s="14"/>
+      <c r="N111" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="O111" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P111" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>6 Wrong Assessment&lt;br&gt;(6 Wrong Assessment)</v>
+      </c>
+      <c r="Q111" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R111" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="S111" s="23" t="str">
+        <f t="shared" ref="S111:S114" si="24">R111</f>
+        <v>UI-DMCI-01-R-1006</v>
+      </c>
+      <c r="T111" s="23" t="str">
+        <f t="shared" ref="T111:T113" si="25">R111</f>
+        <v>UI-DMCI-01-R-1006</v>
+      </c>
+    </row>
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A112" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B112" s="13"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="E112" s="13"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="I112" s="13"/>
+      <c r="J112" s="8"/>
+      <c r="K112" s="13"/>
+      <c r="L112" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="M112" s="14"/>
+      <c r="N112" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="O112" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P112" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>8 Lumpsum Payment&lt;br&gt;(8 Lumpsum Payment)</v>
+      </c>
+      <c r="Q112" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R112" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="S112" s="23" t="str">
+        <f t="shared" si="24"/>
+        <v>UI-DMCI-01-R-1008</v>
+      </c>
+      <c r="T112" s="23" t="str">
+        <f t="shared" si="25"/>
+        <v>UI-DMCI-01-R-1008</v>
+      </c>
+    </row>
+    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A113" s="2" t="str">
+        <f t="shared" si="17"/>
+        <v>R</v>
+      </c>
+      <c r="B113" s="13"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="E113" s="13"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="I113" s="13"/>
+      <c r="J113" s="8"/>
+      <c r="K113" s="13"/>
+      <c r="L113" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="M113" s="14"/>
+      <c r="N113" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="O113" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P113" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>9 Reverse Cancelled Assessment&lt;br&gt;(9 Reverse Cancelled Assessment)</v>
+      </c>
+      <c r="Q113" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="R113" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="S113" s="23" t="str">
+        <f t="shared" si="24"/>
+        <v>UI-DMCI-01-R-1009</v>
+      </c>
+      <c r="T113" s="23" t="str">
+        <f t="shared" si="25"/>
+        <v>UI-DMCI-01-R-1009</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="23" t="str">
+        <f t="shared" si="21"/>
+        <v>Approver&lt;br&gt;(Approver)</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G114" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H114" s="23" t="str">
+        <f t="shared" si="22"/>
+        <v>Data Cleanup Tool&lt;br&gt;(Data Cleanup Tool)</v>
+      </c>
+      <c r="I114" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J114" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="K114" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L114" s="23" t="str">
+        <f t="shared" si="23"/>
+        <v>Dashboard&lt;br&gt;(Dashboard)</v>
+      </c>
+      <c r="M114" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N114" s="23"/>
+      <c r="O114" s="23"/>
+      <c r="P114" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Q114" s="23"/>
+      <c r="R114" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="S114" s="34" t="str">
+        <f t="shared" si="24"/>
+        <v>UI-DMCI-01-A-0001</v>
+      </c>
+      <c r="T114" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v>UI-DMCI-01-A-0001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="str">
+        <f t="shared" ref="A107:A119" si="26">IF(B115="", A114, IF(B115="FN-E-DMC","E","I"))</f>
+        <v>A</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="E115" s="1"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="I115" s="1"/>
+      <c r="J115" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L115" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>Case Management&lt;br&gt;(Case Management)</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N115" s="8"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="S115" s="1" t="str">
         <f t="shared" si="1"/>
         <v>UI-DMCI-01-A-0003</v>
       </c>
-      <c r="T72" s="1" t="str">
+      <c r="T115" s="1" t="str">
         <f t="shared" si="2"/>
         <v>UI-DMCI-01-A-0003</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="str">
-        <f t="shared" si="15"/>
+    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A116" s="2" t="str">
+        <f t="shared" si="26"/>
         <v>A</v>
       </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E73" s="13"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="1" t="str">
+      <c r="B116" s="13"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="E116" s="13"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="13"/>
+      <c r="H116" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="I116" s="13"/>
+      <c r="J116" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K116" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L116" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>Case Reassignment&lt;br&gt;(케이스 재할당)</v>
+      </c>
+      <c r="M116" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N116" s="8"/>
+      <c r="O116" s="13"/>
+      <c r="P116" s="1" t="str">
         <f t="shared" si="19"/>
         <v/>
       </c>
-      <c r="I73" s="13"/>
-      <c r="J73" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="K73" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L73" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>Case Reassignment&lt;br&gt;(케이스 재할당)</v>
-      </c>
-      <c r="M73" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="N73" s="8"/>
-      <c r="O73" s="13"/>
-      <c r="P73" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="Q73" s="14"/>
-      <c r="R73" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="S73" s="1" t="str">
+      <c r="Q116" s="14"/>
+      <c r="R116" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="S116" s="1" t="str">
         <f t="shared" si="1"/>
         <v>UI-DMCI-01-A-0012</v>
       </c>
-      <c r="T73" s="1" t="str">
+      <c r="T116" s="1" t="str">
         <f t="shared" si="2"/>
         <v>UI-DMCI-01-A-0012</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="str">
-        <f t="shared" si="15"/>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="str">
+        <f t="shared" si="26"/>
         <v>A</v>
       </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E74" s="13"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="13"/>
-      <c r="H74" s="1" t="str">
+      <c r="B117" s="13"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="E117" s="13"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="I117" s="13"/>
+      <c r="J117" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L117" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>Data Cleanup Reports&lt;br&gt;(Data Cleanup Reports)</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N117" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="O117" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P117" s="1" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I74" s="13"/>
-      <c r="J74" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L74" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>Data Cleanup Reports&lt;br&gt;(Data Cleanup Reports)</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N74" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="O74" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="P74" s="1" t="str">
-        <f t="shared" si="12"/>
         <v>Executive Reports&lt;br&gt;(관리자용 요약 보고서)</v>
       </c>
-      <c r="Q74" s="14" t="s">
+      <c r="Q117" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="R74" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="S74" s="1" t="str">
+      <c r="R117" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S117" s="1" t="str">
         <f t="shared" si="1"/>
         <v>UI-DMCI-01-A-0013</v>
       </c>
-      <c r="T74" s="1" t="str">
+      <c r="T117" s="1" t="str">
         <f t="shared" si="2"/>
         <v>UI-DMCI-01-A-0013</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="str">
-        <f t="shared" si="15"/>
+    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A118" s="2" t="str">
+        <f t="shared" si="26"/>
         <v>A</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="13"/>
-      <c r="H75" s="1" t="str">
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="E118" s="13"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="I118" s="13"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="13"/>
+      <c r="L118" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="M118" s="14"/>
+      <c r="N118" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="O118" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P118" s="1" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I75" s="13"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M75" s="14"/>
-      <c r="N75" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="O75" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="P75" s="1" t="str">
-        <f t="shared" si="12"/>
         <v>Detailed Reports&lt;br&gt;(상세 보고서)</v>
       </c>
-      <c r="Q75" s="14" t="s">
+      <c r="Q118" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="R75" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="S75" s="1" t="str">
+      <c r="R118" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="S118" s="1" t="str">
         <f t="shared" si="1"/>
         <v>UI-DMCI-01-A-0014</v>
       </c>
-      <c r="T75" s="1" t="str">
+      <c r="T118" s="1" t="str">
         <f t="shared" si="2"/>
         <v>UI-DMCI-01-A-0014</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="str">
-        <f t="shared" si="15"/>
+    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A119" s="2" t="str">
+        <f t="shared" si="26"/>
         <v>A</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="13"/>
-      <c r="H76" s="1" t="str">
+      <c r="B119" s="13"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="E119" s="13"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="I119" s="13"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="13"/>
+      <c r="L119" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="M119" s="14"/>
+      <c r="N119" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O119" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="P119" s="1" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I76" s="13"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="13"/>
-      <c r="L76" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M76" s="14"/>
-      <c r="N76" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="O76" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="P76" s="1" t="str">
-        <f t="shared" si="12"/>
         <v>Potential Errors Reports&lt;br&gt;(잠재적 오류에 대한 보고서)</v>
       </c>
-      <c r="Q76" s="14" t="s">
+      <c r="Q119" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="R76" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="S76" s="1" t="str">
+      <c r="R119" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="S119" s="1" t="str">
         <f t="shared" si="1"/>
         <v>UI-DMCI-01-A-0015</v>
       </c>
-      <c r="T76" s="1" t="str">
+      <c r="T119" s="1" t="str">
         <f t="shared" si="2"/>
         <v>UI-DMCI-01-A-0015</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A77" s="28" t="str">
-        <f t="shared" ref="A77:A83" si="21">IF(B77="", A76, IF(B77="FN-E-DMC","E","I"))</f>
+    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A120" s="28" t="str">
+        <f t="shared" ref="A120:A126" si="27">IF(B120="", A119, IF(B120="FN-E-DMC","E","I"))</f>
         <v>A</v>
       </c>
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E77" s="27"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1" t="str">
+      <c r="B120" s="27"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="E120" s="27"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="I120" s="1"/>
+      <c r="J120" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K120" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L120" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>Detail&lt;br&gt;(Detail)</v>
+      </c>
+      <c r="M120" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N120" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="O120" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P120" s="1" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I77" s="1"/>
-      <c r="J77" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="K77" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L77" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v>Detail&lt;br&gt;(Detail)</v>
-      </c>
-      <c r="M77" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N77" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="O77" s="10" t="s">
+        <v>1 Payments without Debit Number&lt;br&gt;(1 Payments without Debit Number)</v>
+      </c>
+      <c r="Q120" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P77" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>1 Payments without Debit Number&lt;br&gt;(1 Payments without Debit Number)</v>
-      </c>
-      <c r="Q77" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R77" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="S77" s="1" t="str">
+      <c r="R120" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="S120" s="1" t="str">
         <f t="shared" si="1"/>
         <v>UI-DMCI-01-A-1001</v>
       </c>
-      <c r="T77" s="1" t="str">
+      <c r="T120" s="1" t="str">
         <f t="shared" si="2"/>
         <v>UI-DMCI-01-A-1001</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" s="28" t="str">
+    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A121" s="28" t="str">
+        <f t="shared" si="27"/>
+        <v>A</v>
+      </c>
+      <c r="B121" s="26"/>
+      <c r="C121" s="26"/>
+      <c r="D121" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>A</v>
-      </c>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E78" s="26"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="13"/>
-      <c r="H78" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E121" s="26"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="I121" s="13"/>
+      <c r="J121" s="8"/>
+      <c r="K121" s="13"/>
+      <c r="L121" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="M121" s="14"/>
+      <c r="N121" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="O121" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="P121" s="1" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I78" s="13"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="13"/>
-      <c r="L78" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M78" s="14"/>
-      <c r="N78" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="O78" s="13" t="s">
+        <v>2 Incorrect Posting&lt;br&gt;(2 Incorrect Posting)</v>
+      </c>
+      <c r="Q121" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="P78" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>2 Incorrect Posting&lt;br&gt;(2 Incorrect Posting)</v>
-      </c>
-      <c r="Q78" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R78" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="S78" s="1" t="str">
+      <c r="R121" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="S121" s="1" t="str">
         <f t="shared" si="1"/>
         <v>UI-DMCI-01-A-1002</v>
       </c>
-      <c r="T78" s="1" t="str">
+      <c r="T121" s="1" t="str">
         <f t="shared" si="2"/>
         <v>UI-DMCI-01-A-1002</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="str">
+    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A122" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>A</v>
+      </c>
+      <c r="B122" s="13"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>A</v>
-      </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E79" s="13"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E122" s="13"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="I122" s="13"/>
+      <c r="J122" s="8"/>
+      <c r="K122" s="13"/>
+      <c r="L122" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="M122" s="14"/>
+      <c r="N122" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="O122" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P122" s="1" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I79" s="13"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M79" s="14"/>
-      <c r="N79" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="O79" s="13" t="s">
+        <v>3 Duplicate Assessments&lt;br&gt;(3 Duplicate Assessments)</v>
+      </c>
+      <c r="Q122" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="P79" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>3 Duplicate Assessments&lt;br&gt;(3 Duplicate Assessments)</v>
-      </c>
-      <c r="Q79" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="R79" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="S79" s="1" t="str">
+      <c r="R122" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="S122" s="1" t="str">
         <f t="shared" si="1"/>
         <v>UI-DMCI-01-A-1003</v>
       </c>
-      <c r="T79" s="1" t="str">
+      <c r="T122" s="1" t="str">
         <f t="shared" si="2"/>
         <v>UI-DMCI-01-A-1003</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="str">
+    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A123" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>A</v>
+      </c>
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>A</v>
-      </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E80" s="13"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E123" s="13"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="I123" s="13"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="13"/>
+      <c r="L123" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="M123" s="14"/>
+      <c r="N123" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="O123" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P123" s="1" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I80" s="13"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M80" s="14"/>
-      <c r="N80" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="O80" s="13" t="s">
+        <v>4 Vacated Assessments&lt;br&gt;(4 Vacated Assessments)</v>
+      </c>
+      <c r="Q123" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="P80" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>4 Vacated Assessments&lt;br&gt;(4 Vacated Assessments)</v>
-      </c>
-      <c r="Q80" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="R80" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="S80" s="1" t="str">
+      <c r="R123" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="S123" s="1" t="str">
         <f t="shared" si="1"/>
         <v>UI-DMCI-01-A-1004</v>
       </c>
-      <c r="T80" s="1" t="str">
+      <c r="T123" s="1" t="str">
         <f t="shared" si="2"/>
         <v>UI-DMCI-01-A-1004</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="str">
+    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>A</v>
+      </c>
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>A</v>
-      </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E81" s="13"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E124" s="13"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="I124" s="13"/>
+      <c r="J124" s="8"/>
+      <c r="K124" s="13"/>
+      <c r="L124" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="M124" s="14"/>
+      <c r="N124" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O124" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P124" s="1" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I81" s="13"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="13"/>
-      <c r="L81" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M81" s="14"/>
-      <c r="N81" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="O81" s="13" t="s">
+        <v>6 Wrong Assessment&lt;br&gt;(6 Wrong Assessment)</v>
+      </c>
+      <c r="Q124" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="P81" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>6 Wrong Assessment&lt;br&gt;(6 Wrong Assessment)</v>
-      </c>
-      <c r="Q81" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="R81" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="S81" s="1" t="str">
+      <c r="R124" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="S124" s="1" t="str">
         <f t="shared" si="1"/>
         <v>UI-DMCI-01-A-1006</v>
       </c>
-      <c r="T81" s="1" t="str">
+      <c r="T124" s="1" t="str">
         <f t="shared" si="2"/>
         <v>UI-DMCI-01-A-1006</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="str">
+    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A125" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>A</v>
+      </c>
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>A</v>
-      </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E82" s="13"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E125" s="13"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="I125" s="13"/>
+      <c r="J125" s="8"/>
+      <c r="K125" s="13"/>
+      <c r="L125" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="M125" s="14"/>
+      <c r="N125" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="O125" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P125" s="1" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I82" s="13"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M82" s="14"/>
-      <c r="N82" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="O82" s="13" t="s">
+        <v>8 Lumpsum Payment&lt;br&gt;(8 Lumpsum Payment)</v>
+      </c>
+      <c r="Q125" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P82" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>8 Lumpsum Payment&lt;br&gt;(8 Lumpsum Payment)</v>
-      </c>
-      <c r="Q82" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="R82" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="S82" s="1" t="str">
+      <c r="R125" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="S125" s="1" t="str">
         <f t="shared" si="1"/>
         <v>UI-DMCI-01-A-1008</v>
       </c>
-      <c r="T82" s="1" t="str">
+      <c r="T125" s="1" t="str">
         <f t="shared" si="2"/>
         <v>UI-DMCI-01-A-1008</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="str">
+    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>A</v>
+      </c>
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>A</v>
-      </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E83" s="13"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="1" t="str">
+        <v/>
+      </c>
+      <c r="E126" s="13"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="1" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="I126" s="13"/>
+      <c r="J126" s="8"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="M126" s="14"/>
+      <c r="N126" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="O126" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P126" s="1" t="str">
         <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="I83" s="13"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="M83" s="14"/>
-      <c r="N83" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="O83" s="13" t="s">
+        <v>9 Reverse Cancelled Assessment&lt;br&gt;(9 Reverse Cancelled Assessment)</v>
+      </c>
+      <c r="Q126" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="P83" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>9 Reverse Cancelled Assessment&lt;br&gt;(9 Reverse Cancelled Assessment)</v>
-      </c>
-      <c r="Q83" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="R83" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="S83" s="1" t="str">
+      <c r="R126" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="S126" s="1" t="str">
         <f t="shared" si="1"/>
         <v>UI-DMCI-01-A-1009</v>
       </c>
-      <c r="T83" s="1" t="str">
+      <c r="T126" s="1" t="str">
         <f t="shared" si="2"/>
         <v>UI-DMCI-01-A-1009</v>
       </c>
     </row>
-    <row r="84" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
+    <row r="127" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="23" t="s">
+      <c r="B127" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C84" s="23" t="s">
+      <c r="C127" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D84" s="23" t="str">
-        <f t="shared" si="18"/>
+      <c r="D127" s="23" t="str">
+        <f t="shared" si="21"/>
         <v>HQ Manager&lt;br&gt;(HQ Manager)</v>
       </c>
-      <c r="E84" s="23" t="s">
+      <c r="E127" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F84" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="G84" s="23" t="s">
+      <c r="F127" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G127" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H84" s="23" t="str">
+      <c r="H127" s="23" t="str">
+        <f t="shared" si="22"/>
+        <v>Data Cleanup Tool&lt;br&gt;(Data Cleanup Tool)</v>
+      </c>
+      <c r="I127" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J127" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="K127" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L127" s="23" t="str">
+        <f t="shared" si="23"/>
+        <v>Dashboard&lt;br&gt;(Dashboard)</v>
+      </c>
+      <c r="M127" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N127" s="23"/>
+      <c r="O127" s="23"/>
+      <c r="P127" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>Data Cleanup Tool&lt;br&gt;(Data Cleanup Tool)</v>
-      </c>
-      <c r="I84" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J84" s="23" t="s">
-        <v>114</v>
-      </c>
-      <c r="K84" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L84" s="23" t="str">
-        <f t="shared" si="20"/>
-        <v>Dashboard&lt;br&gt;(Dashboard)</v>
-      </c>
-      <c r="M84" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="N84" s="23"/>
-      <c r="O84" s="23"/>
-      <c r="P84" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="Q84" s="23"/>
-      <c r="R84" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="S84" s="23" t="str">
+        <v/>
+      </c>
+      <c r="Q127" s="23"/>
+      <c r="R127" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="S127" s="23" t="str">
         <f t="shared" si="1"/>
         <v>UI-DMCI-01-M-0001</v>
       </c>
-      <c r="T84" s="23" t="str">
+      <c r="T127" s="23" t="str">
         <f t="shared" si="2"/>
         <v>UI-DMCI-01-M-0001</v>
       </c>
@@ -6078,18 +8614,18 @@
   </sheetData>
   <autoFilter ref="A2:T3" xr:uid="{52A47179-ED83-49BA-AD32-52C02F9F0FB4}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:A84 S4:T4 S36:T84">
-    <cfRule type="expression" dxfId="2" priority="3">
+  <conditionalFormatting sqref="S4:T4 S36:T127 A3:A127">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>$A$3="I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R3:T3">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>$A$3="I"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S17:T17 S22:T22">
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A$3="I"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/HTML-MAKER/00-UI-DMC-MENU.xlsx
+++ b/HTML-MAKER/00-UI-DMC-MENU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\25_IDRAS\IDRAS_DMC_2ND_HTML\HTML-MAKER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3D4A6A-2C88-4088-9BE8-1E97543B0EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D87E91-FAB8-48DD-87BD-A29ED70DC6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="6060" windowWidth="45195" windowHeight="23310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="420" windowWidth="33420" windowHeight="29655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴생성" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="419">
   <si>
     <t>1 Level</t>
   </si>
@@ -1357,6 +1357,73 @@
   </si>
   <si>
     <t>FN-DMCI-R-02-03-05</t>
+  </si>
+  <si>
+    <t>세금 위치</t>
+  </si>
+  <si>
+    <t>납세 요구서</t>
+  </si>
+  <si>
+    <t>납부 기한 연장</t>
+  </si>
+  <si>
+    <t>기관 통지서</t>
+  </si>
+  <si>
+    <t>출국 금지 명령</t>
+  </si>
+  <si>
+    <t>자산 압류 설정</t>
+  </si>
+  <si>
+    <t>강제 집행 영장</t>
+  </si>
+  <si>
+    <t>징수 통지서 취소</t>
+  </si>
+  <si>
+    <t>징수불능 세액 탕감 (2차)</t>
+  </si>
+  <si>
+    <t>세액 환입 처리 (2차)</t>
+  </si>
+  <si>
+    <t>환급 상계</t>
+  </si>
+  <si>
+    <t>이자율 관리</t>
+  </si>
+  <si>
+    <t>세금 납부 확인서</t>
+  </si>
+  <si>
+    <t>거주자 증명서</t>
+  </si>
+  <si>
+    <t>차량 등록 및 준수 확인</t>
+  </si>
+  <si>
+    <t>위반 사항 관리</t>
+  </si>
+  <si>
+    <t>일반 흐름 모니터링</t>
+  </si>
+  <si>
+    <t>이행 모니터링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담보 자산 매각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 클린업 도구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채무 집행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2005,8 +2072,8 @@
   <dimension ref="A1:T127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2021,7 +2088,8 @@
     <col min="8" max="8" width="16.42578125" style="19" customWidth="1"/>
     <col min="9" max="9" width="16.42578125" style="9" customWidth="1"/>
     <col min="10" max="10" width="30.85546875" style="20" customWidth="1"/>
-    <col min="11" max="13" width="18.42578125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" style="9" customWidth="1"/>
+    <col min="12" max="13" width="18.42578125" style="9" customWidth="1"/>
     <col min="14" max="14" width="31.7109375" style="20" customWidth="1"/>
     <col min="15" max="17" width="25.5703125" style="9" customWidth="1"/>
     <col min="18" max="20" width="18.85546875" style="9" bestFit="1" customWidth="1"/>
@@ -2228,11 +2296,11 @@
         <v>222</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>178</v>
+        <v>418</v>
       </c>
       <c r="H4" s="23" t="str">
         <f t="shared" ref="H4:H58" si="4">IF(I4&lt;&gt;"",I4&amp;"&lt;br&gt;("&amp;G4&amp;")","")</f>
-        <v>Debt Enforcement&lt;br&gt;(Debt Enforcement)</v>
+        <v>Debt Enforcement&lt;br&gt;(채무 집행)</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>178</v>
@@ -2241,11 +2309,11 @@
         <v>189</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>179</v>
+        <v>398</v>
       </c>
       <c r="L4" s="23" t="str">
         <f t="shared" ref="L4:L58" si="5">IF(M4&lt;&gt;"",M4&amp;"&lt;br&gt;("&amp;K4&amp;")","")</f>
-        <v>Tax Position&lt;br&gt;(Tax Position)</v>
+        <v>Tax Position&lt;br&gt;(세금 위치)</v>
       </c>
       <c r="M4" s="34" t="s">
         <v>179</v>
@@ -2291,11 +2359,11 @@
         <v>190</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>180</v>
+        <v>399</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Demand Notice&lt;br&gt;(Demand Notice)</v>
+        <v>Demand Notice&lt;br&gt;(납세 요구서)</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>180</v>
@@ -2339,11 +2407,11 @@
         <v>191</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>181</v>
+        <v>400</v>
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Extention of Time for Paying Tax&lt;br&gt;(Extention of Time for Paying Tax)</v>
+        <v>Extention of Time for Paying Tax&lt;br&gt;(납부 기한 연장)</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>181</v>
@@ -2387,11 +2455,11 @@
         <v>192</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>182</v>
+        <v>401</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Agency Notice&lt;br&gt;(Agency Notice)</v>
+        <v>Agency Notice&lt;br&gt;(기관 통지서)</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>182</v>
@@ -2435,11 +2503,11 @@
         <v>193</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>183</v>
+        <v>402</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Departure Prohibition Order&lt;br&gt;(Departure Prohibition Order)</v>
+        <v>Departure Prohibition Order&lt;br&gt;(출국 금지 명령)</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>183</v>
@@ -2483,11 +2551,11 @@
         <v>194</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>184</v>
+        <v>403</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Charge over Asset&lt;br&gt;(Charge over Asset)</v>
+        <v>Charge over Asset&lt;br&gt;(자산 압류 설정)</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>184</v>
@@ -2531,11 +2599,11 @@
         <v>195</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>185</v>
+        <v>404</v>
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Distress warrant&lt;br&gt;(Distress warrant)</v>
+        <v>Distress warrant&lt;br&gt;(강제 집행 영장)</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>185</v>
@@ -2627,11 +2695,11 @@
         <v>197</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>186</v>
+        <v>405</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Recovery Notice Cancellation&lt;br&gt;(Recovery Notice Cancellation)</v>
+        <v>Recovery Notice Cancellation&lt;br&gt;(징수 통지서 취소)</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>186</v>
@@ -2675,11 +2743,11 @@
         <v>198</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>406</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Write-off uncollectable tax ★2nd&lt;br&gt;(Write-off uncollectable tax (2nd))</v>
+        <v>Write-off uncollectable tax ★2nd&lt;br&gt;(징수불능 세액 탕감 (2차))</v>
       </c>
       <c r="M13" s="7" t="s">
         <v>282</v>
@@ -2723,11 +2791,11 @@
         <v>199</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>216</v>
+        <v>407</v>
       </c>
       <c r="L14" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Write back of tax ★2nd&lt;br&gt;(Write back of tax (2nd))</v>
+        <v>Write back of tax ★2nd&lt;br&gt;(세액 환입 처리 (2차))</v>
       </c>
       <c r="M14" s="7" t="s">
         <v>283</v>
@@ -2771,11 +2839,11 @@
         <v>200</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>187</v>
+        <v>408</v>
       </c>
       <c r="L15" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Refund Offsetting&lt;br&gt;(Refund Offsetting)</v>
+        <v>Refund Offsetting&lt;br&gt;(환급 상계)</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>187</v>
@@ -2819,11 +2887,11 @@
         <v>201</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>188</v>
+        <v>409</v>
       </c>
       <c r="L16" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Interest Rate Management&lt;br&gt;(Interest Rate Management)</v>
+        <v>Interest Rate Management&lt;br&gt;(이자율 관리)</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>188</v>
@@ -2860,11 +2928,11 @@
         <v>221</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>218</v>
+        <v>415</v>
       </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Compliance Monitoring&lt;br&gt;(Compliance Monitoring)</v>
+        <v>Compliance Monitoring&lt;br&gt;(이행 모니터링)</v>
       </c>
       <c r="I17" s="34" t="s">
         <v>218</v>
@@ -2873,11 +2941,11 @@
         <v>292</v>
       </c>
       <c r="K17" s="34" t="s">
-        <v>223</v>
+        <v>410</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Tax Clearance Certificates&lt;br&gt;(Tax Clearance Certificates)</v>
+        <v>Tax Clearance Certificates&lt;br&gt;(세금 납부 확인서)</v>
       </c>
       <c r="M17" s="34" t="s">
         <v>223</v>
@@ -2923,11 +2991,11 @@
         <v>293</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>284</v>
+        <v>411</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Tax Residency Certificate&lt;br&gt;(Tax Residency Certificate)</v>
+        <v>Tax Residency Certificate&lt;br&gt;(거주자 증명서)</v>
       </c>
       <c r="M18" s="38" t="s">
         <v>284</v>
@@ -2971,11 +3039,11 @@
         <v>294</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>285</v>
+        <v>412</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Motor vehicle Activation and Compliance check&lt;br&gt;(Motor vehicle Activation and Compliance check)</v>
+        <v>Motor vehicle Activation and Compliance check&lt;br&gt;(차량 등록 및 준수 확인)</v>
       </c>
       <c r="M19" s="38" t="s">
         <v>285</v>
@@ -3019,11 +3087,11 @@
         <v>295</v>
       </c>
       <c r="K20" s="38" t="s">
-        <v>286</v>
+        <v>413</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Offense Management&lt;br&gt;(Offense Management)</v>
+        <v>Offense Management&lt;br&gt;(위반 사항 관리)</v>
       </c>
       <c r="M20" s="38" t="s">
         <v>286</v>
@@ -3067,11 +3135,11 @@
         <v>296</v>
       </c>
       <c r="K21" s="38" t="s">
-        <v>287</v>
+        <v>414</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Normal Flow Monitoring&lt;br&gt;(Normal Flow Monitoring)</v>
+        <v>Normal Flow Monitoring&lt;br&gt;(일반 흐름 모니터링)</v>
       </c>
       <c r="M21" s="38" t="s">
         <v>287</v>
@@ -3108,11 +3176,11 @@
         <v>225</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>228</v>
+        <v>416</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sale of Charged Asset&lt;br&gt;(Sale of Charged Asset)</v>
+        <v>Sale of Charged Asset&lt;br&gt;(담보 자산 매각)</v>
       </c>
       <c r="I22" s="34" t="s">
         <v>228</v>
@@ -3808,11 +3876,11 @@
         <v>219</v>
       </c>
       <c r="G36" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H36" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Block Management&lt;br&gt;(Block Management)</v>
+        <v>Block Management&lt;br&gt;(블록 관리)</v>
       </c>
       <c r="I36" s="34" t="s">
         <v>39</v>
@@ -4376,11 +4444,11 @@
         <v>220</v>
       </c>
       <c r="G47" s="34" t="s">
-        <v>8</v>
+        <v>417</v>
       </c>
       <c r="H47" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Data Cleanup Tool&lt;br&gt;(Data Cleanup Tool)</v>
+        <v>Data Cleanup Tool&lt;br&gt;(데이터 클린업 도구)</v>
       </c>
       <c r="I47" s="34" t="s">
         <v>8</v>
@@ -5000,11 +5068,11 @@
         <v>301</v>
       </c>
       <c r="G59" s="34" t="s">
-        <v>178</v>
+        <v>418</v>
       </c>
       <c r="H59" s="23" t="str">
         <f t="shared" ref="H59:H110" si="13">IF(I59&lt;&gt;"",I59&amp;"&lt;br&gt;("&amp;G59&amp;")","")</f>
-        <v>Debt Enforcement&lt;br&gt;(Debt Enforcement)</v>
+        <v>Debt Enforcement&lt;br&gt;(채무 집행)</v>
       </c>
       <c r="I59" s="34" t="s">
         <v>178</v>
@@ -5669,11 +5737,11 @@
         <v>373</v>
       </c>
       <c r="G72" s="34" t="s">
-        <v>218</v>
+        <v>415</v>
       </c>
       <c r="H72" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>Compliance Monitoring&lt;br&gt;(Compliance Monitoring)</v>
+        <v>Compliance Monitoring&lt;br&gt;(이행 모니터링)</v>
       </c>
       <c r="I72" s="34" t="s">
         <v>218</v>
@@ -5930,11 +5998,11 @@
         <v>374</v>
       </c>
       <c r="G77" s="34" t="s">
-        <v>228</v>
+        <v>416</v>
       </c>
       <c r="H77" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>Sale of Charged Asset&lt;br&gt;(Sale of Charged Asset)</v>
+        <v>Sale of Charged Asset&lt;br&gt;(담보 자산 매각)</v>
       </c>
       <c r="I77" s="34" t="s">
         <v>228</v>
@@ -6670,11 +6738,11 @@
         <v>375</v>
       </c>
       <c r="G91" s="34" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H91" s="1" t="str">
         <f t="shared" si="13"/>
-        <v>Block Management&lt;br&gt;(Block Management)</v>
+        <v>Block Management&lt;br&gt;(블록 관리)</v>
       </c>
       <c r="I91" s="34" t="s">
         <v>39</v>
@@ -7248,12 +7316,12 @@
       <c r="F102" s="23" t="s">
         <v>376</v>
       </c>
-      <c r="G102" s="23" t="s">
-        <v>8</v>
+      <c r="G102" s="34" t="s">
+        <v>417</v>
       </c>
       <c r="H102" s="23" t="str">
         <f t="shared" si="13"/>
-        <v>Data Cleanup Tool&lt;br&gt;(Data Cleanup Tool)</v>
+        <v>Data Cleanup Tool&lt;br&gt;(데이터 클린업 도구)</v>
       </c>
       <c r="I102" s="23" t="s">
         <v>8</v>
@@ -7883,12 +7951,12 @@
       <c r="F114" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="G114" s="23" t="s">
-        <v>8</v>
+      <c r="G114" s="34" t="s">
+        <v>417</v>
       </c>
       <c r="H114" s="23" t="str">
         <f t="shared" si="22"/>
-        <v>Data Cleanup Tool&lt;br&gt;(Data Cleanup Tool)</v>
+        <v>Data Cleanup Tool&lt;br&gt;(데이터 클린업 도구)</v>
       </c>
       <c r="I114" s="23" t="s">
         <v>8</v>
@@ -8569,12 +8637,12 @@
       <c r="F127" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="G127" s="23" t="s">
-        <v>8</v>
+      <c r="G127" s="34" t="s">
+        <v>417</v>
       </c>
       <c r="H127" s="23" t="str">
         <f t="shared" si="22"/>
-        <v>Data Cleanup Tool&lt;br&gt;(Data Cleanup Tool)</v>
+        <v>Data Cleanup Tool&lt;br&gt;(데이터 클린업 도구)</v>
       </c>
       <c r="I127" s="23" t="s">
         <v>8</v>

--- a/HTML-MAKER/00-UI-DMC-MENU.xlsx
+++ b/HTML-MAKER/00-UI-DMC-MENU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\25_IDRAS\IDRAS_DMC_2ND_HTML\HTML-MAKER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D87E91-FAB8-48DD-87BD-A29ED70DC6B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5351E02D-B966-461B-84AF-6860C4B9B3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="420" windowWidth="33420" windowHeight="29655" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20565" yWindow="1335" windowWidth="12990" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴생성" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="434">
   <si>
     <t>1 Level</t>
   </si>
@@ -661,45 +661,6 @@
     <t>Interest Rate Management</t>
   </si>
   <si>
-    <t>FN-DMCI-03-O-01-01</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-02</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-03</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-04</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-05</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-06</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-07</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-08</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-10</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-11</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-12</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-13</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-01-14</t>
-  </si>
-  <si>
     <t>UI-DMCI-03-O-0001</t>
   </si>
   <si>
@@ -727,9 +688,6 @@
     <t>UI-DMCI-03-O-0010</t>
   </si>
   <si>
-    <t>UI-DMCI-03-O-0011</t>
-  </si>
-  <si>
     <t>UI-DMCI-03-O-0012</t>
   </si>
   <si>
@@ -1423,6 +1381,101 @@
   </si>
   <si>
     <t>채무 집행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-11-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-01</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-02</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-03</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-04</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-05</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-06</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-07</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-08</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-10</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-11</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-12</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-13</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-14</t>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-11-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-11-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-11-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상각 제안</t>
+  </si>
+  <si>
+    <t>제출된 상각 목록</t>
+  </si>
+  <si>
+    <t>상각 목록</t>
+  </si>
+  <si>
+    <t>상각 상태 보기</t>
+  </si>
+  <si>
+    <t>Propose for Write off</t>
+  </si>
+  <si>
+    <t>List of Submitted Write Off</t>
+  </si>
+  <si>
+    <t>List of Write off</t>
+  </si>
+  <si>
+    <t>View Status of Write off</t>
+  </si>
+  <si>
+    <t>UI-DMCI-03-O-1101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-DMCI-03-O-1102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-DMCI-03-O-1103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-DMCI-03-O-1104</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2069,11 +2122,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5116929-A913-40D4-80C3-074C14131D30}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T127"/>
+  <dimension ref="A1:T130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2258,7 +2311,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="str">
-        <f t="shared" ref="P3:P77" si="0">IF(Q3&lt;&gt;"",Q3&amp;"&lt;br&gt;("&amp;O3&amp;")","")</f>
+        <f t="shared" ref="P3:P80" si="0">IF(Q3&lt;&gt;"",Q3&amp;"&lt;br&gt;("&amp;O3&amp;")","")</f>
         <v/>
       </c>
       <c r="Q3" s="1"/>
@@ -2267,11 +2320,11 @@
         <v/>
       </c>
       <c r="S3" s="1" t="str">
-        <f t="shared" ref="S3:S127" si="1">R3</f>
+        <f t="shared" ref="S3:S130" si="1">R3</f>
         <v/>
       </c>
       <c r="T3" s="1" t="str">
-        <f t="shared" ref="T3:T127" si="2">R3</f>
+        <f t="shared" ref="T3:T130" si="2">R3</f>
         <v/>
       </c>
     </row>
@@ -2286,33 +2339,33 @@
         <v>21</v>
       </c>
       <c r="D4" s="23" t="str">
-        <f t="shared" ref="D4:D59" si="3">IF(E4&lt;&gt;"",E4&amp;"&lt;br&gt;("&amp;C4&amp;")","")</f>
+        <f t="shared" ref="D4:D62" si="3">IF(E4&lt;&gt;"",E4&amp;"&lt;br&gt;("&amp;C4&amp;")","")</f>
         <v>Officer&lt;br&gt;(Officer)</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="H4" s="23" t="str">
-        <f t="shared" ref="H4:H58" si="4">IF(I4&lt;&gt;"",I4&amp;"&lt;br&gt;("&amp;G4&amp;")","")</f>
+        <f t="shared" ref="H4:H61" si="4">IF(I4&lt;&gt;"",I4&amp;"&lt;br&gt;("&amp;G4&amp;")","")</f>
         <v>Debt Enforcement&lt;br&gt;(채무 집행)</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>178</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>189</v>
+        <v>406</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="L4" s="23" t="str">
-        <f t="shared" ref="L4:L58" si="5">IF(M4&lt;&gt;"",M4&amp;"&lt;br&gt;("&amp;K4&amp;")","")</f>
+        <f t="shared" ref="L4:L61" si="5">IF(M4&lt;&gt;"",M4&amp;"&lt;br&gt;("&amp;K4&amp;")","")</f>
         <v>Tax Position&lt;br&gt;(세금 위치)</v>
       </c>
       <c r="M4" s="34" t="s">
@@ -2321,12 +2374,12 @@
       <c r="N4" s="34"/>
       <c r="O4" s="34"/>
       <c r="P4" s="1" t="str">
-        <f t="shared" ref="P4:P58" si="6">IF(Q4&lt;&gt;"",Q4&amp;"&lt;br&gt;("&amp;O4&amp;")","")</f>
+        <f t="shared" ref="P4:P61" si="6">IF(Q4&lt;&gt;"",Q4&amp;"&lt;br&gt;("&amp;O4&amp;")","")</f>
         <v/>
       </c>
       <c r="Q4" s="34"/>
       <c r="R4" s="35" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="S4" s="34" t="str">
         <f t="shared" si="1"/>
@@ -2356,10 +2409,10 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="8" t="s">
-        <v>190</v>
+        <v>407</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2376,13 +2429,13 @@
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="12" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
@@ -2404,10 +2457,10 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="8" t="s">
-        <v>191</v>
+        <v>408</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2424,13 +2477,13 @@
       </c>
       <c r="Q6" s="14"/>
       <c r="R6" s="12" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="S6" s="12" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="T6" s="12" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
@@ -2452,10 +2505,10 @@
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="8" t="s">
-        <v>192</v>
+        <v>409</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2472,13 +2525,13 @@
       </c>
       <c r="Q7" s="14"/>
       <c r="R7" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="T7" s="12" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -2500,10 +2553,10 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8" t="s">
-        <v>193</v>
+        <v>410</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2520,13 +2573,13 @@
       </c>
       <c r="Q8" s="14"/>
       <c r="R8" s="12" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="S8" s="12" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="T8" s="12" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -2548,10 +2601,10 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="8" t="s">
-        <v>194</v>
+        <v>411</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2568,13 +2621,13 @@
       </c>
       <c r="Q9" s="14"/>
       <c r="R9" s="12" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="T9" s="12" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
@@ -2596,10 +2649,10 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="8" t="s">
-        <v>195</v>
+        <v>412</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2616,13 +2669,13 @@
       </c>
       <c r="Q10" s="14"/>
       <c r="R10" s="12" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="S10" s="12" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="T10" s="12" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -2644,17 +2697,17 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="8" t="s">
-        <v>196</v>
+        <v>413</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Third Part Liability ★2nd&lt;br&gt;(제3자 책임 (2nd))</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="13"/>
@@ -2664,13 +2717,13 @@
       </c>
       <c r="Q11" s="14"/>
       <c r="R11" s="32" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="S11" s="32" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="T11" s="32" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -2692,10 +2745,10 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="8" t="s">
-        <v>197</v>
+        <v>414</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2712,13 +2765,13 @@
       </c>
       <c r="Q12" s="14"/>
       <c r="R12" s="12" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="S12" s="12" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="T12" s="12" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -2740,177 +2793,158 @@
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="8" t="s">
-        <v>198</v>
+        <v>415</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="L13" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Write-off uncollectable tax ★2nd&lt;br&gt;(징수불능 세액 탕감 (2차))</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="N13" s="8"/>
-      <c r="O13" s="13"/>
+        <v>268</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="O13" s="13" t="s">
+        <v>422</v>
+      </c>
       <c r="P13" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q13" s="14"/>
+        <v>Propose for Write off&lt;br&gt;(상각 제안)</v>
+      </c>
+      <c r="Q13" s="14" t="s">
+        <v>426</v>
+      </c>
       <c r="R13" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="S13" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="T13" s="32" t="s">
-        <v>211</v>
+        <v>430</v>
+      </c>
+      <c r="S13" s="32" t="str">
+        <f>R13</f>
+        <v>UI-DMCI-03-O-1101</v>
+      </c>
+      <c r="T13" s="32" t="str">
+        <f>R13</f>
+        <v>UI-DMCI-03-O-1101</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="7"/>
+      <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="L14" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Write back of tax ★2nd&lt;br&gt;(세액 환입 처리 (2차))</v>
-      </c>
-      <c r="M14" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="O14" s="13" t="s">
+        <v>423</v>
+      </c>
       <c r="P14" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q14" s="14"/>
+        <v>List of Submitted Write Off&lt;br&gt;(제출된 상각 목록)</v>
+      </c>
+      <c r="Q14" s="14" t="s">
+        <v>427</v>
+      </c>
       <c r="R14" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="S14" s="32" t="s">
-        <v>212</v>
-      </c>
-      <c r="T14" s="32" t="s">
-        <v>212</v>
+        <v>431</v>
+      </c>
+      <c r="S14" s="32" t="str">
+        <f t="shared" ref="S14:S16" si="7">R14</f>
+        <v>UI-DMCI-03-O-1102</v>
+      </c>
+      <c r="T14" s="32" t="str">
+        <f t="shared" ref="T14:T16" si="8">R14</f>
+        <v>UI-DMCI-03-O-1102</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="7"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="L15" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Refund Offsetting&lt;br&gt;(환급 상계)</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="N15" s="8"/>
-      <c r="O15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>424</v>
+      </c>
       <c r="P15" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="T15" s="12" t="s">
-        <v>213</v>
+        <v>List of Write off&lt;br&gt;(상각 목록)</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="R15" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="S15" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>UI-DMCI-03-O-1103</v>
+      </c>
+      <c r="T15" s="32" t="str">
+        <f t="shared" si="8"/>
+        <v>UI-DMCI-03-O-1103</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="7"/>
+      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="L16" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Interest Rate Management&lt;br&gt;(이자율 관리)</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N16" s="8"/>
-      <c r="O16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>425</v>
+      </c>
       <c r="P16" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="S16" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="T16" s="12" t="s">
-        <v>214</v>
+        <v>View Status of Write off&lt;br&gt;(상각 상태 보기)</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="R16" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="S16" s="32" t="str">
+        <f t="shared" si="7"/>
+        <v>UI-DMCI-03-O-1104</v>
+      </c>
+      <c r="T16" s="32" t="str">
+        <f t="shared" si="8"/>
+        <v>UI-DMCI-03-O-1104</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -2924,49 +2958,41 @@
         <v/>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="34" t="s">
-        <v>221</v>
-      </c>
-      <c r="G17" s="34" t="s">
-        <v>415</v>
-      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Compliance Monitoring&lt;br&gt;(이행 모니터링)</v>
-      </c>
-      <c r="I17" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>292</v>
-      </c>
-      <c r="K17" s="34" t="s">
-        <v>410</v>
+        <v/>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>393</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Tax Clearance Certificates&lt;br&gt;(세금 납부 확인서)</v>
-      </c>
-      <c r="M17" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
+        <v>Write back of tax ★2nd&lt;br&gt;(세액 환입 처리 (2차))</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="13"/>
       <c r="P17" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="S17" s="34" t="str">
-        <f t="shared" ref="S17" si="7">R17</f>
-        <v>UI-DMCI-04-O-0001</v>
-      </c>
-      <c r="T17" s="34" t="str">
-        <f t="shared" ref="T17" si="8">R17</f>
-        <v>UI-DMCI-04-O-0001</v>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="S17" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="T17" s="32" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -2980,41 +3006,41 @@
         <v/>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38" t="s">
-        <v>293</v>
-      </c>
-      <c r="K18" s="38" t="s">
-        <v>411</v>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>394</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Tax Residency Certificate&lt;br&gt;(거주자 증명서)</v>
-      </c>
-      <c r="M18" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
+        <v>Refund Offsetting&lt;br&gt;(환급 상계)</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="N18" s="8"/>
+      <c r="O18" s="13"/>
       <c r="P18" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q18" s="38"/>
+      <c r="Q18" s="14"/>
       <c r="R18" s="12" t="s">
-        <v>288</v>
+        <v>199</v>
       </c>
       <c r="S18" s="12" t="s">
-        <v>288</v>
+        <v>199</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>288</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -3028,41 +3054,41 @@
         <v/>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="1"/>
       <c r="H19" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="K19" s="38" t="s">
-        <v>412</v>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>395</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Motor vehicle Activation and Compliance check&lt;br&gt;(차량 등록 및 준수 확인)</v>
-      </c>
-      <c r="M19" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
+        <v>Interest Rate Management&lt;br&gt;(이자율 관리)</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N19" s="8"/>
+      <c r="O19" s="13"/>
       <c r="P19" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q19" s="38"/>
+      <c r="Q19" s="14"/>
       <c r="R19" s="12" t="s">
-        <v>289</v>
+        <v>200</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>289</v>
+        <v>200</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>289</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -3076,41 +3102,49 @@
         <v/>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
+      <c r="F20" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>401</v>
+      </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38" t="s">
-        <v>295</v>
-      </c>
-      <c r="K20" s="38" t="s">
-        <v>413</v>
+        <v>Compliance Monitoring&lt;br&gt;(이행 모니터링)</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="J20" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="K20" s="34" t="s">
+        <v>396</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Offense Management&lt;br&gt;(위반 사항 관리)</v>
-      </c>
-      <c r="M20" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
+        <v>Tax Clearance Certificates&lt;br&gt;(세금 납부 확인서)</v>
+      </c>
+      <c r="M20" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
       <c r="P20" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="S20" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="T20" s="12" t="s">
-        <v>290</v>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="35" t="s">
+        <v>210</v>
+      </c>
+      <c r="S20" s="34" t="str">
+        <f t="shared" ref="S20" si="9">R20</f>
+        <v>UI-DMCI-04-O-0001</v>
+      </c>
+      <c r="T20" s="34" t="str">
+        <f t="shared" ref="T20" si="10">R20</f>
+        <v>UI-DMCI-04-O-0001</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -3132,17 +3166,17 @@
       </c>
       <c r="I21" s="38"/>
       <c r="J21" s="38" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="K21" s="38" t="s">
-        <v>414</v>
+        <v>397</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Normal Flow Monitoring&lt;br&gt;(일반 흐름 모니터링)</v>
+        <v>Tax Residency Certificate&lt;br&gt;(거주자 증명서)</v>
       </c>
       <c r="M21" s="38" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="N21" s="38"/>
       <c r="O21" s="38"/>
@@ -3152,13 +3186,13 @@
       </c>
       <c r="Q21" s="38"/>
       <c r="R21" s="12" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -3172,49 +3206,41 @@
         <v/>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="G22" s="34" t="s">
-        <v>416</v>
-      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sale of Charged Asset&lt;br&gt;(담보 자산 매각)</v>
-      </c>
-      <c r="I22" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="K22" s="34" t="s">
-        <v>278</v>
+        <v/>
+      </c>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="K22" s="38" t="s">
+        <v>398</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Asset Management&lt;br&gt;(자산관리)</v>
-      </c>
-      <c r="M22" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
+        <v>Motor vehicle Activation and Compliance check&lt;br&gt;(차량 등록 및 준수 확인)</v>
+      </c>
+      <c r="M22" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
       <c r="P22" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="S22" s="34" t="str">
-        <f t="shared" ref="S22" si="9">R22</f>
-        <v>UI-DMCI-05-O-0001</v>
-      </c>
-      <c r="T22" s="34" t="str">
-        <f t="shared" ref="T22" si="10">R22</f>
-        <v>UI-DMCI-05-O-0001</v>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="S22" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="T22" s="12" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -3228,47 +3254,41 @@
         <v/>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="42"/>
+      <c r="F23" s="38"/>
       <c r="G23" s="38"/>
       <c r="H23" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I23" s="38"/>
-      <c r="J23" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="K23" s="40" t="s">
-        <v>279</v>
+      <c r="J23" s="38" t="s">
+        <v>281</v>
+      </c>
+      <c r="K23" s="38" t="s">
+        <v>399</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Valuation-Internal&lt;br&gt;(가치평가-내부)</v>
-      </c>
-      <c r="M23" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="N23" s="39" t="s">
-        <v>244</v>
-      </c>
-      <c r="O23" s="40" t="s">
-        <v>231</v>
-      </c>
+        <v>Offense Management&lt;br&gt;(위반 사항 관리)</v>
+      </c>
+      <c r="M23" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
       <c r="P23" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>New Valuation&lt;br&gt;(New Valuation)</v>
-      </c>
-      <c r="Q23" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="R23" s="41" t="s">
-        <v>249</v>
-      </c>
-      <c r="S23" s="41" t="s">
-        <v>249</v>
-      </c>
-      <c r="T23" s="41" t="s">
-        <v>249</v>
+        <v/>
+      </c>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -3282,41 +3302,41 @@
         <v/>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="42"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="38"/>
       <c r="H24" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
-      <c r="K24" s="38"/>
+      <c r="J24" s="38" t="s">
+        <v>282</v>
+      </c>
+      <c r="K24" s="38" t="s">
+        <v>400</v>
+      </c>
       <c r="L24" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M24" s="38"/>
-      <c r="N24" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="O24" s="38" t="s">
-        <v>232</v>
-      </c>
+        <v>Normal Flow Monitoring&lt;br&gt;(일반 흐름 모니터링)</v>
+      </c>
+      <c r="M24" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
       <c r="P24" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>List of Submitted valuation&lt;br&gt;(List of Submitted valuation)</v>
-      </c>
-      <c r="Q24" s="38" t="s">
-        <v>232</v>
-      </c>
+        <v/>
+      </c>
+      <c r="Q24" s="38"/>
       <c r="R24" s="12" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -3330,41 +3350,49 @@
         <v/>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="38"/>
+      <c r="F25" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>402</v>
+      </c>
       <c r="H25" s="1" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
+        <v>Sale of Charged Asset&lt;br&gt;(담보 자산 매각)</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="J25" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="K25" s="34" t="s">
+        <v>264</v>
+      </c>
       <c r="L25" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M25" s="38"/>
-      <c r="N25" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="O25" s="38" t="s">
-        <v>233</v>
-      </c>
+        <v>Asset Management&lt;br&gt;(자산관리)</v>
+      </c>
+      <c r="M25" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
       <c r="P25" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>List of valuation&lt;br&gt;(List of valuation)</v>
-      </c>
-      <c r="Q25" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="R25" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="S25" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="T25" s="12" t="s">
-        <v>251</v>
+        <v/>
+      </c>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="S25" s="34" t="str">
+        <f t="shared" ref="S25" si="11">R25</f>
+        <v>UI-DMCI-05-O-0001</v>
+      </c>
+      <c r="T25" s="34" t="str">
+        <f t="shared" ref="T25" si="12">R25</f>
+        <v>UI-DMCI-05-O-0001</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -3385,34 +3413,40 @@
         <v/>
       </c>
       <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
+      <c r="J26" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="K26" s="40" t="s">
+        <v>265</v>
+      </c>
       <c r="L26" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M26" s="38"/>
-      <c r="N26" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="O26" s="38" t="s">
-        <v>234</v>
+        <v>Valuation-Internal&lt;br&gt;(가치평가-내부)</v>
+      </c>
+      <c r="M26" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="N26" s="39" t="s">
+        <v>230</v>
+      </c>
+      <c r="O26" s="40" t="s">
+        <v>217</v>
       </c>
       <c r="P26" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
-      </c>
-      <c r="Q26" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="R26" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="S26" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="T26" s="12" t="s">
-        <v>252</v>
+        <v>New Valuation&lt;br&gt;(New Valuation)</v>
+      </c>
+      <c r="Q26" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="R26" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="S26" s="41" t="s">
+        <v>235</v>
+      </c>
+      <c r="T26" s="41" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -3433,40 +3467,34 @@
         <v/>
       </c>
       <c r="I27" s="38"/>
-      <c r="J27" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="K27" s="40" t="s">
-        <v>280</v>
-      </c>
+      <c r="J27" s="38"/>
+      <c r="K27" s="38"/>
       <c r="L27" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Valuation-External&lt;br&gt;(가치평가-외부)</v>
-      </c>
-      <c r="M27" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="N27" s="39" t="s">
-        <v>240</v>
-      </c>
-      <c r="O27" s="40" t="s">
-        <v>235</v>
+        <v/>
+      </c>
+      <c r="M27" s="38"/>
+      <c r="N27" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O27" s="38" t="s">
+        <v>218</v>
       </c>
       <c r="P27" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>New valuation request&lt;br&gt;(New valuation request)</v>
-      </c>
-      <c r="Q27" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="R27" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="S27" s="41" t="s">
-        <v>253</v>
-      </c>
-      <c r="T27" s="41" t="s">
-        <v>253</v>
+        <v>List of Submitted valuation&lt;br&gt;(List of Submitted valuation)</v>
+      </c>
+      <c r="Q27" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="R27" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="S27" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="T27" s="12" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -3495,26 +3523,26 @@
       </c>
       <c r="M28" s="38"/>
       <c r="N28" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="O28" s="38" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="P28" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>List of submitted valuation requests&lt;br&gt;(List of submitted valuation requests)</v>
+        <v>List of valuation&lt;br&gt;(List of valuation)</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="R28" s="12" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="S28" s="12" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -3543,26 +3571,26 @@
       </c>
       <c r="M29" s="38"/>
       <c r="N29" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="O29" s="38" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="P29" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>List of valuation requests&lt;br&gt;(List of valuation requests)</v>
+        <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
       </c>
       <c r="Q29" s="38" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="R29" s="12" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -3583,34 +3611,40 @@
         <v/>
       </c>
       <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
-      <c r="K30" s="38"/>
+      <c r="J30" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="K30" s="40" t="s">
+        <v>266</v>
+      </c>
       <c r="L30" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M30" s="38"/>
-      <c r="N30" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="O30" s="38" t="s">
-        <v>238</v>
+        <v>Valuation-External&lt;br&gt;(가치평가-외부)</v>
+      </c>
+      <c r="M30" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="N30" s="39" t="s">
+        <v>226</v>
+      </c>
+      <c r="O30" s="40" t="s">
+        <v>221</v>
       </c>
       <c r="P30" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>List of valuation response&lt;br&gt;(List of valuation response)</v>
-      </c>
-      <c r="Q30" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="R30" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="S30" s="12" t="s">
-        <v>256</v>
-      </c>
-      <c r="T30" s="12" t="s">
-        <v>256</v>
+        <v>New valuation request&lt;br&gt;(New valuation request)</v>
+      </c>
+      <c r="Q30" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="R30" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="S30" s="41" t="s">
+        <v>239</v>
+      </c>
+      <c r="T30" s="41" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -3639,26 +3673,26 @@
       </c>
       <c r="M31" s="38"/>
       <c r="N31" s="1" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="O31" s="38" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="P31" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
+        <v>List of submitted valuation requests&lt;br&gt;(List of submitted valuation requests)</v>
       </c>
       <c r="Q31" s="38" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R31" s="12" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -3679,40 +3713,34 @@
         <v/>
       </c>
       <c r="I32" s="38"/>
-      <c r="J32" s="40" t="s">
-        <v>260</v>
-      </c>
-      <c r="K32" s="44" t="s">
-        <v>266</v>
-      </c>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
       <c r="L32" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Pre-auction processing ★2nd&lt;br&gt;(공매 전 처리)</v>
-      </c>
-      <c r="M32" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="N32" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="O32" s="45" t="s">
-        <v>262</v>
+        <v/>
+      </c>
+      <c r="M32" s="38"/>
+      <c r="N32" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O32" s="38" t="s">
+        <v>223</v>
       </c>
       <c r="P32" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Notification of Itention to sale the Changed Asset&lt;br&gt;(부과자산 매각의사 통지)</v>
-      </c>
-      <c r="Q32" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="R32" s="41" t="s">
-        <v>274</v>
-      </c>
-      <c r="S32" s="41" t="s">
-        <v>274</v>
-      </c>
-      <c r="T32" s="41" t="s">
-        <v>274</v>
+        <v>List of valuation requests&lt;br&gt;(List of valuation requests)</v>
+      </c>
+      <c r="Q32" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="R32" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="S32" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="T32" s="12" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -3733,32 +3761,34 @@
         <v/>
       </c>
       <c r="I33" s="38"/>
-      <c r="J33" s="9"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
       <c r="L33" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N33" s="43" t="s">
-        <v>269</v>
-      </c>
-      <c r="O33" s="1" t="s">
-        <v>299</v>
+      <c r="M33" s="38"/>
+      <c r="N33" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="O33" s="38" t="s">
+        <v>224</v>
       </c>
       <c r="P33" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>List Assets for Public Auction&lt;br&gt;(공개 경매를 위한 자산 목록)</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>300</v>
+        <v>List of valuation response&lt;br&gt;(List of valuation response)</v>
+      </c>
+      <c r="Q33" s="38" t="s">
+        <v>224</v>
       </c>
       <c r="R33" s="12" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="S33" s="12" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>275</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -3779,32 +3809,34 @@
         <v/>
       </c>
       <c r="I34" s="38"/>
-      <c r="J34" s="9"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
       <c r="L34" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N34" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>264</v>
+      <c r="M34" s="38"/>
+      <c r="N34" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O34" s="38" t="s">
+        <v>220</v>
       </c>
       <c r="P34" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Asset Publishing&lt;br&gt;(자산 게시)</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>265</v>
+        <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
+      </c>
+      <c r="Q34" s="38" t="s">
+        <v>220</v>
       </c>
       <c r="R34" s="12" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="S34" s="12" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -3826,95 +3858,85 @@
       </c>
       <c r="I35" s="38"/>
       <c r="J35" s="40" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="K35" s="44" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="L35" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Post-auction processing ★2nd&lt;br&gt;(공매 후 처리)</v>
-      </c>
-      <c r="M35" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="N35" s="40" t="s">
-        <v>273</v>
-      </c>
-      <c r="O35" s="40" t="s">
-        <v>272</v>
+        <v>Pre-auction processing ★2nd&lt;br&gt;(공매 전 처리)</v>
+      </c>
+      <c r="M35" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="N35" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="O35" s="45" t="s">
+        <v>248</v>
       </c>
       <c r="P35" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Distribution od proceeds account&lt;br&gt;(수익금 배분계좌)</v>
-      </c>
-      <c r="Q35" s="40" t="s">
-        <v>271</v>
+        <v>Notification of Itention to sale the Changed Asset&lt;br&gt;(부과자산 매각의사 통지)</v>
+      </c>
+      <c r="Q35" s="45" t="s">
+        <v>247</v>
       </c>
       <c r="R35" s="41" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="S35" s="41" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="T35" s="41" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E36" s="37"/>
-      <c r="F36" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="G36" s="34" t="s">
-        <v>40</v>
-      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="38"/>
       <c r="H36" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Block Management&lt;br&gt;(블록 관리)</v>
-      </c>
-      <c r="I36" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J36" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="K36" s="34" t="s">
-        <v>9</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I36" s="38"/>
+      <c r="J36" s="9"/>
       <c r="L36" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Dashboard&lt;br&gt;(Dashboard)</v>
-      </c>
-      <c r="M36" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
+        <v/>
+      </c>
+      <c r="N36" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>285</v>
+      </c>
       <c r="P36" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="S36" s="34" t="str">
-        <f t="shared" ref="S36:S58" si="11">R36</f>
-        <v>UI-DMCI-02-O-0001</v>
-      </c>
-      <c r="T36" s="34" t="str">
-        <f t="shared" ref="T36:T58" si="12">R36</f>
-        <v>UI-DMCI-02-O-0001</v>
+        <v>List Assets for Public Auction&lt;br&gt;(공개 경매를 위한 자산 목록)</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="R36" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="S36" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="T36" s="12" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -3928,49 +3950,39 @@
         <v/>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="1"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="38"/>
       <c r="H37" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="I37" s="38"/>
+      <c r="J37" s="9"/>
       <c r="L37" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Block Management&lt;br&gt;(블록 관리)</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N37" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="O37" s="13" t="s">
-        <v>41</v>
+        <v/>
+      </c>
+      <c r="N37" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="P37" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Registered Blocks&lt;br&gt;(등록된 블록)</v>
-      </c>
-      <c r="Q37" s="14" t="s">
-        <v>42</v>
+        <v>Asset Publishing&lt;br&gt;(자산 게시)</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>251</v>
       </c>
       <c r="R37" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="S37" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>UI-DMCI-02-O-0002</v>
-      </c>
-      <c r="T37" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>UI-DMCI-02-O-0002</v>
+        <v>262</v>
+      </c>
+      <c r="S37" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="T37" s="12" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -3984,96 +3996,106 @@
         <v/>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="1"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="38"/>
       <c r="H38" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="1"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="K38" s="44" t="s">
+        <v>253</v>
+      </c>
       <c r="L38" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M38" s="1"/>
-      <c r="N38" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="O38" s="13" t="s">
-        <v>43</v>
+        <v>Post-auction processing ★2nd&lt;br&gt;(공매 후 처리)</v>
+      </c>
+      <c r="M38" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="N38" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="O38" s="40" t="s">
+        <v>258</v>
       </c>
       <c r="P38" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Registered Sub Blocks&lt;br&gt;(등록된 하위 블록)</v>
-      </c>
-      <c r="Q38" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="R38" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="S38" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>UI-DMCI-02-O-0003</v>
-      </c>
-      <c r="T38" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>UI-DMCI-02-O-0003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Distribution od proceeds account&lt;br&gt;(수익금 배분계좌)</v>
+      </c>
+      <c r="Q38" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="R38" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="S38" s="41" t="s">
+        <v>263</v>
+      </c>
+      <c r="T38" s="41" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="1"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>40</v>
+      </c>
       <c r="H39" s="1" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="1"/>
+        <v>Block Management&lt;br&gt;(블록 관리)</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J39" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="K39" s="34" t="s">
+        <v>9</v>
+      </c>
       <c r="L39" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M39" s="1"/>
-      <c r="N39" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="O39" s="13" t="s">
-        <v>45</v>
-      </c>
+        <v>Dashboard&lt;br&gt;(Dashboard)</v>
+      </c>
+      <c r="M39" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
       <c r="P39" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Block Team Leader&lt;br&gt;(블록 팀 리더)</v>
-      </c>
-      <c r="Q39" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="R39" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="S39" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>UI-DMCI-02-O-0004</v>
-      </c>
-      <c r="T39" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>UI-DMCI-02-O-0004</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <v/>
+      </c>
+      <c r="Q39" s="34"/>
+      <c r="R39" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="S39" s="34" t="str">
+        <f t="shared" ref="S39:S61" si="13">R39</f>
+        <v>UI-DMCI-02-O-0001</v>
+      </c>
+      <c r="T39" s="34" t="str">
+        <f t="shared" ref="T39:T61" si="14">R39</f>
+        <v>UI-DMCI-02-O-0001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
@@ -4091,192 +4113,198 @@
         <v/>
       </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>47</v>
+      <c r="J40" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="L40" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Physical Survey&lt;br&gt;(물리적 조사)</v>
-      </c>
-      <c r="M40" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N40" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="O40" s="29" t="s">
-        <v>49</v>
+        <v>Block Management&lt;br&gt;(블록 관리)</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="O40" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="P40" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Physical Survey Plan&lt;br&gt;(실사 계획 수립)</v>
-      </c>
-      <c r="Q40" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="R40" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="S40" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>UI-DMCI-02-O-0005</v>
-      </c>
-      <c r="T40" s="10" t="str">
-        <f t="shared" si="12"/>
-        <v>UI-DMCI-02-O-0005</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <v>Registered Blocks&lt;br&gt;(등록된 블록)</v>
+      </c>
+      <c r="Q40" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R40" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="S40" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>UI-DMCI-02-O-0002</v>
+      </c>
+      <c r="T40" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>UI-DMCI-02-O-0002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
       <c r="D41" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E41" s="26"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="13"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="1"/>
       <c r="H41" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I41" s="13"/>
+      <c r="I41" s="1"/>
       <c r="J41" s="8"/>
-      <c r="K41" s="13"/>
+      <c r="K41" s="1"/>
       <c r="L41" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M41" s="14"/>
+      <c r="M41" s="1"/>
       <c r="N41" s="8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="O41" s="13" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="P41" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Request to Conduct Physical Survey&lt;br&gt;(실사 수행 요청)</v>
+        <v>Registered Sub Blocks&lt;br&gt;(등록된 하위 블록)</v>
       </c>
       <c r="Q41" s="14" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="R41" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S41" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>UI-DMCI-02-O-0006</v>
+        <f t="shared" si="13"/>
+        <v>UI-DMCI-02-O-0003</v>
       </c>
       <c r="T41" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>UI-DMCI-02-O-0006</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>UI-DMCI-02-O-0003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
       <c r="D42" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="13"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="1"/>
       <c r="H42" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I42" s="13"/>
+      <c r="I42" s="1"/>
       <c r="J42" s="8"/>
-      <c r="K42" s="13"/>
+      <c r="K42" s="1"/>
       <c r="L42" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M42" s="14"/>
+      <c r="M42" s="1"/>
       <c r="N42" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="O42" s="13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="P42" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Approval of Request to conduct Physical Survey&lt;br&gt;(실사 수행 요청 승인)</v>
+        <v>Block Team Leader&lt;br&gt;(블록 팀 리더)</v>
       </c>
       <c r="Q42" s="14" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="R42" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="S42" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>UI-DMCI-02-O-0007</v>
+        <f t="shared" si="13"/>
+        <v>UI-DMCI-02-O-0004</v>
       </c>
       <c r="T42" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>UI-DMCI-02-O-0007</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>UI-DMCI-02-O-0004</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
       <c r="D43" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E43" s="26"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="13"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="1"/>
       <c r="H43" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I43" s="13"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="13"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="L43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M43" s="14"/>
-      <c r="N43" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="O43" s="13" t="s">
-        <v>55</v>
+        <v>Physical Survey&lt;br&gt;(물리적 조사)</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N43" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="O43" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="P43" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Conducting Block Physical Survey (Mobile WEB)&lt;br&gt;(블록 실사 수행(모바일 웹))</v>
-      </c>
-      <c r="Q43" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="R43" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="S43" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>UI-DMCI-02-O-0008</v>
-      </c>
-      <c r="T43" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>UI-DMCI-02-O-0008</v>
+        <v>Physical Survey Plan&lt;br&gt;(실사 계획 수립)</v>
+      </c>
+      <c r="Q43" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="R43" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="S43" s="10" t="str">
+        <f t="shared" si="13"/>
+        <v>UI-DMCI-02-O-0005</v>
+      </c>
+      <c r="T43" s="10" t="str">
+        <f t="shared" si="14"/>
+        <v>UI-DMCI-02-O-0005</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="27" x14ac:dyDescent="0.25">
@@ -4305,198 +4333,192 @@
       </c>
       <c r="M44" s="14"/>
       <c r="N44" s="8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O44" s="13" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P44" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>View Collected Physical Survey Data&lt;br&gt;(수집된 물리적 조사 데이터 보기)</v>
+        <v>Request to Conduct Physical Survey&lt;br&gt;(실사 수행 요청)</v>
       </c>
       <c r="Q44" s="14" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="R44" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S44" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>UI-DMCI-02-O-0009</v>
+        <f t="shared" si="13"/>
+        <v>UI-DMCI-02-O-0006</v>
       </c>
       <c r="T44" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>UI-DMCI-02-O-0009</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>UI-DMCI-02-O-0006</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E45" s="27"/>
+      <c r="E45" s="26"/>
       <c r="F45" s="15"/>
-      <c r="G45" s="1"/>
+      <c r="G45" s="13"/>
       <c r="H45" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K45" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="I45" s="13"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="13"/>
       <c r="L45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>NaPA Address Management&lt;br&gt;(NaPA 주소 관리)</v>
-      </c>
-      <c r="M45" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
+        <v/>
+      </c>
+      <c r="M45" s="14"/>
+      <c r="N45" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="O45" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="P45" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="11" t="s">
-        <v>84</v>
+        <v>Approval of Request to conduct Physical Survey&lt;br&gt;(실사 수행 요청 승인)</v>
+      </c>
+      <c r="Q45" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R45" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="S45" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>UI-DMCI-02-O-0010</v>
+        <f t="shared" si="13"/>
+        <v>UI-DMCI-02-O-0007</v>
       </c>
       <c r="T45" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>UI-DMCI-02-O-0010</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>UI-DMCI-02-O-0007</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E46" s="27"/>
+      <c r="E46" s="26"/>
       <c r="F46" s="15"/>
-      <c r="G46" s="1"/>
+      <c r="G46" s="13"/>
       <c r="H46" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K46" s="10" t="s">
-        <v>61</v>
-      </c>
+      <c r="I46" s="13"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="13"/>
       <c r="L46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Reports&lt;br&gt;(보고서)</v>
-      </c>
-      <c r="M46" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
+        <v/>
+      </c>
+      <c r="M46" s="14"/>
+      <c r="N46" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="O46" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="P46" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="11" t="s">
-        <v>85</v>
+        <v>Conducting Block Physical Survey (Mobile WEB)&lt;br&gt;(블록 실사 수행(모바일 웹))</v>
+      </c>
+      <c r="Q46" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R46" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="S46" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>UI-DMCI-02-O-0011</v>
+        <f t="shared" si="13"/>
+        <v>UI-DMCI-02-O-0008</v>
       </c>
       <c r="T46" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>UI-DMCI-02-O-0011</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>UI-DMCI-02-O-0008</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E47" s="1"/>
-      <c r="F47" s="34" t="s">
-        <v>220</v>
-      </c>
-      <c r="G47" s="34" t="s">
-        <v>417</v>
-      </c>
+      <c r="E47" s="26"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="13"/>
       <c r="H47" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Data Cleanup Tool&lt;br&gt;(데이터 클린업 도구)</v>
-      </c>
-      <c r="I47" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="K47" s="34" t="s">
-        <v>9</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I47" s="13"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="13"/>
       <c r="L47" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Dashboard&lt;br&gt;(Dashboard)</v>
-      </c>
-      <c r="M47" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
+        <v/>
+      </c>
+      <c r="M47" s="14"/>
+      <c r="N47" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="O47" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="P47" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="S47" s="34" t="str">
-        <f t="shared" si="11"/>
-        <v>UI-DMCI-01-O-0001</v>
-      </c>
-      <c r="T47" s="34" t="str">
-        <f t="shared" si="12"/>
-        <v>UI-DMCI-01-O-0001</v>
+        <v>View Collected Physical Survey Data&lt;br&gt;(수집된 물리적 조사 데이터 보기)</v>
+      </c>
+      <c r="Q47" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="R47" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="S47" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>UI-DMCI-02-O-0009</v>
+      </c>
+      <c r="T47" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>UI-DMCI-02-O-0009</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
       <c r="D48" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E48" s="1"/>
-      <c r="F48" s="7"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="15"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4504,260 +4526,260 @@
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K48" s="1" t="s">
-        <v>24</v>
+        <v>102</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="L48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Case Management&lt;br&gt;(Case Management)</v>
-      </c>
-      <c r="M48" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N48" s="8"/>
-      <c r="O48" s="21"/>
+        <v>NaPA Address Management&lt;br&gt;(NaPA 주소 관리)</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N48" s="10"/>
+      <c r="O48" s="10"/>
       <c r="P48" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="12" t="s">
-        <v>64</v>
+      <c r="Q48" s="10"/>
+      <c r="R48" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="S48" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>UI-DMCI-01-O-0003</v>
+        <f t="shared" si="13"/>
+        <v>UI-DMCI-02-O-0010</v>
       </c>
       <c r="T48" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>UI-DMCI-01-O-0003</v>
+        <f t="shared" si="14"/>
+        <v>UI-DMCI-02-O-0010</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
       <c r="D49" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E49" s="13"/>
+      <c r="E49" s="27"/>
       <c r="F49" s="15"/>
-      <c r="G49" s="13"/>
+      <c r="G49" s="1"/>
       <c r="H49" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I49" s="13"/>
+      <c r="I49" s="1"/>
       <c r="J49" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>30</v>
+        <v>103</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="L49" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Data Cleanup Reports&lt;br&gt;(Data Cleanup Reports)</v>
-      </c>
-      <c r="M49" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N49" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="O49" s="13" t="s">
-        <v>16</v>
-      </c>
+        <v>Reports&lt;br&gt;(보고서)</v>
+      </c>
+      <c r="M49" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
       <c r="P49" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Executive Reports&lt;br&gt;(관리자용 요약 보고서)</v>
-      </c>
-      <c r="Q49" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="R49" s="12" t="s">
-        <v>65</v>
+        <v/>
+      </c>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="S49" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>UI-DMCI-01-O-0013</v>
+        <f t="shared" si="13"/>
+        <v>UI-DMCI-02-O-0011</v>
       </c>
       <c r="T49" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>UI-DMCI-01-O-0013</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="14"/>
+        <v>UI-DMCI-02-O-0011</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
       <c r="D50" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E50" s="13"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="13"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="G50" s="34" t="s">
+        <v>403</v>
+      </c>
       <c r="H50" s="1" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I50" s="13"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="13"/>
+        <v>Data Cleanup Tool&lt;br&gt;(데이터 클린업 도구)</v>
+      </c>
+      <c r="I50" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="K50" s="34" t="s">
+        <v>9</v>
+      </c>
       <c r="L50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M50" s="14"/>
-      <c r="N50" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="O50" s="13" t="s">
-        <v>17</v>
-      </c>
+        <v>Dashboard&lt;br&gt;(Dashboard)</v>
+      </c>
+      <c r="M50" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N50" s="34"/>
+      <c r="O50" s="34"/>
       <c r="P50" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Detailed Reports&lt;br&gt;(상세 보고서)</v>
-      </c>
-      <c r="Q50" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="R50" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="S50" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>UI-DMCI-01-O-0014</v>
-      </c>
-      <c r="T50" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>UI-DMCI-01-O-0014</v>
+        <v/>
+      </c>
+      <c r="Q50" s="34"/>
+      <c r="R50" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="S50" s="34" t="str">
+        <f t="shared" si="13"/>
+        <v>UI-DMCI-01-O-0001</v>
+      </c>
+      <c r="T50" s="34" t="str">
+        <f t="shared" si="14"/>
+        <v>UI-DMCI-01-O-0001</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
       <c r="D51" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E51" s="26"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="13"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="1"/>
       <c r="H51" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I51" s="13"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="13"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="L51" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M51" s="14"/>
-      <c r="N51" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="O51" s="13" t="s">
-        <v>18</v>
-      </c>
+        <v>Case Management&lt;br&gt;(Case Management)</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N51" s="8"/>
+      <c r="O51" s="21"/>
       <c r="P51" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Potential Errors Reports&lt;br&gt;(잠재적 오류에 대한 보고서)</v>
-      </c>
-      <c r="Q51" s="14" t="s">
-        <v>14</v>
-      </c>
+        <v/>
+      </c>
+      <c r="Q51" s="21"/>
       <c r="R51" s="12" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="S51" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>UI-DMCI-01-O-0015</v>
+        <f t="shared" si="13"/>
+        <v>UI-DMCI-01-O-0003</v>
       </c>
       <c r="T51" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>UI-DMCI-01-O-0015</v>
+        <f t="shared" si="14"/>
+        <v>UI-DMCI-01-O-0003</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="13"/>
       <c r="D52" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E52" s="27"/>
+      <c r="E52" s="13"/>
       <c r="F52" s="15"/>
-      <c r="G52" s="1"/>
+      <c r="G52" s="13"/>
       <c r="H52" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I52" s="1"/>
+      <c r="I52" s="13"/>
       <c r="J52" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>31</v>
+        <v>97</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="L52" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Detail&lt;br&gt;(Detail)</v>
-      </c>
-      <c r="M52" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N52" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O52" s="10" t="s">
-        <v>32</v>
+        <v>Data Cleanup Reports&lt;br&gt;(Data Cleanup Reports)</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="O52" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="P52" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1 Payments without Debit Number&lt;br&gt;(1 Payments without Debit Number)</v>
-      </c>
-      <c r="Q52" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R52" s="11" t="s">
-        <v>68</v>
+        <v>Executive Reports&lt;br&gt;(관리자용 요약 보고서)</v>
+      </c>
+      <c r="Q52" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R52" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="S52" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>UI-DMCI-01-O-1001</v>
+        <f t="shared" si="13"/>
+        <v>UI-DMCI-01-O-0013</v>
       </c>
       <c r="T52" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>UI-DMCI-01-O-1001</v>
+        <f t="shared" si="14"/>
+        <v>UI-DMCI-01-O-0013</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
       <c r="D53" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E53" s="26"/>
+      <c r="E53" s="13"/>
       <c r="F53" s="15"/>
       <c r="G53" s="13"/>
       <c r="H53" s="1" t="str">
@@ -4772,42 +4794,42 @@
         <v/>
       </c>
       <c r="M53" s="14"/>
-      <c r="N53" s="10" t="s">
-        <v>118</v>
+      <c r="N53" s="8" t="s">
+        <v>115</v>
       </c>
       <c r="O53" s="13" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="P53" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>2 Incorrect Posting&lt;br&gt;(2 Incorrect Posting)</v>
-      </c>
-      <c r="Q53" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R53" s="11" t="s">
-        <v>69</v>
+        <v>Detailed Reports&lt;br&gt;(상세 보고서)</v>
+      </c>
+      <c r="Q53" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R53" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="S53" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>UI-DMCI-01-O-1002</v>
+        <f t="shared" si="13"/>
+        <v>UI-DMCI-01-O-0014</v>
       </c>
       <c r="T53" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>UI-DMCI-01-O-1002</v>
+        <f t="shared" si="14"/>
+        <v>UI-DMCI-01-O-0014</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E54" s="13"/>
+      <c r="E54" s="26"/>
       <c r="F54" s="15"/>
       <c r="G54" s="13"/>
       <c r="H54" s="1" t="str">
@@ -4822,92 +4844,98 @@
         <v/>
       </c>
       <c r="M54" s="14"/>
-      <c r="N54" s="10" t="s">
-        <v>119</v>
+      <c r="N54" s="8" t="s">
+        <v>116</v>
       </c>
       <c r="O54" s="13" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="P54" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>3 Duplicate Assessments&lt;br&gt;(3 Duplicate Assessments)</v>
-      </c>
-      <c r="Q54" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="R54" s="11" t="s">
-        <v>70</v>
+        <v>Potential Errors Reports&lt;br&gt;(잠재적 오류에 대한 보고서)</v>
+      </c>
+      <c r="Q54" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R54" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="S54" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>UI-DMCI-01-O-1003</v>
+        <f t="shared" si="13"/>
+        <v>UI-DMCI-01-O-0015</v>
       </c>
       <c r="T54" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>UI-DMCI-01-O-1003</v>
+        <f t="shared" si="14"/>
+        <v>UI-DMCI-01-O-0015</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="27"/>
       <c r="D55" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E55" s="13"/>
+      <c r="E55" s="27"/>
       <c r="F55" s="15"/>
-      <c r="G55" s="13"/>
+      <c r="G55" s="1"/>
       <c r="H55" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I55" s="13"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="13"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M55" s="14"/>
+        <v>Detail&lt;br&gt;(Detail)</v>
+      </c>
+      <c r="M55" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="N55" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="O55" s="13" t="s">
-        <v>35</v>
+        <v>117</v>
+      </c>
+      <c r="O55" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="P55" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>4 Vacated Assessments&lt;br&gt;(4 Vacated Assessments)</v>
-      </c>
-      <c r="Q55" s="13" t="s">
-        <v>35</v>
+        <v>1 Payments without Debit Number&lt;br&gt;(1 Payments without Debit Number)</v>
+      </c>
+      <c r="Q55" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="R55" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="S55" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>UI-DMCI-01-O-1004</v>
+        <f t="shared" si="13"/>
+        <v>UI-DMCI-01-O-1001</v>
       </c>
       <c r="T55" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>UI-DMCI-01-O-1004</v>
+        <f t="shared" si="14"/>
+        <v>UI-DMCI-01-O-1001</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E56" s="13"/>
+      <c r="E56" s="26"/>
       <c r="F56" s="15"/>
       <c r="G56" s="13"/>
       <c r="H56" s="1" t="str">
@@ -4923,28 +4951,28 @@
       </c>
       <c r="M56" s="14"/>
       <c r="N56" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="O56" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P56" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>6 Wrong Assessment&lt;br&gt;(6 Wrong Assessment)</v>
+        <v>2 Incorrect Posting&lt;br&gt;(2 Incorrect Posting)</v>
       </c>
       <c r="Q56" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="R56" s="11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="S56" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>UI-DMCI-01-O-1006</v>
+        <f t="shared" si="13"/>
+        <v>UI-DMCI-01-O-1002</v>
       </c>
       <c r="T56" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>UI-DMCI-01-O-1006</v>
+        <f t="shared" si="14"/>
+        <v>UI-DMCI-01-O-1002</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -4973,28 +5001,28 @@
       </c>
       <c r="M57" s="14"/>
       <c r="N57" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="O57" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P57" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>8 Lumpsum Payment&lt;br&gt;(8 Lumpsum Payment)</v>
+        <v>3 Duplicate Assessments&lt;br&gt;(3 Duplicate Assessments)</v>
       </c>
       <c r="Q57" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R57" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="S57" s="1" t="str">
-        <f t="shared" si="11"/>
-        <v>UI-DMCI-01-O-1008</v>
+        <f t="shared" si="13"/>
+        <v>UI-DMCI-01-O-1003</v>
       </c>
       <c r="T57" s="1" t="str">
-        <f t="shared" si="12"/>
-        <v>UI-DMCI-01-O-1008</v>
+        <f t="shared" si="14"/>
+        <v>UI-DMCI-01-O-1003</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -5023,276 +5051,273 @@
       </c>
       <c r="M58" s="14"/>
       <c r="N58" s="10" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="O58" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P58" s="1" t="str">
         <f t="shared" si="6"/>
+        <v>4 Vacated Assessments&lt;br&gt;(4 Vacated Assessments)</v>
+      </c>
+      <c r="Q58" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R58" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="S58" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>UI-DMCI-01-O-1004</v>
+      </c>
+      <c r="T58" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>UI-DMCI-01-O-1004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E59" s="13"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I59" s="13"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M59" s="14"/>
+      <c r="N59" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="O59" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P59" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>6 Wrong Assessment&lt;br&gt;(6 Wrong Assessment)</v>
+      </c>
+      <c r="Q59" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R59" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="S59" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>UI-DMCI-01-O-1006</v>
+      </c>
+      <c r="T59" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>UI-DMCI-01-O-1006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E60" s="13"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I60" s="13"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M60" s="14"/>
+      <c r="N60" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="O60" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P60" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>8 Lumpsum Payment&lt;br&gt;(8 Lumpsum Payment)</v>
+      </c>
+      <c r="Q60" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R60" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="S60" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>UI-DMCI-01-O-1008</v>
+      </c>
+      <c r="T60" s="1" t="str">
+        <f t="shared" si="14"/>
+        <v>UI-DMCI-01-O-1008</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E61" s="13"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I61" s="13"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M61" s="14"/>
+      <c r="N61" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O61" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P61" s="1" t="str">
+        <f t="shared" si="6"/>
         <v>9 Reverse Cancelled Assessment&lt;br&gt;(9 Reverse Cancelled Assessment)</v>
       </c>
-      <c r="Q58" s="13" t="s">
+      <c r="Q61" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="R58" s="11" t="s">
+      <c r="R61" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="S58" s="1" t="str">
-        <f t="shared" si="11"/>
+      <c r="S61" s="1" t="str">
+        <f t="shared" si="13"/>
         <v>UI-DMCI-01-O-1009</v>
       </c>
-      <c r="T58" s="1" t="str">
-        <f t="shared" si="12"/>
+      <c r="T61" s="1" t="str">
+        <f t="shared" si="14"/>
         <v>UI-DMCI-01-O-1009</v>
       </c>
     </row>
-    <row r="59" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
+    <row r="62" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="23" t="s">
+      <c r="B62" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C59" s="23" t="s">
+      <c r="C62" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="23" t="str">
+      <c r="D62" s="23" t="str">
         <f t="shared" si="3"/>
         <v>Reviewer&lt;br&gt;(Reviewer)</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E62" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F59" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="G59" s="34" t="s">
-        <v>418</v>
-      </c>
-      <c r="H59" s="23" t="str">
-        <f t="shared" ref="H59:H110" si="13">IF(I59&lt;&gt;"",I59&amp;"&lt;br&gt;("&amp;G59&amp;")","")</f>
+      <c r="F62" s="34" t="s">
+        <v>287</v>
+      </c>
+      <c r="G62" s="34" t="s">
+        <v>404</v>
+      </c>
+      <c r="H62" s="23" t="str">
+        <f t="shared" ref="H62:H113" si="15">IF(I62&lt;&gt;"",I62&amp;"&lt;br&gt;("&amp;G62&amp;")","")</f>
         <v>Debt Enforcement&lt;br&gt;(채무 집행)</v>
       </c>
-      <c r="I59" s="34" t="s">
+      <c r="I62" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="J59" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="K59" s="34" t="s">
+      <c r="J62" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="K62" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="L59" s="23" t="str">
-        <f t="shared" ref="L59:L110" si="14">IF(M59&lt;&gt;"",M59&amp;"&lt;br&gt;("&amp;K59&amp;")","")</f>
+      <c r="L62" s="23" t="str">
+        <f t="shared" ref="L62:L113" si="16">IF(M62&lt;&gt;"",M62&amp;"&lt;br&gt;("&amp;K62&amp;")","")</f>
         <v>Tax Position&lt;br&gt;(Tax Position)</v>
       </c>
-      <c r="M59" s="34" t="s">
+      <c r="M62" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="N59" s="34"/>
-      <c r="O59" s="34"/>
-      <c r="P59" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="S59" s="34" t="str">
-        <f t="shared" ref="S59:S110" si="15">R59</f>
-        <v>UI-DMCI-03-R-0001</v>
-      </c>
-      <c r="T59" s="34" t="str">
-        <f t="shared" ref="T59:T110" si="16">R59</f>
-        <v>UI-DMCI-03-R-0001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="str">
-        <f t="shared" ref="A60:A113" si="17">IF(B60="", A59, IF(B60="FN-E-DMC","E","I"))</f>
-        <v>R</v>
-      </c>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1" t="str">
-        <f t="shared" ref="D60:D110" si="18">IF(E60&lt;&gt;"",E60&amp;"&lt;br&gt;("&amp;C60&amp;")","")</f>
-        <v/>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I60" s="1"/>
-      <c r="J60" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="K60" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="L60" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Demand Notice&lt;br&gt;(Demand Notice)</v>
-      </c>
-      <c r="M60" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="N60" s="8"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q60" s="14"/>
-      <c r="R60" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="S60" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-03-R-0002</v>
-      </c>
-      <c r="T60" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-03-R-0002</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>R</v>
-      </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I61" s="1"/>
-      <c r="J61" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="K61" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="L61" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Extention of Time for Paying Tax&lt;br&gt;(Extention of Time for Paying Tax)</v>
-      </c>
-      <c r="M61" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="N61" s="8"/>
-      <c r="O61" s="13"/>
-      <c r="P61" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="S61" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-03-R-0003</v>
-      </c>
-      <c r="T61" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-03-R-0003</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>R</v>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I62" s="1"/>
-      <c r="J62" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="K62" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="L62" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Agency Notice&lt;br&gt;(Agency Notice)</v>
-      </c>
-      <c r="M62" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="N62" s="8"/>
-      <c r="O62" s="13"/>
+      <c r="N62" s="34"/>
+      <c r="O62" s="34"/>
       <c r="P62" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q62" s="14"/>
-      <c r="R62" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="S62" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-03-R-0004</v>
-      </c>
-      <c r="T62" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-03-R-0004</v>
+      <c r="Q62" s="34"/>
+      <c r="R62" s="35" t="s">
+        <v>316</v>
+      </c>
+      <c r="S62" s="34" t="str">
+        <f t="shared" ref="S62:S113" si="17">R62</f>
+        <v>UI-DMCI-03-R-0001</v>
+      </c>
+      <c r="T62" s="34" t="str">
+        <f t="shared" ref="T62:T113" si="18">R62</f>
+        <v>UI-DMCI-03-R-0001</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="A63:A116" si="19">IF(B63="", A62, IF(B63="FN-E-DMC","E","I"))</f>
         <v>R</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="D63:D113" si="20">IF(E63&lt;&gt;"",E63&amp;"&lt;br&gt;("&amp;C63&amp;")","")</f>
         <v/>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="7"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="8" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="L63" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Departure Prohibition Order&lt;br&gt;(Departure Prohibition Order)</v>
+        <f t="shared" si="16"/>
+        <v>Demand Notice&lt;br&gt;(Demand Notice)</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N63" s="8"/>
       <c r="O63" s="13"/>
@@ -5302,48 +5327,48 @@
       </c>
       <c r="Q63" s="14"/>
       <c r="R63" s="12" t="s">
-        <v>334</v>
+        <v>317</v>
       </c>
       <c r="S63" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-03-R-0005</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-03-R-0002</v>
       </c>
       <c r="T63" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-03-R-0005</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-03-R-0002</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="7"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="8" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L64" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Charge over Asset&lt;br&gt;(Charge over Asset)</v>
+        <f t="shared" si="16"/>
+        <v>Extention of Time for Paying Tax&lt;br&gt;(Extention of Time for Paying Tax)</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N64" s="8"/>
       <c r="O64" s="13"/>
@@ -5353,48 +5378,48 @@
       </c>
       <c r="Q64" s="14"/>
       <c r="R64" s="12" t="s">
-        <v>335</v>
+        <v>318</v>
       </c>
       <c r="S64" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-03-R-0006</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-03-R-0003</v>
       </c>
       <c r="T64" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-03-R-0006</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-03-R-0003</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="7"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="8" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L65" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Distress warrant&lt;br&gt;(Distress warrant)</v>
+        <f t="shared" si="16"/>
+        <v>Agency Notice&lt;br&gt;(Agency Notice)</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N65" s="8"/>
       <c r="O65" s="13"/>
@@ -5404,48 +5429,48 @@
       </c>
       <c r="Q65" s="14"/>
       <c r="R65" s="12" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="S65" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-03-R-0007</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-03-R-0004</v>
       </c>
       <c r="T65" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-03-R-0007</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-03-R-0004</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="7"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="K66" s="7" t="s">
-        <v>217</v>
+        <v>292</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="L66" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Third Part Liability ★2nd&lt;br&gt;(제3자 책임 (2nd))</v>
-      </c>
-      <c r="M66" s="7" t="s">
-        <v>281</v>
+        <f t="shared" si="16"/>
+        <v>Departure Prohibition Order&lt;br&gt;(Departure Prohibition Order)</v>
+      </c>
+      <c r="M66" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="N66" s="8"/>
       <c r="O66" s="13"/>
@@ -5454,49 +5479,49 @@
         <v/>
       </c>
       <c r="Q66" s="14"/>
-      <c r="R66" s="32" t="s">
-        <v>337</v>
+      <c r="R66" s="12" t="s">
+        <v>320</v>
       </c>
       <c r="S66" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-03-R-0008</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-03-R-0005</v>
       </c>
       <c r="T66" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-03-R-0008</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-03-R-0005</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="7"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="8" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="L67" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Recovery Notice Cancellation&lt;br&gt;(Recovery Notice Cancellation)</v>
+        <f t="shared" si="16"/>
+        <v>Charge over Asset&lt;br&gt;(Charge over Asset)</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="N67" s="8"/>
       <c r="O67" s="13"/>
@@ -5506,48 +5531,48 @@
       </c>
       <c r="Q67" s="14"/>
       <c r="R67" s="12" t="s">
-        <v>338</v>
+        <v>321</v>
       </c>
       <c r="S67" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-03-R-0010</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-03-R-0006</v>
       </c>
       <c r="T67" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-03-R-0010</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-03-R-0006</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="7"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="K68" s="7" t="s">
-        <v>215</v>
+        <v>294</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="L68" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Write-off uncollectable tax ★2nd&lt;br&gt;(Write-off uncollectable tax (2nd))</v>
-      </c>
-      <c r="M68" s="7" t="s">
-        <v>282</v>
+        <f t="shared" si="16"/>
+        <v>Distress warrant&lt;br&gt;(Distress warrant)</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="N68" s="8"/>
       <c r="O68" s="13"/>
@@ -5556,49 +5581,49 @@
         <v/>
       </c>
       <c r="Q68" s="14"/>
-      <c r="R68" s="32" t="s">
-        <v>339</v>
+      <c r="R68" s="12" t="s">
+        <v>322</v>
       </c>
       <c r="S68" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-03-R-0011</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-03-R-0007</v>
       </c>
       <c r="T68" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-03-R-0011</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-03-R-0007</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="7"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="8" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="L69" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Write back of tax ★2nd&lt;br&gt;(Write back of tax (2nd))</v>
+        <f t="shared" si="16"/>
+        <v>Third Part Liability ★2nd&lt;br&gt;(제3자 책임 (2nd))</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="N69" s="8"/>
       <c r="O69" s="13"/>
@@ -5608,48 +5633,48 @@
       </c>
       <c r="Q69" s="14"/>
       <c r="R69" s="32" t="s">
-        <v>340</v>
+        <v>323</v>
       </c>
       <c r="S69" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-03-R-0012</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-03-R-0008</v>
       </c>
       <c r="T69" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-03-R-0012</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-03-R-0008</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="7"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="8" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="L70" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Refund Offsetting&lt;br&gt;(Refund Offsetting)</v>
+        <f t="shared" si="16"/>
+        <v>Recovery Notice Cancellation&lt;br&gt;(Recovery Notice Cancellation)</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N70" s="8"/>
       <c r="O70" s="13"/>
@@ -5659,48 +5684,48 @@
       </c>
       <c r="Q70" s="14"/>
       <c r="R70" s="12" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="S70" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-03-R-0013</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-03-R-0010</v>
       </c>
       <c r="T70" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-03-R-0013</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-03-R-0010</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="7"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="K71" s="1" t="s">
-        <v>188</v>
+        <v>297</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="L71" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Interest Rate Management&lt;br&gt;(Interest Rate Management)</v>
-      </c>
-      <c r="M71" s="1" t="s">
-        <v>188</v>
+        <f t="shared" si="16"/>
+        <v>Write-off uncollectable tax ★2nd&lt;br&gt;(Write-off uncollectable tax (2nd))</v>
+      </c>
+      <c r="M71" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="N71" s="8"/>
       <c r="O71" s="13"/>
@@ -5709,259 +5734,259 @@
         <v/>
       </c>
       <c r="Q71" s="14"/>
-      <c r="R71" s="12" t="s">
-        <v>342</v>
+      <c r="R71" s="32" t="s">
+        <v>325</v>
       </c>
       <c r="S71" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-03-R-0014</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-03-R-0011</v>
       </c>
       <c r="T71" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-03-R-0014</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-03-R-0011</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="34" t="s">
-        <v>373</v>
-      </c>
-      <c r="G72" s="34" t="s">
-        <v>415</v>
-      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="1"/>
       <c r="H72" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Compliance Monitoring&lt;br&gt;(이행 모니터링)</v>
-      </c>
-      <c r="I72" s="34" t="s">
-        <v>218</v>
-      </c>
-      <c r="J72" s="34" t="s">
-        <v>315</v>
-      </c>
-      <c r="K72" s="34" t="s">
-        <v>223</v>
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="L72" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Tax Clearance Certificates&lt;br&gt;(Tax Clearance Certificates)</v>
-      </c>
-      <c r="M72" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="N72" s="34"/>
-      <c r="O72" s="34"/>
+        <f t="shared" si="16"/>
+        <v>Write back of tax ★2nd&lt;br&gt;(Write back of tax (2nd))</v>
+      </c>
+      <c r="M72" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="N72" s="8"/>
+      <c r="O72" s="13"/>
       <c r="P72" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q72" s="34"/>
-      <c r="R72" s="24" t="s">
-        <v>343</v>
+      <c r="Q72" s="14"/>
+      <c r="R72" s="32" t="s">
+        <v>326</v>
       </c>
       <c r="S72" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-04-R-0001</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-03-R-0012</v>
       </c>
       <c r="T72" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-04-R-0001</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-03-R-0012</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E73" s="1"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="1"/>
       <c r="H73" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="K73" s="38" t="s">
-        <v>284</v>
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>187</v>
       </c>
       <c r="L73" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Tax Residency Certificate&lt;br&gt;(Tax Residency Certificate)</v>
-      </c>
-      <c r="M73" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="N73" s="38"/>
-      <c r="O73" s="38"/>
+        <f t="shared" si="16"/>
+        <v>Refund Offsetting&lt;br&gt;(Refund Offsetting)</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="N73" s="8"/>
+      <c r="O73" s="13"/>
       <c r="P73" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q73" s="38"/>
+      <c r="Q73" s="14"/>
       <c r="R73" s="12" t="s">
-        <v>344</v>
+        <v>327</v>
       </c>
       <c r="S73" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-04-R-0002</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-03-R-0013</v>
       </c>
       <c r="T73" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-04-R-0002</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-03-R-0013</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="1"/>
       <c r="H74" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I74" s="38"/>
-      <c r="J74" s="38" t="s">
-        <v>317</v>
-      </c>
-      <c r="K74" s="38" t="s">
-        <v>285</v>
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="L74" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Motor vehicle Activation and Compliance check&lt;br&gt;(Motor vehicle Activation and Compliance check)</v>
-      </c>
-      <c r="M74" s="38" t="s">
-        <v>285</v>
-      </c>
-      <c r="N74" s="38"/>
-      <c r="O74" s="38"/>
+        <f t="shared" si="16"/>
+        <v>Interest Rate Management&lt;br&gt;(Interest Rate Management)</v>
+      </c>
+      <c r="M74" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N74" s="8"/>
+      <c r="O74" s="13"/>
       <c r="P74" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q74" s="38"/>
+      <c r="Q74" s="14"/>
       <c r="R74" s="12" t="s">
-        <v>345</v>
+        <v>328</v>
       </c>
       <c r="S74" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-04-R-0003</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-03-R-0014</v>
       </c>
       <c r="T74" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-04-R-0003</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-03-R-0014</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
+      <c r="F75" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="G75" s="34" t="s">
+        <v>401</v>
+      </c>
       <c r="H75" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I75" s="38"/>
-      <c r="J75" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="K75" s="38" t="s">
-        <v>286</v>
+        <f t="shared" si="15"/>
+        <v>Compliance Monitoring&lt;br&gt;(이행 모니터링)</v>
+      </c>
+      <c r="I75" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="J75" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="K75" s="34" t="s">
+        <v>209</v>
       </c>
       <c r="L75" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Offense Management&lt;br&gt;(Offense Management)</v>
-      </c>
-      <c r="M75" s="38" t="s">
-        <v>286</v>
-      </c>
-      <c r="N75" s="38"/>
-      <c r="O75" s="38"/>
+        <f t="shared" si="16"/>
+        <v>Tax Clearance Certificates&lt;br&gt;(Tax Clearance Certificates)</v>
+      </c>
+      <c r="M75" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="N75" s="34"/>
+      <c r="O75" s="34"/>
       <c r="P75" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q75" s="38"/>
-      <c r="R75" s="12" t="s">
-        <v>346</v>
+      <c r="Q75" s="34"/>
+      <c r="R75" s="24" t="s">
+        <v>329</v>
       </c>
       <c r="S75" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-04-R-0004</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-04-R-0001</v>
       </c>
       <c r="T75" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-04-R-0004</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-04-R-0001</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
       <c r="H76" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I76" s="38"/>
       <c r="J76" s="38" t="s">
-        <v>319</v>
+        <v>302</v>
       </c>
       <c r="K76" s="38" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="L76" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Normal Flow Monitoring&lt;br&gt;(Normal Flow Monitoring)</v>
+        <f t="shared" si="16"/>
+        <v>Tax Residency Certificate&lt;br&gt;(Tax Residency Certificate)</v>
       </c>
       <c r="M76" s="38" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="N76" s="38"/>
       <c r="O76" s="38"/>
@@ -5971,2710 +5996,2863 @@
       </c>
       <c r="Q76" s="38"/>
       <c r="R76" s="12" t="s">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="S76" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-04-R-0005</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-04-R-0002</v>
       </c>
       <c r="T76" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-04-R-0005</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-04-R-0002</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="34" t="s">
-        <v>374</v>
-      </c>
-      <c r="G77" s="34" t="s">
-        <v>416</v>
-      </c>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
       <c r="H77" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Sale of Charged Asset&lt;br&gt;(담보 자산 매각)</v>
-      </c>
-      <c r="I77" s="34" t="s">
-        <v>228</v>
-      </c>
-      <c r="J77" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="K77" s="34" t="s">
-        <v>278</v>
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I77" s="38"/>
+      <c r="J77" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="K77" s="38" t="s">
+        <v>271</v>
       </c>
       <c r="L77" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Asset Management&lt;br&gt;(자산관리)</v>
-      </c>
-      <c r="M77" s="34" t="s">
-        <v>229</v>
-      </c>
-      <c r="N77" s="34"/>
-      <c r="O77" s="34"/>
+        <f t="shared" si="16"/>
+        <v>Motor vehicle Activation and Compliance check&lt;br&gt;(Motor vehicle Activation and Compliance check)</v>
+      </c>
+      <c r="M77" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="N77" s="38"/>
+      <c r="O77" s="38"/>
       <c r="P77" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q77" s="34"/>
-      <c r="R77" s="24" t="s">
-        <v>348</v>
+      <c r="Q77" s="38"/>
+      <c r="R77" s="12" t="s">
+        <v>331</v>
       </c>
       <c r="S77" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-05-R-0001</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-04-R-0003</v>
       </c>
       <c r="T77" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-05-R-0001</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-04-R-0003</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="42"/>
+      <c r="F78" s="38"/>
       <c r="G78" s="38"/>
       <c r="H78" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I78" s="38"/>
-      <c r="J78" s="40" t="s">
-        <v>321</v>
-      </c>
-      <c r="K78" s="40" t="s">
-        <v>279</v>
+      <c r="J78" s="38" t="s">
+        <v>304</v>
+      </c>
+      <c r="K78" s="38" t="s">
+        <v>272</v>
       </c>
       <c r="L78" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Valuation-Internal&lt;br&gt;(가치평가-내부)</v>
-      </c>
-      <c r="M78" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="N78" s="39" t="s">
-        <v>377</v>
-      </c>
-      <c r="O78" s="40" t="s">
-        <v>231</v>
-      </c>
+        <f t="shared" si="16"/>
+        <v>Offense Management&lt;br&gt;(Offense Management)</v>
+      </c>
+      <c r="M78" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="N78" s="38"/>
+      <c r="O78" s="38"/>
       <c r="P78" s="1" t="str">
-        <f t="shared" ref="P78:P127" si="19">IF(Q78&lt;&gt;"",Q78&amp;"&lt;br&gt;("&amp;O78&amp;")","")</f>
-        <v>New Valuation&lt;br&gt;(New Valuation)</v>
-      </c>
-      <c r="Q78" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="R78" s="41" t="s">
-        <v>349</v>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q78" s="38"/>
+      <c r="R78" s="12" t="s">
+        <v>332</v>
       </c>
       <c r="S78" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-05-R-0201</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-04-R-0004</v>
       </c>
       <c r="T78" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-05-R-0201</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-04-R-0004</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="42"/>
+      <c r="F79" s="38"/>
       <c r="G79" s="38"/>
       <c r="H79" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I79" s="38"/>
-      <c r="J79" s="38"/>
-      <c r="K79" s="38"/>
+      <c r="J79" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="K79" s="38" t="s">
+        <v>273</v>
+      </c>
       <c r="L79" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M79" s="38"/>
-      <c r="N79" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="O79" s="38" t="s">
-        <v>232</v>
-      </c>
+        <f t="shared" si="16"/>
+        <v>Normal Flow Monitoring&lt;br&gt;(Normal Flow Monitoring)</v>
+      </c>
+      <c r="M79" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="N79" s="38"/>
+      <c r="O79" s="38"/>
       <c r="P79" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>List of Submitted valuation&lt;br&gt;(List of Submitted valuation)</v>
-      </c>
-      <c r="Q79" s="38" t="s">
-        <v>232</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q79" s="38"/>
       <c r="R79" s="12" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="S79" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-05-R-0202</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-04-R-0005</v>
       </c>
       <c r="T79" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-05-R-0202</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-04-R-0005</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="G80" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="H80" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>Sale of Charged Asset&lt;br&gt;(담보 자산 매각)</v>
+      </c>
+      <c r="I80" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="J80" s="34" t="s">
+        <v>306</v>
+      </c>
+      <c r="K80" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="L80" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>Asset Management&lt;br&gt;(자산관리)</v>
+      </c>
+      <c r="M80" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="N80" s="34"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q80" s="34"/>
+      <c r="R80" s="24" t="s">
+        <v>334</v>
+      </c>
+      <c r="S80" s="23" t="str">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-05-R-0001</v>
+      </c>
+      <c r="T80" s="23" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E80" s="1"/>
-      <c r="F80" s="42"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I80" s="38"/>
-      <c r="J80" s="38"/>
-      <c r="K80" s="38"/>
-      <c r="L80" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M80" s="38"/>
-      <c r="N80" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="O80" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="P80" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>List of valuation&lt;br&gt;(List of valuation)</v>
-      </c>
-      <c r="Q80" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="R80" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="S80" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-05-R-0203</v>
-      </c>
-      <c r="T80" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-05-R-0203</v>
+        <v>UI-DMCI-05-R-0001</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="42"/>
       <c r="G81" s="38"/>
       <c r="H81" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I81" s="38"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
+      <c r="J81" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="K81" s="40" t="s">
+        <v>265</v>
+      </c>
       <c r="L81" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M81" s="38"/>
-      <c r="N81" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="O81" s="38" t="s">
-        <v>234</v>
+        <f t="shared" si="16"/>
+        <v>Valuation-Internal&lt;br&gt;(가치평가-내부)</v>
+      </c>
+      <c r="M81" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="N81" s="39" t="s">
+        <v>363</v>
+      </c>
+      <c r="O81" s="40" t="s">
+        <v>217</v>
       </c>
       <c r="P81" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
-      </c>
-      <c r="Q81" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="R81" s="12" t="s">
-        <v>352</v>
+        <f t="shared" ref="P81:P130" si="21">IF(Q81&lt;&gt;"",Q81&amp;"&lt;br&gt;("&amp;O81&amp;")","")</f>
+        <v>New Valuation&lt;br&gt;(New Valuation)</v>
+      </c>
+      <c r="Q81" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="R81" s="41" t="s">
+        <v>335</v>
       </c>
       <c r="S81" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-05-R-0204</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-05-R-0201</v>
       </c>
       <c r="T81" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-05-R-0204</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-05-R-0201</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="42"/>
       <c r="G82" s="38"/>
       <c r="H82" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I82" s="38"/>
-      <c r="J82" s="40" t="s">
-        <v>322</v>
-      </c>
-      <c r="K82" s="40" t="s">
-        <v>280</v>
-      </c>
+      <c r="J82" s="38"/>
+      <c r="K82" s="38"/>
       <c r="L82" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Valuation-External&lt;br&gt;(가치평가-외부)</v>
-      </c>
-      <c r="M82" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="N82" s="39" t="s">
-        <v>381</v>
-      </c>
-      <c r="O82" s="40" t="s">
-        <v>235</v>
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="M82" s="38"/>
+      <c r="N82" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="O82" s="38" t="s">
+        <v>218</v>
       </c>
       <c r="P82" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>New valuation request&lt;br&gt;(New valuation request)</v>
-      </c>
-      <c r="Q82" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="R82" s="41" t="s">
-        <v>353</v>
+        <f t="shared" si="21"/>
+        <v>List of Submitted valuation&lt;br&gt;(List of Submitted valuation)</v>
+      </c>
+      <c r="Q82" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="R82" s="12" t="s">
+        <v>336</v>
       </c>
       <c r="S82" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-05-R-0301</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-05-R-0202</v>
       </c>
       <c r="T82" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-05-R-0301</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-05-R-0202</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="42"/>
       <c r="G83" s="38"/>
       <c r="H83" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I83" s="38"/>
       <c r="J83" s="38"/>
       <c r="K83" s="38"/>
       <c r="L83" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M83" s="38"/>
       <c r="N83" s="1" t="s">
-        <v>382</v>
+        <v>365</v>
       </c>
       <c r="O83" s="38" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="P83" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>List of submitted valuation requests&lt;br&gt;(List of submitted valuation requests)</v>
+        <f t="shared" si="21"/>
+        <v>List of valuation&lt;br&gt;(List of valuation)</v>
       </c>
       <c r="Q83" s="38" t="s">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="R83" s="12" t="s">
-        <v>354</v>
+        <v>337</v>
       </c>
       <c r="S83" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-05-R-0302</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-05-R-0203</v>
       </c>
       <c r="T83" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-05-R-0302</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-05-R-0203</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="42"/>
       <c r="G84" s="38"/>
       <c r="H84" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I84" s="38"/>
       <c r="J84" s="38"/>
       <c r="K84" s="38"/>
       <c r="L84" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M84" s="38"/>
       <c r="N84" s="1" t="s">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="O84" s="38" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="P84" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>List of valuation requests&lt;br&gt;(List of valuation requests)</v>
+        <f t="shared" si="21"/>
+        <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
       </c>
       <c r="Q84" s="38" t="s">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="R84" s="12" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="S84" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-05-R-0303</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-05-R-0204</v>
       </c>
       <c r="T84" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-05-R-0303</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-05-R-0204</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="42"/>
       <c r="G85" s="38"/>
       <c r="H85" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I85" s="38"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38"/>
+      <c r="J85" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="K85" s="40" t="s">
+        <v>266</v>
+      </c>
       <c r="L85" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M85" s="38"/>
-      <c r="N85" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="O85" s="38" t="s">
-        <v>238</v>
+        <f t="shared" si="16"/>
+        <v>Valuation-External&lt;br&gt;(가치평가-외부)</v>
+      </c>
+      <c r="M85" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="N85" s="39" t="s">
+        <v>367</v>
+      </c>
+      <c r="O85" s="40" t="s">
+        <v>221</v>
       </c>
       <c r="P85" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>List of valuation response&lt;br&gt;(List of valuation response)</v>
-      </c>
-      <c r="Q85" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="R85" s="12" t="s">
-        <v>356</v>
+        <f t="shared" si="21"/>
+        <v>New valuation request&lt;br&gt;(New valuation request)</v>
+      </c>
+      <c r="Q85" s="40" t="s">
+        <v>221</v>
+      </c>
+      <c r="R85" s="41" t="s">
+        <v>339</v>
       </c>
       <c r="S85" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-05-R-0304</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-05-R-0301</v>
       </c>
       <c r="T85" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-05-R-0304</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-05-R-0301</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="42"/>
       <c r="G86" s="38"/>
       <c r="H86" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I86" s="38"/>
       <c r="J86" s="38"/>
       <c r="K86" s="38"/>
       <c r="L86" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M86" s="38"/>
       <c r="N86" s="1" t="s">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="O86" s="38" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="P86" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
+        <f t="shared" si="21"/>
+        <v>List of submitted valuation requests&lt;br&gt;(List of submitted valuation requests)</v>
       </c>
       <c r="Q86" s="38" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="R86" s="12" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="S86" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-05-R-0305</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-05-R-0302</v>
       </c>
       <c r="T86" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-05-R-0305</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-05-R-0302</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="42"/>
       <c r="G87" s="38"/>
       <c r="H87" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I87" s="38"/>
-      <c r="J87" s="40" t="s">
-        <v>323</v>
-      </c>
-      <c r="K87" s="44" t="s">
-        <v>266</v>
-      </c>
+      <c r="J87" s="38"/>
+      <c r="K87" s="38"/>
       <c r="L87" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Pre-auction processing ★2nd&lt;br&gt;(공매 전 처리)</v>
-      </c>
-      <c r="M87" s="44" t="s">
-        <v>297</v>
-      </c>
-      <c r="N87" s="45" t="s">
-        <v>386</v>
-      </c>
-      <c r="O87" s="45" t="s">
-        <v>262</v>
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="M87" s="38"/>
+      <c r="N87" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="O87" s="38" t="s">
+        <v>223</v>
       </c>
       <c r="P87" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Notification of Itention to sale the Changed Asset&lt;br&gt;(부과자산 매각의사 통지)</v>
-      </c>
-      <c r="Q87" s="45" t="s">
-        <v>261</v>
-      </c>
-      <c r="R87" s="41" t="s">
-        <v>358</v>
+        <f t="shared" si="21"/>
+        <v>List of valuation requests&lt;br&gt;(List of valuation requests)</v>
+      </c>
+      <c r="Q87" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="R87" s="12" t="s">
+        <v>341</v>
       </c>
       <c r="S87" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-05-R-0401</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-05-R-0303</v>
       </c>
       <c r="T87" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-05-R-0401</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-05-R-0303</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="42"/>
       <c r="G88" s="38"/>
       <c r="H88" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I88" s="38"/>
-      <c r="J88" s="9"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
       <c r="L88" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="N88" s="43" t="s">
-        <v>387</v>
-      </c>
-      <c r="O88" s="1" t="s">
-        <v>299</v>
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="M88" s="38"/>
+      <c r="N88" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="O88" s="38" t="s">
+        <v>224</v>
       </c>
       <c r="P88" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>List Assets for Public Auction&lt;br&gt;(공개 경매를 위한 자산 목록)</v>
-      </c>
-      <c r="Q88" s="1" t="s">
-        <v>300</v>
+        <f t="shared" si="21"/>
+        <v>List of valuation response&lt;br&gt;(List of valuation response)</v>
+      </c>
+      <c r="Q88" s="38" t="s">
+        <v>224</v>
       </c>
       <c r="R88" s="12" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
       <c r="S88" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-05-R-0402</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-05-R-0304</v>
       </c>
       <c r="T88" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-05-R-0402</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-05-R-0304</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="42"/>
       <c r="G89" s="38"/>
       <c r="H89" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I89" s="38"/>
-      <c r="J89" s="9"/>
+      <c r="J89" s="38"/>
+      <c r="K89" s="38"/>
       <c r="L89" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="N89" s="43" t="s">
-        <v>388</v>
-      </c>
-      <c r="O89" s="1" t="s">
-        <v>264</v>
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="M89" s="38"/>
+      <c r="N89" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="O89" s="38" t="s">
+        <v>220</v>
       </c>
       <c r="P89" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Asset Publishing&lt;br&gt;(자산 게시)</v>
-      </c>
-      <c r="Q89" s="1" t="s">
-        <v>265</v>
+        <f t="shared" si="21"/>
+        <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
+      </c>
+      <c r="Q89" s="38" t="s">
+        <v>220</v>
       </c>
       <c r="R89" s="12" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="S89" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-05-R-0403</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-05-R-0305</v>
       </c>
       <c r="T89" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-05-R-0403</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-05-R-0305</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="42"/>
       <c r="G90" s="38"/>
       <c r="H90" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I90" s="38"/>
       <c r="J90" s="40" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="K90" s="44" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="L90" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Post-auction processing ★2nd&lt;br&gt;(공매 후 처리)</v>
-      </c>
-      <c r="M90" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="N90" s="40" t="s">
-        <v>389</v>
-      </c>
-      <c r="O90" s="40" t="s">
-        <v>272</v>
+        <f t="shared" si="16"/>
+        <v>Pre-auction processing ★2nd&lt;br&gt;(공매 전 처리)</v>
+      </c>
+      <c r="M90" s="44" t="s">
+        <v>283</v>
+      </c>
+      <c r="N90" s="45" t="s">
+        <v>372</v>
+      </c>
+      <c r="O90" s="45" t="s">
+        <v>248</v>
       </c>
       <c r="P90" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Notification of Itention to sale the Changed Asset&lt;br&gt;(부과자산 매각의사 통지)</v>
+      </c>
+      <c r="Q90" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="R90" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="S90" s="23" t="str">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-05-R-0401</v>
+      </c>
+      <c r="T90" s="23" t="str">
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-05-R-0401</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>Distribution od proceeds account&lt;br&gt;(수익금 배분계좌)</v>
-      </c>
-      <c r="Q90" s="40" t="s">
-        <v>271</v>
-      </c>
-      <c r="R90" s="41" t="s">
-        <v>361</v>
-      </c>
-      <c r="S90" s="23" t="str">
+        <v>R</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>UI-DMCI-05-R-0501</v>
-      </c>
-      <c r="T90" s="23" t="str">
+        <v/>
+      </c>
+      <c r="I91" s="38"/>
+      <c r="J91" s="9"/>
+      <c r="L91" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>UI-DMCI-05-R-0501</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="str">
+        <v/>
+      </c>
+      <c r="N91" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="O91" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="P91" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>List Assets for Public Auction&lt;br&gt;(공개 경매를 위한 자산 목록)</v>
+      </c>
+      <c r="Q91" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="R91" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="S91" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>R</v>
-      </c>
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="1" t="str">
+        <v>UI-DMCI-05-R-0402</v>
+      </c>
+      <c r="T91" s="23" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E91" s="37"/>
-      <c r="F91" s="34" t="s">
-        <v>375</v>
-      </c>
-      <c r="G91" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H91" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>Block Management&lt;br&gt;(블록 관리)</v>
-      </c>
-      <c r="I91" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J91" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="K91" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="L91" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Dashboard&lt;br&gt;(Dashboard)</v>
-      </c>
-      <c r="M91" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="N91" s="34"/>
-      <c r="O91" s="34"/>
-      <c r="P91" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Q91" s="34"/>
-      <c r="R91" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="S91" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-02-R-0001</v>
-      </c>
-      <c r="T91" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-02-R-0001</v>
+        <v>UI-DMCI-05-R-0402</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="38"/>
+      <c r="H92" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I92" s="38"/>
+      <c r="J92" s="9"/>
+      <c r="L92" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="N92" s="43" t="s">
+        <v>374</v>
+      </c>
+      <c r="O92" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="P92" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Asset Publishing&lt;br&gt;(자산 게시)</v>
+      </c>
+      <c r="Q92" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="R92" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="S92" s="23" t="str">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-05-R-0403</v>
+      </c>
+      <c r="T92" s="23" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="7"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I92" s="1"/>
-      <c r="J92" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="K92" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L92" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Block Management&lt;br&gt;(블록 관리)</v>
-      </c>
-      <c r="M92" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N92" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="O92" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="P92" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Registered Blocks&lt;br&gt;(등록된 블록)</v>
-      </c>
-      <c r="Q92" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R92" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="S92" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-02-R-0002</v>
-      </c>
-      <c r="T92" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-02-R-0002</v>
+        <v>UI-DMCI-05-R-0403</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="42"/>
+      <c r="G93" s="38"/>
+      <c r="H93" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I93" s="38"/>
+      <c r="J93" s="40" t="s">
+        <v>310</v>
+      </c>
+      <c r="K93" s="44" t="s">
+        <v>253</v>
+      </c>
+      <c r="L93" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>Post-auction processing ★2nd&lt;br&gt;(공매 후 처리)</v>
+      </c>
+      <c r="M93" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="N93" s="40" t="s">
+        <v>375</v>
+      </c>
+      <c r="O93" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="P93" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Distribution od proceeds account&lt;br&gt;(수익금 배분계좌)</v>
+      </c>
+      <c r="Q93" s="40" t="s">
+        <v>257</v>
+      </c>
+      <c r="R93" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="S93" s="23" t="str">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-05-R-0501</v>
+      </c>
+      <c r="T93" s="23" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="7"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I93" s="1"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M93" s="1"/>
-      <c r="N93" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="O93" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="P93" s="1" t="str">
+        <v>UI-DMCI-05-R-0501</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>Registered Sub Blocks&lt;br&gt;(등록된 하위 블록)</v>
-      </c>
-      <c r="Q93" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="R93" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="S93" s="23" t="str">
+        <v>R</v>
+      </c>
+      <c r="B94" s="37"/>
+      <c r="C94" s="37"/>
+      <c r="D94" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="E94" s="37"/>
+      <c r="F94" s="34" t="s">
+        <v>361</v>
+      </c>
+      <c r="G94" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H94" s="1" t="str">
         <f t="shared" si="15"/>
-        <v>UI-DMCI-02-R-0003</v>
-      </c>
-      <c r="T93" s="23" t="str">
+        <v>Block Management&lt;br&gt;(블록 관리)</v>
+      </c>
+      <c r="I94" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J94" s="34" t="s">
+        <v>311</v>
+      </c>
+      <c r="K94" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L94" s="1" t="str">
         <f t="shared" si="16"/>
-        <v>UI-DMCI-02-R-0003</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="str">
+        <v>Dashboard&lt;br&gt;(Dashboard)</v>
+      </c>
+      <c r="M94" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N94" s="34"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Q94" s="34"/>
+      <c r="R94" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="S94" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>R</v>
-      </c>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1" t="str">
+        <v>UI-DMCI-02-R-0001</v>
+      </c>
+      <c r="T94" s="23" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E94" s="1"/>
-      <c r="F94" s="7"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I94" s="1"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="1"/>
-      <c r="L94" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M94" s="1"/>
-      <c r="N94" s="8" t="s">
-        <v>392</v>
-      </c>
-      <c r="O94" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="P94" s="1" t="str">
+        <v>UI-DMCI-02-R-0001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>Block Team Leader&lt;br&gt;(블록 팀 리더)</v>
-      </c>
-      <c r="Q94" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="R94" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="S94" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-02-R-0004</v>
-      </c>
-      <c r="T94" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-02-R-0004</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="str">
-        <f t="shared" si="17"/>
         <v>R</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="7"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I95" s="1"/>
-      <c r="J95" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="K95" s="10" t="s">
+      <c r="J95" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L95" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>Block Management&lt;br&gt;(블록 관리)</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N95" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="O95" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P95" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Registered Blocks&lt;br&gt;(등록된 블록)</v>
+      </c>
+      <c r="Q95" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R95" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="S95" s="23" t="str">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-02-R-0002</v>
+      </c>
+      <c r="T95" s="23" t="str">
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-02-R-0002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>R</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I96" s="1"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="M96" s="1"/>
+      <c r="N96" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="O96" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P96" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Registered Sub Blocks&lt;br&gt;(등록된 하위 블록)</v>
+      </c>
+      <c r="Q96" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="R96" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="S96" s="23" t="str">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-02-R-0003</v>
+      </c>
+      <c r="T96" s="23" t="str">
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-02-R-0003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>R</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I97" s="1"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="1"/>
+      <c r="L97" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="M97" s="1"/>
+      <c r="N97" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="O97" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P97" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Block Team Leader&lt;br&gt;(블록 팀 리더)</v>
+      </c>
+      <c r="Q97" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="R97" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="S97" s="23" t="str">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-02-R-0004</v>
+      </c>
+      <c r="T97" s="23" t="str">
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-02-R-0004</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>R</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I98" s="1"/>
+      <c r="J98" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="K98" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="L95" s="1" t="str">
-        <f t="shared" si="14"/>
+      <c r="L98" s="1" t="str">
+        <f t="shared" si="16"/>
         <v>Physical Survey&lt;br&gt;(물리적 조사)</v>
       </c>
-      <c r="M95" s="10" t="s">
+      <c r="M98" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N95" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="O95" s="29" t="s">
+      <c r="N98" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="O98" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="P95" s="1" t="str">
-        <f t="shared" si="19"/>
+      <c r="P98" s="1" t="str">
+        <f t="shared" si="21"/>
         <v>Physical Survey Plan&lt;br&gt;(실사 계획 수립)</v>
       </c>
-      <c r="Q95" s="30" t="s">
+      <c r="Q98" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="R95" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="S95" s="23" t="str">
-        <f t="shared" si="15"/>
+      <c r="R98" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="S98" s="23" t="str">
+        <f t="shared" si="17"/>
         <v>UI-DMCI-02-R-0005</v>
       </c>
-      <c r="T95" s="23" t="str">
-        <f t="shared" si="16"/>
+      <c r="T98" s="23" t="str">
+        <f t="shared" si="18"/>
         <v>UI-DMCI-02-R-0005</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" ht="27" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>R</v>
-      </c>
-      <c r="B96" s="26"/>
-      <c r="C96" s="26"/>
-      <c r="D96" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E96" s="26"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="13"/>
-      <c r="H96" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I96" s="13"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="13"/>
-      <c r="L96" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M96" s="14"/>
-      <c r="N96" s="8" t="s">
-        <v>394</v>
-      </c>
-      <c r="O96" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="P96" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Request to Conduct Physical Survey&lt;br&gt;(실사 수행 요청)</v>
-      </c>
-      <c r="Q96" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="R96" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="S96" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-02-R-0006</v>
-      </c>
-      <c r="T96" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-02-R-0006</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" ht="27" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>R</v>
-      </c>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E97" s="26"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="13"/>
-      <c r="H97" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I97" s="13"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="13"/>
-      <c r="L97" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M97" s="14"/>
-      <c r="N97" s="8" t="s">
-        <v>395</v>
-      </c>
-      <c r="O97" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P97" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Approval of Request to conduct Physical Survey&lt;br&gt;(실사 수행 요청 승인)</v>
-      </c>
-      <c r="Q97" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="R97" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="S97" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-02-R-0007</v>
-      </c>
-      <c r="T97" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-02-R-0007</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" ht="27" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>R</v>
-      </c>
-      <c r="B98" s="26"/>
-      <c r="C98" s="26"/>
-      <c r="D98" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E98" s="26"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="13"/>
-      <c r="H98" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I98" s="13"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="13"/>
-      <c r="L98" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M98" s="14"/>
-      <c r="N98" s="8" t="s">
-        <v>396</v>
-      </c>
-      <c r="O98" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="P98" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Conducting Block Physical Survey (Mobile WEB)&lt;br&gt;(블록 실사 수행(모바일 웹))</v>
-      </c>
-      <c r="Q98" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="R98" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="S98" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-02-R-0008</v>
-      </c>
-      <c r="T98" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-02-R-0008</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B99" s="26"/>
       <c r="C99" s="26"/>
       <c r="D99" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E99" s="26"/>
       <c r="F99" s="15"/>
       <c r="G99" s="13"/>
       <c r="H99" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I99" s="13"/>
       <c r="J99" s="8"/>
       <c r="K99" s="13"/>
       <c r="L99" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M99" s="14"/>
       <c r="N99" s="8" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="O99" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P99" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Request to Conduct Physical Survey&lt;br&gt;(실사 수행 요청)</v>
+      </c>
+      <c r="Q99" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="R99" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="S99" s="23" t="str">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-02-R-0006</v>
+      </c>
+      <c r="T99" s="23" t="str">
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-02-R-0006</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>R</v>
+      </c>
+      <c r="B100" s="26"/>
+      <c r="C100" s="26"/>
+      <c r="D100" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="E100" s="26"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I100" s="13"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="M100" s="14"/>
+      <c r="N100" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="O100" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Approval of Request to conduct Physical Survey&lt;br&gt;(실사 수행 요청 승인)</v>
+      </c>
+      <c r="Q100" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R100" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="S100" s="23" t="str">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-02-R-0007</v>
+      </c>
+      <c r="T100" s="23" t="str">
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-02-R-0007</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>R</v>
+      </c>
+      <c r="B101" s="26"/>
+      <c r="C101" s="26"/>
+      <c r="D101" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="E101" s="26"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I101" s="13"/>
+      <c r="J101" s="8"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="M101" s="14"/>
+      <c r="N101" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="O101" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="P101" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Conducting Block Physical Survey (Mobile WEB)&lt;br&gt;(블록 실사 수행(모바일 웹))</v>
+      </c>
+      <c r="Q101" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R101" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="S101" s="23" t="str">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-02-R-0008</v>
+      </c>
+      <c r="T101" s="23" t="str">
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-02-R-0008</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>R</v>
+      </c>
+      <c r="B102" s="26"/>
+      <c r="C102" s="26"/>
+      <c r="D102" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="E102" s="26"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I102" s="13"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
+      <c r="M102" s="14"/>
+      <c r="N102" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="O102" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="P99" s="1" t="str">
-        <f t="shared" si="19"/>
+      <c r="P102" s="1" t="str">
+        <f t="shared" si="21"/>
         <v>View Collected Physical Survey Data&lt;br&gt;(수집된 물리적 조사 데이터 보기)</v>
       </c>
-      <c r="Q99" s="14" t="s">
+      <c r="Q102" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="R99" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="S99" s="23" t="str">
-        <f t="shared" si="15"/>
+      <c r="R102" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="S102" s="23" t="str">
+        <f t="shared" si="17"/>
         <v>UI-DMCI-02-R-0009</v>
       </c>
-      <c r="T99" s="23" t="str">
-        <f t="shared" si="16"/>
+      <c r="T102" s="23" t="str">
+        <f t="shared" si="18"/>
         <v>UI-DMCI-02-R-0009</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>R</v>
-      </c>
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E100" s="27"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I100" s="1"/>
-      <c r="J100" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="K100" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L100" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>NaPA Address Management&lt;br&gt;(NaPA 주소 관리)</v>
-      </c>
-      <c r="M100" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="N100" s="10"/>
-      <c r="O100" s="10"/>
-      <c r="P100" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Q100" s="10"/>
-      <c r="R100" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="S100" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-02-R-0010</v>
-      </c>
-      <c r="T100" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-02-R-0010</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>R</v>
-      </c>
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E101" s="27"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I101" s="1"/>
-      <c r="J101" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="K101" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="L101" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Reports&lt;br&gt;(보고서)</v>
-      </c>
-      <c r="M101" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N101" s="10"/>
-      <c r="O101" s="10"/>
-      <c r="P101" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Q101" s="10"/>
-      <c r="R101" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="S101" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-02-R-0011</v>
-      </c>
-      <c r="T101" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-02-R-0011</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="str">
-        <f t="shared" si="17"/>
-        <v>R</v>
-      </c>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="1" t="str">
-        <f t="shared" ref="D102" si="20">IF(E102&lt;&gt;"",E102&amp;"&lt;br&gt;("&amp;C102&amp;")","")</f>
-        <v/>
-      </c>
-      <c r="E102" s="13"/>
-      <c r="F102" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="G102" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="H102" s="23" t="str">
-        <f t="shared" si="13"/>
-        <v>Data Cleanup Tool&lt;br&gt;(데이터 클린업 도구)</v>
-      </c>
-      <c r="I102" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J102" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="K102" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L102" s="23" t="str">
-        <f t="shared" si="14"/>
-        <v>Dashboard&lt;br&gt;(Dashboard)</v>
-      </c>
-      <c r="M102" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="N102" s="23"/>
-      <c r="O102" s="23"/>
-      <c r="P102" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Q102" s="23"/>
-      <c r="R102" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="S102" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-01-R-0001</v>
-      </c>
-      <c r="T102" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-01-R-0001</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
+      <c r="B103" s="27"/>
+      <c r="C103" s="27"/>
       <c r="D103" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E103" s="1"/>
-      <c r="F103" s="7"/>
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="E103" s="27"/>
+      <c r="F103" s="15"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="K103" s="1" t="s">
-        <v>24</v>
+        <v>314</v>
+      </c>
+      <c r="K103" s="10" t="s">
+        <v>59</v>
       </c>
       <c r="L103" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Case Management&lt;br&gt;(Case Management)</v>
-      </c>
-      <c r="M103" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N103" s="8"/>
-      <c r="O103" s="1"/>
+        <f t="shared" si="16"/>
+        <v>NaPA Address Management&lt;br&gt;(NaPA 주소 관리)</v>
+      </c>
+      <c r="M103" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N103" s="10"/>
+      <c r="O103" s="10"/>
       <c r="P103" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Q103" s="1"/>
-      <c r="R103" s="12" t="s">
-        <v>153</v>
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Q103" s="10"/>
+      <c r="R103" s="11" t="s">
+        <v>357</v>
       </c>
       <c r="S103" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-01-R-0003</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-02-R-0010</v>
       </c>
       <c r="T103" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-01-R-0003</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-02-R-0010</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>R</v>
+      </c>
+      <c r="B104" s="27"/>
+      <c r="C104" s="27"/>
+      <c r="D104" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="E104" s="27"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="1"/>
+      <c r="H104" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I104" s="1"/>
+      <c r="J104" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="K104" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L104" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>Reports&lt;br&gt;(보고서)</v>
+      </c>
+      <c r="M104" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N104" s="10"/>
+      <c r="O104" s="10"/>
+      <c r="P104" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Q104" s="10"/>
+      <c r="R104" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="S104" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>R</v>
-      </c>
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="1" t="str">
+        <v>UI-DMCI-02-R-0011</v>
+      </c>
+      <c r="T104" s="23" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E104" s="13"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I104" s="13"/>
-      <c r="J104" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K104" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L104" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Data Cleanup Reports&lt;br&gt;(Data Cleanup Reports)</v>
-      </c>
-      <c r="M104" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N104" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="O104" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="P104" s="1" t="str">
+        <v>UI-DMCI-02-R-0011</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>Executive Reports&lt;br&gt;(관리자용 요약 보고서)</v>
-      </c>
-      <c r="Q104" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="R104" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="S104" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-01-R-0013</v>
-      </c>
-      <c r="T104" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-01-R-0013</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="str">
-        <f t="shared" si="17"/>
         <v>R</v>
       </c>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
       <c r="D105" s="1" t="str">
+        <f t="shared" ref="D105" si="22">IF(E105&lt;&gt;"",E105&amp;"&lt;br&gt;("&amp;C105&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="E105" s="13"/>
+      <c r="F105" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="G105" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="H105" s="23" t="str">
+        <f t="shared" si="15"/>
+        <v>Data Cleanup Tool&lt;br&gt;(데이터 클린업 도구)</v>
+      </c>
+      <c r="I105" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J105" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="K105" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L105" s="23" t="str">
+        <f t="shared" si="16"/>
+        <v>Dashboard&lt;br&gt;(Dashboard)</v>
+      </c>
+      <c r="M105" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N105" s="23"/>
+      <c r="O105" s="23"/>
+      <c r="P105" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Q105" s="23"/>
+      <c r="R105" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="S105" s="23" t="str">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-01-R-0001</v>
+      </c>
+      <c r="T105" s="23" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E105" s="13"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I105" s="13"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="13"/>
-      <c r="L105" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M105" s="14"/>
-      <c r="N105" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="O105" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="P105" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Detailed Reports&lt;br&gt;(상세 보고서)</v>
-      </c>
-      <c r="Q105" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="R105" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="S105" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-01-R-0014</v>
-      </c>
-      <c r="T105" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-01-R-0014</v>
+        <v>UI-DMCI-01-R-0001</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>R</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="E106" s="1"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="1"/>
+      <c r="H106" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I106" s="1"/>
+      <c r="J106" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L106" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>Case Management&lt;br&gt;(Case Management)</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N106" s="8"/>
+      <c r="O106" s="1"/>
+      <c r="P106" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Q106" s="1"/>
+      <c r="R106" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="S106" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>R</v>
-      </c>
-      <c r="B106" s="26"/>
-      <c r="C106" s="26"/>
-      <c r="D106" s="1" t="str">
+        <v>UI-DMCI-01-R-0003</v>
+      </c>
+      <c r="T106" s="23" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E106" s="26"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="13"/>
-      <c r="H106" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I106" s="13"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="13"/>
-      <c r="L106" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M106" s="14"/>
-      <c r="N106" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="O106" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="P106" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Potential Errors Reports&lt;br&gt;(잠재적 오류에 대한 보고서)</v>
-      </c>
-      <c r="Q106" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="R106" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="S106" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-01-R-0015</v>
-      </c>
-      <c r="T106" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-01-R-0015</v>
+        <v>UI-DMCI-01-R-0003</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>R</v>
+      </c>
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="E107" s="13"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I107" s="13"/>
+      <c r="J107" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L107" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>Data Cleanup Reports&lt;br&gt;(Data Cleanup Reports)</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N107" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O107" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P107" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>Executive Reports&lt;br&gt;(관리자용 요약 보고서)</v>
+      </c>
+      <c r="Q107" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R107" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="S107" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>R</v>
-      </c>
-      <c r="B107" s="27"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="1" t="str">
+        <v>UI-DMCI-01-R-0013</v>
+      </c>
+      <c r="T107" s="23" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E107" s="27"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="1"/>
-      <c r="H107" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I107" s="1"/>
-      <c r="J107" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="K107" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L107" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>Detail&lt;br&gt;(Detail)</v>
-      </c>
-      <c r="M107" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N107" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="O107" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P107" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1 Payments without Debit Number&lt;br&gt;(1 Payments without Debit Number)</v>
-      </c>
-      <c r="Q107" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R107" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S107" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-01-R-1001</v>
-      </c>
-      <c r="T107" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-01-R-1001</v>
+        <v>UI-DMCI-01-R-0013</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
-      <c r="B108" s="26"/>
-      <c r="C108" s="26"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
       <c r="D108" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E108" s="26"/>
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="E108" s="13"/>
       <c r="F108" s="15"/>
       <c r="G108" s="13"/>
       <c r="H108" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I108" s="13"/>
       <c r="J108" s="8"/>
       <c r="K108" s="13"/>
       <c r="L108" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M108" s="14"/>
-      <c r="N108" s="10" t="s">
-        <v>136</v>
+      <c r="N108" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="O108" s="13" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="P108" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>2 Incorrect Posting&lt;br&gt;(2 Incorrect Posting)</v>
-      </c>
-      <c r="Q108" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R108" s="11" t="s">
-        <v>158</v>
+        <f t="shared" si="21"/>
+        <v>Detailed Reports&lt;br&gt;(상세 보고서)</v>
+      </c>
+      <c r="Q108" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R108" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="S108" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-01-R-1002</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-01-R-0014</v>
       </c>
       <c r="T108" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-01-R-1002</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-01-R-0014</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
+      <c r="B109" s="26"/>
+      <c r="C109" s="26"/>
       <c r="D109" s="1" t="str">
-        <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E109" s="13"/>
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="E109" s="26"/>
       <c r="F109" s="15"/>
       <c r="G109" s="13"/>
       <c r="H109" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I109" s="13"/>
       <c r="J109" s="8"/>
       <c r="K109" s="13"/>
       <c r="L109" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M109" s="14"/>
-      <c r="N109" s="10" t="s">
-        <v>137</v>
+      <c r="N109" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="O109" s="13" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="P109" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>3 Duplicate Assessments&lt;br&gt;(3 Duplicate Assessments)</v>
-      </c>
-      <c r="Q109" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="R109" s="11" t="s">
-        <v>159</v>
+        <f t="shared" si="21"/>
+        <v>Potential Errors Reports&lt;br&gt;(잠재적 오류에 대한 보고서)</v>
+      </c>
+      <c r="Q109" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R109" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="S109" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-01-R-1003</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-01-R-0015</v>
       </c>
       <c r="T109" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-01-R-1003</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-01-R-0015</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>R</v>
+      </c>
+      <c r="B110" s="27"/>
+      <c r="C110" s="27"/>
+      <c r="D110" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="E110" s="27"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="1"/>
+      <c r="H110" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="I110" s="1"/>
+      <c r="J110" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K110" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L110" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>Detail&lt;br&gt;(Detail)</v>
+      </c>
+      <c r="M110" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N110" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="O110" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P110" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>1 Payments without Debit Number&lt;br&gt;(1 Payments without Debit Number)</v>
+      </c>
+      <c r="Q110" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R110" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S110" s="23" t="str">
         <f t="shared" si="17"/>
-        <v>R</v>
-      </c>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="1" t="str">
+        <v>UI-DMCI-01-R-1001</v>
+      </c>
+      <c r="T110" s="23" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-      <c r="E110" s="13"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="13"/>
-      <c r="H110" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="I110" s="13"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="13"/>
-      <c r="L110" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="M110" s="14"/>
-      <c r="N110" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="O110" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P110" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>4 Vacated Assessments&lt;br&gt;(4 Vacated Assessments)</v>
-      </c>
-      <c r="Q110" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="R110" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="S110" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>UI-DMCI-01-R-1004</v>
-      </c>
-      <c r="T110" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>UI-DMCI-01-R-1004</v>
+        <v>UI-DMCI-01-R-1001</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
+      <c r="B111" s="26"/>
+      <c r="C111" s="26"/>
       <c r="D111" s="1" t="str">
-        <f t="shared" ref="D111:D127" si="21">IF(E111&lt;&gt;"",E111&amp;"&lt;br&gt;("&amp;C111&amp;")","")</f>
-        <v/>
-      </c>
-      <c r="E111" s="13"/>
+        <f t="shared" si="20"/>
+        <v/>
+      </c>
+      <c r="E111" s="26"/>
       <c r="F111" s="15"/>
       <c r="G111" s="13"/>
       <c r="H111" s="1" t="str">
-        <f t="shared" ref="H111:H127" si="22">IF(I111&lt;&gt;"",I111&amp;"&lt;br&gt;("&amp;G111&amp;")","")</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I111" s="13"/>
       <c r="J111" s="8"/>
       <c r="K111" s="13"/>
       <c r="L111" s="1" t="str">
-        <f t="shared" ref="L111:L127" si="23">IF(M111&lt;&gt;"",M111&amp;"&lt;br&gt;("&amp;K111&amp;")","")</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M111" s="14"/>
       <c r="N111" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="O111" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P111" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>6 Wrong Assessment&lt;br&gt;(6 Wrong Assessment)</v>
+        <f t="shared" si="21"/>
+        <v>2 Incorrect Posting&lt;br&gt;(2 Incorrect Posting)</v>
       </c>
       <c r="Q111" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="R111" s="11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="S111" s="23" t="str">
-        <f t="shared" ref="S111:S114" si="24">R111</f>
-        <v>UI-DMCI-01-R-1006</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-01-R-1002</v>
       </c>
       <c r="T111" s="23" t="str">
-        <f t="shared" ref="T111:T113" si="25">R111</f>
-        <v>UI-DMCI-01-R-1006</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-01-R-1002</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
       <c r="D112" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E112" s="13"/>
       <c r="F112" s="15"/>
       <c r="G112" s="13"/>
       <c r="H112" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I112" s="13"/>
       <c r="J112" s="8"/>
       <c r="K112" s="13"/>
       <c r="L112" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M112" s="14"/>
       <c r="N112" s="10" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O112" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P112" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>8 Lumpsum Payment&lt;br&gt;(8 Lumpsum Payment)</v>
+        <f t="shared" si="21"/>
+        <v>3 Duplicate Assessments&lt;br&gt;(3 Duplicate Assessments)</v>
       </c>
       <c r="Q112" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R112" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="S112" s="23" t="str">
-        <f t="shared" si="24"/>
-        <v>UI-DMCI-01-R-1008</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-01-R-1003</v>
       </c>
       <c r="T112" s="23" t="str">
-        <f t="shared" si="25"/>
-        <v>UI-DMCI-01-R-1008</v>
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-01-R-1003</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>R</v>
       </c>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
       <c r="D113" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="E113" s="13"/>
       <c r="F113" s="15"/>
       <c r="G113" s="13"/>
       <c r="H113" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="I113" s="13"/>
       <c r="J113" s="8"/>
       <c r="K113" s="13"/>
       <c r="L113" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M113" s="14"/>
       <c r="N113" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="O113" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P113" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>4 Vacated Assessments&lt;br&gt;(4 Vacated Assessments)</v>
+      </c>
+      <c r="Q113" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R113" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="S113" s="23" t="str">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-01-R-1004</v>
+      </c>
+      <c r="T113" s="23" t="str">
+        <f t="shared" si="18"/>
+        <v>UI-DMCI-01-R-1004</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="str">
         <f t="shared" si="19"/>
-        <v>9 Reverse Cancelled Assessment&lt;br&gt;(9 Reverse Cancelled Assessment)</v>
-      </c>
-      <c r="Q113" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="R113" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="S113" s="23" t="str">
-        <f t="shared" si="24"/>
-        <v>UI-DMCI-01-R-1009</v>
-      </c>
-      <c r="T113" s="23" t="str">
-        <f t="shared" si="25"/>
-        <v>UI-DMCI-01-R-1009</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B114" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C114" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D114" s="23" t="str">
+        <v>R</v>
+      </c>
+      <c r="B114" s="13"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="1" t="str">
+        <f t="shared" ref="D114:D130" si="23">IF(E114&lt;&gt;"",E114&amp;"&lt;br&gt;("&amp;C114&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="E114" s="13"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="1" t="str">
+        <f t="shared" ref="H114:H130" si="24">IF(I114&lt;&gt;"",I114&amp;"&lt;br&gt;("&amp;G114&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="I114" s="13"/>
+      <c r="J114" s="8"/>
+      <c r="K114" s="13"/>
+      <c r="L114" s="1" t="str">
+        <f t="shared" ref="L114:L130" si="25">IF(M114&lt;&gt;"",M114&amp;"&lt;br&gt;("&amp;K114&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="M114" s="14"/>
+      <c r="N114" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="O114" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P114" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Approver&lt;br&gt;(Approver)</v>
-      </c>
-      <c r="E114" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F114" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G114" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="H114" s="23" t="str">
-        <f t="shared" si="22"/>
-        <v>Data Cleanup Tool&lt;br&gt;(데이터 클린업 도구)</v>
-      </c>
-      <c r="I114" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J114" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="K114" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L114" s="23" t="str">
-        <f t="shared" si="23"/>
-        <v>Dashboard&lt;br&gt;(Dashboard)</v>
-      </c>
-      <c r="M114" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="N114" s="23"/>
-      <c r="O114" s="23"/>
-      <c r="P114" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Q114" s="23"/>
-      <c r="R114" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="S114" s="34" t="str">
-        <f t="shared" si="24"/>
-        <v>UI-DMCI-01-A-0001</v>
+        <v>6 Wrong Assessment&lt;br&gt;(6 Wrong Assessment)</v>
+      </c>
+      <c r="Q114" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R114" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="S114" s="23" t="str">
+        <f t="shared" ref="S114:S117" si="26">R114</f>
+        <v>UI-DMCI-01-R-1006</v>
       </c>
       <c r="T114" s="23" t="str">
-        <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-0001</v>
+        <f t="shared" ref="T114:T116" si="27">R114</f>
+        <v>UI-DMCI-01-R-1006</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="str">
-        <f t="shared" ref="A107:A119" si="26">IF(B115="", A114, IF(B115="FN-E-DMC","E","I"))</f>
-        <v>A</v>
-      </c>
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
+        <f t="shared" si="19"/>
+        <v>R</v>
+      </c>
+      <c r="B115" s="13"/>
+      <c r="C115" s="13"/>
       <c r="D115" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E115" s="13"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="13"/>
+      <c r="H115" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I115" s="13"/>
+      <c r="J115" s="8"/>
+      <c r="K115" s="13"/>
+      <c r="L115" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="M115" s="14"/>
+      <c r="N115" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="O115" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P115" s="1" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="E115" s="1"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="1"/>
-      <c r="H115" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="I115" s="1"/>
-      <c r="J115" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K115" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L115" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>Case Management&lt;br&gt;(Case Management)</v>
-      </c>
-      <c r="M115" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N115" s="8"/>
-      <c r="O115" s="1"/>
-      <c r="P115" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Q115" s="1"/>
-      <c r="R115" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="S115" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-0003</v>
-      </c>
-      <c r="T115" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-0003</v>
+        <v>8 Lumpsum Payment&lt;br&gt;(8 Lumpsum Payment)</v>
+      </c>
+      <c r="Q115" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R115" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="S115" s="23" t="str">
+        <f t="shared" si="26"/>
+        <v>UI-DMCI-01-R-1008</v>
+      </c>
+      <c r="T115" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>UI-DMCI-01-R-1008</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v>A</v>
+        <f t="shared" si="19"/>
+        <v>R</v>
       </c>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
       <c r="D116" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="15"/>
       <c r="G116" s="13"/>
       <c r="H116" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I116" s="13"/>
-      <c r="J116" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="K116" s="13" t="s">
-        <v>15</v>
-      </c>
+      <c r="J116" s="8"/>
+      <c r="K116" s="13"/>
       <c r="L116" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="M116" s="14"/>
+      <c r="N116" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="O116" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P116" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>9 Reverse Cancelled Assessment&lt;br&gt;(9 Reverse Cancelled Assessment)</v>
+      </c>
+      <c r="Q116" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="R116" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="S116" s="23" t="str">
+        <f t="shared" si="26"/>
+        <v>UI-DMCI-01-R-1009</v>
+      </c>
+      <c r="T116" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>UI-DMCI-01-R-1009</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C117" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D117" s="23" t="str">
         <f t="shared" si="23"/>
-        <v>Case Reassignment&lt;br&gt;(케이스 재할당)</v>
-      </c>
-      <c r="M116" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="N116" s="8"/>
-      <c r="O116" s="13"/>
-      <c r="P116" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Q116" s="14"/>
-      <c r="R116" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="S116" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-0012</v>
-      </c>
-      <c r="T116" s="1" t="str">
+        <v>Approver&lt;br&gt;(Approver)</v>
+      </c>
+      <c r="E117" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F117" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G117" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="H117" s="23" t="str">
+        <f t="shared" si="24"/>
+        <v>Data Cleanup Tool&lt;br&gt;(데이터 클린업 도구)</v>
+      </c>
+      <c r="I117" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J117" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="K117" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L117" s="23" t="str">
+        <f t="shared" si="25"/>
+        <v>Dashboard&lt;br&gt;(Dashboard)</v>
+      </c>
+      <c r="M117" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N117" s="23"/>
+      <c r="O117" s="23"/>
+      <c r="P117" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Q117" s="23"/>
+      <c r="R117" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="S117" s="34" t="str">
+        <f t="shared" si="26"/>
+        <v>UI-DMCI-01-A-0001</v>
+      </c>
+      <c r="T117" s="23" t="str">
         <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-0012</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="str">
-        <f t="shared" si="26"/>
-        <v>A</v>
-      </c>
-      <c r="B117" s="13"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="E117" s="13"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="I117" s="13"/>
-      <c r="J117" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L117" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>Data Cleanup Reports&lt;br&gt;(Data Cleanup Reports)</v>
-      </c>
-      <c r="M117" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N117" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="O117" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="P117" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Executive Reports&lt;br&gt;(관리자용 요약 보고서)</v>
-      </c>
-      <c r="Q117" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="R117" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="S117" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-0013</v>
-      </c>
-      <c r="T117" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-0013</v>
+        <v>UI-DMCI-01-A-0001</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="A118:A122" si="28">IF(B118="", A117, IF(B118="FN-E-DMC","E","I"))</f>
         <v>A</v>
       </c>
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
       <c r="D118" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E118" s="1"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I118" s="1"/>
+      <c r="J118" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L118" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Case Management&lt;br&gt;(Case Management)</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N118" s="8"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1" t="str">
         <f t="shared" si="21"/>
         <v/>
       </c>
-      <c r="E118" s="13"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="I118" s="13"/>
-      <c r="J118" s="8"/>
-      <c r="K118" s="13"/>
-      <c r="L118" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="M118" s="14"/>
-      <c r="N118" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="O118" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="P118" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Detailed Reports&lt;br&gt;(상세 보고서)</v>
-      </c>
-      <c r="Q118" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="Q118" s="1"/>
       <c r="R118" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="S118" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-0014</v>
+        <v>UI-DMCI-01-A-0003</v>
       </c>
       <c r="T118" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-0014</v>
+        <v>UI-DMCI-01-A-0003</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>A</v>
       </c>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
       <c r="D119" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E119" s="13"/>
       <c r="F119" s="15"/>
       <c r="G119" s="13"/>
       <c r="H119" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I119" s="13"/>
-      <c r="J119" s="8"/>
-      <c r="K119" s="13"/>
+      <c r="J119" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K119" s="13" t="s">
+        <v>15</v>
+      </c>
       <c r="L119" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="M119" s="14"/>
-      <c r="N119" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="O119" s="13" t="s">
-        <v>18</v>
-      </c>
+        <f t="shared" si="25"/>
+        <v>Case Reassignment&lt;br&gt;(케이스 재할당)</v>
+      </c>
+      <c r="M119" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N119" s="8"/>
+      <c r="O119" s="13"/>
       <c r="P119" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>Potential Errors Reports&lt;br&gt;(잠재적 오류에 대한 보고서)</v>
-      </c>
-      <c r="Q119" s="14" t="s">
-        <v>14</v>
-      </c>
+        <f t="shared" si="21"/>
+        <v/>
+      </c>
+      <c r="Q119" s="14"/>
       <c r="R119" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="S119" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-0015</v>
+        <v>UI-DMCI-01-A-0012</v>
       </c>
       <c r="T119" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-0015</v>
+        <v>UI-DMCI-01-A-0012</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A120" s="28" t="str">
-        <f t="shared" ref="A120:A126" si="27">IF(B120="", A119, IF(B120="FN-E-DMC","E","I"))</f>
+      <c r="A120" s="2" t="str">
+        <f t="shared" si="28"/>
         <v>A</v>
       </c>
-      <c r="B120" s="27"/>
-      <c r="C120" s="27"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="13"/>
       <c r="D120" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E120" s="13"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I120" s="13"/>
+      <c r="J120" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L120" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Data Cleanup Reports&lt;br&gt;(Data Cleanup Reports)</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N120" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="O120" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P120" s="1" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="E120" s="27"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="I120" s="1"/>
-      <c r="J120" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="K120" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L120" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v>Detail&lt;br&gt;(Detail)</v>
-      </c>
-      <c r="M120" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N120" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="O120" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P120" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>1 Payments without Debit Number&lt;br&gt;(1 Payments without Debit Number)</v>
-      </c>
-      <c r="Q120" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R120" s="11" t="s">
-        <v>170</v>
+        <v>Executive Reports&lt;br&gt;(관리자용 요약 보고서)</v>
+      </c>
+      <c r="Q120" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R120" s="12" t="s">
+        <v>167</v>
       </c>
       <c r="S120" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-1001</v>
+        <v>UI-DMCI-01-A-0013</v>
       </c>
       <c r="T120" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-1001</v>
+        <v>UI-DMCI-01-A-0013</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A121" s="28" t="str">
-        <f t="shared" si="27"/>
+      <c r="A121" s="2" t="str">
+        <f t="shared" si="28"/>
         <v>A</v>
       </c>
-      <c r="B121" s="26"/>
-      <c r="C121" s="26"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="13"/>
       <c r="D121" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="E121" s="26"/>
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E121" s="13"/>
       <c r="F121" s="15"/>
       <c r="G121" s="13"/>
       <c r="H121" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I121" s="13"/>
       <c r="J121" s="8"/>
       <c r="K121" s="13"/>
       <c r="L121" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="M121" s="14"/>
-      <c r="N121" s="10" t="s">
-        <v>146</v>
+      <c r="N121" s="8" t="s">
+        <v>143</v>
       </c>
       <c r="O121" s="13" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="P121" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>2 Incorrect Posting&lt;br&gt;(2 Incorrect Posting)</v>
-      </c>
-      <c r="Q121" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R121" s="11" t="s">
-        <v>171</v>
+        <f t="shared" si="21"/>
+        <v>Detailed Reports&lt;br&gt;(상세 보고서)</v>
+      </c>
+      <c r="Q121" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R121" s="12" t="s">
+        <v>168</v>
       </c>
       <c r="S121" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-1002</v>
+        <v>UI-DMCI-01-A-0014</v>
       </c>
       <c r="T121" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-1002</v>
+        <v>UI-DMCI-01-A-0014</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>A</v>
       </c>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
       <c r="D122" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E122" s="13"/>
       <c r="F122" s="15"/>
       <c r="G122" s="13"/>
       <c r="H122" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I122" s="13"/>
       <c r="J122" s="8"/>
       <c r="K122" s="13"/>
       <c r="L122" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="M122" s="14"/>
-      <c r="N122" s="10" t="s">
-        <v>147</v>
+      <c r="N122" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="O122" s="13" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="P122" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>3 Duplicate Assessments&lt;br&gt;(3 Duplicate Assessments)</v>
-      </c>
-      <c r="Q122" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="R122" s="11" t="s">
-        <v>172</v>
+        <f t="shared" si="21"/>
+        <v>Potential Errors Reports&lt;br&gt;(잠재적 오류에 대한 보고서)</v>
+      </c>
+      <c r="Q122" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R122" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="S122" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-1003</v>
+        <v>UI-DMCI-01-A-0015</v>
       </c>
       <c r="T122" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-1003</v>
+        <v>UI-DMCI-01-A-0015</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="str">
-        <f t="shared" si="27"/>
+      <c r="A123" s="28" t="str">
+        <f t="shared" ref="A123:A129" si="29">IF(B123="", A122, IF(B123="FN-E-DMC","E","I"))</f>
         <v>A</v>
       </c>
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
+      <c r="B123" s="27"/>
+      <c r="C123" s="27"/>
       <c r="D123" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E123" s="27"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I123" s="1"/>
+      <c r="J123" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K123" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L123" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Detail&lt;br&gt;(Detail)</v>
+      </c>
+      <c r="M123" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N123" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="O123" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P123" s="1" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="E123" s="13"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="1" t="str">
-        <f t="shared" si="22"/>
-        <v/>
-      </c>
-      <c r="I123" s="13"/>
-      <c r="J123" s="8"/>
-      <c r="K123" s="13"/>
-      <c r="L123" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="M123" s="14"/>
-      <c r="N123" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="O123" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="P123" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>4 Vacated Assessments&lt;br&gt;(4 Vacated Assessments)</v>
-      </c>
-      <c r="Q123" s="13" t="s">
-        <v>35</v>
+        <v>1 Payments without Debit Number&lt;br&gt;(1 Payments without Debit Number)</v>
+      </c>
+      <c r="Q123" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="R123" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="S123" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-1004</v>
+        <v>UI-DMCI-01-A-1001</v>
       </c>
       <c r="T123" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-1004</v>
+        <v>UI-DMCI-01-A-1001</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="str">
-        <f t="shared" si="27"/>
+      <c r="A124" s="28" t="str">
+        <f t="shared" si="29"/>
         <v>A</v>
       </c>
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
+      <c r="B124" s="26"/>
+      <c r="C124" s="26"/>
       <c r="D124" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="E124" s="13"/>
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E124" s="26"/>
       <c r="F124" s="15"/>
       <c r="G124" s="13"/>
       <c r="H124" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I124" s="13"/>
       <c r="J124" s="8"/>
       <c r="K124" s="13"/>
       <c r="L124" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="M124" s="14"/>
       <c r="N124" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="O124" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="P124" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>6 Wrong Assessment&lt;br&gt;(6 Wrong Assessment)</v>
+        <f t="shared" si="21"/>
+        <v>2 Incorrect Posting&lt;br&gt;(2 Incorrect Posting)</v>
       </c>
       <c r="Q124" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="R124" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="S124" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-1006</v>
+        <v>UI-DMCI-01-A-1002</v>
       </c>
       <c r="T124" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-1006</v>
+        <v>UI-DMCI-01-A-1002</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>A</v>
       </c>
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
       <c r="D125" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E125" s="13"/>
       <c r="F125" s="15"/>
       <c r="G125" s="13"/>
       <c r="H125" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I125" s="13"/>
       <c r="J125" s="8"/>
       <c r="K125" s="13"/>
       <c r="L125" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="M125" s="14"/>
       <c r="N125" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="O125" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="P125" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>8 Lumpsum Payment&lt;br&gt;(8 Lumpsum Payment)</v>
+        <f t="shared" si="21"/>
+        <v>3 Duplicate Assessments&lt;br&gt;(3 Duplicate Assessments)</v>
       </c>
       <c r="Q125" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R125" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="S125" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-1008</v>
+        <v>UI-DMCI-01-A-1003</v>
       </c>
       <c r="T125" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-1008</v>
+        <v>UI-DMCI-01-A-1003</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>A</v>
       </c>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E126" s="13"/>
       <c r="F126" s="15"/>
       <c r="G126" s="13"/>
       <c r="H126" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="I126" s="13"/>
       <c r="J126" s="8"/>
       <c r="K126" s="13"/>
       <c r="L126" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="M126" s="14"/>
       <c r="N126" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O126" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P126" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v>9 Reverse Cancelled Assessment&lt;br&gt;(9 Reverse Cancelled Assessment)</v>
+        <f t="shared" si="21"/>
+        <v>4 Vacated Assessments&lt;br&gt;(4 Vacated Assessments)</v>
       </c>
       <c r="Q126" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R126" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="S126" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-1009</v>
+        <v>UI-DMCI-01-A-1004</v>
       </c>
       <c r="T126" s="1" t="str">
         <f t="shared" si="2"/>
+        <v>UI-DMCI-01-A-1004</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>A</v>
+      </c>
+      <c r="B127" s="13"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E127" s="13"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I127" s="13"/>
+      <c r="J127" s="8"/>
+      <c r="K127" s="13"/>
+      <c r="L127" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="M127" s="14"/>
+      <c r="N127" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="O127" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P127" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>6 Wrong Assessment&lt;br&gt;(6 Wrong Assessment)</v>
+      </c>
+      <c r="Q127" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="R127" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="S127" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>UI-DMCI-01-A-1006</v>
+      </c>
+      <c r="T127" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>UI-DMCI-01-A-1006</v>
+      </c>
+    </row>
+    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A128" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>A</v>
+      </c>
+      <c r="B128" s="13"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E128" s="13"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I128" s="13"/>
+      <c r="J128" s="8"/>
+      <c r="K128" s="13"/>
+      <c r="L128" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="M128" s="14"/>
+      <c r="N128" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="O128" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="P128" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>8 Lumpsum Payment&lt;br&gt;(8 Lumpsum Payment)</v>
+      </c>
+      <c r="Q128" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R128" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="S128" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>UI-DMCI-01-A-1008</v>
+      </c>
+      <c r="T128" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>UI-DMCI-01-A-1008</v>
+      </c>
+    </row>
+    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="str">
+        <f t="shared" si="29"/>
+        <v>A</v>
+      </c>
+      <c r="B129" s="13"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E129" s="13"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="I129" s="13"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="13"/>
+      <c r="L129" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v/>
+      </c>
+      <c r="M129" s="14"/>
+      <c r="N129" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="O129" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="P129" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>9 Reverse Cancelled Assessment&lt;br&gt;(9 Reverse Cancelled Assessment)</v>
+      </c>
+      <c r="Q129" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="R129" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="S129" s="1" t="str">
+        <f t="shared" si="1"/>
         <v>UI-DMCI-01-A-1009</v>
       </c>
-    </row>
-    <row r="127" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="22" t="s">
+      <c r="T129" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>UI-DMCI-01-A-1009</v>
+      </c>
+    </row>
+    <row r="130" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B127" s="23" t="s">
+      <c r="B130" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="C127" s="23" t="s">
+      <c r="C130" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D127" s="23" t="str">
+      <c r="D130" s="23" t="str">
+        <f t="shared" si="23"/>
+        <v>HQ Manager&lt;br&gt;(HQ Manager)</v>
+      </c>
+      <c r="E130" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F130" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G130" s="34" t="s">
+        <v>403</v>
+      </c>
+      <c r="H130" s="23" t="str">
+        <f t="shared" si="24"/>
+        <v>Data Cleanup Tool&lt;br&gt;(데이터 클린업 도구)</v>
+      </c>
+      <c r="I130" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J130" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="K130" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L130" s="23" t="str">
+        <f t="shared" si="25"/>
+        <v>Dashboard&lt;br&gt;(Dashboard)</v>
+      </c>
+      <c r="M130" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N130" s="23"/>
+      <c r="O130" s="23"/>
+      <c r="P130" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>HQ Manager&lt;br&gt;(HQ Manager)</v>
-      </c>
-      <c r="E127" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F127" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="G127" s="34" t="s">
-        <v>417</v>
-      </c>
-      <c r="H127" s="23" t="str">
-        <f t="shared" si="22"/>
-        <v>Data Cleanup Tool&lt;br&gt;(데이터 클린업 도구)</v>
-      </c>
-      <c r="I127" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J127" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="K127" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L127" s="23" t="str">
-        <f t="shared" si="23"/>
-        <v>Dashboard&lt;br&gt;(Dashboard)</v>
-      </c>
-      <c r="M127" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="N127" s="23"/>
-      <c r="O127" s="23"/>
-      <c r="P127" s="1" t="str">
-        <f t="shared" si="19"/>
-        <v/>
-      </c>
-      <c r="Q127" s="23"/>
-      <c r="R127" s="24" t="s">
+        <v/>
+      </c>
+      <c r="Q130" s="23"/>
+      <c r="R130" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="S127" s="23" t="str">
+      <c r="S130" s="23" t="str">
         <f t="shared" si="1"/>
         <v>UI-DMCI-01-M-0001</v>
       </c>
-      <c r="T127" s="23" t="str">
+      <c r="T130" s="23" t="str">
         <f t="shared" si="2"/>
         <v>UI-DMCI-01-M-0001</v>
       </c>
@@ -8682,7 +8860,7 @@
   </sheetData>
   <autoFilter ref="A2:T3" xr:uid="{52A47179-ED83-49BA-AD32-52C02F9F0FB4}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="S4:T4 S36:T127 A3:A127">
+  <conditionalFormatting sqref="A3:A130 S4:T4 S39:T130">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>$A$3="I"</formula>
     </cfRule>
@@ -8692,7 +8870,7 @@
       <formula>$A$3="I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S17:T17 S22:T22">
+  <conditionalFormatting sqref="S20:T20 S25:T25">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A$3="I"</formula>
     </cfRule>

--- a/HTML-MAKER/00-UI-DMC-MENU.xlsx
+++ b/HTML-MAKER/00-UI-DMC-MENU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\25_IDRAS\IDRAS_DMC_2ND_HTML\HTML-MAKER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5351E02D-B966-461B-84AF-6860C4B9B3CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259771D4-207B-4D39-A7D1-F3832F91C1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20565" yWindow="1335" windowWidth="12990" windowHeight="9930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7080" yWindow="6030" windowWidth="45525" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴생성" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="419">
   <si>
     <t>1 Level</t>
   </si>
@@ -688,9 +688,6 @@
     <t>UI-DMCI-03-O-0010</t>
   </si>
   <si>
-    <t>UI-DMCI-03-O-0012</t>
-  </si>
-  <si>
     <t>UI-DMCI-03-O-0013</t>
   </si>
   <si>
@@ -1341,12 +1338,6 @@
     <t>징수 통지서 취소</t>
   </si>
   <si>
-    <t>징수불능 세액 탕감 (2차)</t>
-  </si>
-  <si>
-    <t>세액 환입 처리 (2차)</t>
-  </si>
-  <si>
     <t>환급 상계</t>
   </si>
   <si>
@@ -1384,10 +1375,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FN-DMCI-03-O-11-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FN-DMCI-03-O-01</t>
   </si>
   <si>
@@ -1415,67 +1402,35 @@
     <t>FN-DMCI-03-O-10</t>
   </si>
   <si>
-    <t>FN-DMCI-03-O-11</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-12</t>
-  </si>
-  <si>
     <t>FN-DMCI-03-O-13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FN-DMCI-03-O-14</t>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-11-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-11-03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FN-DMCI-03-O-11-04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상각 제안</t>
-  </si>
-  <si>
-    <t>제출된 상각 목록</t>
-  </si>
-  <si>
-    <t>상각 목록</t>
-  </si>
-  <si>
-    <t>상각 상태 보기</t>
-  </si>
-  <si>
-    <t>Propose for Write off</t>
-  </si>
-  <si>
-    <t>List of Submitted Write Off</t>
-  </si>
-  <si>
-    <t>List of Write off</t>
-  </si>
-  <si>
-    <t>View Status of Write off</t>
-  </si>
-  <si>
-    <t>UI-DMCI-03-O-1101</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-DMCI-03-O-1102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-DMCI-03-O-1103</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI-DMCI-03-O-1104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FN-DMCI-03-O-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>징수 불가 세금 상각 (2차) ★2nd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상각 세금 취소 (2차) ★2nd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-DMCI-03-O-1301</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI-DMCI-03-O-1401</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1548,7 +1503,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1621,6 +1576,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -1662,7 +1623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1766,6 +1727,12 @@
     <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2122,11 +2089,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5116929-A913-40D4-80C3-074C14131D30}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T130"/>
+  <dimension ref="A1:T127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2142,7 +2109,8 @@
     <col min="9" max="9" width="16.42578125" style="9" customWidth="1"/>
     <col min="10" max="10" width="30.85546875" style="20" customWidth="1"/>
     <col min="11" max="11" width="27.7109375" style="9" customWidth="1"/>
-    <col min="12" max="13" width="18.42578125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" style="9" customWidth="1"/>
+    <col min="13" max="13" width="33.140625" style="9" customWidth="1"/>
     <col min="14" max="14" width="31.7109375" style="20" customWidth="1"/>
     <col min="15" max="17" width="25.5703125" style="9" customWidth="1"/>
     <col min="18" max="20" width="18.85546875" style="9" bestFit="1" customWidth="1"/>
@@ -2311,7 +2279,7 @@
       <c r="N3" s="8"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="str">
-        <f t="shared" ref="P3:P80" si="0">IF(Q3&lt;&gt;"",Q3&amp;"&lt;br&gt;("&amp;O3&amp;")","")</f>
+        <f t="shared" ref="P3:P77" si="0">IF(Q3&lt;&gt;"",Q3&amp;"&lt;br&gt;("&amp;O3&amp;")","")</f>
         <v/>
       </c>
       <c r="Q3" s="1"/>
@@ -2320,11 +2288,11 @@
         <v/>
       </c>
       <c r="S3" s="1" t="str">
-        <f t="shared" ref="S3:S130" si="1">R3</f>
+        <f t="shared" ref="S3:S127" si="1">R3</f>
         <v/>
       </c>
       <c r="T3" s="1" t="str">
-        <f t="shared" ref="T3:T130" si="2">R3</f>
+        <f t="shared" ref="T3:T127" si="2">R3</f>
         <v/>
       </c>
     </row>
@@ -2339,33 +2307,33 @@
         <v>21</v>
       </c>
       <c r="D4" s="23" t="str">
-        <f t="shared" ref="D4:D62" si="3">IF(E4&lt;&gt;"",E4&amp;"&lt;br&gt;("&amp;C4&amp;")","")</f>
+        <f t="shared" ref="D4:D59" si="3">IF(E4&lt;&gt;"",E4&amp;"&lt;br&gt;("&amp;C4&amp;")","")</f>
         <v>Officer&lt;br&gt;(Officer)</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H4" s="23" t="str">
-        <f t="shared" ref="H4:H61" si="4">IF(I4&lt;&gt;"",I4&amp;"&lt;br&gt;("&amp;G4&amp;")","")</f>
+        <f t="shared" ref="H4:H58" si="4">IF(I4&lt;&gt;"",I4&amp;"&lt;br&gt;("&amp;G4&amp;")","")</f>
         <v>Debt Enforcement&lt;br&gt;(채무 집행)</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>178</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="L4" s="23" t="str">
-        <f t="shared" ref="L4:L61" si="5">IF(M4&lt;&gt;"",M4&amp;"&lt;br&gt;("&amp;K4&amp;")","")</f>
+        <f t="shared" ref="L4:L58" si="5">IF(M4&lt;&gt;"",M4&amp;"&lt;br&gt;("&amp;K4&amp;")","")</f>
         <v>Tax Position&lt;br&gt;(세금 위치)</v>
       </c>
       <c r="M4" s="34" t="s">
@@ -2374,18 +2342,18 @@
       <c r="N4" s="34"/>
       <c r="O4" s="34"/>
       <c r="P4" s="1" t="str">
-        <f t="shared" ref="P4:P61" si="6">IF(Q4&lt;&gt;"",Q4&amp;"&lt;br&gt;("&amp;O4&amp;")","")</f>
+        <f t="shared" ref="P4:P58" si="6">IF(Q4&lt;&gt;"",Q4&amp;"&lt;br&gt;("&amp;O4&amp;")","")</f>
         <v/>
       </c>
       <c r="Q4" s="34"/>
       <c r="R4" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="S4" s="34" t="str">
+      <c r="S4" s="38" t="str">
         <f t="shared" si="1"/>
         <v>UI-DMCI-03-O-0001</v>
       </c>
-      <c r="T4" s="34" t="str">
+      <c r="T4" s="38" t="str">
         <f t="shared" si="2"/>
         <v>UI-DMCI-03-O-0001</v>
       </c>
@@ -2409,10 +2377,10 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="8" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="L5" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2457,10 +2425,10 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="8" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L6" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2505,10 +2473,10 @@
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="8" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="L7" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2553,10 +2521,10 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="8" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L8" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2601,10 +2569,10 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="8" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="L9" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2649,10 +2617,10 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="8" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="L10" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2697,17 +2665,17 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="8" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Third Part Liability ★2nd&lt;br&gt;(제3자 책임 (2nd))</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="N11" s="8"/>
       <c r="O11" s="13"/>
@@ -2719,10 +2687,10 @@
       <c r="R11" s="32" t="s">
         <v>196</v>
       </c>
-      <c r="S11" s="32" t="s">
+      <c r="S11" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="T11" s="32" t="s">
+      <c r="T11" s="12" t="s">
         <v>196</v>
       </c>
     </row>
@@ -2745,10 +2713,10 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L12" s="1" t="str">
         <f t="shared" si="5"/>
@@ -2781,170 +2749,187 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D13:D14" si="7">IF(E13&lt;&gt;"",E13&amp;"&lt;br&gt;("&amp;C13&amp;")","")</f>
         <v/>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="7"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H13:H14" si="8">IF(I13&lt;&gt;"",I13&amp;"&lt;br&gt;("&amp;G13&amp;")","")</f>
         <v/>
       </c>
       <c r="I13" s="1"/>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>415</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L13" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v>Write-off uncollectable tax ★2nd&lt;br&gt;(징수불능 세액 탕감 (2차))</v>
+      <c r="L13" s="7" t="str">
+        <f t="shared" ref="L13:L14" si="9">IF(M13&lt;&gt;"",M13&amp;"&lt;br&gt;("&amp;K13&amp;")","")</f>
+        <v>Write-off uncollectable tax ★2nd&lt;br&gt;(징수 불가 세금 상각 (2차) ★2nd)</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="O13" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="P13" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>Propose for Write off&lt;br&gt;(상각 제안)</v>
-      </c>
-      <c r="Q13" s="14" t="s">
-        <v>426</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
       <c r="R13" s="32" t="s">
-        <v>430</v>
-      </c>
-      <c r="S13" s="32" t="str">
+        <v>417</v>
+      </c>
+      <c r="S13" s="12" t="str">
         <f>R13</f>
-        <v>UI-DMCI-03-O-1101</v>
-      </c>
-      <c r="T13" s="32" t="str">
+        <v>UI-DMCI-03-O-1301</v>
+      </c>
+      <c r="T13" s="12" t="str">
         <f>R13</f>
-        <v>UI-DMCI-03-O-1101</v>
+        <v>UI-DMCI-03-O-1301</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="7"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
       <c r="I14" s="1"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="8" t="s">
-        <v>419</v>
-      </c>
-      <c r="O14" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="P14" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>List of Submitted Write Off&lt;br&gt;(제출된 상각 목록)</v>
-      </c>
-      <c r="Q14" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="R14" s="32" t="s">
-        <v>431</v>
-      </c>
-      <c r="S14" s="32" t="str">
-        <f t="shared" ref="S14:S16" si="7">R14</f>
-        <v>UI-DMCI-03-O-1102</v>
-      </c>
-      <c r="T14" s="32" t="str">
-        <f t="shared" ref="T14:T16" si="8">R14</f>
-        <v>UI-DMCI-03-O-1102</v>
+      <c r="J14" s="46" t="s">
+        <v>412</v>
+      </c>
+      <c r="K14" s="46" t="s">
+        <v>416</v>
+      </c>
+      <c r="L14" s="46" t="str">
+        <f t="shared" si="9"/>
+        <v>Write back of tax ★2nd&lt;br&gt;(상각 세금 취소 (2차) ★2nd)</v>
+      </c>
+      <c r="M14" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="N14" s="46"/>
+      <c r="O14" s="46"/>
+      <c r="P14" s="46"/>
+      <c r="Q14" s="46"/>
+      <c r="R14" s="47" t="s">
+        <v>418</v>
+      </c>
+      <c r="S14" s="12" t="str">
+        <f t="shared" ref="S14" si="10">R14</f>
+        <v>UI-DMCI-03-O-1401</v>
+      </c>
+      <c r="T14" s="12" t="str">
+        <f t="shared" ref="T14" si="11">R14</f>
+        <v>UI-DMCI-03-O-1401</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="I15" s="1"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>424</v>
-      </c>
+      <c r="J15" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="L15" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Refund Offsetting&lt;br&gt;(환급 상계)</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="N15" s="8"/>
+      <c r="O15" s="13"/>
       <c r="P15" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>List of Write off&lt;br&gt;(상각 목록)</v>
-      </c>
-      <c r="Q15" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="R15" s="32" t="s">
-        <v>432</v>
-      </c>
-      <c r="S15" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>UI-DMCI-03-O-1103</v>
-      </c>
-      <c r="T15" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>UI-DMCI-03-O-1103</v>
+        <v/>
+      </c>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="7"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
       <c r="I16" s="1"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="O16" s="13" t="s">
-        <v>425</v>
-      </c>
+      <c r="J16" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Interest Rate Management&lt;br&gt;(이자율 관리)</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="13"/>
       <c r="P16" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>View Status of Write off&lt;br&gt;(상각 상태 보기)</v>
-      </c>
-      <c r="Q16" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="R16" s="32" t="s">
-        <v>433</v>
-      </c>
-      <c r="S16" s="32" t="str">
-        <f t="shared" si="7"/>
-        <v>UI-DMCI-03-O-1104</v>
-      </c>
-      <c r="T16" s="32" t="str">
-        <f t="shared" si="8"/>
-        <v>UI-DMCI-03-O-1104</v>
+        <v/>
+      </c>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
@@ -2958,41 +2943,49 @@
         <v/>
       </c>
       <c r="E17" s="1"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="1"/>
+      <c r="F17" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>398</v>
+      </c>
       <c r="H17" s="1" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="K17" s="7" t="s">
+        <v>Compliance Monitoring&lt;br&gt;(이행 모니터링)</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="J17" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="K17" s="34" t="s">
         <v>393</v>
       </c>
       <c r="L17" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Write back of tax ★2nd&lt;br&gt;(세액 환입 처리 (2차))</v>
-      </c>
-      <c r="M17" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="N17" s="8"/>
-      <c r="O17" s="13"/>
+        <v>Tax Clearance Certificates&lt;br&gt;(세금 납부 확인서)</v>
+      </c>
+      <c r="M17" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
       <c r="P17" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="S17" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="T17" s="32" t="s">
-        <v>198</v>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="S17" s="38" t="str">
+        <f t="shared" ref="S17" si="12">R17</f>
+        <v>UI-DMCI-04-O-0001</v>
+      </c>
+      <c r="T17" s="38" t="str">
+        <f t="shared" ref="T17" si="13">R17</f>
+        <v>UI-DMCI-04-O-0001</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -3006,41 +2999,41 @@
         <v/>
       </c>
       <c r="E18" s="1"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="1"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="I18" s="38"/>
+      <c r="J18" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="K18" s="38" t="s">
         <v>394</v>
       </c>
       <c r="L18" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Refund Offsetting&lt;br&gt;(환급 상계)</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="N18" s="8"/>
-      <c r="O18" s="13"/>
+        <v>Tax Residency Certificate&lt;br&gt;(거주자 증명서)</v>
+      </c>
+      <c r="M18" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="N18" s="38"/>
+      <c r="O18" s="38"/>
       <c r="P18" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q18" s="14"/>
+      <c r="Q18" s="38"/>
       <c r="R18" s="12" t="s">
-        <v>199</v>
+        <v>273</v>
       </c>
       <c r="S18" s="12" t="s">
-        <v>199</v>
+        <v>273</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>199</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -3054,41 +3047,41 @@
         <v/>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="1"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="K19" s="1" t="s">
+      <c r="I19" s="38"/>
+      <c r="J19" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="K19" s="38" t="s">
         <v>395</v>
       </c>
       <c r="L19" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Interest Rate Management&lt;br&gt;(이자율 관리)</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N19" s="8"/>
-      <c r="O19" s="13"/>
+        <v>Motor vehicle Activation and Compliance check&lt;br&gt;(차량 등록 및 준수 확인)</v>
+      </c>
+      <c r="M19" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="N19" s="38"/>
+      <c r="O19" s="38"/>
       <c r="P19" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q19" s="14"/>
+      <c r="Q19" s="38"/>
       <c r="R19" s="12" t="s">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="S19" s="12" t="s">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="T19" s="12" t="s">
-        <v>200</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
@@ -3102,49 +3095,41 @@
         <v/>
       </c>
       <c r="E20" s="1"/>
-      <c r="F20" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>401</v>
-      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Compliance Monitoring&lt;br&gt;(이행 모니터링)</v>
-      </c>
-      <c r="I20" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>278</v>
-      </c>
-      <c r="K20" s="34" t="s">
+        <v/>
+      </c>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="K20" s="38" t="s">
         <v>396</v>
       </c>
       <c r="L20" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Tax Clearance Certificates&lt;br&gt;(세금 납부 확인서)</v>
-      </c>
-      <c r="M20" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
+        <v>Offense Management&lt;br&gt;(위반 사항 관리)</v>
+      </c>
+      <c r="M20" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
       <c r="P20" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="S20" s="34" t="str">
-        <f t="shared" ref="S20" si="9">R20</f>
-        <v>UI-DMCI-04-O-0001</v>
-      </c>
-      <c r="T20" s="34" t="str">
-        <f t="shared" ref="T20" si="10">R20</f>
-        <v>UI-DMCI-04-O-0001</v>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
@@ -3166,17 +3151,17 @@
       </c>
       <c r="I21" s="38"/>
       <c r="J21" s="38" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="K21" s="38" t="s">
         <v>397</v>
       </c>
       <c r="L21" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Tax Residency Certificate&lt;br&gt;(거주자 증명서)</v>
+        <v>Normal Flow Monitoring&lt;br&gt;(일반 흐름 모니터링)</v>
       </c>
       <c r="M21" s="38" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N21" s="38"/>
       <c r="O21" s="38"/>
@@ -3186,13 +3171,13 @@
       </c>
       <c r="Q21" s="38"/>
       <c r="R21" s="12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="T21" s="12" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -3206,41 +3191,49 @@
         <v/>
       </c>
       <c r="E22" s="1"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
+      <c r="F22" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>399</v>
+      </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38" t="s">
-        <v>280</v>
-      </c>
-      <c r="K22" s="38" t="s">
-        <v>398</v>
+        <v>Sale of Charged Asset&lt;br&gt;(담보 자산 매각)</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="J22" s="34" t="s">
+        <v>211</v>
+      </c>
+      <c r="K22" s="34" t="s">
+        <v>263</v>
       </c>
       <c r="L22" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Motor vehicle Activation and Compliance check&lt;br&gt;(차량 등록 및 준수 확인)</v>
-      </c>
-      <c r="M22" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
+        <v>Asset Management&lt;br&gt;(자산관리)</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
       <c r="P22" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q22" s="38"/>
-      <c r="R22" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="S22" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="T22" s="12" t="s">
-        <v>275</v>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="S22" s="38" t="str">
+        <f t="shared" ref="S22" si="14">R22</f>
+        <v>UI-DMCI-05-O-0001</v>
+      </c>
+      <c r="T22" s="38" t="str">
+        <f t="shared" ref="T22" si="15">R22</f>
+        <v>UI-DMCI-05-O-0001</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -3254,41 +3247,47 @@
         <v/>
       </c>
       <c r="E23" s="1"/>
-      <c r="F23" s="38"/>
+      <c r="F23" s="42"/>
       <c r="G23" s="38"/>
       <c r="H23" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I23" s="38"/>
-      <c r="J23" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="K23" s="38" t="s">
-        <v>399</v>
+      <c r="J23" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="K23" s="40" t="s">
+        <v>264</v>
       </c>
       <c r="L23" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Offense Management&lt;br&gt;(위반 사항 관리)</v>
-      </c>
-      <c r="M23" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
+        <v>Valuation-Internal&lt;br&gt;(가치평가-내부)</v>
+      </c>
+      <c r="M23" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="N23" s="39" t="s">
+        <v>229</v>
+      </c>
+      <c r="O23" s="40" t="s">
+        <v>216</v>
+      </c>
       <c r="P23" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="12" t="s">
-        <v>276</v>
+        <v>New Valuation&lt;br&gt;(New Valuation)</v>
+      </c>
+      <c r="Q23" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="R23" s="41" t="s">
+        <v>234</v>
       </c>
       <c r="S23" s="12" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="T23" s="12" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -3302,41 +3301,41 @@
         <v/>
       </c>
       <c r="E24" s="1"/>
-      <c r="F24" s="38"/>
+      <c r="F24" s="42"/>
       <c r="G24" s="38"/>
       <c r="H24" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="I24" s="38"/>
-      <c r="J24" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="K24" s="38" t="s">
-        <v>400</v>
-      </c>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
       <c r="L24" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Normal Flow Monitoring&lt;br&gt;(일반 흐름 모니터링)</v>
-      </c>
-      <c r="M24" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
+        <v/>
+      </c>
+      <c r="M24" s="38"/>
+      <c r="N24" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="O24" s="38" t="s">
+        <v>217</v>
+      </c>
       <c r="P24" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q24" s="38"/>
+        <v>List of Submitted valuation&lt;br&gt;(List of Submitted valuation)</v>
+      </c>
+      <c r="Q24" s="38" t="s">
+        <v>217</v>
+      </c>
       <c r="R24" s="12" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="S24" s="12" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="T24" s="12" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
@@ -3350,49 +3349,41 @@
         <v/>
       </c>
       <c r="E25" s="1"/>
-      <c r="F25" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>402</v>
-      </c>
+      <c r="F25" s="42"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Sale of Charged Asset&lt;br&gt;(담보 자산 매각)</v>
-      </c>
-      <c r="I25" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="J25" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="K25" s="34" t="s">
-        <v>264</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
       <c r="L25" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Asset Management&lt;br&gt;(자산관리)</v>
-      </c>
-      <c r="M25" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="N25" s="34"/>
-      <c r="O25" s="34"/>
+        <v/>
+      </c>
+      <c r="M25" s="38"/>
+      <c r="N25" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="O25" s="38" t="s">
+        <v>218</v>
+      </c>
       <c r="P25" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q25" s="34"/>
-      <c r="R25" s="35" t="s">
-        <v>213</v>
-      </c>
-      <c r="S25" s="34" t="str">
-        <f t="shared" ref="S25" si="11">R25</f>
-        <v>UI-DMCI-05-O-0001</v>
-      </c>
-      <c r="T25" s="34" t="str">
-        <f t="shared" ref="T25" si="12">R25</f>
-        <v>UI-DMCI-05-O-0001</v>
+        <v>List of valuation&lt;br&gt;(List of valuation)</v>
+      </c>
+      <c r="Q25" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="T25" s="12" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -3413,40 +3404,34 @@
         <v/>
       </c>
       <c r="I26" s="38"/>
-      <c r="J26" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="K26" s="40" t="s">
-        <v>265</v>
-      </c>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
       <c r="L26" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Valuation-Internal&lt;br&gt;(가치평가-내부)</v>
-      </c>
-      <c r="M26" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="N26" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="O26" s="40" t="s">
-        <v>217</v>
+        <v/>
+      </c>
+      <c r="M26" s="38"/>
+      <c r="N26" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="O26" s="38" t="s">
+        <v>219</v>
       </c>
       <c r="P26" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>New Valuation&lt;br&gt;(New Valuation)</v>
-      </c>
-      <c r="Q26" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="R26" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="S26" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="T26" s="41" t="s">
-        <v>235</v>
+        <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
+      </c>
+      <c r="Q26" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="S26" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="T26" s="12" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -3467,34 +3452,40 @@
         <v/>
       </c>
       <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
+      <c r="J27" s="40" t="s">
+        <v>224</v>
+      </c>
+      <c r="K27" s="40" t="s">
+        <v>265</v>
+      </c>
       <c r="L27" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M27" s="38"/>
-      <c r="N27" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="O27" s="38" t="s">
-        <v>218</v>
+        <v>Valuation-External&lt;br&gt;(가치평가-외부)</v>
+      </c>
+      <c r="M27" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="N27" s="39" t="s">
+        <v>225</v>
+      </c>
+      <c r="O27" s="40" t="s">
+        <v>220</v>
       </c>
       <c r="P27" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>List of Submitted valuation&lt;br&gt;(List of Submitted valuation)</v>
-      </c>
-      <c r="Q27" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="R27" s="12" t="s">
-        <v>236</v>
+        <v>New valuation request&lt;br&gt;(New valuation request)</v>
+      </c>
+      <c r="Q27" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="R27" s="41" t="s">
+        <v>238</v>
       </c>
       <c r="S27" s="12" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="T27" s="12" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
@@ -3523,26 +3514,26 @@
       </c>
       <c r="M28" s="38"/>
       <c r="N28" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="O28" s="38" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P28" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>List of valuation&lt;br&gt;(List of valuation)</v>
+        <v>List of submitted valuation requests&lt;br&gt;(List of submitted valuation requests)</v>
       </c>
       <c r="Q28" s="38" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="R28" s="12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="S28" s="12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="T28" s="12" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -3571,26 +3562,26 @@
       </c>
       <c r="M29" s="38"/>
       <c r="N29" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="O29" s="38" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P29" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
+        <v>List of valuation requests&lt;br&gt;(List of valuation requests)</v>
       </c>
       <c r="Q29" s="38" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="R29" s="12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="S29" s="12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="T29" s="12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -3611,40 +3602,34 @@
         <v/>
       </c>
       <c r="I30" s="38"/>
-      <c r="J30" s="40" t="s">
-        <v>225</v>
-      </c>
-      <c r="K30" s="40" t="s">
-        <v>266</v>
-      </c>
+      <c r="J30" s="38"/>
+      <c r="K30" s="38"/>
       <c r="L30" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Valuation-External&lt;br&gt;(가치평가-외부)</v>
-      </c>
-      <c r="M30" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="N30" s="39" t="s">
-        <v>226</v>
-      </c>
-      <c r="O30" s="40" t="s">
-        <v>221</v>
+        <v/>
+      </c>
+      <c r="M30" s="38"/>
+      <c r="N30" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="O30" s="38" t="s">
+        <v>223</v>
       </c>
       <c r="P30" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>New valuation request&lt;br&gt;(New valuation request)</v>
-      </c>
-      <c r="Q30" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="R30" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="S30" s="41" t="s">
-        <v>239</v>
-      </c>
-      <c r="T30" s="41" t="s">
-        <v>239</v>
+        <v>List of valuation response&lt;br&gt;(List of valuation response)</v>
+      </c>
+      <c r="Q30" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="R30" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="S30" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="T30" s="12" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
@@ -3673,26 +3658,26 @@
       </c>
       <c r="M31" s="38"/>
       <c r="N31" s="1" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="O31" s="38" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P31" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>List of submitted valuation requests&lt;br&gt;(List of submitted valuation requests)</v>
+        <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
       </c>
       <c r="Q31" s="38" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="R31" s="12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="S31" s="12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="T31" s="12" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -3713,34 +3698,40 @@
         <v/>
       </c>
       <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
+      <c r="J32" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="K32" s="44" t="s">
+        <v>251</v>
+      </c>
       <c r="L32" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M32" s="38"/>
-      <c r="N32" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="O32" s="38" t="s">
-        <v>223</v>
+        <v>Pre-auction processing ★2nd&lt;br&gt;(공매 전 처리)</v>
+      </c>
+      <c r="M32" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="N32" s="45" t="s">
+        <v>253</v>
+      </c>
+      <c r="O32" s="45" t="s">
+        <v>247</v>
       </c>
       <c r="P32" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>List of valuation requests&lt;br&gt;(List of valuation requests)</v>
-      </c>
-      <c r="Q32" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="R32" s="12" t="s">
-        <v>241</v>
+        <v>Notification of Itention to sale the Changed Asset&lt;br&gt;(부과자산 매각의사 통지)</v>
+      </c>
+      <c r="Q32" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="R32" s="41" t="s">
+        <v>259</v>
       </c>
       <c r="S32" s="12" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
       <c r="T32" s="12" t="s">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -3761,34 +3752,32 @@
         <v/>
       </c>
       <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
+      <c r="J33" s="9"/>
       <c r="L33" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M33" s="38"/>
-      <c r="N33" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="O33" s="38" t="s">
-        <v>224</v>
+      <c r="N33" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="P33" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>List of valuation response&lt;br&gt;(List of valuation response)</v>
-      </c>
-      <c r="Q33" s="38" t="s">
-        <v>224</v>
+        <v>List Assets for Public Auction&lt;br&gt;(공개 경매를 위한 자산 목록)</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>285</v>
       </c>
       <c r="R33" s="12" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="S33" s="12" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="T33" s="12" t="s">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -3809,34 +3798,32 @@
         <v/>
       </c>
       <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
+      <c r="J34" s="9"/>
       <c r="L34" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M34" s="38"/>
-      <c r="N34" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="O34" s="38" t="s">
-        <v>220</v>
+      <c r="N34" s="43" t="s">
+        <v>255</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="P34" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
-      </c>
-      <c r="Q34" s="38" t="s">
-        <v>220</v>
+        <v>Asset Publishing&lt;br&gt;(자산 게시)</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="R34" s="12" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="S34" s="12" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="T34" s="12" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.25">
@@ -3858,85 +3845,95 @@
       </c>
       <c r="I35" s="38"/>
       <c r="J35" s="40" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K35" s="44" t="s">
         <v>252</v>
       </c>
       <c r="L35" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Pre-auction processing ★2nd&lt;br&gt;(공매 전 처리)</v>
-      </c>
-      <c r="M35" s="44" t="s">
+        <v>Post-auction processing ★2nd&lt;br&gt;(공매 후 처리)</v>
+      </c>
+      <c r="M35" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="N35" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="O35" s="45" t="s">
-        <v>248</v>
+      <c r="N35" s="40" t="s">
+        <v>258</v>
+      </c>
+      <c r="O35" s="40" t="s">
+        <v>257</v>
       </c>
       <c r="P35" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Notification of Itention to sale the Changed Asset&lt;br&gt;(부과자산 매각의사 통지)</v>
-      </c>
-      <c r="Q35" s="45" t="s">
-        <v>247</v>
+        <v>Distribution od proceeds account&lt;br&gt;(수익금 배분계좌)</v>
+      </c>
+      <c r="Q35" s="40" t="s">
+        <v>256</v>
       </c>
       <c r="R35" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="S35" s="41" t="s">
-        <v>260</v>
-      </c>
-      <c r="T35" s="41" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="38"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>40</v>
+      </c>
       <c r="H36" s="1" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I36" s="38"/>
-      <c r="J36" s="9"/>
+        <v>Block Management&lt;br&gt;(블록 관리)</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J36" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="K36" s="34" t="s">
+        <v>9</v>
+      </c>
       <c r="L36" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N36" s="43" t="s">
-        <v>255</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>285</v>
-      </c>
+        <v>Dashboard&lt;br&gt;(Dashboard)</v>
+      </c>
+      <c r="M36" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N36" s="34"/>
+      <c r="O36" s="34"/>
       <c r="P36" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>List Assets for Public Auction&lt;br&gt;(공개 경매를 위한 자산 목록)</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="R36" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="S36" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="T36" s="12" t="s">
-        <v>261</v>
+        <v/>
+      </c>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="S36" s="38" t="str">
+        <f t="shared" ref="S36:S58" si="16">R36</f>
+        <v>UI-DMCI-02-O-0001</v>
+      </c>
+      <c r="T36" s="38" t="str">
+        <f t="shared" ref="T36:T58" si="17">R36</f>
+        <v>UI-DMCI-02-O-0001</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -3950,39 +3947,49 @@
         <v/>
       </c>
       <c r="E37" s="1"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="38"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="1"/>
       <c r="H37" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I37" s="38"/>
-      <c r="J37" s="9"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="L37" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="N37" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>250</v>
+        <v>Block Management&lt;br&gt;(블록 관리)</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="P37" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Asset Publishing&lt;br&gt;(자산 게시)</v>
-      </c>
-      <c r="Q37" s="1" t="s">
-        <v>251</v>
+        <v>Registered Blocks&lt;br&gt;(등록된 블록)</v>
+      </c>
+      <c r="Q37" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="R37" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="S37" s="12" t="s">
-        <v>262</v>
-      </c>
-      <c r="T37" s="12" t="s">
-        <v>262</v>
+        <v>76</v>
+      </c>
+      <c r="S37" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-02-O-0002</v>
+      </c>
+      <c r="T37" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-02-O-0002</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
@@ -3996,106 +4003,96 @@
         <v/>
       </c>
       <c r="E38" s="1"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="38"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="1"/>
       <c r="H38" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I38" s="38"/>
-      <c r="J38" s="40" t="s">
-        <v>249</v>
-      </c>
-      <c r="K38" s="44" t="s">
-        <v>253</v>
-      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="1"/>
       <c r="L38" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Post-auction processing ★2nd&lt;br&gt;(공매 후 처리)</v>
-      </c>
-      <c r="M38" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="N38" s="40" t="s">
-        <v>259</v>
-      </c>
-      <c r="O38" s="40" t="s">
-        <v>258</v>
+        <v/>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="O38" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="P38" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Distribution od proceeds account&lt;br&gt;(수익금 배분계좌)</v>
-      </c>
-      <c r="Q38" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="R38" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="S38" s="41" t="s">
-        <v>263</v>
-      </c>
-      <c r="T38" s="41" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.25">
+        <v>Registered Sub Blocks&lt;br&gt;(등록된 하위 블록)</v>
+      </c>
+      <c r="Q38" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="R38" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="S38" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-02-O-0003</v>
+      </c>
+      <c r="T38" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-02-O-0003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
       <c r="D39" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E39" s="37"/>
-      <c r="F39" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="G39" s="34" t="s">
-        <v>40</v>
-      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="1"/>
       <c r="H39" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Block Management&lt;br&gt;(블록 관리)</v>
-      </c>
-      <c r="I39" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J39" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="K39" s="34" t="s">
-        <v>9</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="1"/>
       <c r="L39" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Dashboard&lt;br&gt;(Dashboard)</v>
-      </c>
-      <c r="M39" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="N39" s="34"/>
-      <c r="O39" s="34"/>
+        <v/>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="O39" s="13" t="s">
+        <v>45</v>
+      </c>
       <c r="P39" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q39" s="34"/>
-      <c r="R39" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="S39" s="34" t="str">
-        <f t="shared" ref="S39:S61" si="13">R39</f>
-        <v>UI-DMCI-02-O-0001</v>
-      </c>
-      <c r="T39" s="34" t="str">
-        <f t="shared" ref="T39:T61" si="14">R39</f>
-        <v>UI-DMCI-02-O-0001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+        <v>Block Team Leader&lt;br&gt;(블록 팀 리더)</v>
+      </c>
+      <c r="Q39" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="R39" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="S39" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-02-O-0004</v>
+      </c>
+      <c r="T39" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-02-O-0004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
@@ -4113,198 +4110,192 @@
         <v/>
       </c>
       <c r="I40" s="1"/>
-      <c r="J40" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>40</v>
+      <c r="J40" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="L40" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Block Management&lt;br&gt;(블록 관리)</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N40" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="O40" s="13" t="s">
-        <v>41</v>
+        <v>Physical Survey&lt;br&gt;(물리적 조사)</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="O40" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="P40" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Registered Blocks&lt;br&gt;(등록된 블록)</v>
-      </c>
-      <c r="Q40" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R40" s="12" t="s">
-        <v>76</v>
+        <v>Physical Survey Plan&lt;br&gt;(실사 계획 수립)</v>
+      </c>
+      <c r="Q40" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="R40" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="S40" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>UI-DMCI-02-O-0002</v>
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-02-O-0005</v>
       </c>
       <c r="T40" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>UI-DMCI-02-O-0002</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-02-O-0005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="1"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="13"/>
       <c r="H41" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I41" s="1"/>
+      <c r="I41" s="13"/>
       <c r="J41" s="8"/>
-      <c r="K41" s="1"/>
+      <c r="K41" s="13"/>
       <c r="L41" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M41" s="1"/>
+      <c r="M41" s="14"/>
       <c r="N41" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O41" s="13" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="P41" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Registered Sub Blocks&lt;br&gt;(등록된 하위 블록)</v>
+        <v>Request to Conduct Physical Survey&lt;br&gt;(실사 수행 요청)</v>
       </c>
       <c r="Q41" s="14" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="R41" s="12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="S41" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>UI-DMCI-02-O-0003</v>
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-02-O-0006</v>
       </c>
       <c r="T41" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>UI-DMCI-02-O-0003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-02-O-0006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="1"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="13"/>
       <c r="H42" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I42" s="1"/>
+      <c r="I42" s="13"/>
       <c r="J42" s="8"/>
-      <c r="K42" s="1"/>
+      <c r="K42" s="13"/>
       <c r="L42" s="1" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M42" s="1"/>
+      <c r="M42" s="14"/>
       <c r="N42" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="O42" s="13" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="P42" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Block Team Leader&lt;br&gt;(블록 팀 리더)</v>
+        <v>Approval of Request to conduct Physical Survey&lt;br&gt;(실사 수행 요청 승인)</v>
       </c>
       <c r="Q42" s="14" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="R42" s="12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S42" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>UI-DMCI-02-O-0004</v>
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-02-O-0007</v>
       </c>
       <c r="T42" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>UI-DMCI-02-O-0004</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-02-O-0007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="1"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="13"/>
       <c r="H43" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="K43" s="10" t="s">
-        <v>47</v>
-      </c>
+      <c r="I43" s="13"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="13"/>
       <c r="L43" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Physical Survey&lt;br&gt;(물리적 조사)</v>
-      </c>
-      <c r="M43" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N43" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="O43" s="29" t="s">
-        <v>49</v>
+        <v/>
+      </c>
+      <c r="M43" s="14"/>
+      <c r="N43" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="O43" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="P43" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Physical Survey Plan&lt;br&gt;(실사 계획 수립)</v>
-      </c>
-      <c r="Q43" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="R43" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="S43" s="10" t="str">
-        <f t="shared" si="13"/>
-        <v>UI-DMCI-02-O-0005</v>
-      </c>
-      <c r="T43" s="10" t="str">
-        <f t="shared" si="14"/>
-        <v>UI-DMCI-02-O-0005</v>
+        <v>Conducting Block Physical Survey (Mobile WEB)&lt;br&gt;(블록 실사 수행(모바일 웹))</v>
+      </c>
+      <c r="Q43" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R43" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="S43" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-02-O-0008</v>
+      </c>
+      <c r="T43" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-02-O-0008</v>
       </c>
     </row>
     <row r="44" spans="1:20" ht="27" x14ac:dyDescent="0.25">
@@ -4333,192 +4324,198 @@
       </c>
       <c r="M44" s="14"/>
       <c r="N44" s="8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O44" s="13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P44" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Request to Conduct Physical Survey&lt;br&gt;(실사 수행 요청)</v>
+        <v>View Collected Physical Survey Data&lt;br&gt;(수집된 물리적 조사 데이터 보기)</v>
       </c>
       <c r="Q44" s="14" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="R44" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S44" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>UI-DMCI-02-O-0006</v>
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-02-O-0009</v>
       </c>
       <c r="T44" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>UI-DMCI-02-O-0006</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-02-O-0009</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
       <c r="D45" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E45" s="26"/>
+      <c r="E45" s="27"/>
       <c r="F45" s="15"/>
-      <c r="G45" s="13"/>
+      <c r="G45" s="1"/>
       <c r="H45" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I45" s="13"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="13"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>59</v>
+      </c>
       <c r="L45" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M45" s="14"/>
-      <c r="N45" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="O45" s="13" t="s">
-        <v>53</v>
-      </c>
+        <v>NaPA Address Management&lt;br&gt;(NaPA 주소 관리)</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
       <c r="P45" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Approval of Request to conduct Physical Survey&lt;br&gt;(실사 수행 요청 승인)</v>
-      </c>
-      <c r="Q45" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="R45" s="12" t="s">
-        <v>81</v>
+        <v/>
+      </c>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="S45" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>UI-DMCI-02-O-0007</v>
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-02-O-0010</v>
       </c>
       <c r="T45" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>UI-DMCI-02-O-0007</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-02-O-0010</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
       <c r="D46" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E46" s="26"/>
+      <c r="E46" s="27"/>
       <c r="F46" s="15"/>
-      <c r="G46" s="13"/>
+      <c r="G46" s="1"/>
       <c r="H46" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I46" s="13"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="13"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="L46" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M46" s="14"/>
-      <c r="N46" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="O46" s="13" t="s">
-        <v>55</v>
-      </c>
+        <v>Reports&lt;br&gt;(보고서)</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
       <c r="P46" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Conducting Block Physical Survey (Mobile WEB)&lt;br&gt;(블록 실사 수행(모바일 웹))</v>
-      </c>
-      <c r="Q46" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="R46" s="12" t="s">
-        <v>82</v>
+        <v/>
+      </c>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="S46" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>UI-DMCI-02-O-0008</v>
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-02-O-0011</v>
       </c>
       <c r="T46" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>UI-DMCI-02-O-0008</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-02-O-0011</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
       <c r="D47" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E47" s="26"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="13"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="G47" s="34" t="s">
+        <v>400</v>
+      </c>
       <c r="H47" s="1" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I47" s="13"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="13"/>
+        <v>Data Cleanup Tool&lt;br&gt;(데이터 클린업 도구)</v>
+      </c>
+      <c r="I47" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="K47" s="34" t="s">
+        <v>9</v>
+      </c>
       <c r="L47" s="1" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M47" s="14"/>
-      <c r="N47" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="O47" s="13" t="s">
-        <v>57</v>
-      </c>
+        <v>Dashboard&lt;br&gt;(Dashboard)</v>
+      </c>
+      <c r="M47" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N47" s="34"/>
+      <c r="O47" s="34"/>
       <c r="P47" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>View Collected Physical Survey Data&lt;br&gt;(수집된 물리적 조사 데이터 보기)</v>
-      </c>
-      <c r="Q47" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="R47" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="S47" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>UI-DMCI-02-O-0009</v>
-      </c>
-      <c r="T47" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>UI-DMCI-02-O-0009</v>
+        <v/>
+      </c>
+      <c r="Q47" s="34"/>
+      <c r="R47" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="S47" s="38" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-01-O-0001</v>
+      </c>
+      <c r="T47" s="38" t="str">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-01-O-0001</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="27"/>
-      <c r="C48" s="27"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
       <c r="D48" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E48" s="27"/>
-      <c r="F48" s="15"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="7"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1" t="str">
         <f t="shared" si="4"/>
@@ -4526,260 +4523,260 @@
       </c>
       <c r="I48" s="1"/>
       <c r="J48" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>59</v>
+        <v>96</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="L48" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>NaPA Address Management&lt;br&gt;(NaPA 주소 관리)</v>
-      </c>
-      <c r="M48" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="N48" s="10"/>
-      <c r="O48" s="10"/>
+        <v>Case Management&lt;br&gt;(Case Management)</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N48" s="8"/>
+      <c r="O48" s="21"/>
       <c r="P48" s="1" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Q48" s="10"/>
-      <c r="R48" s="11" t="s">
-        <v>84</v>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="S48" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>UI-DMCI-02-O-0010</v>
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-01-O-0003</v>
       </c>
       <c r="T48" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>UI-DMCI-02-O-0010</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-01-O-0003</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
       <c r="D49" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E49" s="27"/>
+      <c r="E49" s="13"/>
       <c r="F49" s="15"/>
-      <c r="G49" s="1"/>
+      <c r="G49" s="13"/>
       <c r="H49" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I49" s="1"/>
+      <c r="I49" s="13"/>
       <c r="J49" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>61</v>
+        <v>97</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="L49" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Reports&lt;br&gt;(보고서)</v>
-      </c>
-      <c r="M49" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
+        <v>Data Cleanup Reports&lt;br&gt;(Data Cleanup Reports)</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="O49" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="P49" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="11" t="s">
-        <v>85</v>
+        <v>Executive Reports&lt;br&gt;(관리자용 요약 보고서)</v>
+      </c>
+      <c r="Q49" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R49" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="S49" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>UI-DMCI-02-O-0011</v>
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-01-O-0013</v>
       </c>
       <c r="T49" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>UI-DMCI-02-O-0011</v>
-      </c>
-    </row>
-    <row r="50" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-01-O-0013</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
       <c r="D50" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E50" s="1"/>
-      <c r="F50" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="G50" s="34" t="s">
-        <v>403</v>
-      </c>
+      <c r="E50" s="13"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="13"/>
       <c r="H50" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>Data Cleanup Tool&lt;br&gt;(데이터 클린업 도구)</v>
-      </c>
-      <c r="I50" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="J50" s="34" t="s">
-        <v>95</v>
-      </c>
-      <c r="K50" s="34" t="s">
-        <v>9</v>
-      </c>
+        <v/>
+      </c>
+      <c r="I50" s="13"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="13"/>
       <c r="L50" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Dashboard&lt;br&gt;(Dashboard)</v>
-      </c>
-      <c r="M50" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
+        <v/>
+      </c>
+      <c r="M50" s="14"/>
+      <c r="N50" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="O50" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="P50" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="S50" s="34" t="str">
-        <f t="shared" si="13"/>
-        <v>UI-DMCI-01-O-0001</v>
-      </c>
-      <c r="T50" s="34" t="str">
-        <f t="shared" si="14"/>
-        <v>UI-DMCI-01-O-0001</v>
+        <v>Detailed Reports&lt;br&gt;(상세 보고서)</v>
+      </c>
+      <c r="Q50" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R50" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="S50" s="1" t="str">
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-01-O-0014</v>
+      </c>
+      <c r="T50" s="1" t="str">
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-01-O-0014</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
       <c r="D51" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E51" s="1"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="1"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="13"/>
       <c r="H51" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="I51" s="13"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="13"/>
       <c r="L51" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Case Management&lt;br&gt;(Case Management)</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N51" s="8"/>
-      <c r="O51" s="21"/>
+        <v/>
+      </c>
+      <c r="M51" s="14"/>
+      <c r="N51" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O51" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="P51" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="Q51" s="21"/>
+        <v>Potential Errors Reports&lt;br&gt;(잠재적 오류에 대한 보고서)</v>
+      </c>
+      <c r="Q51" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="R51" s="12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="S51" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>UI-DMCI-01-O-0003</v>
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-01-O-0015</v>
       </c>
       <c r="T51" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>UI-DMCI-01-O-0003</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-01-O-0015</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
       <c r="D52" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E52" s="13"/>
+      <c r="E52" s="27"/>
       <c r="F52" s="15"/>
-      <c r="G52" s="13"/>
+      <c r="G52" s="1"/>
       <c r="H52" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I52" s="13"/>
+      <c r="I52" s="1"/>
       <c r="J52" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K52" s="1" t="s">
-        <v>30</v>
+        <v>98</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="L52" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Data Cleanup Reports&lt;br&gt;(Data Cleanup Reports)</v>
-      </c>
-      <c r="M52" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N52" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="O52" s="13" t="s">
-        <v>16</v>
+        <v>Detail&lt;br&gt;(Detail)</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N52" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="O52" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="P52" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Executive Reports&lt;br&gt;(관리자용 요약 보고서)</v>
-      </c>
-      <c r="Q52" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="R52" s="12" t="s">
-        <v>65</v>
+        <v>1 Payments without Debit Number&lt;br&gt;(1 Payments without Debit Number)</v>
+      </c>
+      <c r="Q52" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="S52" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>UI-DMCI-01-O-0013</v>
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-01-O-1001</v>
       </c>
       <c r="T52" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>UI-DMCI-01-O-0013</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-01-O-1001</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
       <c r="D53" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E53" s="13"/>
+      <c r="E53" s="26"/>
       <c r="F53" s="15"/>
       <c r="G53" s="13"/>
       <c r="H53" s="1" t="str">
@@ -4794,42 +4791,42 @@
         <v/>
       </c>
       <c r="M53" s="14"/>
-      <c r="N53" s="8" t="s">
-        <v>115</v>
+      <c r="N53" s="10" t="s">
+        <v>118</v>
       </c>
       <c r="O53" s="13" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="P53" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Detailed Reports&lt;br&gt;(상세 보고서)</v>
-      </c>
-      <c r="Q53" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="R53" s="12" t="s">
-        <v>66</v>
+        <v>2 Incorrect Posting&lt;br&gt;(2 Incorrect Posting)</v>
+      </c>
+      <c r="Q53" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="R53" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="S53" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>UI-DMCI-01-O-0014</v>
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-01-O-1002</v>
       </c>
       <c r="T53" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>UI-DMCI-01-O-0014</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-01-O-1002</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
       <c r="D54" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E54" s="26"/>
+      <c r="E54" s="13"/>
       <c r="F54" s="15"/>
       <c r="G54" s="13"/>
       <c r="H54" s="1" t="str">
@@ -4844,98 +4841,92 @@
         <v/>
       </c>
       <c r="M54" s="14"/>
-      <c r="N54" s="8" t="s">
-        <v>116</v>
+      <c r="N54" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="O54" s="13" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="P54" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>Potential Errors Reports&lt;br&gt;(잠재적 오류에 대한 보고서)</v>
-      </c>
-      <c r="Q54" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="R54" s="12" t="s">
-        <v>67</v>
+        <v>3 Duplicate Assessments&lt;br&gt;(3 Duplicate Assessments)</v>
+      </c>
+      <c r="Q54" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R54" s="11" t="s">
+        <v>70</v>
       </c>
       <c r="S54" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>UI-DMCI-01-O-0015</v>
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-01-O-1003</v>
       </c>
       <c r="T54" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>UI-DMCI-01-O-0015</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-01-O-1003</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E55" s="27"/>
+      <c r="E55" s="13"/>
       <c r="F55" s="15"/>
-      <c r="G55" s="1"/>
+      <c r="G55" s="13"/>
       <c r="H55" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I55" s="1"/>
-      <c r="J55" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K55" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="I55" s="13"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="13"/>
       <c r="L55" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Detail&lt;br&gt;(Detail)</v>
-      </c>
-      <c r="M55" s="10" t="s">
-        <v>31</v>
-      </c>
+        <v/>
+      </c>
+      <c r="M55" s="14"/>
       <c r="N55" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="O55" s="10" t="s">
-        <v>32</v>
+        <v>120</v>
+      </c>
+      <c r="O55" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="P55" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>1 Payments without Debit Number&lt;br&gt;(1 Payments without Debit Number)</v>
-      </c>
-      <c r="Q55" s="10" t="s">
-        <v>32</v>
+        <v>4 Vacated Assessments&lt;br&gt;(4 Vacated Assessments)</v>
+      </c>
+      <c r="Q55" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="R55" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="S55" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>UI-DMCI-01-O-1001</v>
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-01-O-1004</v>
       </c>
       <c r="T55" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>UI-DMCI-01-O-1001</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-01-O-1004</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
       <c r="D56" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E56" s="26"/>
+      <c r="E56" s="13"/>
       <c r="F56" s="15"/>
       <c r="G56" s="13"/>
       <c r="H56" s="1" t="str">
@@ -4951,28 +4942,28 @@
       </c>
       <c r="M56" s="14"/>
       <c r="N56" s="10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="O56" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P56" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>2 Incorrect Posting&lt;br&gt;(2 Incorrect Posting)</v>
+        <v>6 Wrong Assessment&lt;br&gt;(6 Wrong Assessment)</v>
       </c>
       <c r="Q56" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R56" s="11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="S56" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>UI-DMCI-01-O-1002</v>
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-01-O-1006</v>
       </c>
       <c r="T56" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>UI-DMCI-01-O-1002</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-01-O-1006</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
@@ -5001,28 +4992,28 @@
       </c>
       <c r="M57" s="14"/>
       <c r="N57" s="10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="O57" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P57" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>3 Duplicate Assessments&lt;br&gt;(3 Duplicate Assessments)</v>
+        <v>8 Lumpsum Payment&lt;br&gt;(8 Lumpsum Payment)</v>
       </c>
       <c r="Q57" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R57" s="11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="S57" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>UI-DMCI-01-O-1003</v>
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-01-O-1008</v>
       </c>
       <c r="T57" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>UI-DMCI-01-O-1003</v>
+        <f t="shared" si="17"/>
+        <v>UI-DMCI-01-O-1008</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.25">
@@ -5051,273 +5042,276 @@
       </c>
       <c r="M58" s="14"/>
       <c r="N58" s="10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="O58" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P58" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>4 Vacated Assessments&lt;br&gt;(4 Vacated Assessments)</v>
+        <v>9 Reverse Cancelled Assessment&lt;br&gt;(9 Reverse Cancelled Assessment)</v>
       </c>
       <c r="Q58" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R58" s="11" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="S58" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>UI-DMCI-01-O-1004</v>
+        <f t="shared" si="16"/>
+        <v>UI-DMCI-01-O-1009</v>
       </c>
       <c r="T58" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>UI-DMCI-01-O-1004</v>
-      </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E59" s="13"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="13"/>
-      <c r="H59" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I59" s="13"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="13"/>
-      <c r="L59" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M59" s="14"/>
-      <c r="N59" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="O59" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="P59" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>6 Wrong Assessment&lt;br&gt;(6 Wrong Assessment)</v>
-      </c>
-      <c r="Q59" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="R59" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="S59" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>UI-DMCI-01-O-1006</v>
-      </c>
-      <c r="T59" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>UI-DMCI-01-O-1006</v>
-      </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E60" s="13"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I60" s="13"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="13"/>
-      <c r="L60" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M60" s="14"/>
-      <c r="N60" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="O60" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="P60" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>8 Lumpsum Payment&lt;br&gt;(8 Lumpsum Payment)</v>
-      </c>
-      <c r="Q60" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="R60" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="S60" s="1" t="str">
-        <f t="shared" si="13"/>
-        <v>UI-DMCI-01-O-1008</v>
-      </c>
-      <c r="T60" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>UI-DMCI-01-O-1008</v>
-      </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E61" s="13"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="13"/>
-      <c r="H61" s="1" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="I61" s="13"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="1" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="M61" s="14"/>
-      <c r="N61" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="O61" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="P61" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>9 Reverse Cancelled Assessment&lt;br&gt;(9 Reverse Cancelled Assessment)</v>
-      </c>
-      <c r="Q61" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="R61" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="S61" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>UI-DMCI-01-O-1009</v>
       </c>
-      <c r="T61" s="1" t="str">
-        <f t="shared" si="14"/>
-        <v>UI-DMCI-01-O-1009</v>
-      </c>
-    </row>
-    <row r="62" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
+    </row>
+    <row r="59" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B59" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C59" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D62" s="23" t="str">
+      <c r="D59" s="23" t="str">
         <f t="shared" si="3"/>
         <v>Reviewer&lt;br&gt;(Reviewer)</v>
       </c>
-      <c r="E62" s="23" t="s">
+      <c r="E59" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F62" s="34" t="s">
+      <c r="F59" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="G59" s="34" t="s">
+        <v>401</v>
+      </c>
+      <c r="H59" s="23" t="str">
+        <f t="shared" ref="H59:H110" si="18">IF(I59&lt;&gt;"",I59&amp;"&lt;br&gt;("&amp;G59&amp;")","")</f>
+        <v>Debt Enforcement&lt;br&gt;(채무 집행)</v>
+      </c>
+      <c r="I59" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="J59" s="34" t="s">
         <v>287</v>
       </c>
-      <c r="G62" s="34" t="s">
-        <v>404</v>
-      </c>
-      <c r="H62" s="23" t="str">
-        <f t="shared" ref="H62:H113" si="15">IF(I62&lt;&gt;"",I62&amp;"&lt;br&gt;("&amp;G62&amp;")","")</f>
-        <v>Debt Enforcement&lt;br&gt;(채무 집행)</v>
-      </c>
-      <c r="I62" s="34" t="s">
-        <v>178</v>
-      </c>
-      <c r="J62" s="34" t="s">
+      <c r="K59" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="L59" s="23" t="str">
+        <f t="shared" ref="L59:L110" si="19">IF(M59&lt;&gt;"",M59&amp;"&lt;br&gt;("&amp;K59&amp;")","")</f>
+        <v>Tax Position&lt;br&gt;(Tax Position)</v>
+      </c>
+      <c r="M59" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="N59" s="34"/>
+      <c r="O59" s="34"/>
+      <c r="P59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q59" s="34"/>
+      <c r="R59" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="S59" s="38" t="str">
+        <f t="shared" ref="S59:S110" si="20">R59</f>
+        <v>UI-DMCI-03-R-0001</v>
+      </c>
+      <c r="T59" s="38" t="str">
+        <f t="shared" ref="T59:T110" si="21">R59</f>
+        <v>UI-DMCI-03-R-0001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="str">
+        <f t="shared" ref="A60:A113" si="22">IF(B60="", A59, IF(B60="FN-E-DMC","E","I"))</f>
+        <v>R</v>
+      </c>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1" t="str">
+        <f t="shared" ref="D60:D110" si="23">IF(E60&lt;&gt;"",E60&amp;"&lt;br&gt;("&amp;C60&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="E60" s="1"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="K62" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="L62" s="23" t="str">
-        <f t="shared" ref="L62:L113" si="16">IF(M62&lt;&gt;"",M62&amp;"&lt;br&gt;("&amp;K62&amp;")","")</f>
-        <v>Tax Position&lt;br&gt;(Tax Position)</v>
-      </c>
-      <c r="M62" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="N62" s="34"/>
-      <c r="O62" s="34"/>
+      <c r="K60" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L60" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Demand Notice&lt;br&gt;(Demand Notice)</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="N60" s="8"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q60" s="14"/>
+      <c r="R60" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="S60" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-03-R-0002</v>
+      </c>
+      <c r="T60" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-03-R-0002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>R</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E61" s="1"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="L61" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Extention of Time for Paying Tax&lt;br&gt;(Extention of Time for Paying Tax)</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="N61" s="8"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Q61" s="14"/>
+      <c r="R61" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="S61" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-03-R-0003</v>
+      </c>
+      <c r="T61" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-03-R-0003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>R</v>
+      </c>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E62" s="1"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="L62" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Agency Notice&lt;br&gt;(Agency Notice)</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="N62" s="8"/>
+      <c r="O62" s="13"/>
       <c r="P62" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q62" s="34"/>
-      <c r="R62" s="35" t="s">
-        <v>316</v>
-      </c>
-      <c r="S62" s="34" t="str">
-        <f t="shared" ref="S62:S113" si="17">R62</f>
-        <v>UI-DMCI-03-R-0001</v>
-      </c>
-      <c r="T62" s="34" t="str">
-        <f t="shared" ref="T62:T113" si="18">R62</f>
-        <v>UI-DMCI-03-R-0001</v>
+      <c r="Q62" s="14"/>
+      <c r="R62" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="S62" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-03-R-0004</v>
+      </c>
+      <c r="T62" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-03-R-0004</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="str">
-        <f t="shared" ref="A63:A116" si="19">IF(B63="", A62, IF(B63="FN-E-DMC","E","I"))</f>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="str">
-        <f t="shared" ref="D63:D113" si="20">IF(E63&lt;&gt;"",E63&amp;"&lt;br&gt;("&amp;C63&amp;")","")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="7"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="L63" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Demand Notice&lt;br&gt;(Demand Notice)</v>
+        <f t="shared" si="19"/>
+        <v>Departure Prohibition Order&lt;br&gt;(Departure Prohibition Order)</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="N63" s="8"/>
       <c r="O63" s="13"/>
@@ -5327,48 +5321,48 @@
       </c>
       <c r="Q63" s="14"/>
       <c r="R63" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="S63" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-03-R-0002</v>
-      </c>
-      <c r="T63" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-03-R-0002</v>
+        <v>319</v>
+      </c>
+      <c r="S63" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-03-R-0005</v>
+      </c>
+      <c r="T63" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-03-R-0005</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="7"/>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="L64" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Extention of Time for Paying Tax&lt;br&gt;(Extention of Time for Paying Tax)</v>
+        <f t="shared" si="19"/>
+        <v>Charge over Asset&lt;br&gt;(Charge over Asset)</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="N64" s="8"/>
       <c r="O64" s="13"/>
@@ -5378,48 +5372,48 @@
       </c>
       <c r="Q64" s="14"/>
       <c r="R64" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="S64" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-03-R-0003</v>
-      </c>
-      <c r="T64" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-03-R-0003</v>
+        <v>320</v>
+      </c>
+      <c r="S64" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-03-R-0006</v>
+      </c>
+      <c r="T64" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-03-R-0006</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E65" s="1"/>
       <c r="F65" s="7"/>
       <c r="G65" s="1"/>
       <c r="H65" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L65" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Agency Notice&lt;br&gt;(Agency Notice)</v>
+        <f t="shared" si="19"/>
+        <v>Distress warrant&lt;br&gt;(Distress warrant)</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="N65" s="8"/>
       <c r="O65" s="13"/>
@@ -5429,48 +5423,48 @@
       </c>
       <c r="Q65" s="14"/>
       <c r="R65" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="S65" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-03-R-0004</v>
-      </c>
-      <c r="T65" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-03-R-0004</v>
+        <v>321</v>
+      </c>
+      <c r="S65" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-03-R-0007</v>
+      </c>
+      <c r="T65" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-03-R-0007</v>
       </c>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E66" s="1"/>
       <c r="F66" s="7"/>
       <c r="G66" s="1"/>
       <c r="H66" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="K66" s="1" t="s">
-        <v>183</v>
+        <v>294</v>
+      </c>
+      <c r="K66" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="L66" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Departure Prohibition Order&lt;br&gt;(Departure Prohibition Order)</v>
-      </c>
-      <c r="M66" s="1" t="s">
-        <v>183</v>
+        <f t="shared" si="19"/>
+        <v>Third Part Liability ★2nd&lt;br&gt;(제3자 책임 (2nd))</v>
+      </c>
+      <c r="M66" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="N66" s="8"/>
       <c r="O66" s="13"/>
@@ -5479,49 +5473,49 @@
         <v/>
       </c>
       <c r="Q66" s="14"/>
-      <c r="R66" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="S66" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-03-R-0005</v>
-      </c>
-      <c r="T66" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-03-R-0005</v>
+      <c r="R66" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="S66" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-03-R-0008</v>
+      </c>
+      <c r="T66" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-03-R-0008</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E67" s="1"/>
       <c r="F67" s="7"/>
       <c r="G67" s="1"/>
       <c r="H67" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I67" s="1"/>
       <c r="J67" s="8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L67" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Charge over Asset&lt;br&gt;(Charge over Asset)</v>
+        <f t="shared" si="19"/>
+        <v>Recovery Notice Cancellation&lt;br&gt;(Recovery Notice Cancellation)</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="N67" s="8"/>
       <c r="O67" s="13"/>
@@ -5531,48 +5525,48 @@
       </c>
       <c r="Q67" s="14"/>
       <c r="R67" s="12" t="s">
-        <v>321</v>
-      </c>
-      <c r="S67" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-03-R-0006</v>
-      </c>
-      <c r="T67" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-03-R-0006</v>
+        <v>323</v>
+      </c>
+      <c r="S67" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-03-R-0010</v>
+      </c>
+      <c r="T67" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-03-R-0010</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="7"/>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>185</v>
+        <v>296</v>
+      </c>
+      <c r="K68" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="L68" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Distress warrant&lt;br&gt;(Distress warrant)</v>
-      </c>
-      <c r="M68" s="1" t="s">
-        <v>185</v>
+        <f t="shared" si="19"/>
+        <v>Write-off uncollectable tax ★2nd&lt;br&gt;(Write-off uncollectable tax (2nd))</v>
+      </c>
+      <c r="M68" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="N68" s="8"/>
       <c r="O68" s="13"/>
@@ -5581,49 +5575,49 @@
         <v/>
       </c>
       <c r="Q68" s="14"/>
-      <c r="R68" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="S68" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-03-R-0007</v>
-      </c>
-      <c r="T68" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-03-R-0007</v>
+      <c r="R68" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="S68" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-03-R-0011</v>
+      </c>
+      <c r="T68" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-03-R-0011</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="7"/>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L69" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Third Part Liability ★2nd&lt;br&gt;(제3자 책임 (2nd))</v>
+        <f t="shared" si="19"/>
+        <v>Write back of tax ★2nd&lt;br&gt;(Write back of tax (2nd))</v>
       </c>
       <c r="M69" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N69" s="8"/>
       <c r="O69" s="13"/>
@@ -5633,48 +5627,48 @@
       </c>
       <c r="Q69" s="14"/>
       <c r="R69" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="S69" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-03-R-0008</v>
-      </c>
-      <c r="T69" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-03-R-0008</v>
+        <v>325</v>
+      </c>
+      <c r="S69" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-03-R-0012</v>
+      </c>
+      <c r="T69" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-03-R-0012</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E70" s="1"/>
       <c r="F70" s="7"/>
       <c r="G70" s="1"/>
       <c r="H70" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I70" s="1"/>
       <c r="J70" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L70" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Recovery Notice Cancellation&lt;br&gt;(Recovery Notice Cancellation)</v>
+        <f t="shared" si="19"/>
+        <v>Refund Offsetting&lt;br&gt;(Refund Offsetting)</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N70" s="8"/>
       <c r="O70" s="13"/>
@@ -5684,48 +5678,48 @@
       </c>
       <c r="Q70" s="14"/>
       <c r="R70" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="S70" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-03-R-0010</v>
-      </c>
-      <c r="T70" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-03-R-0010</v>
+        <v>326</v>
+      </c>
+      <c r="S70" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-03-R-0013</v>
+      </c>
+      <c r="T70" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-03-R-0013</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="7"/>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I71" s="1"/>
       <c r="J71" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>201</v>
+        <v>299</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="L71" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Write-off uncollectable tax ★2nd&lt;br&gt;(Write-off uncollectable tax (2nd))</v>
-      </c>
-      <c r="M71" s="7" t="s">
-        <v>268</v>
+        <f t="shared" si="19"/>
+        <v>Interest Rate Management&lt;br&gt;(Interest Rate Management)</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="N71" s="8"/>
       <c r="O71" s="13"/>
@@ -5734,259 +5728,259 @@
         <v/>
       </c>
       <c r="Q71" s="14"/>
-      <c r="R71" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="S71" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-03-R-0011</v>
-      </c>
-      <c r="T71" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-03-R-0011</v>
+      <c r="R71" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="S71" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-03-R-0014</v>
+      </c>
+      <c r="T71" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-03-R-0014</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E72" s="1"/>
-      <c r="F72" s="7"/>
-      <c r="G72" s="1"/>
+      <c r="F72" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="G72" s="34" t="s">
+        <v>398</v>
+      </c>
       <c r="H72" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I72" s="1"/>
-      <c r="J72" s="8" t="s">
-        <v>298</v>
-      </c>
-      <c r="K72" s="7" t="s">
-        <v>202</v>
+        <f t="shared" si="18"/>
+        <v>Compliance Monitoring&lt;br&gt;(이행 모니터링)</v>
+      </c>
+      <c r="I72" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="J72" s="34" t="s">
+        <v>300</v>
+      </c>
+      <c r="K72" s="34" t="s">
+        <v>208</v>
       </c>
       <c r="L72" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Write back of tax ★2nd&lt;br&gt;(Write back of tax (2nd))</v>
-      </c>
-      <c r="M72" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="N72" s="8"/>
-      <c r="O72" s="13"/>
+        <f t="shared" si="19"/>
+        <v>Tax Clearance Certificates&lt;br&gt;(Tax Clearance Certificates)</v>
+      </c>
+      <c r="M72" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="N72" s="34"/>
+      <c r="O72" s="34"/>
       <c r="P72" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q72" s="14"/>
-      <c r="R72" s="32" t="s">
-        <v>326</v>
-      </c>
-      <c r="S72" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-03-R-0012</v>
-      </c>
-      <c r="T72" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-03-R-0012</v>
+      <c r="Q72" s="34"/>
+      <c r="R72" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="S72" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-04-R-0001</v>
+      </c>
+      <c r="T72" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-04-R-0001</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E73" s="1"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="1"/>
+      <c r="F73" s="38"/>
+      <c r="G73" s="38"/>
       <c r="H73" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I73" s="1"/>
-      <c r="J73" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>187</v>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I73" s="38"/>
+      <c r="J73" s="38" t="s">
+        <v>301</v>
+      </c>
+      <c r="K73" s="38" t="s">
+        <v>269</v>
       </c>
       <c r="L73" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Refund Offsetting&lt;br&gt;(Refund Offsetting)</v>
-      </c>
-      <c r="M73" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="N73" s="8"/>
-      <c r="O73" s="13"/>
+        <f t="shared" si="19"/>
+        <v>Tax Residency Certificate&lt;br&gt;(Tax Residency Certificate)</v>
+      </c>
+      <c r="M73" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="N73" s="38"/>
+      <c r="O73" s="38"/>
       <c r="P73" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q73" s="14"/>
+      <c r="Q73" s="38"/>
       <c r="R73" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="S73" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-03-R-0013</v>
-      </c>
-      <c r="T73" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-03-R-0013</v>
+        <v>329</v>
+      </c>
+      <c r="S73" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-04-R-0002</v>
+      </c>
+      <c r="T73" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-04-R-0002</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E74" s="1"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="1"/>
+      <c r="F74" s="38"/>
+      <c r="G74" s="38"/>
       <c r="H74" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I74" s="1"/>
-      <c r="J74" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>188</v>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I74" s="38"/>
+      <c r="J74" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="K74" s="38" t="s">
+        <v>270</v>
       </c>
       <c r="L74" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Interest Rate Management&lt;br&gt;(Interest Rate Management)</v>
-      </c>
-      <c r="M74" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="N74" s="8"/>
-      <c r="O74" s="13"/>
+        <f t="shared" si="19"/>
+        <v>Motor vehicle Activation and Compliance check&lt;br&gt;(Motor vehicle Activation and Compliance check)</v>
+      </c>
+      <c r="M74" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="N74" s="38"/>
+      <c r="O74" s="38"/>
       <c r="P74" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q74" s="14"/>
+      <c r="Q74" s="38"/>
       <c r="R74" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="S74" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-03-R-0014</v>
-      </c>
-      <c r="T74" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-03-R-0014</v>
+        <v>330</v>
+      </c>
+      <c r="S74" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-04-R-0003</v>
+      </c>
+      <c r="T74" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-04-R-0003</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E75" s="1"/>
-      <c r="F75" s="34" t="s">
-        <v>359</v>
-      </c>
-      <c r="G75" s="34" t="s">
-        <v>401</v>
-      </c>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
       <c r="H75" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>Compliance Monitoring&lt;br&gt;(이행 모니터링)</v>
-      </c>
-      <c r="I75" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="J75" s="34" t="s">
-        <v>301</v>
-      </c>
-      <c r="K75" s="34" t="s">
-        <v>209</v>
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38" t="s">
+        <v>303</v>
+      </c>
+      <c r="K75" s="38" t="s">
+        <v>271</v>
       </c>
       <c r="L75" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Tax Clearance Certificates&lt;br&gt;(Tax Clearance Certificates)</v>
-      </c>
-      <c r="M75" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="N75" s="34"/>
-      <c r="O75" s="34"/>
+        <f t="shared" si="19"/>
+        <v>Offense Management&lt;br&gt;(Offense Management)</v>
+      </c>
+      <c r="M75" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="N75" s="38"/>
+      <c r="O75" s="38"/>
       <c r="P75" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q75" s="34"/>
-      <c r="R75" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="S75" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-04-R-0001</v>
-      </c>
-      <c r="T75" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-04-R-0001</v>
+      <c r="Q75" s="38"/>
+      <c r="R75" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="S75" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-04-R-0004</v>
+      </c>
+      <c r="T75" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-04-R-0004</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="38"/>
       <c r="G76" s="38"/>
       <c r="H76" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I76" s="38"/>
       <c r="J76" s="38" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="K76" s="38" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L76" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Tax Residency Certificate&lt;br&gt;(Tax Residency Certificate)</v>
+        <f t="shared" si="19"/>
+        <v>Normal Flow Monitoring&lt;br&gt;(Normal Flow Monitoring)</v>
       </c>
       <c r="M76" s="38" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="N76" s="38"/>
       <c r="O76" s="38"/>
@@ -5996,714 +5990,716 @@
       </c>
       <c r="Q76" s="38"/>
       <c r="R76" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="S76" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-04-R-0002</v>
-      </c>
-      <c r="T76" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-04-R-0002</v>
+        <v>332</v>
+      </c>
+      <c r="S76" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-04-R-0005</v>
+      </c>
+      <c r="T76" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-04-R-0005</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E77" s="1"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
+      <c r="F77" s="34" t="s">
+        <v>359</v>
+      </c>
+      <c r="G77" s="34" t="s">
+        <v>399</v>
+      </c>
       <c r="H77" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I77" s="38"/>
-      <c r="J77" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="K77" s="38" t="s">
-        <v>271</v>
+        <f t="shared" si="18"/>
+        <v>Sale of Charged Asset&lt;br&gt;(담보 자산 매각)</v>
+      </c>
+      <c r="I77" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="J77" s="34" t="s">
+        <v>305</v>
+      </c>
+      <c r="K77" s="34" t="s">
+        <v>263</v>
       </c>
       <c r="L77" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Motor vehicle Activation and Compliance check&lt;br&gt;(Motor vehicle Activation and Compliance check)</v>
-      </c>
-      <c r="M77" s="38" t="s">
-        <v>271</v>
-      </c>
-      <c r="N77" s="38"/>
-      <c r="O77" s="38"/>
+        <f t="shared" si="19"/>
+        <v>Asset Management&lt;br&gt;(자산관리)</v>
+      </c>
+      <c r="M77" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="N77" s="34"/>
+      <c r="O77" s="34"/>
       <c r="P77" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q77" s="38"/>
-      <c r="R77" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="S77" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-04-R-0003</v>
-      </c>
-      <c r="T77" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-04-R-0003</v>
+      <c r="Q77" s="34"/>
+      <c r="R77" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="S77" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-05-R-0001</v>
+      </c>
+      <c r="T77" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-05-R-0001</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E78" s="1"/>
-      <c r="F78" s="38"/>
+      <c r="F78" s="42"/>
       <c r="G78" s="38"/>
       <c r="H78" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I78" s="38"/>
-      <c r="J78" s="38" t="s">
-        <v>304</v>
-      </c>
-      <c r="K78" s="38" t="s">
-        <v>272</v>
+      <c r="J78" s="40" t="s">
+        <v>306</v>
+      </c>
+      <c r="K78" s="40" t="s">
+        <v>264</v>
       </c>
       <c r="L78" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Offense Management&lt;br&gt;(Offense Management)</v>
-      </c>
-      <c r="M78" s="38" t="s">
-        <v>272</v>
-      </c>
-      <c r="N78" s="38"/>
-      <c r="O78" s="38"/>
+        <f t="shared" si="19"/>
+        <v>Valuation-Internal&lt;br&gt;(가치평가-내부)</v>
+      </c>
+      <c r="M78" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="N78" s="39" t="s">
+        <v>362</v>
+      </c>
+      <c r="O78" s="40" t="s">
+        <v>216</v>
+      </c>
       <c r="P78" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q78" s="38"/>
-      <c r="R78" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="S78" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-04-R-0004</v>
-      </c>
-      <c r="T78" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-04-R-0004</v>
+        <f t="shared" ref="P78:P127" si="24">IF(Q78&lt;&gt;"",Q78&amp;"&lt;br&gt;("&amp;O78&amp;")","")</f>
+        <v>New Valuation&lt;br&gt;(New Valuation)</v>
+      </c>
+      <c r="Q78" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="R78" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="S78" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-05-R-0201</v>
+      </c>
+      <c r="T78" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-05-R-0201</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E79" s="1"/>
-      <c r="F79" s="38"/>
+      <c r="F79" s="42"/>
       <c r="G79" s="38"/>
       <c r="H79" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I79" s="38"/>
-      <c r="J79" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="K79" s="38" t="s">
-        <v>273</v>
-      </c>
+      <c r="J79" s="38"/>
+      <c r="K79" s="38"/>
       <c r="L79" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Normal Flow Monitoring&lt;br&gt;(Normal Flow Monitoring)</v>
-      </c>
-      <c r="M79" s="38" t="s">
-        <v>273</v>
-      </c>
-      <c r="N79" s="38"/>
-      <c r="O79" s="38"/>
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M79" s="38"/>
+      <c r="N79" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="O79" s="38" t="s">
+        <v>217</v>
+      </c>
       <c r="P79" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q79" s="38"/>
+        <f t="shared" si="24"/>
+        <v>List of Submitted valuation&lt;br&gt;(List of Submitted valuation)</v>
+      </c>
+      <c r="Q79" s="38" t="s">
+        <v>217</v>
+      </c>
       <c r="R79" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="S79" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-04-R-0005</v>
-      </c>
-      <c r="T79" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-04-R-0005</v>
+        <v>335</v>
+      </c>
+      <c r="S79" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-05-R-0202</v>
+      </c>
+      <c r="T79" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-05-R-0202</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="42"/>
+      <c r="G80" s="38"/>
+      <c r="H80" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I80" s="38"/>
+      <c r="J80" s="38"/>
+      <c r="K80" s="38"/>
+      <c r="L80" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M80" s="38"/>
+      <c r="N80" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="O80" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="P80" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>List of valuation&lt;br&gt;(List of valuation)</v>
+      </c>
+      <c r="Q80" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="R80" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="S80" s="1" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E80" s="1"/>
-      <c r="F80" s="34" t="s">
-        <v>360</v>
-      </c>
-      <c r="G80" s="34" t="s">
-        <v>402</v>
-      </c>
-      <c r="H80" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>Sale of Charged Asset&lt;br&gt;(담보 자산 매각)</v>
-      </c>
-      <c r="I80" s="34" t="s">
-        <v>214</v>
-      </c>
-      <c r="J80" s="34" t="s">
-        <v>306</v>
-      </c>
-      <c r="K80" s="34" t="s">
-        <v>264</v>
-      </c>
-      <c r="L80" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Asset Management&lt;br&gt;(자산관리)</v>
-      </c>
-      <c r="M80" s="34" t="s">
-        <v>215</v>
-      </c>
-      <c r="N80" s="34"/>
-      <c r="O80" s="34"/>
-      <c r="P80" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="Q80" s="34"/>
-      <c r="R80" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="S80" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-05-R-0001</v>
-      </c>
-      <c r="T80" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-05-R-0001</v>
+        <v>UI-DMCI-05-R-0203</v>
+      </c>
+      <c r="T80" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-05-R-0203</v>
       </c>
     </row>
     <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="42"/>
       <c r="G81" s="38"/>
       <c r="H81" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I81" s="38"/>
-      <c r="J81" s="40" t="s">
-        <v>307</v>
-      </c>
-      <c r="K81" s="40" t="s">
-        <v>265</v>
-      </c>
+      <c r="J81" s="38"/>
+      <c r="K81" s="38"/>
       <c r="L81" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Valuation-Internal&lt;br&gt;(가치평가-내부)</v>
-      </c>
-      <c r="M81" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="N81" s="39" t="s">
-        <v>363</v>
-      </c>
-      <c r="O81" s="40" t="s">
-        <v>217</v>
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M81" s="38"/>
+      <c r="N81" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="O81" s="38" t="s">
+        <v>219</v>
       </c>
       <c r="P81" s="1" t="str">
-        <f t="shared" ref="P81:P130" si="21">IF(Q81&lt;&gt;"",Q81&amp;"&lt;br&gt;("&amp;O81&amp;")","")</f>
-        <v>New Valuation&lt;br&gt;(New Valuation)</v>
-      </c>
-      <c r="Q81" s="40" t="s">
-        <v>217</v>
-      </c>
-      <c r="R81" s="41" t="s">
-        <v>335</v>
-      </c>
-      <c r="S81" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-05-R-0201</v>
-      </c>
-      <c r="T81" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-05-R-0201</v>
+        <f t="shared" si="24"/>
+        <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
+      </c>
+      <c r="Q81" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="R81" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="S81" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-05-R-0204</v>
+      </c>
+      <c r="T81" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-05-R-0204</v>
       </c>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="42"/>
       <c r="G82" s="38"/>
       <c r="H82" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I82" s="38"/>
-      <c r="J82" s="38"/>
-      <c r="K82" s="38"/>
+      <c r="J82" s="40" t="s">
+        <v>307</v>
+      </c>
+      <c r="K82" s="40" t="s">
+        <v>265</v>
+      </c>
       <c r="L82" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="M82" s="38"/>
-      <c r="N82" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="O82" s="38" t="s">
-        <v>218</v>
+        <f t="shared" si="19"/>
+        <v>Valuation-External&lt;br&gt;(가치평가-외부)</v>
+      </c>
+      <c r="M82" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="N82" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="O82" s="40" t="s">
+        <v>220</v>
       </c>
       <c r="P82" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>New valuation request&lt;br&gt;(New valuation request)</v>
+      </c>
+      <c r="Q82" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="R82" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="S82" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-05-R-0301</v>
+      </c>
+      <c r="T82" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>List of Submitted valuation&lt;br&gt;(List of Submitted valuation)</v>
-      </c>
-      <c r="Q82" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="R82" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="S82" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-05-R-0202</v>
-      </c>
-      <c r="T82" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-05-R-0202</v>
+        <v>UI-DMCI-05-R-0301</v>
       </c>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="42"/>
       <c r="G83" s="38"/>
       <c r="H83" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I83" s="38"/>
       <c r="J83" s="38"/>
       <c r="K83" s="38"/>
       <c r="L83" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M83" s="38"/>
       <c r="N83" s="1" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="O83" s="38" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P83" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>List of submitted valuation requests&lt;br&gt;(List of submitted valuation requests)</v>
+      </c>
+      <c r="Q83" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="R83" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="S83" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-05-R-0302</v>
+      </c>
+      <c r="T83" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>List of valuation&lt;br&gt;(List of valuation)</v>
-      </c>
-      <c r="Q83" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="R83" s="12" t="s">
-        <v>337</v>
-      </c>
-      <c r="S83" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-05-R-0203</v>
-      </c>
-      <c r="T83" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-05-R-0203</v>
+        <v>UI-DMCI-05-R-0302</v>
       </c>
     </row>
     <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="42"/>
       <c r="G84" s="38"/>
       <c r="H84" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I84" s="38"/>
       <c r="J84" s="38"/>
       <c r="K84" s="38"/>
       <c r="L84" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M84" s="38"/>
       <c r="N84" s="1" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="O84" s="38" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P84" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>List of valuation requests&lt;br&gt;(List of valuation requests)</v>
+      </c>
+      <c r="Q84" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="R84" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="S84" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-05-R-0303</v>
+      </c>
+      <c r="T84" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
-      </c>
-      <c r="Q84" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="R84" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="S84" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-05-R-0204</v>
-      </c>
-      <c r="T84" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-05-R-0204</v>
+        <v>UI-DMCI-05-R-0303</v>
       </c>
     </row>
     <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="42"/>
       <c r="G85" s="38"/>
       <c r="H85" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I85" s="38"/>
-      <c r="J85" s="40" t="s">
-        <v>308</v>
-      </c>
-      <c r="K85" s="40" t="s">
-        <v>266</v>
-      </c>
+      <c r="J85" s="38"/>
+      <c r="K85" s="38"/>
       <c r="L85" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Valuation-External&lt;br&gt;(가치평가-외부)</v>
-      </c>
-      <c r="M85" s="40" t="s">
-        <v>245</v>
-      </c>
-      <c r="N85" s="39" t="s">
-        <v>367</v>
-      </c>
-      <c r="O85" s="40" t="s">
-        <v>221</v>
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M85" s="38"/>
+      <c r="N85" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="O85" s="38" t="s">
+        <v>223</v>
       </c>
       <c r="P85" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>List of valuation response&lt;br&gt;(List of valuation response)</v>
+      </c>
+      <c r="Q85" s="38" t="s">
+        <v>223</v>
+      </c>
+      <c r="R85" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="S85" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-05-R-0304</v>
+      </c>
+      <c r="T85" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>New valuation request&lt;br&gt;(New valuation request)</v>
-      </c>
-      <c r="Q85" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="R85" s="41" t="s">
-        <v>339</v>
-      </c>
-      <c r="S85" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-05-R-0301</v>
-      </c>
-      <c r="T85" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-05-R-0301</v>
+        <v>UI-DMCI-05-R-0304</v>
       </c>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="42"/>
       <c r="G86" s="38"/>
       <c r="H86" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I86" s="38"/>
       <c r="J86" s="38"/>
       <c r="K86" s="38"/>
       <c r="L86" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M86" s="38"/>
       <c r="N86" s="1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O86" s="38" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P86" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
+      </c>
+      <c r="Q86" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="R86" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="S86" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-05-R-0305</v>
+      </c>
+      <c r="T86" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>List of submitted valuation requests&lt;br&gt;(List of submitted valuation requests)</v>
-      </c>
-      <c r="Q86" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="R86" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="S86" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-05-R-0302</v>
-      </c>
-      <c r="T86" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-05-R-0302</v>
+        <v>UI-DMCI-05-R-0305</v>
       </c>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="42"/>
       <c r="G87" s="38"/>
       <c r="H87" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I87" s="38"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="38"/>
+      <c r="J87" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="K87" s="44" t="s">
+        <v>251</v>
+      </c>
       <c r="L87" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="M87" s="38"/>
-      <c r="N87" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="O87" s="38" t="s">
-        <v>223</v>
+        <f t="shared" si="19"/>
+        <v>Pre-auction processing ★2nd&lt;br&gt;(공매 전 처리)</v>
+      </c>
+      <c r="M87" s="44" t="s">
+        <v>282</v>
+      </c>
+      <c r="N87" s="45" t="s">
+        <v>371</v>
+      </c>
+      <c r="O87" s="45" t="s">
+        <v>247</v>
       </c>
       <c r="P87" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>Notification of Itention to sale the Changed Asset&lt;br&gt;(부과자산 매각의사 통지)</v>
+      </c>
+      <c r="Q87" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="R87" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="S87" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-05-R-0401</v>
+      </c>
+      <c r="T87" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>List of valuation requests&lt;br&gt;(List of valuation requests)</v>
-      </c>
-      <c r="Q87" s="38" t="s">
-        <v>223</v>
-      </c>
-      <c r="R87" s="12" t="s">
-        <v>341</v>
-      </c>
-      <c r="S87" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-05-R-0303</v>
-      </c>
-      <c r="T87" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-05-R-0303</v>
+        <v>UI-DMCI-05-R-0401</v>
       </c>
     </row>
     <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="42"/>
       <c r="G88" s="38"/>
       <c r="H88" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I88" s="38"/>
-      <c r="J88" s="38"/>
-      <c r="K88" s="38"/>
+      <c r="J88" s="9"/>
       <c r="L88" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="M88" s="38"/>
-      <c r="N88" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="O88" s="38" t="s">
-        <v>224</v>
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N88" s="43" t="s">
+        <v>372</v>
+      </c>
+      <c r="O88" s="1" t="s">
+        <v>284</v>
       </c>
       <c r="P88" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>List Assets for Public Auction&lt;br&gt;(공개 경매를 위한 자산 목록)</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="R88" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="S88" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-05-R-0402</v>
+      </c>
+      <c r="T88" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>List of valuation response&lt;br&gt;(List of valuation response)</v>
-      </c>
-      <c r="Q88" s="38" t="s">
-        <v>224</v>
-      </c>
-      <c r="R88" s="12" t="s">
-        <v>342</v>
-      </c>
-      <c r="S88" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-05-R-0304</v>
-      </c>
-      <c r="T88" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-05-R-0304</v>
+        <v>UI-DMCI-05-R-0402</v>
       </c>
     </row>
     <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="42"/>
       <c r="G89" s="38"/>
       <c r="H89" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I89" s="38"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="38"/>
+      <c r="J89" s="9"/>
       <c r="L89" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="M89" s="38"/>
-      <c r="N89" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="O89" s="38" t="s">
-        <v>220</v>
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="N89" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="O89" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="P89" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>Asset Publishing&lt;br&gt;(자산 게시)</v>
+      </c>
+      <c r="Q89" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="R89" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="S89" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-05-R-0403</v>
+      </c>
+      <c r="T89" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
-      </c>
-      <c r="Q89" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="R89" s="12" t="s">
-        <v>343</v>
-      </c>
-      <c r="S89" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-05-R-0305</v>
-      </c>
-      <c r="T89" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-05-R-0305</v>
+        <v>UI-DMCI-05-R-0403</v>
       </c>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E90" s="1"/>
       <c r="F90" s="42"/>
       <c r="G90" s="38"/>
       <c r="H90" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I90" s="38"/>
@@ -6714,2145 +6710,1990 @@
         <v>252</v>
       </c>
       <c r="L90" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Pre-auction processing ★2nd&lt;br&gt;(공매 전 처리)</v>
-      </c>
-      <c r="M90" s="44" t="s">
+        <f t="shared" si="19"/>
+        <v>Post-auction processing ★2nd&lt;br&gt;(공매 후 처리)</v>
+      </c>
+      <c r="M90" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="N90" s="45" t="s">
-        <v>372</v>
-      </c>
-      <c r="O90" s="45" t="s">
-        <v>248</v>
+      <c r="N90" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="O90" s="40" t="s">
+        <v>257</v>
       </c>
       <c r="P90" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>Distribution od proceeds account&lt;br&gt;(수익금 배분계좌)</v>
+      </c>
+      <c r="Q90" s="40" t="s">
+        <v>256</v>
+      </c>
+      <c r="R90" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="S90" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-05-R-0501</v>
+      </c>
+      <c r="T90" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Notification of Itention to sale the Changed Asset&lt;br&gt;(부과자산 매각의사 통지)</v>
-      </c>
-      <c r="Q90" s="45" t="s">
-        <v>247</v>
-      </c>
-      <c r="R90" s="41" t="s">
-        <v>344</v>
-      </c>
-      <c r="S90" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-05-R-0401</v>
-      </c>
-      <c r="T90" s="23" t="str">
+        <v>UI-DMCI-05-R-0501</v>
+      </c>
+    </row>
+    <row r="91" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>R</v>
+      </c>
+      <c r="B91" s="37"/>
+      <c r="C91" s="37"/>
+      <c r="D91" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E91" s="37"/>
+      <c r="F91" s="34" t="s">
+        <v>360</v>
+      </c>
+      <c r="G91" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="H91" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>UI-DMCI-05-R-0401</v>
-      </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="str">
+        <v>Block Management&lt;br&gt;(블록 관리)</v>
+      </c>
+      <c r="I91" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J91" s="34" t="s">
+        <v>310</v>
+      </c>
+      <c r="K91" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="L91" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>R</v>
-      </c>
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1" t="str">
+        <v>Dashboard&lt;br&gt;(Dashboard)</v>
+      </c>
+      <c r="M91" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="N91" s="34"/>
+      <c r="O91" s="34"/>
+      <c r="P91" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q91" s="34"/>
+      <c r="R91" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="S91" s="1" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="42"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I91" s="38"/>
-      <c r="J91" s="9"/>
-      <c r="L91" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="N91" s="43" t="s">
-        <v>373</v>
-      </c>
-      <c r="O91" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="P91" s="1" t="str">
+        <v>UI-DMCI-02-R-0001</v>
+      </c>
+      <c r="T91" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>List Assets for Public Auction&lt;br&gt;(공개 경매를 위한 자산 목록)</v>
-      </c>
-      <c r="Q91" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="R91" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="S91" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-05-R-0402</v>
-      </c>
-      <c r="T91" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-05-R-0402</v>
+        <v>UI-DMCI-02-R-0001</v>
       </c>
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I92" s="1"/>
+      <c r="J92" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L92" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Block Management&lt;br&gt;(블록 관리)</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N92" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="O92" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="P92" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>Registered Blocks&lt;br&gt;(등록된 블록)</v>
+      </c>
+      <c r="Q92" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="R92" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="S92" s="1" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="42"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I92" s="38"/>
-      <c r="J92" s="9"/>
-      <c r="L92" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="N92" s="43" t="s">
-        <v>374</v>
-      </c>
-      <c r="O92" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="P92" s="1" t="str">
+        <v>UI-DMCI-02-R-0002</v>
+      </c>
+      <c r="T92" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Asset Publishing&lt;br&gt;(자산 게시)</v>
-      </c>
-      <c r="Q92" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="R92" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="S92" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-05-R-0403</v>
-      </c>
-      <c r="T92" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-05-R-0403</v>
+        <v>UI-DMCI-02-R-0002</v>
       </c>
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I93" s="1"/>
+      <c r="J93" s="8"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M93" s="1"/>
+      <c r="N93" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="O93" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="P93" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>Registered Sub Blocks&lt;br&gt;(등록된 하위 블록)</v>
+      </c>
+      <c r="Q93" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="R93" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="S93" s="1" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="42"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I93" s="38"/>
-      <c r="J93" s="40" t="s">
-        <v>310</v>
-      </c>
-      <c r="K93" s="44" t="s">
-        <v>253</v>
-      </c>
-      <c r="L93" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Post-auction processing ★2nd&lt;br&gt;(공매 후 처리)</v>
-      </c>
-      <c r="M93" s="40" t="s">
-        <v>284</v>
-      </c>
-      <c r="N93" s="40" t="s">
-        <v>375</v>
-      </c>
-      <c r="O93" s="40" t="s">
-        <v>258</v>
-      </c>
-      <c r="P93" s="1" t="str">
+        <v>UI-DMCI-02-R-0003</v>
+      </c>
+      <c r="T93" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Distribution od proceeds account&lt;br&gt;(수익금 배분계좌)</v>
-      </c>
-      <c r="Q93" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="R93" s="41" t="s">
-        <v>347</v>
-      </c>
-      <c r="S93" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-05-R-0501</v>
-      </c>
-      <c r="T93" s="23" t="str">
+        <v>UI-DMCI-02-R-0003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>R</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="7"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>UI-DMCI-05-R-0501</v>
-      </c>
-    </row>
-    <row r="94" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="str">
+        <v/>
+      </c>
+      <c r="I94" s="1"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>R</v>
-      </c>
-      <c r="B94" s="37"/>
-      <c r="C94" s="37"/>
-      <c r="D94" s="1" t="str">
+        <v/>
+      </c>
+      <c r="M94" s="1"/>
+      <c r="N94" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="O94" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P94" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>Block Team Leader&lt;br&gt;(블록 팀 리더)</v>
+      </c>
+      <c r="Q94" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="R94" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="S94" s="1" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E94" s="37"/>
-      <c r="F94" s="34" t="s">
-        <v>361</v>
-      </c>
-      <c r="G94" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="H94" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v>Block Management&lt;br&gt;(블록 관리)</v>
-      </c>
-      <c r="I94" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="J94" s="34" t="s">
-        <v>311</v>
-      </c>
-      <c r="K94" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="L94" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Dashboard&lt;br&gt;(Dashboard)</v>
-      </c>
-      <c r="M94" s="34" t="s">
-        <v>9</v>
-      </c>
-      <c r="N94" s="34"/>
-      <c r="O94" s="34"/>
-      <c r="P94" s="1" t="str">
+        <v>UI-DMCI-02-R-0004</v>
+      </c>
+      <c r="T94" s="1" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Q94" s="34"/>
-      <c r="R94" s="24" t="s">
-        <v>348</v>
-      </c>
-      <c r="S94" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-02-R-0001</v>
-      </c>
-      <c r="T94" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-02-R-0001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+        <v>UI-DMCI-02-R-0004</v>
+      </c>
+    </row>
+    <row r="95" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="7"/>
       <c r="G95" s="1"/>
       <c r="H95" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I95" s="1"/>
-      <c r="J95" s="8" t="s">
+      <c r="J95" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="K95" s="1" t="s">
-        <v>40</v>
+      <c r="K95" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="L95" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Block Management&lt;br&gt;(블록 관리)</v>
-      </c>
-      <c r="M95" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N95" s="8" t="s">
-        <v>376</v>
-      </c>
-      <c r="O95" s="13" t="s">
-        <v>41</v>
+        <f t="shared" si="19"/>
+        <v>Physical Survey&lt;br&gt;(물리적 조사)</v>
+      </c>
+      <c r="M95" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N95" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="O95" s="29" t="s">
+        <v>49</v>
       </c>
       <c r="P95" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>Physical Survey Plan&lt;br&gt;(실사 계획 수립)</v>
+      </c>
+      <c r="Q95" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="R95" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="S95" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-02-R-0005</v>
+      </c>
+      <c r="T95" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Registered Blocks&lt;br&gt;(등록된 블록)</v>
-      </c>
-      <c r="Q95" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="R95" s="12" t="s">
-        <v>349</v>
-      </c>
-      <c r="S95" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-02-R-0002</v>
-      </c>
-      <c r="T95" s="23" t="str">
+        <v>UI-DMCI-02-R-0005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>R</v>
+      </c>
+      <c r="B96" s="26"/>
+      <c r="C96" s="26"/>
+      <c r="D96" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E96" s="26"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>UI-DMCI-02-R-0002</v>
-      </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="str">
+        <v/>
+      </c>
+      <c r="I96" s="13"/>
+      <c r="J96" s="8"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="1" t="str">
         <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M96" s="14"/>
+      <c r="N96" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="O96" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P96" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>Request to Conduct Physical Survey&lt;br&gt;(실사 수행 요청)</v>
+      </c>
+      <c r="Q96" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="R96" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="S96" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-02-R-0006</v>
+      </c>
+      <c r="T96" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-02-R-0006</v>
+      </c>
+    </row>
+    <row r="97" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="str">
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1" t="str">
+      <c r="B97" s="26"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E97" s="26"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I97" s="13"/>
+      <c r="J97" s="8"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M97" s="14"/>
+      <c r="N97" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="O97" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>Approval of Request to conduct Physical Survey&lt;br&gt;(실사 수행 요청 승인)</v>
+      </c>
+      <c r="Q97" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="R97" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="S97" s="1" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E96" s="1"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I96" s="1"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="1"/>
-      <c r="L96" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="M96" s="1"/>
-      <c r="N96" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="O96" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="P96" s="1" t="str">
+        <v>UI-DMCI-02-R-0007</v>
+      </c>
+      <c r="T97" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Registered Sub Blocks&lt;br&gt;(등록된 하위 블록)</v>
-      </c>
-      <c r="Q96" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="R96" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="S96" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-02-R-0003</v>
-      </c>
-      <c r="T96" s="23" t="str">
+        <v>UI-DMCI-02-R-0007</v>
+      </c>
+    </row>
+    <row r="98" spans="1:20" ht="27" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>R</v>
+      </c>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E98" s="26"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>UI-DMCI-02-R-0003</v>
-      </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="str">
+        <v/>
+      </c>
+      <c r="I98" s="13"/>
+      <c r="J98" s="8"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>R</v>
-      </c>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1" t="str">
+        <v/>
+      </c>
+      <c r="M98" s="14"/>
+      <c r="N98" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="O98" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="P98" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>Conducting Block Physical Survey (Mobile WEB)&lt;br&gt;(블록 실사 수행(모바일 웹))</v>
+      </c>
+      <c r="Q98" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="R98" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="S98" s="1" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E97" s="1"/>
-      <c r="F97" s="7"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I97" s="1"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="1"/>
-      <c r="L97" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="M97" s="1"/>
-      <c r="N97" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="O97" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="P97" s="1" t="str">
+        <v>UI-DMCI-02-R-0008</v>
+      </c>
+      <c r="T98" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Block Team Leader&lt;br&gt;(블록 팀 리더)</v>
-      </c>
-      <c r="Q97" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="R97" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="S97" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-02-R-0004</v>
-      </c>
-      <c r="T97" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-02-R-0004</v>
-      </c>
-    </row>
-    <row r="98" spans="1:20" s="31" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>R</v>
-      </c>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E98" s="1"/>
-      <c r="F98" s="7"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I98" s="1"/>
-      <c r="J98" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="K98" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L98" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Physical Survey&lt;br&gt;(물리적 조사)</v>
-      </c>
-      <c r="M98" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="N98" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="O98" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="P98" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>Physical Survey Plan&lt;br&gt;(실사 계획 수립)</v>
-      </c>
-      <c r="Q98" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="R98" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="S98" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-02-R-0005</v>
-      </c>
-      <c r="T98" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-02-R-0005</v>
+        <v>UI-DMCI-02-R-0008</v>
       </c>
     </row>
     <row r="99" spans="1:20" ht="27" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B99" s="26"/>
       <c r="C99" s="26"/>
       <c r="D99" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E99" s="26"/>
       <c r="F99" s="15"/>
       <c r="G99" s="13"/>
       <c r="H99" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I99" s="13"/>
       <c r="J99" s="8"/>
       <c r="K99" s="13"/>
       <c r="L99" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M99" s="14"/>
       <c r="N99" s="8" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="O99" s="13" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="P99" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>View Collected Physical Survey Data&lt;br&gt;(수집된 물리적 조사 데이터 보기)</v>
+      </c>
+      <c r="Q99" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="R99" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="S99" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-02-R-0009</v>
+      </c>
+      <c r="T99" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Request to Conduct Physical Survey&lt;br&gt;(실사 수행 요청)</v>
-      </c>
-      <c r="Q99" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="R99" s="12" t="s">
-        <v>353</v>
-      </c>
-      <c r="S99" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-02-R-0006</v>
-      </c>
-      <c r="T99" s="23" t="str">
+        <v>UI-DMCI-02-R-0009</v>
+      </c>
+    </row>
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A100" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>R</v>
+      </c>
+      <c r="B100" s="27"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E100" s="27"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1" t="str">
         <f t="shared" si="18"/>
-        <v>UI-DMCI-02-R-0006</v>
-      </c>
-    </row>
-    <row r="100" spans="1:20" ht="27" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="str">
+        <v/>
+      </c>
+      <c r="I100" s="1"/>
+      <c r="J100" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="K100" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L100" s="1" t="str">
         <f t="shared" si="19"/>
+        <v>NaPA Address Management&lt;br&gt;(NaPA 주소 관리)</v>
+      </c>
+      <c r="M100" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N100" s="10"/>
+      <c r="O100" s="10"/>
+      <c r="P100" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q100" s="10"/>
+      <c r="R100" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="S100" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-02-R-0010</v>
+      </c>
+      <c r="T100" s="1" t="str">
+        <f t="shared" si="21"/>
+        <v>UI-DMCI-02-R-0010</v>
+      </c>
+    </row>
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A101" s="2" t="str">
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-      <c r="D100" s="1" t="str">
+      <c r="B101" s="27"/>
+      <c r="C101" s="27"/>
+      <c r="D101" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E101" s="27"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I101" s="1"/>
+      <c r="J101" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L101" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v>Reports&lt;br&gt;(보고서)</v>
+      </c>
+      <c r="M101" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N101" s="10"/>
+      <c r="O101" s="10"/>
+      <c r="P101" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q101" s="10"/>
+      <c r="R101" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="S101" s="1" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E100" s="26"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="13"/>
-      <c r="H100" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I100" s="13"/>
-      <c r="J100" s="8"/>
-      <c r="K100" s="13"/>
-      <c r="L100" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="M100" s="14"/>
-      <c r="N100" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="O100" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="P100" s="1" t="str">
+        <v>UI-DMCI-02-R-0011</v>
+      </c>
+      <c r="T101" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Approval of Request to conduct Physical Survey&lt;br&gt;(실사 수행 요청 승인)</v>
-      </c>
-      <c r="Q100" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="R100" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="S100" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-02-R-0007</v>
-      </c>
-      <c r="T100" s="23" t="str">
+        <v>UI-DMCI-02-R-0011</v>
+      </c>
+    </row>
+    <row r="102" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>R</v>
+      </c>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="1" t="str">
+        <f t="shared" ref="D102" si="25">IF(E102&lt;&gt;"",E102&amp;"&lt;br&gt;("&amp;C102&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="E102" s="13"/>
+      <c r="F102" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="G102" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="H102" s="23" t="str">
         <f t="shared" si="18"/>
-        <v>UI-DMCI-02-R-0007</v>
-      </c>
-    </row>
-    <row r="101" spans="1:20" ht="27" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="str">
+        <v>Data Cleanup Tool&lt;br&gt;(데이터 클린업 도구)</v>
+      </c>
+      <c r="I102" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J102" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="K102" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L102" s="23" t="str">
         <f t="shared" si="19"/>
-        <v>R</v>
-      </c>
-      <c r="B101" s="26"/>
-      <c r="C101" s="26"/>
-      <c r="D101" s="1" t="str">
+        <v>Dashboard&lt;br&gt;(Dashboard)</v>
+      </c>
+      <c r="M102" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N102" s="23"/>
+      <c r="O102" s="23"/>
+      <c r="P102" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q102" s="23"/>
+      <c r="R102" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="S102" s="1" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E101" s="26"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="13"/>
-      <c r="H101" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I101" s="13"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="13"/>
-      <c r="L101" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="M101" s="14"/>
-      <c r="N101" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="O101" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="P101" s="1" t="str">
+        <v>UI-DMCI-01-R-0001</v>
+      </c>
+      <c r="T102" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Conducting Block Physical Survey (Mobile WEB)&lt;br&gt;(블록 실사 수행(모바일 웹))</v>
-      </c>
-      <c r="Q101" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="R101" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="S101" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-02-R-0008</v>
-      </c>
-      <c r="T101" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-02-R-0008</v>
-      </c>
-    </row>
-    <row r="102" spans="1:20" ht="27" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>R</v>
-      </c>
-      <c r="B102" s="26"/>
-      <c r="C102" s="26"/>
-      <c r="D102" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E102" s="26"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I102" s="13"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="13"/>
-      <c r="L102" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v/>
-      </c>
-      <c r="M102" s="14"/>
-      <c r="N102" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="O102" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="P102" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>View Collected Physical Survey Data&lt;br&gt;(수집된 물리적 조사 데이터 보기)</v>
-      </c>
-      <c r="Q102" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="R102" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="S102" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-02-R-0009</v>
-      </c>
-      <c r="T102" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-02-R-0009</v>
+        <v>UI-DMCI-01-R-0001</v>
       </c>
     </row>
     <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
       <c r="D103" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E103" s="27"/>
-      <c r="F103" s="15"/>
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E103" s="1"/>
+      <c r="F103" s="7"/>
       <c r="G103" s="1"/>
       <c r="H103" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="K103" s="10" t="s">
-        <v>59</v>
+        <v>105</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="L103" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>NaPA Address Management&lt;br&gt;(NaPA 주소 관리)</v>
-      </c>
-      <c r="M103" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="N103" s="10"/>
-      <c r="O103" s="10"/>
+        <f t="shared" si="19"/>
+        <v>Case Management&lt;br&gt;(Case Management)</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N103" s="8"/>
+      <c r="O103" s="1"/>
       <c r="P103" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q103" s="1"/>
+      <c r="R103" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="S103" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-01-R-0003</v>
+      </c>
+      <c r="T103" s="1" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Q103" s="10"/>
-      <c r="R103" s="11" t="s">
-        <v>357</v>
-      </c>
-      <c r="S103" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-02-R-0010</v>
-      </c>
-      <c r="T103" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-02-R-0010</v>
+        <v>UI-DMCI-01-R-0003</v>
       </c>
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>R</v>
+      </c>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E104" s="13"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I104" s="13"/>
+      <c r="J104" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L104" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>R</v>
-      </c>
-      <c r="B104" s="27"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="1" t="str">
+        <v>Data Cleanup Reports&lt;br&gt;(Data Cleanup Reports)</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N104" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="O104" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P104" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>Executive Reports&lt;br&gt;(관리자용 요약 보고서)</v>
+      </c>
+      <c r="Q104" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R104" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="S104" s="1" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E104" s="27"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I104" s="1"/>
-      <c r="J104" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="K104" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="L104" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Reports&lt;br&gt;(보고서)</v>
-      </c>
-      <c r="M104" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="N104" s="10"/>
-      <c r="O104" s="10"/>
-      <c r="P104" s="1" t="str">
+        <v>UI-DMCI-01-R-0013</v>
+      </c>
+      <c r="T104" s="1" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Q104" s="10"/>
-      <c r="R104" s="11" t="s">
-        <v>358</v>
-      </c>
-      <c r="S104" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-02-R-0011</v>
-      </c>
-      <c r="T104" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-02-R-0011</v>
-      </c>
-    </row>
-    <row r="105" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
+        <v>UI-DMCI-01-R-0013</v>
+      </c>
+    </row>
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
       <c r="D105" s="1" t="str">
-        <f t="shared" ref="D105" si="22">IF(E105&lt;&gt;"",E105&amp;"&lt;br&gt;("&amp;C105&amp;")","")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="E105" s="13"/>
-      <c r="F105" s="23" t="s">
-        <v>362</v>
-      </c>
-      <c r="G105" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="H105" s="23" t="str">
-        <f t="shared" si="15"/>
-        <v>Data Cleanup Tool&lt;br&gt;(데이터 클린업 도구)</v>
-      </c>
-      <c r="I105" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J105" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="K105" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L105" s="23" t="str">
-        <f t="shared" si="16"/>
-        <v>Dashboard&lt;br&gt;(Dashboard)</v>
-      </c>
-      <c r="M105" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="N105" s="23"/>
-      <c r="O105" s="23"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I105" s="13"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="1" t="str">
+        <f t="shared" si="19"/>
+        <v/>
+      </c>
+      <c r="M105" s="14"/>
+      <c r="N105" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="O105" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="P105" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>Detailed Reports&lt;br&gt;(상세 보고서)</v>
+      </c>
+      <c r="Q105" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R105" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="S105" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-01-R-0014</v>
+      </c>
+      <c r="T105" s="1" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Q105" s="23"/>
-      <c r="R105" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="S105" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-01-R-0001</v>
-      </c>
-      <c r="T105" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-01-R-0001</v>
+        <v>UI-DMCI-01-R-0014</v>
       </c>
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>R</v>
+      </c>
+      <c r="B106" s="26"/>
+      <c r="C106" s="26"/>
+      <c r="D106" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E106" s="26"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I106" s="13"/>
+      <c r="J106" s="8"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>R</v>
-      </c>
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1" t="str">
+        <v/>
+      </c>
+      <c r="M106" s="14"/>
+      <c r="N106" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="O106" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="P106" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>Potential Errors Reports&lt;br&gt;(잠재적 오류에 대한 보고서)</v>
+      </c>
+      <c r="Q106" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="R106" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="S106" s="1" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E106" s="1"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="1"/>
-      <c r="H106" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I106" s="1"/>
-      <c r="J106" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L106" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Case Management&lt;br&gt;(Case Management)</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N106" s="8"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1" t="str">
+        <v>UI-DMCI-01-R-0015</v>
+      </c>
+      <c r="T106" s="1" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Q106" s="1"/>
-      <c r="R106" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="S106" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-01-R-0003</v>
-      </c>
-      <c r="T106" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-01-R-0003</v>
+        <v>UI-DMCI-01-R-0015</v>
       </c>
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>R</v>
+      </c>
+      <c r="B107" s="27"/>
+      <c r="C107" s="27"/>
+      <c r="D107" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E107" s="27"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="1"/>
+      <c r="H107" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I107" s="1"/>
+      <c r="J107" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K107" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L107" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>R</v>
-      </c>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="1" t="str">
+        <v>Detail&lt;br&gt;(Detail)</v>
+      </c>
+      <c r="M107" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N107" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="O107" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P107" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>1 Payments without Debit Number&lt;br&gt;(1 Payments without Debit Number)</v>
+      </c>
+      <c r="Q107" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R107" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S107" s="1" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E107" s="13"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I107" s="13"/>
-      <c r="J107" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K107" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L107" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Data Cleanup Reports&lt;br&gt;(Data Cleanup Reports)</v>
-      </c>
-      <c r="M107" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N107" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="O107" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="P107" s="1" t="str">
+        <v>UI-DMCI-01-R-1001</v>
+      </c>
+      <c r="T107" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Executive Reports&lt;br&gt;(관리자용 요약 보고서)</v>
-      </c>
-      <c r="Q107" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="R107" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="S107" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-01-R-0013</v>
-      </c>
-      <c r="T107" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-01-R-0013</v>
+        <v>UI-DMCI-01-R-1001</v>
       </c>
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
+      <c r="B108" s="26"/>
+      <c r="C108" s="26"/>
       <c r="D108" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E108" s="13"/>
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E108" s="26"/>
       <c r="F108" s="15"/>
       <c r="G108" s="13"/>
       <c r="H108" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I108" s="13"/>
       <c r="J108" s="8"/>
       <c r="K108" s="13"/>
       <c r="L108" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M108" s="14"/>
-      <c r="N108" s="8" t="s">
-        <v>133</v>
+      <c r="N108" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="O108" s="13" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="P108" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>2 Incorrect Posting&lt;br&gt;(2 Incorrect Posting)</v>
+      </c>
+      <c r="Q108" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="R108" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="S108" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-01-R-1002</v>
+      </c>
+      <c r="T108" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Detailed Reports&lt;br&gt;(상세 보고서)</v>
-      </c>
-      <c r="Q108" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="R108" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="S108" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-01-R-0014</v>
-      </c>
-      <c r="T108" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-01-R-0014</v>
+        <v>UI-DMCI-01-R-1002</v>
       </c>
     </row>
     <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
       <c r="D109" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E109" s="26"/>
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E109" s="13"/>
       <c r="F109" s="15"/>
       <c r="G109" s="13"/>
       <c r="H109" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="I109" s="13"/>
       <c r="J109" s="8"/>
       <c r="K109" s="13"/>
       <c r="L109" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="M109" s="14"/>
-      <c r="N109" s="8" t="s">
-        <v>134</v>
+      <c r="N109" s="10" t="s">
+        <v>137</v>
       </c>
       <c r="O109" s="13" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="P109" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>3 Duplicate Assessments&lt;br&gt;(3 Duplicate Assessments)</v>
+      </c>
+      <c r="Q109" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R109" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="S109" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>UI-DMCI-01-R-1003</v>
+      </c>
+      <c r="T109" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>Potential Errors Reports&lt;br&gt;(잠재적 오류에 대한 보고서)</v>
-      </c>
-      <c r="Q109" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="R109" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="S109" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-01-R-0015</v>
-      </c>
-      <c r="T109" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-01-R-0015</v>
+        <v>UI-DMCI-01-R-1003</v>
       </c>
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>R</v>
+      </c>
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="E110" s="13"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="I110" s="13"/>
+      <c r="J110" s="8"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="1" t="str">
         <f t="shared" si="19"/>
-        <v>R</v>
-      </c>
-      <c r="B110" s="27"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="1" t="str">
+        <v/>
+      </c>
+      <c r="M110" s="14"/>
+      <c r="N110" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="O110" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P110" s="1" t="str">
+        <f t="shared" si="24"/>
+        <v>4 Vacated Assessments&lt;br&gt;(4 Vacated Assessments)</v>
+      </c>
+      <c r="Q110" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="R110" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="S110" s="1" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E110" s="27"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="I110" s="1"/>
-      <c r="J110" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="K110" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L110" s="1" t="str">
-        <f t="shared" si="16"/>
-        <v>Detail&lt;br&gt;(Detail)</v>
-      </c>
-      <c r="M110" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N110" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="O110" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P110" s="1" t="str">
+        <v>UI-DMCI-01-R-1004</v>
+      </c>
+      <c r="T110" s="1" t="str">
         <f t="shared" si="21"/>
-        <v>1 Payments without Debit Number&lt;br&gt;(1 Payments without Debit Number)</v>
-      </c>
-      <c r="Q110" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="R110" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S110" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-01-R-1001</v>
-      </c>
-      <c r="T110" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-01-R-1001</v>
+        <v>UI-DMCI-01-R-1004</v>
       </c>
     </row>
     <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
-      <c r="B111" s="26"/>
-      <c r="C111" s="26"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
       <c r="D111" s="1" t="str">
-        <f t="shared" si="20"/>
-        <v/>
-      </c>
-      <c r="E111" s="26"/>
+        <f t="shared" ref="D111:D127" si="26">IF(E111&lt;&gt;"",E111&amp;"&lt;br&gt;("&amp;C111&amp;")","")</f>
+        <v/>
+      </c>
+      <c r="E111" s="13"/>
       <c r="F111" s="15"/>
       <c r="G111" s="13"/>
       <c r="H111" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="H111:H127" si="27">IF(I111&lt;&gt;"",I111&amp;"&lt;br&gt;("&amp;G111&amp;")","")</f>
         <v/>
       </c>
       <c r="I111" s="13"/>
       <c r="J111" s="8"/>
       <c r="K111" s="13"/>
       <c r="L111" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="L111:L127" si="28">IF(M111&lt;&gt;"",M111&amp;"&lt;br&gt;("&amp;K111&amp;")","")</f>
         <v/>
       </c>
       <c r="M111" s="14"/>
       <c r="N111" s="10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O111" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P111" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>2 Incorrect Posting&lt;br&gt;(2 Incorrect Posting)</v>
+        <f t="shared" si="24"/>
+        <v>6 Wrong Assessment&lt;br&gt;(6 Wrong Assessment)</v>
       </c>
       <c r="Q111" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R111" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="S111" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-01-R-1002</v>
-      </c>
-      <c r="T111" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-01-R-1002</v>
+        <v>161</v>
+      </c>
+      <c r="S111" s="1" t="str">
+        <f t="shared" ref="S111:S114" si="29">R111</f>
+        <v>UI-DMCI-01-R-1006</v>
+      </c>
+      <c r="T111" s="1" t="str">
+        <f t="shared" ref="T111:T113" si="30">R111</f>
+        <v>UI-DMCI-01-R-1006</v>
       </c>
     </row>
     <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
       <c r="D112" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E112" s="13"/>
       <c r="F112" s="15"/>
       <c r="G112" s="13"/>
       <c r="H112" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="I112" s="13"/>
       <c r="J112" s="8"/>
       <c r="K112" s="13"/>
       <c r="L112" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="M112" s="14"/>
       <c r="N112" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="O112" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P112" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>3 Duplicate Assessments&lt;br&gt;(3 Duplicate Assessments)</v>
+        <f t="shared" si="24"/>
+        <v>8 Lumpsum Payment&lt;br&gt;(8 Lumpsum Payment)</v>
       </c>
       <c r="Q112" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R112" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="S112" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-01-R-1003</v>
-      </c>
-      <c r="T112" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-01-R-1003</v>
+        <v>162</v>
+      </c>
+      <c r="S112" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>UI-DMCI-01-R-1008</v>
+      </c>
+      <c r="T112" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>UI-DMCI-01-R-1008</v>
       </c>
     </row>
     <row r="113" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>R</v>
       </c>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
       <c r="D113" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E113" s="13"/>
       <c r="F113" s="15"/>
       <c r="G113" s="13"/>
       <c r="H113" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="I113" s="13"/>
       <c r="J113" s="8"/>
       <c r="K113" s="13"/>
       <c r="L113" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="M113" s="14"/>
       <c r="N113" s="10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="O113" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P113" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>4 Vacated Assessments&lt;br&gt;(4 Vacated Assessments)</v>
+        <f t="shared" si="24"/>
+        <v>9 Reverse Cancelled Assessment&lt;br&gt;(9 Reverse Cancelled Assessment)</v>
       </c>
       <c r="Q113" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R113" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="S113" s="23" t="str">
-        <f t="shared" si="17"/>
-        <v>UI-DMCI-01-R-1004</v>
-      </c>
-      <c r="T113" s="23" t="str">
-        <f t="shared" si="18"/>
-        <v>UI-DMCI-01-R-1004</v>
-      </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>R</v>
-      </c>
-      <c r="B114" s="13"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="1" t="str">
-        <f t="shared" ref="D114:D130" si="23">IF(E114&lt;&gt;"",E114&amp;"&lt;br&gt;("&amp;C114&amp;")","")</f>
-        <v/>
-      </c>
-      <c r="E114" s="13"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="1" t="str">
-        <f t="shared" ref="H114:H130" si="24">IF(I114&lt;&gt;"",I114&amp;"&lt;br&gt;("&amp;G114&amp;")","")</f>
-        <v/>
-      </c>
-      <c r="I114" s="13"/>
-      <c r="J114" s="8"/>
-      <c r="K114" s="13"/>
-      <c r="L114" s="1" t="str">
-        <f t="shared" ref="L114:L130" si="25">IF(M114&lt;&gt;"",M114&amp;"&lt;br&gt;("&amp;K114&amp;")","")</f>
-        <v/>
-      </c>
-      <c r="M114" s="14"/>
-      <c r="N114" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="O114" s="13" t="s">
-        <v>36</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="S113" s="1" t="str">
+        <f t="shared" si="29"/>
+        <v>UI-DMCI-01-R-1009</v>
+      </c>
+      <c r="T113" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>UI-DMCI-01-R-1009</v>
+      </c>
+    </row>
+    <row r="114" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B114" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C114" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D114" s="23" t="str">
+        <f t="shared" si="26"/>
+        <v>Approver&lt;br&gt;(Approver)</v>
+      </c>
+      <c r="E114" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F114" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="G114" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="H114" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>Data Cleanup Tool&lt;br&gt;(데이터 클린업 도구)</v>
+      </c>
+      <c r="I114" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J114" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="K114" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L114" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>Dashboard&lt;br&gt;(Dashboard)</v>
+      </c>
+      <c r="M114" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N114" s="23"/>
+      <c r="O114" s="23"/>
       <c r="P114" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>6 Wrong Assessment&lt;br&gt;(6 Wrong Assessment)</v>
-      </c>
-      <c r="Q114" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="R114" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="S114" s="23" t="str">
-        <f t="shared" ref="S114:S117" si="26">R114</f>
-        <v>UI-DMCI-01-R-1006</v>
-      </c>
-      <c r="T114" s="23" t="str">
-        <f t="shared" ref="T114:T116" si="27">R114</f>
-        <v>UI-DMCI-01-R-1006</v>
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="Q114" s="23"/>
+      <c r="R114" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="S114" s="38" t="str">
+        <f t="shared" si="29"/>
+        <v>UI-DMCI-01-A-0001</v>
+      </c>
+      <c r="T114" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>UI-DMCI-01-A-0001</v>
       </c>
     </row>
     <row r="115" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>R</v>
-      </c>
-      <c r="B115" s="13"/>
-      <c r="C115" s="13"/>
+        <f t="shared" ref="A115:A119" si="31">IF(B115="", A114, IF(B115="FN-E-DMC","E","I"))</f>
+        <v>A</v>
+      </c>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
       <c r="D115" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="E115" s="13"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="13"/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="E115" s="1"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="1"/>
       <c r="H115" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="I115" s="1"/>
+      <c r="J115" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L115" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>Case Management&lt;br&gt;(Case Management)</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N115" s="8"/>
+      <c r="O115" s="1"/>
+      <c r="P115" s="1" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I115" s="13"/>
-      <c r="J115" s="8"/>
-      <c r="K115" s="13"/>
-      <c r="L115" s="1" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="M115" s="14"/>
-      <c r="N115" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="O115" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="P115" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>8 Lumpsum Payment&lt;br&gt;(8 Lumpsum Payment)</v>
-      </c>
-      <c r="Q115" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="R115" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="S115" s="23" t="str">
-        <f t="shared" si="26"/>
-        <v>UI-DMCI-01-R-1008</v>
-      </c>
-      <c r="T115" s="23" t="str">
-        <f t="shared" si="27"/>
-        <v>UI-DMCI-01-R-1008</v>
+      <c r="Q115" s="1"/>
+      <c r="R115" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="S115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>UI-DMCI-01-A-0003</v>
+      </c>
+      <c r="T115" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>UI-DMCI-01-A-0003</v>
       </c>
     </row>
     <row r="116" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="str">
-        <f t="shared" si="19"/>
-        <v>R</v>
+        <f t="shared" si="31"/>
+        <v>A</v>
       </c>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
       <c r="D116" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E116" s="13"/>
       <c r="F116" s="15"/>
       <c r="G116" s="13"/>
       <c r="H116" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="I116" s="13"/>
+      <c r="J116" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K116" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="L116" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>Case Reassignment&lt;br&gt;(케이스 재할당)</v>
+      </c>
+      <c r="M116" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N116" s="8"/>
+      <c r="O116" s="13"/>
+      <c r="P116" s="1" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I116" s="13"/>
-      <c r="J116" s="8"/>
-      <c r="K116" s="13"/>
-      <c r="L116" s="1" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="M116" s="14"/>
-      <c r="N116" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="O116" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="P116" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>9 Reverse Cancelled Assessment&lt;br&gt;(9 Reverse Cancelled Assessment)</v>
-      </c>
-      <c r="Q116" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="R116" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="S116" s="23" t="str">
+      <c r="Q116" s="14"/>
+      <c r="R116" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="S116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>UI-DMCI-01-A-0012</v>
+      </c>
+      <c r="T116" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>UI-DMCI-01-A-0012</v>
+      </c>
+    </row>
+    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A117" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>A</v>
+      </c>
+      <c r="B117" s="13"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="1" t="str">
         <f t="shared" si="26"/>
-        <v>UI-DMCI-01-R-1009</v>
-      </c>
-      <c r="T116" s="23" t="str">
+        <v/>
+      </c>
+      <c r="E117" s="13"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="13"/>
+      <c r="H117" s="1" t="str">
         <f t="shared" si="27"/>
-        <v>UI-DMCI-01-R-1009</v>
-      </c>
-    </row>
-    <row r="117" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B117" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C117" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D117" s="23" t="str">
-        <f t="shared" si="23"/>
-        <v>Approver&lt;br&gt;(Approver)</v>
-      </c>
-      <c r="E117" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="F117" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="G117" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="H117" s="23" t="str">
+        <v/>
+      </c>
+      <c r="I117" s="13"/>
+      <c r="J117" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L117" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>Data Cleanup Reports&lt;br&gt;(Data Cleanup Reports)</v>
+      </c>
+      <c r="M117" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N117" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="O117" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="P117" s="1" t="str">
         <f t="shared" si="24"/>
-        <v>Data Cleanup Tool&lt;br&gt;(데이터 클린업 도구)</v>
-      </c>
-      <c r="I117" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J117" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="K117" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L117" s="23" t="str">
-        <f t="shared" si="25"/>
-        <v>Dashboard&lt;br&gt;(Dashboard)</v>
-      </c>
-      <c r="M117" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="N117" s="23"/>
-      <c r="O117" s="23"/>
-      <c r="P117" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Q117" s="23"/>
-      <c r="R117" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="S117" s="34" t="str">
-        <f t="shared" si="26"/>
-        <v>UI-DMCI-01-A-0001</v>
-      </c>
-      <c r="T117" s="23" t="str">
+        <v>Executive Reports&lt;br&gt;(관리자용 요약 보고서)</v>
+      </c>
+      <c r="Q117" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="R117" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="S117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>UI-DMCI-01-A-0013</v>
+      </c>
+      <c r="T117" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-0001</v>
+        <v>UI-DMCI-01-A-0013</v>
       </c>
     </row>
     <row r="118" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="str">
-        <f t="shared" ref="A118:A122" si="28">IF(B118="", A117, IF(B118="FN-E-DMC","E","I"))</f>
+        <f t="shared" si="31"/>
         <v>A</v>
       </c>
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="13"/>
       <c r="D118" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="E118" s="1"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="1"/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="E118" s="13"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="13"/>
       <c r="H118" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="I118" s="13"/>
+      <c r="J118" s="8"/>
+      <c r="K118" s="13"/>
+      <c r="L118" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="M118" s="14"/>
+      <c r="N118" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="O118" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="P118" s="1" t="str">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="I118" s="1"/>
-      <c r="J118" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L118" s="1" t="str">
-        <f t="shared" si="25"/>
-        <v>Case Management&lt;br&gt;(Case Management)</v>
-      </c>
-      <c r="M118" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N118" s="8"/>
-      <c r="O118" s="1"/>
-      <c r="P118" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Q118" s="1"/>
+        <v>Detailed Reports&lt;br&gt;(상세 보고서)</v>
+      </c>
+      <c r="Q118" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="R118" s="12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="S118" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-0003</v>
+        <v>UI-DMCI-01-A-0014</v>
       </c>
       <c r="T118" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-0003</v>
+        <v>UI-DMCI-01-A-0014</v>
       </c>
     </row>
     <row r="119" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>A</v>
       </c>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
       <c r="D119" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E119" s="13"/>
       <c r="F119" s="15"/>
       <c r="G119" s="13"/>
       <c r="H119" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="I119" s="13"/>
+      <c r="J119" s="8"/>
+      <c r="K119" s="13"/>
+      <c r="L119" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="M119" s="14"/>
+      <c r="N119" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O119" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="P119" s="1" t="str">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="I119" s="13"/>
-      <c r="J119" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="K119" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="L119" s="1" t="str">
-        <f t="shared" si="25"/>
-        <v>Case Reassignment&lt;br&gt;(케이스 재할당)</v>
-      </c>
-      <c r="M119" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="N119" s="8"/>
-      <c r="O119" s="13"/>
-      <c r="P119" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Q119" s="14"/>
+        <v>Potential Errors Reports&lt;br&gt;(잠재적 오류에 대한 보고서)</v>
+      </c>
+      <c r="Q119" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="R119" s="12" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="S119" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-0012</v>
+        <v>UI-DMCI-01-A-0015</v>
       </c>
       <c r="T119" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-0012</v>
+        <v>UI-DMCI-01-A-0015</v>
       </c>
     </row>
     <row r="120" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="str">
+      <c r="A120" s="28" t="str">
+        <f t="shared" ref="A120:A126" si="32">IF(B120="", A119, IF(B120="FN-E-DMC","E","I"))</f>
+        <v>A</v>
+      </c>
+      <c r="B120" s="27"/>
+      <c r="C120" s="27"/>
+      <c r="D120" s="1" t="str">
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="E120" s="27"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="I120" s="1"/>
+      <c r="J120" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="K120" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L120" s="1" t="str">
         <f t="shared" si="28"/>
-        <v>A</v>
-      </c>
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="E120" s="13"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="1" t="str">
+        <v>Detail&lt;br&gt;(Detail)</v>
+      </c>
+      <c r="M120" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N120" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="O120" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="P120" s="1" t="str">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="I120" s="13"/>
-      <c r="J120" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="K120" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L120" s="1" t="str">
-        <f t="shared" si="25"/>
-        <v>Data Cleanup Reports&lt;br&gt;(Data Cleanup Reports)</v>
-      </c>
-      <c r="M120" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N120" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="O120" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="P120" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>Executive Reports&lt;br&gt;(관리자용 요약 보고서)</v>
-      </c>
-      <c r="Q120" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="R120" s="12" t="s">
-        <v>167</v>
+        <v>1 Payments without Debit Number&lt;br&gt;(1 Payments without Debit Number)</v>
+      </c>
+      <c r="Q120" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R120" s="11" t="s">
+        <v>170</v>
       </c>
       <c r="S120" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-0013</v>
+        <v>UI-DMCI-01-A-1001</v>
       </c>
       <c r="T120" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-0013</v>
+        <v>UI-DMCI-01-A-1001</v>
       </c>
     </row>
     <row r="121" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="str">
-        <f t="shared" si="28"/>
+      <c r="A121" s="28" t="str">
+        <f t="shared" si="32"/>
         <v>A</v>
       </c>
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
+      <c r="B121" s="26"/>
+      <c r="C121" s="26"/>
       <c r="D121" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="E121" s="13"/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="E121" s="26"/>
       <c r="F121" s="15"/>
       <c r="G121" s="13"/>
       <c r="H121" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="I121" s="13"/>
       <c r="J121" s="8"/>
       <c r="K121" s="13"/>
       <c r="L121" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="M121" s="14"/>
-      <c r="N121" s="8" t="s">
-        <v>143</v>
+      <c r="N121" s="10" t="s">
+        <v>146</v>
       </c>
       <c r="O121" s="13" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="P121" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>Detailed Reports&lt;br&gt;(상세 보고서)</v>
-      </c>
-      <c r="Q121" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="R121" s="12" t="s">
-        <v>168</v>
+        <f t="shared" si="24"/>
+        <v>2 Incorrect Posting&lt;br&gt;(2 Incorrect Posting)</v>
+      </c>
+      <c r="Q121" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="R121" s="11" t="s">
+        <v>171</v>
       </c>
       <c r="S121" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-0014</v>
+        <v>UI-DMCI-01-A-1002</v>
       </c>
       <c r="T121" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-0014</v>
+        <v>UI-DMCI-01-A-1002</v>
       </c>
     </row>
     <row r="122" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>A</v>
       </c>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
       <c r="D122" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E122" s="13"/>
       <c r="F122" s="15"/>
       <c r="G122" s="13"/>
       <c r="H122" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="I122" s="13"/>
       <c r="J122" s="8"/>
       <c r="K122" s="13"/>
       <c r="L122" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="M122" s="14"/>
-      <c r="N122" s="8" t="s">
-        <v>144</v>
+      <c r="N122" s="10" t="s">
+        <v>147</v>
       </c>
       <c r="O122" s="13" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="P122" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>Potential Errors Reports&lt;br&gt;(잠재적 오류에 대한 보고서)</v>
-      </c>
-      <c r="Q122" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="R122" s="12" t="s">
-        <v>169</v>
+        <f t="shared" si="24"/>
+        <v>3 Duplicate Assessments&lt;br&gt;(3 Duplicate Assessments)</v>
+      </c>
+      <c r="Q122" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R122" s="11" t="s">
+        <v>172</v>
       </c>
       <c r="S122" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-0015</v>
+        <v>UI-DMCI-01-A-1003</v>
       </c>
       <c r="T122" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-0015</v>
+        <v>UI-DMCI-01-A-1003</v>
       </c>
     </row>
     <row r="123" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A123" s="28" t="str">
-        <f t="shared" ref="A123:A129" si="29">IF(B123="", A122, IF(B123="FN-E-DMC","E","I"))</f>
+      <c r="A123" s="2" t="str">
+        <f t="shared" si="32"/>
         <v>A</v>
       </c>
-      <c r="B123" s="27"/>
-      <c r="C123" s="27"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
       <c r="D123" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="E123" s="27"/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="E123" s="13"/>
       <c r="F123" s="15"/>
-      <c r="G123" s="1"/>
+      <c r="G123" s="13"/>
       <c r="H123" s="1" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="I123" s="13"/>
+      <c r="J123" s="8"/>
+      <c r="K123" s="13"/>
+      <c r="L123" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="M123" s="14"/>
+      <c r="N123" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="O123" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P123" s="1" t="str">
         <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="I123" s="1"/>
-      <c r="J123" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="K123" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L123" s="1" t="str">
-        <f t="shared" si="25"/>
-        <v>Detail&lt;br&gt;(Detail)</v>
-      </c>
-      <c r="M123" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="N123" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="O123" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P123" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>1 Payments without Debit Number&lt;br&gt;(1 Payments without Debit Number)</v>
-      </c>
-      <c r="Q123" s="10" t="s">
-        <v>32</v>
+        <v>4 Vacated Assessments&lt;br&gt;(4 Vacated Assessments)</v>
+      </c>
+      <c r="Q123" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="R123" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="S123" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-1001</v>
+        <v>UI-DMCI-01-A-1004</v>
       </c>
       <c r="T123" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-1001</v>
+        <v>UI-DMCI-01-A-1004</v>
       </c>
     </row>
     <row r="124" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A124" s="28" t="str">
-        <f t="shared" si="29"/>
+      <c r="A124" s="2" t="str">
+        <f t="shared" si="32"/>
         <v>A</v>
       </c>
-      <c r="B124" s="26"/>
-      <c r="C124" s="26"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
       <c r="D124" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="E124" s="26"/>
+        <f t="shared" si="26"/>
+        <v/>
+      </c>
+      <c r="E124" s="13"/>
       <c r="F124" s="15"/>
       <c r="G124" s="13"/>
       <c r="H124" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="I124" s="13"/>
       <c r="J124" s="8"/>
       <c r="K124" s="13"/>
       <c r="L124" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="M124" s="14"/>
       <c r="N124" s="10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="O124" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P124" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>2 Incorrect Posting&lt;br&gt;(2 Incorrect Posting)</v>
+        <f t="shared" si="24"/>
+        <v>6 Wrong Assessment&lt;br&gt;(6 Wrong Assessment)</v>
       </c>
       <c r="Q124" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="R124" s="11" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="S124" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-1002</v>
+        <v>UI-DMCI-01-A-1006</v>
       </c>
       <c r="T124" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-1002</v>
+        <v>UI-DMCI-01-A-1006</v>
       </c>
     </row>
     <row r="125" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>A</v>
       </c>
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
       <c r="D125" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E125" s="13"/>
       <c r="F125" s="15"/>
       <c r="G125" s="13"/>
       <c r="H125" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="I125" s="13"/>
       <c r="J125" s="8"/>
       <c r="K125" s="13"/>
       <c r="L125" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="M125" s="14"/>
       <c r="N125" s="10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="O125" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="P125" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>3 Duplicate Assessments&lt;br&gt;(3 Duplicate Assessments)</v>
+        <f t="shared" si="24"/>
+        <v>8 Lumpsum Payment&lt;br&gt;(8 Lumpsum Payment)</v>
       </c>
       <c r="Q125" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="R125" s="11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="S125" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-1003</v>
+        <v>UI-DMCI-01-A-1008</v>
       </c>
       <c r="T125" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-1003</v>
+        <v>UI-DMCI-01-A-1008</v>
       </c>
     </row>
     <row r="126" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>A</v>
       </c>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
       <c r="D126" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="E126" s="13"/>
       <c r="F126" s="15"/>
       <c r="G126" s="13"/>
       <c r="H126" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="I126" s="13"/>
       <c r="J126" s="8"/>
       <c r="K126" s="13"/>
       <c r="L126" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="M126" s="14"/>
       <c r="N126" s="10" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="O126" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P126" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>4 Vacated Assessments&lt;br&gt;(4 Vacated Assessments)</v>
+        <f t="shared" si="24"/>
+        <v>9 Reverse Cancelled Assessment&lt;br&gt;(9 Reverse Cancelled Assessment)</v>
       </c>
       <c r="Q126" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R126" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="S126" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-1004</v>
+        <v>UI-DMCI-01-A-1009</v>
       </c>
       <c r="T126" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-1004</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>A</v>
-      </c>
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="E127" s="13"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="1" t="str">
+        <v>UI-DMCI-01-A-1009</v>
+      </c>
+    </row>
+    <row r="127" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B127" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C127" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" s="23" t="str">
+        <f t="shared" si="26"/>
+        <v>HQ Manager&lt;br&gt;(HQ Manager)</v>
+      </c>
+      <c r="E127" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F127" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="G127" s="34" t="s">
+        <v>400</v>
+      </c>
+      <c r="H127" s="23" t="str">
+        <f t="shared" si="27"/>
+        <v>Data Cleanup Tool&lt;br&gt;(데이터 클린업 도구)</v>
+      </c>
+      <c r="I127" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="J127" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="K127" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="L127" s="23" t="str">
+        <f t="shared" si="28"/>
+        <v>Dashboard&lt;br&gt;(Dashboard)</v>
+      </c>
+      <c r="M127" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="N127" s="23"/>
+      <c r="O127" s="23"/>
+      <c r="P127" s="1" t="str">
         <f t="shared" si="24"/>
         <v/>
       </c>
-      <c r="I127" s="13"/>
-      <c r="J127" s="8"/>
-      <c r="K127" s="13"/>
-      <c r="L127" s="1" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="M127" s="14"/>
-      <c r="N127" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="O127" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="P127" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>6 Wrong Assessment&lt;br&gt;(6 Wrong Assessment)</v>
-      </c>
-      <c r="Q127" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="R127" s="11" t="s">
-        <v>174</v>
+      <c r="Q127" s="23"/>
+      <c r="R127" s="24" t="s">
+        <v>177</v>
       </c>
       <c r="S127" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-1006</v>
+        <v>UI-DMCI-01-M-0001</v>
       </c>
       <c r="T127" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-1006</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>A</v>
-      </c>
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="E128" s="13"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="1" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="I128" s="13"/>
-      <c r="J128" s="8"/>
-      <c r="K128" s="13"/>
-      <c r="L128" s="1" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="M128" s="14"/>
-      <c r="N128" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="O128" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="P128" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>8 Lumpsum Payment&lt;br&gt;(8 Lumpsum Payment)</v>
-      </c>
-      <c r="Q128" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="R128" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="S128" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-1008</v>
-      </c>
-      <c r="T128" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-1008</v>
-      </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="str">
-        <f t="shared" si="29"/>
-        <v>A</v>
-      </c>
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="1" t="str">
-        <f t="shared" si="23"/>
-        <v/>
-      </c>
-      <c r="E129" s="13"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="1" t="str">
-        <f t="shared" si="24"/>
-        <v/>
-      </c>
-      <c r="I129" s="13"/>
-      <c r="J129" s="8"/>
-      <c r="K129" s="13"/>
-      <c r="L129" s="1" t="str">
-        <f t="shared" si="25"/>
-        <v/>
-      </c>
-      <c r="M129" s="14"/>
-      <c r="N129" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="O129" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="P129" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v>9 Reverse Cancelled Assessment&lt;br&gt;(9 Reverse Cancelled Assessment)</v>
-      </c>
-      <c r="Q129" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="R129" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="S129" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>UI-DMCI-01-A-1009</v>
-      </c>
-      <c r="T129" s="1" t="str">
-        <f t="shared" si="2"/>
-        <v>UI-DMCI-01-A-1009</v>
-      </c>
-    </row>
-    <row r="130" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B130" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C130" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D130" s="23" t="str">
-        <f t="shared" si="23"/>
-        <v>HQ Manager&lt;br&gt;(HQ Manager)</v>
-      </c>
-      <c r="E130" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F130" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="G130" s="34" t="s">
-        <v>403</v>
-      </c>
-      <c r="H130" s="23" t="str">
-        <f t="shared" si="24"/>
-        <v>Data Cleanup Tool&lt;br&gt;(데이터 클린업 도구)</v>
-      </c>
-      <c r="I130" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="J130" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="K130" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L130" s="23" t="str">
-        <f t="shared" si="25"/>
-        <v>Dashboard&lt;br&gt;(Dashboard)</v>
-      </c>
-      <c r="M130" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="N130" s="23"/>
-      <c r="O130" s="23"/>
-      <c r="P130" s="1" t="str">
-        <f t="shared" si="21"/>
-        <v/>
-      </c>
-      <c r="Q130" s="23"/>
-      <c r="R130" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="S130" s="23" t="str">
-        <f t="shared" si="1"/>
-        <v>UI-DMCI-01-M-0001</v>
-      </c>
-      <c r="T130" s="23" t="str">
         <f t="shared" si="2"/>
         <v>UI-DMCI-01-M-0001</v>
       </c>
@@ -8860,7 +8701,7 @@
   </sheetData>
   <autoFilter ref="A2:T3" xr:uid="{52A47179-ED83-49BA-AD32-52C02F9F0FB4}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A3:A130 S4:T4 S39:T130">
+  <conditionalFormatting sqref="S4:T4 S36:T127 A3:A127">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>$A$3="I"</formula>
     </cfRule>
@@ -8870,7 +8711,7 @@
       <formula>$A$3="I"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S20:T20 S25:T25">
+  <conditionalFormatting sqref="S17:T17 S22:T22">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A$3="I"</formula>
     </cfRule>

--- a/HTML-MAKER/00-UI-DMC-MENU.xlsx
+++ b/HTML-MAKER/00-UI-DMC-MENU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\25_IDRAS\IDRAS_DMC_2ND_HTML\HTML-MAKER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259771D4-207B-4D39-A7D1-F3832F91C1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3987E0BA-AACE-4BD2-8A55-07A20E0889DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="6030" windowWidth="45525" windowHeight="17055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8475" yWindow="315" windowWidth="26940" windowHeight="29940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴생성" sheetId="7" r:id="rId1"/>
@@ -23,10 +23,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="이경성" guid="{D765C56F-FBE0-4FD4-9F6F-82D6922C3E91}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="필터 2" guid="{B7CAD892-0907-4F3E-8039-75D8675A8601}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="최도규" guid="{7DFB07D2-88C5-4F27-ADB3-B6A05486C2AE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="필터 1" guid="{9754BDF2-22AF-4849-82EF-54AF53DE969B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="최도규" guid="{7DFB07D2-88C5-4F27-ADB3-B6A05486C2AE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 2" guid="{B7CAD892-0907-4F3E-8039-75D8675A8601}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="이경성" guid="{D765C56F-FBE0-4FD4-9F6F-82D6922C3E91}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="429">
   <si>
     <t>1 Level</t>
   </si>
@@ -1431,6 +1431,38 @@
   </si>
   <si>
     <t>UI-DMCI-03-O-1401</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규 평가</t>
+  </si>
+  <si>
+    <t>제출된 평가 목록</t>
+  </si>
+  <si>
+    <t>평가 목록</t>
+  </si>
+  <si>
+    <t>평가 상태 보기</t>
+  </si>
+  <si>
+    <t>신규 평가 요청</t>
+  </si>
+  <si>
+    <t>제출된 평가 요청 목록</t>
+  </si>
+  <si>
+    <t>평가 요청 목록</t>
+  </si>
+  <si>
+    <t>평가 응답 목록</t>
+  </si>
+  <si>
+    <t>Sales distribution account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매대금 분배 계정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1623,7 +1655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1734,6 +1766,7 @@
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2091,9 +2124,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O72" sqref="O72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2949,7 +2982,7 @@
       <c r="G17" s="34" t="s">
         <v>398</v>
       </c>
-      <c r="H17" s="1" t="str">
+      <c r="H17" s="23" t="str">
         <f t="shared" si="4"/>
         <v>Compliance Monitoring&lt;br&gt;(이행 모니터링)</v>
       </c>
@@ -2962,7 +2995,7 @@
       <c r="K17" s="34" t="s">
         <v>393</v>
       </c>
-      <c r="L17" s="1" t="str">
+      <c r="L17" s="23" t="str">
         <f t="shared" si="5"/>
         <v>Tax Clearance Certificates&lt;br&gt;(세금 납부 확인서)</v>
       </c>
@@ -2971,7 +3004,7 @@
       </c>
       <c r="N17" s="34"/>
       <c r="O17" s="34"/>
-      <c r="P17" s="1" t="str">
+      <c r="P17" s="23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -2979,11 +3012,11 @@
       <c r="R17" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="S17" s="38" t="str">
+      <c r="S17" s="34" t="str">
         <f t="shared" ref="S17" si="12">R17</f>
         <v>UI-DMCI-04-O-0001</v>
       </c>
-      <c r="T17" s="38" t="str">
+      <c r="T17" s="34" t="str">
         <f t="shared" ref="T17" si="13">R17</f>
         <v>UI-DMCI-04-O-0001</v>
       </c>
@@ -3197,7 +3230,7 @@
       <c r="G22" s="34" t="s">
         <v>399</v>
       </c>
-      <c r="H22" s="1" t="str">
+      <c r="H22" s="23" t="str">
         <f t="shared" si="4"/>
         <v>Sale of Charged Asset&lt;br&gt;(담보 자산 매각)</v>
       </c>
@@ -3210,7 +3243,7 @@
       <c r="K22" s="34" t="s">
         <v>263</v>
       </c>
-      <c r="L22" s="1" t="str">
+      <c r="L22" s="23" t="str">
         <f t="shared" si="5"/>
         <v>Asset Management&lt;br&gt;(자산관리)</v>
       </c>
@@ -3219,7 +3252,7 @@
       </c>
       <c r="N22" s="34"/>
       <c r="O22" s="34"/>
-      <c r="P22" s="1" t="str">
+      <c r="P22" s="23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -3227,11 +3260,11 @@
       <c r="R22" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="S22" s="38" t="str">
+      <c r="S22" s="34" t="str">
         <f t="shared" ref="S22" si="14">R22</f>
         <v>UI-DMCI-05-O-0001</v>
       </c>
-      <c r="T22" s="38" t="str">
+      <c r="T22" s="34" t="str">
         <f t="shared" ref="T22" si="15">R22</f>
         <v>UI-DMCI-05-O-0001</v>
       </c>
@@ -3271,11 +3304,11 @@
         <v>229</v>
       </c>
       <c r="O23" s="40" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="P23" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>New Valuation&lt;br&gt;(New Valuation)</v>
+        <v>New Valuation&lt;br&gt;(신규 평가)</v>
       </c>
       <c r="Q23" s="40" t="s">
         <v>216</v>
@@ -3319,11 +3352,11 @@
         <v>230</v>
       </c>
       <c r="O24" s="38" t="s">
-        <v>217</v>
+        <v>420</v>
       </c>
       <c r="P24" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>List of Submitted valuation&lt;br&gt;(List of Submitted valuation)</v>
+        <v>List of Submitted valuation&lt;br&gt;(제출된 평가 목록)</v>
       </c>
       <c r="Q24" s="38" t="s">
         <v>217</v>
@@ -3367,11 +3400,11 @@
         <v>231</v>
       </c>
       <c r="O25" s="38" t="s">
-        <v>218</v>
+        <v>421</v>
       </c>
       <c r="P25" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>List of valuation&lt;br&gt;(List of valuation)</v>
+        <v>List of valuation&lt;br&gt;(평가 목록)</v>
       </c>
       <c r="Q25" s="38" t="s">
         <v>218</v>
@@ -3415,11 +3448,11 @@
         <v>232</v>
       </c>
       <c r="O26" s="38" t="s">
-        <v>219</v>
+        <v>422</v>
       </c>
       <c r="P26" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
+        <v>View Status of valuation&lt;br&gt;(평가 상태 보기)</v>
       </c>
       <c r="Q26" s="38" t="s">
         <v>219</v>
@@ -3469,11 +3502,11 @@
         <v>225</v>
       </c>
       <c r="O27" s="40" t="s">
-        <v>220</v>
+        <v>423</v>
       </c>
       <c r="P27" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>New valuation request&lt;br&gt;(New valuation request)</v>
+        <v>New valuation request&lt;br&gt;(신규 평가 요청)</v>
       </c>
       <c r="Q27" s="40" t="s">
         <v>220</v>
@@ -3517,11 +3550,11 @@
         <v>226</v>
       </c>
       <c r="O28" s="38" t="s">
-        <v>221</v>
+        <v>424</v>
       </c>
       <c r="P28" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>List of submitted valuation requests&lt;br&gt;(List of submitted valuation requests)</v>
+        <v>List of submitted valuation requests&lt;br&gt;(제출된 평가 요청 목록)</v>
       </c>
       <c r="Q28" s="38" t="s">
         <v>221</v>
@@ -3565,11 +3598,11 @@
         <v>227</v>
       </c>
       <c r="O29" s="38" t="s">
-        <v>222</v>
+        <v>425</v>
       </c>
       <c r="P29" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>List of valuation requests&lt;br&gt;(List of valuation requests)</v>
+        <v>List of valuation requests&lt;br&gt;(평가 요청 목록)</v>
       </c>
       <c r="Q29" s="38" t="s">
         <v>222</v>
@@ -3613,11 +3646,11 @@
         <v>228</v>
       </c>
       <c r="O30" s="38" t="s">
-        <v>223</v>
+        <v>426</v>
       </c>
       <c r="P30" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>List of valuation response&lt;br&gt;(List of valuation response)</v>
+        <v>List of valuation response&lt;br&gt;(평가 응답 목록)</v>
       </c>
       <c r="Q30" s="38" t="s">
         <v>223</v>
@@ -3661,11 +3694,11 @@
         <v>233</v>
       </c>
       <c r="O31" s="38" t="s">
-        <v>219</v>
+        <v>422</v>
       </c>
       <c r="P31" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
+        <v>View Status of valuation&lt;br&gt;(평가 상태 보기)</v>
       </c>
       <c r="Q31" s="38" t="s">
         <v>219</v>
@@ -3844,39 +3877,39 @@
         <v/>
       </c>
       <c r="I35" s="38"/>
-      <c r="J35" s="40" t="s">
+      <c r="J35" s="42" t="s">
         <v>248</v>
       </c>
-      <c r="K35" s="44" t="s">
+      <c r="K35" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="L35" s="1" t="str">
+      <c r="L35" s="7" t="str">
         <f t="shared" si="5"/>
         <v>Post-auction processing ★2nd&lt;br&gt;(공매 후 처리)</v>
       </c>
-      <c r="M35" s="40" t="s">
+      <c r="M35" s="42" t="s">
         <v>283</v>
       </c>
-      <c r="N35" s="40" t="s">
+      <c r="N35" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="O35" s="40" t="s">
-        <v>257</v>
-      </c>
-      <c r="P35" s="1" t="str">
+      <c r="O35" s="42" t="s">
+        <v>428</v>
+      </c>
+      <c r="P35" s="7" t="str">
         <f t="shared" si="6"/>
-        <v>Distribution od proceeds account&lt;br&gt;(수익금 배분계좌)</v>
-      </c>
-      <c r="Q35" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="R35" s="41" t="s">
+        <v>Sales distribution account&lt;br&gt;(판매대금 분배 계정)</v>
+      </c>
+      <c r="Q35" s="42" t="s">
+        <v>427</v>
+      </c>
+      <c r="R35" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="S35" s="12" t="s">
+      <c r="S35" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="T35" s="12" t="s">
+      <c r="T35" s="32" t="s">
         <v>262</v>
       </c>
     </row>
@@ -3897,7 +3930,7 @@
       <c r="G36" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="H36" s="1" t="str">
+      <c r="H36" s="23" t="str">
         <f t="shared" si="4"/>
         <v>Block Management&lt;br&gt;(블록 관리)</v>
       </c>
@@ -3910,7 +3943,7 @@
       <c r="K36" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="1" t="str">
+      <c r="L36" s="23" t="str">
         <f t="shared" si="5"/>
         <v>Dashboard&lt;br&gt;(Dashboard)</v>
       </c>
@@ -3919,7 +3952,7 @@
       </c>
       <c r="N36" s="34"/>
       <c r="O36" s="34"/>
-      <c r="P36" s="1" t="str">
+      <c r="P36" s="23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -3927,11 +3960,11 @@
       <c r="R36" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="S36" s="38" t="str">
+      <c r="S36" s="34" t="str">
         <f t="shared" ref="S36:S58" si="16">R36</f>
         <v>UI-DMCI-02-O-0001</v>
       </c>
-      <c r="T36" s="38" t="str">
+      <c r="T36" s="34" t="str">
         <f t="shared" ref="T36:T58" si="17">R36</f>
         <v>UI-DMCI-02-O-0001</v>
       </c>
@@ -4465,7 +4498,7 @@
       <c r="G47" s="34" t="s">
         <v>400</v>
       </c>
-      <c r="H47" s="1" t="str">
+      <c r="H47" s="23" t="str">
         <f t="shared" si="4"/>
         <v>Data Cleanup Tool&lt;br&gt;(데이터 클린업 도구)</v>
       </c>
@@ -4478,7 +4511,7 @@
       <c r="K47" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="L47" s="1" t="str">
+      <c r="L47" s="23" t="str">
         <f t="shared" si="5"/>
         <v>Dashboard&lt;br&gt;(Dashboard)</v>
       </c>
@@ -4487,7 +4520,7 @@
       </c>
       <c r="N47" s="34"/>
       <c r="O47" s="34"/>
-      <c r="P47" s="1" t="str">
+      <c r="P47" s="23" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -4495,11 +4528,11 @@
       <c r="R47" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="S47" s="38" t="str">
+      <c r="S47" s="34" t="str">
         <f t="shared" si="16"/>
         <v>UI-DMCI-01-O-0001</v>
       </c>
-      <c r="T47" s="38" t="str">
+      <c r="T47" s="34" t="str">
         <f t="shared" si="17"/>
         <v>UI-DMCI-01-O-0001</v>
       </c>
@@ -5111,7 +5144,7 @@
       </c>
       <c r="N59" s="34"/>
       <c r="O59" s="34"/>
-      <c r="P59" s="1" t="str">
+      <c r="P59" s="23" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -5119,11 +5152,11 @@
       <c r="R59" s="35" t="s">
         <v>315</v>
       </c>
-      <c r="S59" s="38" t="str">
+      <c r="S59" s="34" t="str">
         <f t="shared" ref="S59:S110" si="20">R59</f>
         <v>UI-DMCI-03-R-0001</v>
       </c>
-      <c r="T59" s="38" t="str">
+      <c r="T59" s="34" t="str">
         <f t="shared" ref="T59:T110" si="21">R59</f>
         <v>UI-DMCI-03-R-0001</v>
       </c>
@@ -6094,11 +6127,11 @@
         <v>362</v>
       </c>
       <c r="O78" s="40" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="P78" s="1" t="str">
         <f t="shared" ref="P78:P127" si="24">IF(Q78&lt;&gt;"",Q78&amp;"&lt;br&gt;("&amp;O78&amp;")","")</f>
-        <v>New Valuation&lt;br&gt;(New Valuation)</v>
+        <v>New Valuation&lt;br&gt;(신규 평가)</v>
       </c>
       <c r="Q78" s="40" t="s">
         <v>216</v>
@@ -6145,11 +6178,11 @@
         <v>363</v>
       </c>
       <c r="O79" s="38" t="s">
-        <v>217</v>
+        <v>420</v>
       </c>
       <c r="P79" s="1" t="str">
         <f t="shared" si="24"/>
-        <v>List of Submitted valuation&lt;br&gt;(List of Submitted valuation)</v>
+        <v>List of Submitted valuation&lt;br&gt;(제출된 평가 목록)</v>
       </c>
       <c r="Q79" s="38" t="s">
         <v>217</v>
@@ -6196,11 +6229,11 @@
         <v>364</v>
       </c>
       <c r="O80" s="38" t="s">
-        <v>218</v>
+        <v>421</v>
       </c>
       <c r="P80" s="1" t="str">
         <f t="shared" si="24"/>
-        <v>List of valuation&lt;br&gt;(List of valuation)</v>
+        <v>List of valuation&lt;br&gt;(평가 목록)</v>
       </c>
       <c r="Q80" s="38" t="s">
         <v>218</v>
@@ -6247,11 +6280,11 @@
         <v>365</v>
       </c>
       <c r="O81" s="38" t="s">
-        <v>219</v>
+        <v>422</v>
       </c>
       <c r="P81" s="1" t="str">
         <f t="shared" si="24"/>
-        <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
+        <v>View Status of valuation&lt;br&gt;(평가 상태 보기)</v>
       </c>
       <c r="Q81" s="38" t="s">
         <v>219</v>
@@ -6304,11 +6337,11 @@
         <v>366</v>
       </c>
       <c r="O82" s="40" t="s">
-        <v>220</v>
+        <v>423</v>
       </c>
       <c r="P82" s="1" t="str">
         <f t="shared" si="24"/>
-        <v>New valuation request&lt;br&gt;(New valuation request)</v>
+        <v>New valuation request&lt;br&gt;(신규 평가 요청)</v>
       </c>
       <c r="Q82" s="40" t="s">
         <v>220</v>
@@ -6355,11 +6388,11 @@
         <v>367</v>
       </c>
       <c r="O83" s="38" t="s">
-        <v>221</v>
+        <v>424</v>
       </c>
       <c r="P83" s="1" t="str">
         <f t="shared" si="24"/>
-        <v>List of submitted valuation requests&lt;br&gt;(List of submitted valuation requests)</v>
+        <v>List of submitted valuation requests&lt;br&gt;(제출된 평가 요청 목록)</v>
       </c>
       <c r="Q83" s="38" t="s">
         <v>221</v>
@@ -6406,11 +6439,11 @@
         <v>368</v>
       </c>
       <c r="O84" s="38" t="s">
-        <v>222</v>
+        <v>425</v>
       </c>
       <c r="P84" s="1" t="str">
         <f t="shared" si="24"/>
-        <v>List of valuation requests&lt;br&gt;(List of valuation requests)</v>
+        <v>List of valuation requests&lt;br&gt;(평가 요청 목록)</v>
       </c>
       <c r="Q84" s="38" t="s">
         <v>222</v>
@@ -6457,11 +6490,11 @@
         <v>369</v>
       </c>
       <c r="O85" s="38" t="s">
-        <v>223</v>
+        <v>426</v>
       </c>
       <c r="P85" s="1" t="str">
         <f t="shared" si="24"/>
-        <v>List of valuation response&lt;br&gt;(List of valuation response)</v>
+        <v>List of valuation response&lt;br&gt;(평가 응답 목록)</v>
       </c>
       <c r="Q85" s="38" t="s">
         <v>223</v>
@@ -6508,11 +6541,11 @@
         <v>370</v>
       </c>
       <c r="O86" s="38" t="s">
-        <v>219</v>
+        <v>422</v>
       </c>
       <c r="P86" s="1" t="str">
         <f t="shared" si="24"/>
-        <v>View Status of valuation&lt;br&gt;(View Status of valuation)</v>
+        <v>View Status of valuation&lt;br&gt;(평가 상태 보기)</v>
       </c>
       <c r="Q86" s="38" t="s">
         <v>219</v>
@@ -8701,7 +8734,7 @@
   </sheetData>
   <autoFilter ref="A2:T3" xr:uid="{52A47179-ED83-49BA-AD32-52C02F9F0FB4}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="S4:T4 S36:T127 A3:A127">
+  <conditionalFormatting sqref="A3:A127 S4:T4 S36:T127">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>$A$3="I"</formula>
     </cfRule>

--- a/HTML-MAKER/00-UI-DMC-MENU.xlsx
+++ b/HTML-MAKER/00-UI-DMC-MENU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\25_IDRAS\IDRAS_DMC_2ND_HTML\HTML-MAKER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E67A64C-95F6-4935-9D70-4DC24A601F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FFCC1B-E168-4F49-B6F6-D4DB5B8EF86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6210" yWindow="2070" windowWidth="49785" windowHeight="21420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19515" yWindow="5220" windowWidth="14655" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴생성" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="483">
   <si>
     <t>1 Level</t>
   </si>
@@ -1443,14 +1443,6 @@
   </si>
   <si>
     <t>판매대금 분배 계정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taxpayer categorization treatment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>납세자 분류 처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1652,6 +1644,18 @@
   </si>
   <si>
     <t>UI-DMCI-05-O-0801</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제3자 책임 (2차) ★2nd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>납세자 분류 처리 (2차) ★2nd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taxpayer categorization treatment ★2nd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1851,7 +1855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1969,18 +1973,7 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2132,8 +2125,8 @@
       <definedName name="MakeMenuJson"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2340,9 +2333,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P41" sqref="P41:P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2359,8 +2352,8 @@
     <col min="10" max="10" width="30.85546875" style="20" customWidth="1"/>
     <col min="11" max="11" width="27.7109375" style="9" customWidth="1"/>
     <col min="12" max="12" width="18.42578125" style="9" customWidth="1"/>
-    <col min="13" max="13" width="33.140625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="31.7109375" style="20" customWidth="1"/>
+    <col min="13" max="13" width="28.28515625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="19.7109375" style="20" customWidth="1"/>
     <col min="15" max="17" width="25.5703125" style="9" customWidth="1"/>
     <col min="18" max="20" width="18.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="3.42578125" style="9" customWidth="1"/>
@@ -2917,11 +2910,11 @@
         <v>404</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>202</v>
+        <v>480</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>Third Part Liability ★2nd&lt;br&gt;(제3자 책임 (2nd))</v>
+        <v>Third Part Liability ★2nd&lt;br&gt;(제3자 책임 (2차) ★2nd)</v>
       </c>
       <c r="M11" s="7" t="s">
         <v>266</v>
@@ -3206,7 +3199,7 @@
         <v>203</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K17" s="34" t="s">
         <v>388</v>
@@ -3256,7 +3249,7 @@
       </c>
       <c r="I18" s="38"/>
       <c r="J18" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="K18" s="38" t="s">
         <v>389</v>
@@ -3304,7 +3297,7 @@
       </c>
       <c r="I19" s="38"/>
       <c r="J19" s="8" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="K19" s="38" t="s">
         <v>390</v>
@@ -3352,7 +3345,7 @@
       </c>
       <c r="I20" s="38"/>
       <c r="J20" s="8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K20" s="38" t="s">
         <v>391</v>
@@ -3400,7 +3393,7 @@
       </c>
       <c r="I21" s="38"/>
       <c r="J21" s="8" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="K21" s="38" t="s">
         <v>392</v>
@@ -3442,33 +3435,33 @@
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
       <c r="J22" s="40" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="K22" s="40" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="L22" s="40" t="str">
         <f t="shared" ref="L22" si="14">IF(M22&lt;&gt;"",M22&amp;"&lt;br&gt;("&amp;K22&amp;")","")</f>
-        <v>Taxpayer categorization treatment&lt;br&gt;(납세자 분류 처리)</v>
+        <v>Taxpayer categorization treatment ★2nd&lt;br&gt;(납세자 분류 처리 (2차) ★2nd)</v>
       </c>
       <c r="M22" s="40" t="s">
-        <v>424</v>
+        <v>482</v>
       </c>
       <c r="N22" s="40" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="O22" s="40" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="P22" s="40" t="str">
         <f>IF(Q22&lt;&gt;"",Q22&amp;"&lt;br&gt;("&amp;O22&amp;")","")</f>
         <v>Officer Assignment&lt;br&gt;(임원 배정)</v>
       </c>
       <c r="Q22" s="40" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="R22" s="50" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="S22" s="40" t="str">
         <f t="shared" ref="S22" si="15">R22</f>
@@ -3496,20 +3489,20 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="P23" s="1" t="str">
         <f t="shared" ref="P23:P26" si="17">IF(Q23&lt;&gt;"",Q23&amp;"&lt;br&gt;("&amp;O23&amp;")","")</f>
         <v>Declaration Verification&lt;br&gt;(선언 검증)</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="R23" s="12" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="S23" s="1" t="str">
         <f t="shared" ref="S23" si="18">R23</f>
@@ -3537,20 +3530,20 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="P24" s="1" t="str">
         <f t="shared" si="17"/>
         <v>Targeted Declaration Search&lt;br&gt;(대상 선언 검색)</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="R24" s="12" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="S24" s="1" t="str">
         <f t="shared" ref="S24:S25" si="20">R24</f>
@@ -3578,20 +3571,20 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="P25" s="1" t="str">
         <f t="shared" si="17"/>
         <v>Monthly Target Declaration Summary by Customs Office&lt;br&gt;(세관 월별 목표 신고 요약)</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="R25" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="S25" s="1" t="str">
         <f t="shared" si="20"/>
@@ -3619,20 +3612,20 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="P26" s="1" t="str">
         <f t="shared" si="17"/>
         <v>Weekly Target Declaration Summary&lt;br&gt;(주간 목표 선언 요약)</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="R26" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="S26" s="1" t="str">
         <f t="shared" ref="S26" si="22">R26</f>
@@ -3691,11 +3684,11 @@
         <v>212</v>
       </c>
       <c r="S27" s="1" t="str">
-        <f t="shared" ref="S27:S46" si="24">R27</f>
+        <f t="shared" ref="S27:S41" si="24">R27</f>
         <v>UI-DMCI-05-O-0001</v>
       </c>
       <c r="T27" s="1" t="str">
-        <f t="shared" ref="T27:T46" si="25">R27</f>
+        <f t="shared" ref="T27:T41" si="25">R27</f>
         <v>UI-DMCI-05-O-0001</v>
       </c>
     </row>
@@ -4313,51 +4306,51 @@
         <v>UI-DMCI-05-O-0403</v>
       </c>
     </row>
-    <row r="40" spans="1:20" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51" t="str">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E40" s="51"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="51" t="str">
+      <c r="E40" s="1"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="1" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52" t="s">
+      <c r="I40" s="38"/>
+      <c r="J40" s="38" t="s">
         <v>248</v>
       </c>
-      <c r="K40" s="53" t="s">
+      <c r="K40" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="L40" s="51" t="str">
+      <c r="L40" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Post-auction processing ★2nd&lt;br&gt;(공매 후 처리)</v>
       </c>
-      <c r="M40" s="52" t="s">
+      <c r="M40" s="38" t="s">
         <v>278</v>
       </c>
-      <c r="N40" s="52" t="s">
+      <c r="N40" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="O40" s="52" t="s">
+      <c r="O40" s="38" t="s">
         <v>423</v>
       </c>
-      <c r="P40" s="51" t="str">
+      <c r="P40" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Sales distribution account&lt;br&gt;(판매대금 분배 계정)</v>
       </c>
-      <c r="Q40" s="52" t="s">
+      <c r="Q40" s="38" t="s">
         <v>422</v>
       </c>
-      <c r="R40" s="54" t="s">
+      <c r="R40" s="12" t="s">
         <v>262</v>
       </c>
       <c r="S40" s="1" t="str">
@@ -4382,33 +4375,33 @@
       <c r="H41" s="1"/>
       <c r="I41" s="38"/>
       <c r="J41" s="42" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="K41" s="42" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L41" s="1" t="str">
         <f t="shared" si="5"/>
         <v>HQ level / drd head office summary reports&lt;br&gt;(본사 수준 / DRD 본부 요약 보고서)</v>
       </c>
       <c r="M41" s="42" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="N41" s="45" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O41" s="42" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="P41" s="7" t="str">
         <f t="shared" si="6"/>
         <v>Report of Notice Issued&lt;br&gt;(발행된 통지서 보고서)</v>
       </c>
       <c r="Q41" s="42" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="R41" s="32" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="S41" s="7" t="str">
         <f t="shared" si="24"/>
@@ -4436,20 +4429,20 @@
       <c r="L42" s="1"/>
       <c r="M42" s="42"/>
       <c r="N42" s="45" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="O42" s="42" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="P42" s="7" t="str">
         <f t="shared" si="6"/>
         <v>Aging analysis (Auction Days)&lt;br&gt;(노후 분석(경매일 기준))</v>
       </c>
       <c r="Q42" s="42" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="R42" s="32" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="S42" s="7" t="str">
         <f t="shared" ref="S42:S46" si="26">R42</f>
@@ -4473,33 +4466,33 @@
       <c r="H43" s="1"/>
       <c r="I43" s="38"/>
       <c r="J43" s="42" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="K43" s="42" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="L43" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Regionalwise detailed reports&lt;br&gt;(지역별 상세 보고서)</v>
       </c>
       <c r="M43" s="42" t="s">
-        <v>457</v>
-      </c>
-      <c r="N43" s="56" t="s">
-        <v>474</v>
+        <v>455</v>
+      </c>
+      <c r="N43" s="51" t="s">
+        <v>472</v>
       </c>
       <c r="O43" s="42" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P43" s="7" t="str">
         <f t="shared" si="6"/>
         <v>Report of Notice Issued&lt;br&gt;(발행된 통지서 보고서)</v>
       </c>
       <c r="Q43" s="42" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="R43" s="32" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="S43" s="7" t="str">
         <f t="shared" si="26"/>
@@ -4526,21 +4519,21 @@
       <c r="K44" s="42"/>
       <c r="L44" s="1"/>
       <c r="M44" s="42"/>
-      <c r="N44" s="56" t="s">
-        <v>475</v>
+      <c r="N44" s="51" t="s">
+        <v>473</v>
       </c>
       <c r="O44" s="42" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="P44" s="7" t="str">
         <f t="shared" si="6"/>
         <v>Summary by Asset Category&lt;br&gt;(자산 분류별 요약)</v>
       </c>
       <c r="Q44" s="42" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="R44" s="32" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="S44" s="7" t="str">
         <f t="shared" si="26"/>
@@ -4567,21 +4560,21 @@
       <c r="K45" s="42"/>
       <c r="L45" s="1"/>
       <c r="M45" s="42"/>
-      <c r="N45" s="56" t="s">
-        <v>476</v>
+      <c r="N45" s="51" t="s">
+        <v>474</v>
       </c>
       <c r="O45" s="42" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="P45" s="7" t="str">
         <f t="shared" si="6"/>
         <v>Aging analysis (Auction Days)&lt;br&gt;(노후 분석(경매일 기준))</v>
       </c>
       <c r="Q45" s="42" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="R45" s="32" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="S45" s="7" t="str">
         <f t="shared" si="26"/>
@@ -4605,33 +4598,33 @@
       <c r="H46" s="1"/>
       <c r="I46" s="38"/>
       <c r="J46" s="42" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K46" s="42" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="L46" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Detailed report&lt;br&gt;(상세 보고서)</v>
       </c>
       <c r="M46" s="42" t="s">
-        <v>458</v>
-      </c>
-      <c r="N46" s="56" t="s">
-        <v>477</v>
+        <v>456</v>
+      </c>
+      <c r="N46" s="51" t="s">
+        <v>475</v>
       </c>
       <c r="O46" s="42" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="P46" s="7" t="str">
         <f t="shared" si="6"/>
         <v>Detailed Report of Intention to Sell Charged Assets&lt;br&gt;(담보자산 매각의향 상세 보고서)</v>
       </c>
       <c r="Q46" s="42" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="R46" s="32" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="S46" s="7" t="str">
         <f t="shared" si="26"/>
@@ -9463,7 +9456,7 @@
   </sheetData>
   <autoFilter ref="A2:T3" xr:uid="{52A47179-ED83-49BA-AD32-52C02F9F0FB4}"/>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="S4:T4 S22:T138 A3:A138">
+  <conditionalFormatting sqref="A3:A138 S4:T4 S22:T138">
     <cfRule type="expression" dxfId="2" priority="7">
       <formula>$A$3="I"</formula>
     </cfRule>

--- a/HTML-MAKER/00-UI-DMC-MENU.xlsx
+++ b/HTML-MAKER/00-UI-DMC-MENU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\25_IDRAS\IDRAS_DMC_2ND_HTML\HTML-MAKER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FFCC1B-E168-4F49-B6F6-D4DB5B8EF86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EA18C5-18A2-4A80-92CD-11FB9D0BFC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19515" yWindow="5220" windowWidth="14655" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17655" yWindow="3315" windowWidth="14655" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴생성" sheetId="7" r:id="rId1"/>
@@ -2125,8 +2125,8 @@
       <definedName name="MakeMenuJson"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2335,7 +2335,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P41" sqref="P41:P46"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>

--- a/HTML-MAKER/00-UI-DMC-MENU.xlsx
+++ b/HTML-MAKER/00-UI-DMC-MENU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\25_IDRAS\IDRAS_DMC_2ND_HTML\HTML-MAKER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EA18C5-18A2-4A80-92CD-11FB9D0BFC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EC9062-FBF2-402E-AAFA-B88A75CCB6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17655" yWindow="3315" windowWidth="14655" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7110" yWindow="6105" windowWidth="14655" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴생성" sheetId="7" r:id="rId1"/>
@@ -23,10 +23,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="필터 1" guid="{9754BDF2-22AF-4849-82EF-54AF53DE969B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="최도규" guid="{7DFB07D2-88C5-4F27-ADB3-B6A05486C2AE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="필터 2" guid="{B7CAD892-0907-4F3E-8039-75D8675A8601}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="이경성" guid="{D765C56F-FBE0-4FD4-9F6F-82D6922C3E91}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 2" guid="{B7CAD892-0907-4F3E-8039-75D8675A8601}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="최도규" guid="{7DFB07D2-88C5-4F27-ADB3-B6A05486C2AE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 1" guid="{9754BDF2-22AF-4849-82EF-54AF53DE969B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2125,8 +2125,8 @@
       <definedName name="MakeMenuJson"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/HTML-MAKER/00-UI-DMC-MENU.xlsx
+++ b/HTML-MAKER/00-UI-DMC-MENU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\25_IDRAS\IDRAS_DMC_2ND_HTML\HTML-MAKER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97EC9062-FBF2-402E-AAFA-B88A75CCB6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDC05E9-5F12-4ACD-9346-1BA96402B7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7110" yWindow="6105" windowWidth="14655" windowHeight="10935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1785" yWindow="2340" windowWidth="21690" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴생성" sheetId="7" r:id="rId1"/>

--- a/HTML-MAKER/00-UI-DMC-MENU.xlsx
+++ b/HTML-MAKER/00-UI-DMC-MENU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\25_IDRAS\IDRAS_DMC_2ND_HTML\HTML-MAKER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDC05E9-5F12-4ACD-9346-1BA96402B7C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3561EC0E-F060-43D3-90F2-AA29304B33B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="2340" windowWidth="21690" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35775" yWindow="1530" windowWidth="21690" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴생성" sheetId="7" r:id="rId1"/>
@@ -23,10 +23,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="이경성" guid="{D765C56F-FBE0-4FD4-9F6F-82D6922C3E91}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="필터 2" guid="{B7CAD892-0907-4F3E-8039-75D8675A8601}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="최도규" guid="{7DFB07D2-88C5-4F27-ADB3-B6A05486C2AE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="필터 1" guid="{9754BDF2-22AF-4849-82EF-54AF53DE969B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="최도규" guid="{7DFB07D2-88C5-4F27-ADB3-B6A05486C2AE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 2" guid="{B7CAD892-0907-4F3E-8039-75D8675A8601}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="이경성" guid="{D765C56F-FBE0-4FD4-9F6F-82D6922C3E91}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2125,8 +2125,8 @@
       <definedName name="MakeMenuJson"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/HTML-MAKER/00-UI-DMC-MENU.xlsx
+++ b/HTML-MAKER/00-UI-DMC-MENU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\25_IDRAS\IDRAS_DMC_2ND_HTML\HTML-MAKER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3561EC0E-F060-43D3-90F2-AA29304B33B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F74F94-AF06-4D73-AC80-9BC741BCBBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35775" yWindow="1530" windowWidth="21690" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35910" yWindow="1665" windowWidth="21690" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴생성" sheetId="7" r:id="rId1"/>
@@ -23,10 +23,10 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="필터 1" guid="{9754BDF2-22AF-4849-82EF-54AF53DE969B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="최도규" guid="{7DFB07D2-88C5-4F27-ADB3-B6A05486C2AE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
+    <customWorkbookView name="필터 2" guid="{B7CAD892-0907-4F3E-8039-75D8675A8601}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
     <customWorkbookView name="이경성" guid="{D765C56F-FBE0-4FD4-9F6F-82D6922C3E91}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 2" guid="{B7CAD892-0907-4F3E-8039-75D8675A8601}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="최도규" guid="{7DFB07D2-88C5-4F27-ADB3-B6A05486C2AE}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
-    <customWorkbookView name="필터 1" guid="{9754BDF2-22AF-4849-82EF-54AF53DE969B}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">

--- a/HTML-MAKER/00-UI-DMC-MENU.xlsx
+++ b/HTML-MAKER/00-UI-DMC-MENU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\25_IDRAS\IDRAS_DMC_2ND_HTML\HTML-MAKER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F74F94-AF06-4D73-AC80-9BC741BCBBA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CEA8FC-914C-4B43-B6E2-4FB7C88EA3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35910" yWindow="1665" windowWidth="21690" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4845" yWindow="12495" windowWidth="43605" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="메뉴생성" sheetId="7" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="484">
   <si>
     <t>1 Level</t>
   </si>
@@ -1399,10 +1399,6 @@
   </si>
   <si>
     <t>징수 불가 세금 상각 (2차) ★2nd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상각 세금 취소 (2차) ★2nd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1656,6 +1652,14 @@
   </si>
   <si>
     <t>Taxpayer categorization treatment ★2nd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상각 세액의 상각 취소 (2차) ★2nd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write back of written of Tax liability ★2nd</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2334,8 +2338,8 @@
   <dimension ref="A1:T138"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2910,7 +2914,7 @@
         <v>404</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L11" s="1" t="str">
         <f t="shared" si="5"/>
@@ -3020,7 +3024,7 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="S13" s="12" t="str">
         <f>R13</f>
@@ -3053,21 +3057,21 @@
         <v>407</v>
       </c>
       <c r="K14" s="46" t="s">
-        <v>411</v>
+        <v>482</v>
       </c>
       <c r="L14" s="46" t="str">
         <f t="shared" si="9"/>
-        <v>Write back of tax ★2nd&lt;br&gt;(상각 세금 취소 (2차) ★2nd)</v>
+        <v>Write back of written of Tax liability ★2nd&lt;br&gt;(상각 세액의 상각 취소 (2차) ★2nd)</v>
       </c>
       <c r="M14" s="46" t="s">
-        <v>268</v>
+        <v>483</v>
       </c>
       <c r="N14" s="46"/>
       <c r="O14" s="46"/>
       <c r="P14" s="46"/>
       <c r="Q14" s="46"/>
       <c r="R14" s="47" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="S14" s="12" t="str">
         <f t="shared" ref="S14" si="10">R14</f>
@@ -3199,7 +3203,7 @@
         <v>203</v>
       </c>
       <c r="J17" s="34" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K17" s="34" t="s">
         <v>388</v>
@@ -3249,7 +3253,7 @@
       </c>
       <c r="I18" s="38"/>
       <c r="J18" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K18" s="38" t="s">
         <v>389</v>
@@ -3297,7 +3301,7 @@
       </c>
       <c r="I19" s="38"/>
       <c r="J19" s="8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K19" s="38" t="s">
         <v>390</v>
@@ -3345,7 +3349,7 @@
       </c>
       <c r="I20" s="38"/>
       <c r="J20" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K20" s="38" t="s">
         <v>391</v>
@@ -3393,7 +3397,7 @@
       </c>
       <c r="I21" s="38"/>
       <c r="J21" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K21" s="38" t="s">
         <v>392</v>
@@ -3435,33 +3439,33 @@
       <c r="H22" s="38"/>
       <c r="I22" s="38"/>
       <c r="J22" s="40" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K22" s="40" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L22" s="40" t="str">
         <f t="shared" ref="L22" si="14">IF(M22&lt;&gt;"",M22&amp;"&lt;br&gt;("&amp;K22&amp;")","")</f>
         <v>Taxpayer categorization treatment ★2nd&lt;br&gt;(납세자 분류 처리 (2차) ★2nd)</v>
       </c>
       <c r="M22" s="40" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N22" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="O22" s="40" t="s">
         <v>430</v>
-      </c>
-      <c r="O22" s="40" t="s">
-        <v>431</v>
       </c>
       <c r="P22" s="40" t="str">
         <f>IF(Q22&lt;&gt;"",Q22&amp;"&lt;br&gt;("&amp;O22&amp;")","")</f>
         <v>Officer Assignment&lt;br&gt;(임원 배정)</v>
       </c>
       <c r="Q22" s="40" t="s">
+        <v>443</v>
+      </c>
+      <c r="R22" s="50" t="s">
         <v>444</v>
-      </c>
-      <c r="R22" s="50" t="s">
-        <v>445</v>
       </c>
       <c r="S22" s="40" t="str">
         <f t="shared" ref="S22" si="15">R22</f>
@@ -3489,20 +3493,20 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="P23" s="1" t="str">
         <f t="shared" ref="P23:P26" si="17">IF(Q23&lt;&gt;"",Q23&amp;"&lt;br&gt;("&amp;O23&amp;")","")</f>
         <v>Declaration Verification&lt;br&gt;(선언 검증)</v>
       </c>
       <c r="Q23" s="9" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="R23" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S23" s="1" t="str">
         <f t="shared" ref="S23" si="18">R23</f>
@@ -3530,20 +3534,20 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P24" s="1" t="str">
         <f t="shared" si="17"/>
         <v>Targeted Declaration Search&lt;br&gt;(대상 선언 검색)</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="R24" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="S24" s="1" t="str">
         <f t="shared" ref="S24:S25" si="20">R24</f>
@@ -3571,20 +3575,20 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="P25" s="1" t="str">
         <f t="shared" si="17"/>
         <v>Monthly Target Declaration Summary by Customs Office&lt;br&gt;(세관 월별 목표 신고 요약)</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="R25" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="S25" s="1" t="str">
         <f t="shared" si="20"/>
@@ -3612,20 +3616,20 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P26" s="1" t="str">
         <f t="shared" si="17"/>
         <v>Weekly Target Declaration Summary&lt;br&gt;(주간 목표 선언 요약)</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="R26" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="S26" s="1" t="str">
         <f t="shared" ref="S26" si="22">R26</f>
@@ -3727,7 +3731,7 @@
         <v>229</v>
       </c>
       <c r="O28" s="40" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P28" s="1" t="str">
         <f t="shared" si="6"/>
@@ -3777,7 +3781,7 @@
         <v>230</v>
       </c>
       <c r="O29" s="38" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P29" s="1" t="str">
         <f t="shared" si="6"/>
@@ -3827,7 +3831,7 @@
         <v>231</v>
       </c>
       <c r="O30" s="38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P30" s="1" t="str">
         <f t="shared" si="6"/>
@@ -3877,7 +3881,7 @@
         <v>232</v>
       </c>
       <c r="O31" s="38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P31" s="1" t="str">
         <f t="shared" si="6"/>
@@ -3933,7 +3937,7 @@
         <v>225</v>
       </c>
       <c r="O32" s="40" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P32" s="1" t="str">
         <f t="shared" si="6"/>
@@ -3983,7 +3987,7 @@
         <v>226</v>
       </c>
       <c r="O33" s="38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P33" s="1" t="str">
         <f t="shared" si="6"/>
@@ -4033,7 +4037,7 @@
         <v>227</v>
       </c>
       <c r="O34" s="38" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P34" s="1" t="str">
         <f t="shared" si="6"/>
@@ -4083,7 +4087,7 @@
         <v>228</v>
       </c>
       <c r="O35" s="38" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P35" s="1" t="str">
         <f t="shared" si="6"/>
@@ -4133,7 +4137,7 @@
         <v>233</v>
       </c>
       <c r="O36" s="38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P36" s="1" t="str">
         <f t="shared" si="6"/>
@@ -4341,14 +4345,14 @@
         <v>258</v>
       </c>
       <c r="O40" s="38" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="P40" s="1" t="str">
         <f t="shared" si="6"/>
         <v>Sales distribution account&lt;br&gt;(판매대금 분배 계정)</v>
       </c>
       <c r="Q40" s="38" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="R40" s="12" t="s">
         <v>262</v>
@@ -4375,33 +4379,33 @@
       <c r="H41" s="1"/>
       <c r="I41" s="38"/>
       <c r="J41" s="42" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K41" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="L41" s="1" t="str">
         <f t="shared" si="5"/>
         <v>HQ level / drd head office summary reports&lt;br&gt;(본사 수준 / DRD 본부 요약 보고서)</v>
       </c>
       <c r="M41" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N41" s="45" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="O41" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P41" s="7" t="str">
         <f t="shared" si="6"/>
         <v>Report of Notice Issued&lt;br&gt;(발행된 통지서 보고서)</v>
       </c>
       <c r="Q41" s="42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="R41" s="32" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="S41" s="7" t="str">
         <f t="shared" si="24"/>
@@ -4429,20 +4433,20 @@
       <c r="L42" s="1"/>
       <c r="M42" s="42"/>
       <c r="N42" s="45" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="O42" s="42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P42" s="7" t="str">
         <f t="shared" si="6"/>
         <v>Aging analysis (Auction Days)&lt;br&gt;(노후 분석(경매일 기준))</v>
       </c>
       <c r="Q42" s="42" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="R42" s="32" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="S42" s="7" t="str">
         <f t="shared" ref="S42:S46" si="26">R42</f>
@@ -4466,33 +4470,33 @@
       <c r="H43" s="1"/>
       <c r="I43" s="38"/>
       <c r="J43" s="42" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K43" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L43" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Regionalwise detailed reports&lt;br&gt;(지역별 상세 보고서)</v>
       </c>
       <c r="M43" s="42" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="N43" s="51" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O43" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="P43" s="7" t="str">
         <f t="shared" si="6"/>
         <v>Report of Notice Issued&lt;br&gt;(발행된 통지서 보고서)</v>
       </c>
       <c r="Q43" s="42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="R43" s="32" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="S43" s="7" t="str">
         <f t="shared" si="26"/>
@@ -4520,20 +4524,20 @@
       <c r="L44" s="1"/>
       <c r="M44" s="42"/>
       <c r="N44" s="51" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O44" s="42" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="P44" s="7" t="str">
         <f t="shared" si="6"/>
         <v>Summary by Asset Category&lt;br&gt;(자산 분류별 요약)</v>
       </c>
       <c r="Q44" s="42" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="R44" s="32" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="S44" s="7" t="str">
         <f t="shared" si="26"/>
@@ -4561,20 +4565,20 @@
       <c r="L45" s="1"/>
       <c r="M45" s="42"/>
       <c r="N45" s="51" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O45" s="42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="P45" s="7" t="str">
         <f t="shared" si="6"/>
         <v>Aging analysis (Auction Days)&lt;br&gt;(노후 분석(경매일 기준))</v>
       </c>
       <c r="Q45" s="42" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="R45" s="32" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="S45" s="7" t="str">
         <f t="shared" si="26"/>
@@ -4598,33 +4602,33 @@
       <c r="H46" s="1"/>
       <c r="I46" s="38"/>
       <c r="J46" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K46" s="42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="L46" s="1" t="str">
         <f t="shared" si="5"/>
         <v>Detailed report&lt;br&gt;(상세 보고서)</v>
       </c>
       <c r="M46" s="42" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="N46" s="51" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="O46" s="42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="P46" s="7" t="str">
         <f t="shared" si="6"/>
         <v>Detailed Report of Intention to Sell Charged Assets&lt;br&gt;(담보자산 매각의향 상세 보고서)</v>
       </c>
       <c r="Q46" s="42" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="R46" s="32" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="S46" s="7" t="str">
         <f t="shared" si="26"/>
@@ -6849,7 +6853,7 @@
         <v>357</v>
       </c>
       <c r="O89" s="40" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="P89" s="1" t="str">
         <f t="shared" ref="P89:P138" si="36">IF(Q89&lt;&gt;"",Q89&amp;"&lt;br&gt;("&amp;O89&amp;")","")</f>
@@ -6900,7 +6904,7 @@
         <v>358</v>
       </c>
       <c r="O90" s="38" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P90" s="1" t="str">
         <f t="shared" si="36"/>
@@ -6951,7 +6955,7 @@
         <v>359</v>
       </c>
       <c r="O91" s="38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="P91" s="1" t="str">
         <f t="shared" si="36"/>
@@ -7002,7 +7006,7 @@
         <v>360</v>
       </c>
       <c r="O92" s="38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P92" s="1" t="str">
         <f t="shared" si="36"/>
@@ -7059,7 +7063,7 @@
         <v>361</v>
       </c>
       <c r="O93" s="40" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P93" s="1" t="str">
         <f t="shared" si="36"/>
@@ -7110,7 +7114,7 @@
         <v>362</v>
       </c>
       <c r="O94" s="38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="P94" s="1" t="str">
         <f t="shared" si="36"/>
@@ -7161,7 +7165,7 @@
         <v>363</v>
       </c>
       <c r="O95" s="38" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="P95" s="1" t="str">
         <f t="shared" si="36"/>
@@ -7212,7 +7216,7 @@
         <v>364</v>
       </c>
       <c r="O96" s="38" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="P96" s="1" t="str">
         <f t="shared" si="36"/>
@@ -7263,7 +7267,7 @@
         <v>365</v>
       </c>
       <c r="O97" s="38" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="P97" s="1" t="str">
         <f t="shared" si="36"/>

--- a/HTML-MAKER/00-UI-DMC-MENU.xlsx
+++ b/HTML-MAKER/00-UI-DMC-MENU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\25_IDRAS\IDRAS_DMC_2ND_HTML\HTML-MAKER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CEA8FC-914C-4B43-B6E2-4FB7C88EA3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2099CBD8-B677-482A-8E36-31F34DB53A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4845" yWindow="12495" windowWidth="43605" windowHeight="15165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2030,15 +2030,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>609600</xdr:colOff>
+          <xdr:colOff>435665</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:rowOff>207065</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>13</xdr:col>
-          <xdr:colOff>1524000</xdr:colOff>
+          <xdr:colOff>1140515</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>466725</xdr:rowOff>
+          <xdr:rowOff>483290</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -2129,8 +2129,8 @@
       <definedName name="MakeMenuJson"/>
     </definedNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2339,7 +2339,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N18" sqref="N18"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -9489,15 +9489,15 @@
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
                     <xdr:col>13</xdr:col>
-                    <xdr:colOff>609600</xdr:colOff>
+                    <xdr:colOff>438150</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>190500</xdr:rowOff>
+                    <xdr:rowOff>209550</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>13</xdr:col>
-                    <xdr:colOff>1524000</xdr:colOff>
+                    <xdr:colOff>1143000</xdr:colOff>
                     <xdr:row>0</xdr:row>
-                    <xdr:rowOff>466725</xdr:rowOff>
+                    <xdr:rowOff>485775</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
